--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F2700F-D7D3-44C5-9915-B2C441CA770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F19D0EE-C774-FF49-8F0E-C1F032C26FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26280" yWindow="1740" windowWidth="25155" windowHeight="18300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="41" r:id="rId1"/>
@@ -46,8 +46,8 @@
   </sheets>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <customWorkbookViews>
+    <customWorkbookView name="Martin Shkreli - Personal View" guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1250" windowHeight="882" activeSheetId="15"/>
     <customWorkbookView name="David Zheng - Personal View" guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="628" activeSheetId="4"/>
-    <customWorkbookView name="Martin Shkreli - Personal View" guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1250" windowHeight="882" activeSheetId="15"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4677,20 +4677,20 @@
       <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" style="164" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="162" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="95"/>
       <c r="B2" s="95" t="s">
         <v>140</v>
@@ -4720,7 +4720,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="162" t="s">
         <v>164</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="95" t="s">
         <v>679</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>264</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="G5" s="89"/>
       <c r="H5" s="89"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>678</v>
       </c>
@@ -4791,7 +4791,7 @@
       <c r="G6" s="89"/>
       <c r="H6" s="89"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="163" t="s">
         <v>586</v>
       </c>
@@ -4805,7 +4805,7 @@
       <c r="F7" s="89"/>
       <c r="G7" s="89"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="163" t="s">
         <v>709</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>203094</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="95" t="s">
         <v>706</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="95" t="s">
         <v>715</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" s="32" t="s">
         <v>368</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="32" t="s">
         <v>148</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="32" t="s">
         <v>146</v>
       </c>
@@ -4903,19 +4903,19 @@
       </c>
       <c r="G13" s="118"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="95" t="s">
         <v>503</v>
       </c>
       <c r="C20" s="95"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="95" t="s">
         <v>634</v>
       </c>
       <c r="C21" s="95"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="99" t="s">
         <v>504</v>
       </c>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="5" t="s">
         <v>321</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="96" t="s">
         <v>764</v>
       </c>
@@ -4988,19 +4988,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
@@ -5008,12 +5008,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>138</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>143</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
@@ -5037,55 +5037,55 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="34" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" s="16" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" s="34"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" s="34" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="34" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="34" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>200</v>
       </c>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="J21" s="6" t="s">
         <v>223</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>199</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="I23" s="42">
         <v>39087</v>
       </c>
@@ -5127,44 +5127,44 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>198</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="34" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>347</v>
       </c>
@@ -5193,20 +5193,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5230,17 +5230,17 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>138</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -5256,72 +5256,72 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="34" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="34" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C20" s="34" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C21" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C22" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C24" s="34" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D29" s="6" t="s">
         <v>222</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D30" s="6" t="s">
         <v>223</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C31" s="42">
         <v>39094</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C32" s="42">
         <v>39087</v>
       </c>
@@ -5381,16 +5381,16 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C36" s="34" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C38" s="34" t="s">
         <v>421</v>
       </c>
@@ -5413,18 +5413,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="95" t="s">
         <v>140</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="95" t="s">
         <v>141</v>
       </c>
@@ -5440,12 +5440,12 @@
         <v>630</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="95" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="121" t="s">
         <v>631</v>
       </c>
@@ -5464,22 +5464,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="6"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="13" width="9.1640625" style="6"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>138</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>142</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>193</v>
       </c>
@@ -5519,12 +5519,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>138</v>
       </c>
@@ -5532,13 +5532,13 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="92"/>
       <c r="J9" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J10" s="6" t="s">
         <v>223</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I11" s="42">
         <v>39094</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="J12" s="18">
         <f>J11/1.14</f>
         <v>7803.5087719298253</v>
@@ -5585,12 +5585,12 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="40" t="s">
         <v>204</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>0.62009803921568629</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>0.37990196078431371</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
@@ -5635,17 +5635,17 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>221</v>
       </c>
@@ -5666,17 +5666,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="95" t="s">
         <v>54</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="95" t="s">
         <v>53</v>
       </c>
@@ -5711,17 +5711,17 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C2" s="14" t="s">
         <v>145</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
         <v>395</v>
       </c>
@@ -5752,7 +5752,7 @@
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
         <v>396</v>
       </c>
@@ -5763,7 +5763,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>397</v>
       </c>
@@ -5774,7 +5774,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>398</v>
       </c>
@@ -5785,7 +5785,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="14" t="s">
         <v>399</v>
       </c>
@@ -5796,7 +5796,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="14" t="s">
         <v>400</v>
       </c>
@@ -5807,7 +5807,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="14" t="s">
         <v>401</v>
       </c>
@@ -5818,7 +5818,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="14" t="s">
         <v>402</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
         <v>403</v>
       </c>
@@ -5846,7 +5846,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
         <v>394</v>
       </c>
@@ -5863,7 +5863,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="14" t="s">
         <v>393</v>
       </c>
@@ -5874,7 +5874,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="14" t="s">
         <v>383</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="14" t="s">
         <v>384</v>
       </c>
@@ -5896,7 +5896,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="14" t="s">
         <v>385</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="14" t="s">
         <v>386</v>
       </c>
@@ -5918,7 +5918,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="14" t="s">
         <v>387</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
         <v>388</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="14" t="s">
         <v>389</v>
       </c>
@@ -5951,7 +5951,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="14" t="s">
         <v>390</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="14" t="s">
         <v>391</v>
       </c>
@@ -5973,7 +5973,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="14" t="s">
         <v>392</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="14" t="s">
         <v>382</v>
       </c>
@@ -5995,7 +5995,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="14" t="s">
         <v>381</v>
       </c>
@@ -6006,7 +6006,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="14" t="s">
         <v>369</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="14" t="s">
         <v>370</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="14" t="s">
         <v>371</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="14" t="s">
         <v>372</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="14" t="s">
         <v>373</v>
       </c>
@@ -6140,44 +6140,44 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="55"/>
-    <col min="2" max="2" width="9.140625" style="72"/>
-    <col min="3" max="3" width="3.28515625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="55"/>
+    <col min="1" max="1" width="9.1640625" style="55"/>
+    <col min="2" max="2" width="9.1640625" style="72"/>
+    <col min="3" max="3" width="3.33203125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="55"/>
     <col min="5" max="5" width="11" style="55" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="55" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="55"/>
-    <col min="9" max="16" width="9.140625" style="7"/>
-    <col min="17" max="18" width="9.140625" style="55"/>
-    <col min="19" max="19" width="8.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="55"/>
-    <col min="22" max="22" width="9.140625" style="7"/>
-    <col min="23" max="30" width="9.140625" style="55"/>
-    <col min="31" max="31" width="7.42578125" style="55" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="7"/>
-    <col min="35" max="40" width="10.28515625" style="56" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" style="56"/>
-    <col min="42" max="42" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.140625" style="55"/>
-    <col min="44" max="44" width="10.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="55"/>
+    <col min="9" max="16" width="9.1640625" style="7"/>
+    <col min="17" max="18" width="9.1640625" style="55"/>
+    <col min="19" max="19" width="8.1640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="55"/>
+    <col min="22" max="22" width="9.1640625" style="7"/>
+    <col min="23" max="30" width="9.1640625" style="55"/>
+    <col min="31" max="31" width="7.5" style="55" customWidth="1"/>
+    <col min="32" max="32" width="11.1640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.1640625" style="7"/>
+    <col min="35" max="40" width="10.33203125" style="56" customWidth="1"/>
+    <col min="41" max="41" width="9.1640625" style="56"/>
+    <col min="42" max="42" width="10.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.1640625" style="55"/>
+    <col min="44" max="44" width="10.1640625" style="55" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" style="56" customWidth="1"/>
-    <col min="46" max="46" width="9.140625" style="55"/>
-    <col min="47" max="47" width="9.140625" style="7"/>
-    <col min="48" max="16384" width="9.140625" style="55"/>
+    <col min="46" max="46" width="9.1640625" style="55"/>
+    <col min="47" max="47" width="9.1640625" style="7"/>
+    <col min="48" max="16384" width="9.1640625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A1" s="67" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.15">
       <c r="E2" s="56" t="s">
         <v>5</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="73"/>
       <c r="D3" s="56" t="s">
         <v>223</v>
@@ -6335,7 +6335,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="74">
         <v>38359</v>
       </c>
@@ -6396,7 +6396,7 @@
       <c r="AZ4" s="25"/>
       <c r="BA4" s="25"/>
     </row>
-    <row r="5" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B5" s="74">
         <v>38366</v>
       </c>
@@ -6466,7 +6466,7 @@
       <c r="AZ5" s="25"/>
       <c r="BA5" s="25"/>
     </row>
-    <row r="6" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="74">
         <v>38373</v>
       </c>
@@ -6536,7 +6536,7 @@
       <c r="AZ6" s="25"/>
       <c r="BA6" s="25"/>
     </row>
-    <row r="7" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="74">
         <v>38380</v>
       </c>
@@ -6618,7 +6618,7 @@
       <c r="AZ7" s="25"/>
       <c r="BA7" s="25"/>
     </row>
-    <row r="8" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="60"/>
       <c r="B8" s="74">
         <v>38387</v>
@@ -6689,7 +6689,7 @@
       <c r="AZ8" s="25"/>
       <c r="BA8" s="25"/>
     </row>
-    <row r="9" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="60"/>
       <c r="B9" s="74">
         <v>38394</v>
@@ -6760,7 +6760,7 @@
       <c r="AZ9" s="25"/>
       <c r="BA9" s="25"/>
     </row>
-    <row r="10" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="60"/>
       <c r="B10" s="74">
         <v>38401</v>
@@ -6831,7 +6831,7 @@
       <c r="AZ10" s="25"/>
       <c r="BA10" s="25"/>
     </row>
-    <row r="11" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="60"/>
       <c r="B11" s="74">
         <v>38408</v>
@@ -6923,7 +6923,7 @@
       <c r="AZ11" s="25"/>
       <c r="BA11" s="25"/>
     </row>
-    <row r="12" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="60"/>
       <c r="B12" s="74">
         <v>38415</v>
@@ -6994,7 +6994,7 @@
       <c r="AZ12" s="25"/>
       <c r="BA12" s="25"/>
     </row>
-    <row r="13" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
       <c r="B13" s="74">
         <v>38422</v>
@@ -7065,7 +7065,7 @@
       <c r="AZ13" s="25"/>
       <c r="BA13" s="25"/>
     </row>
-    <row r="14" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="60"/>
       <c r="B14" s="74">
         <v>38429</v>
@@ -7136,7 +7136,7 @@
       <c r="AZ14" s="25"/>
       <c r="BA14" s="25"/>
     </row>
-    <row r="15" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="60"/>
       <c r="B15" s="74">
         <v>38436</v>
@@ -7255,7 +7255,7 @@
       <c r="AZ15" s="25"/>
       <c r="BA15" s="25"/>
     </row>
-    <row r="16" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="60"/>
       <c r="B16" s="74">
         <v>38443</v>
@@ -7326,7 +7326,7 @@
       <c r="AZ16" s="25"/>
       <c r="BA16" s="25"/>
     </row>
-    <row r="17" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="60"/>
       <c r="B17" s="74">
         <v>38450</v>
@@ -7397,7 +7397,7 @@
       <c r="AZ17" s="25"/>
       <c r="BA17" s="25"/>
     </row>
-    <row r="18" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="60"/>
       <c r="B18" s="74">
         <v>38457</v>
@@ -7468,7 +7468,7 @@
       <c r="AZ18" s="25"/>
       <c r="BA18" s="25"/>
     </row>
-    <row r="19" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="60"/>
       <c r="B19" s="74">
         <v>38464</v>
@@ -7539,7 +7539,7 @@
       <c r="AZ19" s="25"/>
       <c r="BA19" s="25"/>
     </row>
-    <row r="20" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="60"/>
       <c r="B20" s="74">
         <v>38471</v>
@@ -7631,7 +7631,7 @@
       <c r="AZ20" s="25"/>
       <c r="BA20" s="25"/>
     </row>
-    <row r="21" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="60"/>
       <c r="B21" s="74">
         <v>38478</v>
@@ -7702,7 +7702,7 @@
       <c r="AZ21" s="25"/>
       <c r="BA21" s="25"/>
     </row>
-    <row r="22" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="60"/>
       <c r="B22" s="74">
         <v>38485</v>
@@ -7773,7 +7773,7 @@
       <c r="AZ22" s="25"/>
       <c r="BA22" s="25"/>
     </row>
-    <row r="23" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="60"/>
       <c r="B23" s="74">
         <v>38492</v>
@@ -7844,7 +7844,7 @@
       <c r="AZ23" s="25"/>
       <c r="BA23" s="25"/>
     </row>
-    <row r="24" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="60"/>
       <c r="B24" s="74">
         <v>38499</v>
@@ -7936,7 +7936,7 @@
       <c r="AZ24" s="25"/>
       <c r="BA24" s="25"/>
     </row>
-    <row r="25" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="60"/>
       <c r="B25" s="74">
         <v>38506</v>
@@ -8007,7 +8007,7 @@
       <c r="AZ25" s="25"/>
       <c r="BA25" s="25"/>
     </row>
-    <row r="26" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
       <c r="B26" s="74">
         <v>38513</v>
@@ -8078,7 +8078,7 @@
       <c r="AZ26" s="25"/>
       <c r="BA26" s="25"/>
     </row>
-    <row r="27" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
       <c r="B27" s="74">
         <v>38520</v>
@@ -8149,7 +8149,7 @@
       <c r="AZ27" s="25"/>
       <c r="BA27" s="25"/>
     </row>
-    <row r="28" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
       <c r="B28" s="74">
         <v>38527</v>
@@ -8277,7 +8277,7 @@
       <c r="AZ28" s="25"/>
       <c r="BA28" s="25"/>
     </row>
-    <row r="29" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
       <c r="B29" s="74">
         <v>38534</v>
@@ -8348,7 +8348,7 @@
       <c r="AZ29" s="25"/>
       <c r="BA29" s="25"/>
     </row>
-    <row r="30" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
       <c r="B30" s="74">
         <v>38541</v>
@@ -8419,7 +8419,7 @@
       <c r="AZ30" s="25"/>
       <c r="BA30" s="25"/>
     </row>
-    <row r="31" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
       <c r="B31" s="74">
         <v>38548</v>
@@ -8490,7 +8490,7 @@
       <c r="AZ31" s="25"/>
       <c r="BA31" s="25"/>
     </row>
-    <row r="32" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
       <c r="B32" s="74">
         <v>38555</v>
@@ -8561,7 +8561,7 @@
       <c r="AZ32" s="25"/>
       <c r="BA32" s="25"/>
     </row>
-    <row r="33" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="60"/>
       <c r="B33" s="74">
         <v>38562</v>
@@ -8653,7 +8653,7 @@
       <c r="AZ33" s="25"/>
       <c r="BA33" s="25"/>
     </row>
-    <row r="34" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="60"/>
       <c r="B34" s="74">
         <v>38569</v>
@@ -8724,7 +8724,7 @@
       <c r="AZ34" s="25"/>
       <c r="BA34" s="25"/>
     </row>
-    <row r="35" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="60"/>
       <c r="B35" s="74">
         <v>38576</v>
@@ -8795,7 +8795,7 @@
       <c r="AZ35" s="25"/>
       <c r="BA35" s="25"/>
     </row>
-    <row r="36" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="60"/>
       <c r="B36" s="74">
         <v>38583</v>
@@ -8866,7 +8866,7 @@
       <c r="AZ36" s="25"/>
       <c r="BA36" s="25"/>
     </row>
-    <row r="37" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="60"/>
       <c r="B37" s="74">
         <v>38590</v>
@@ -8958,7 +8958,7 @@
       <c r="AZ37" s="25"/>
       <c r="BA37" s="25"/>
     </row>
-    <row r="38" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="60"/>
       <c r="B38" s="74">
         <v>38597</v>
@@ -9029,7 +9029,7 @@
       <c r="AZ38" s="25"/>
       <c r="BA38" s="25"/>
     </row>
-    <row r="39" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="60"/>
       <c r="B39" s="74">
         <v>38604</v>
@@ -9100,7 +9100,7 @@
       <c r="AZ39" s="25"/>
       <c r="BA39" s="25"/>
     </row>
-    <row r="40" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="60"/>
       <c r="B40" s="74">
         <v>38611</v>
@@ -9171,7 +9171,7 @@
       <c r="AZ40" s="25"/>
       <c r="BA40" s="25"/>
     </row>
-    <row r="41" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="60"/>
       <c r="B41" s="74">
         <v>38618</v>
@@ -9242,7 +9242,7 @@
       <c r="AZ41" s="25"/>
       <c r="BA41" s="25"/>
     </row>
-    <row r="42" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="60"/>
       <c r="B42" s="74">
         <v>38625</v>
@@ -9373,7 +9373,7 @@
       <c r="AZ42" s="25"/>
       <c r="BA42" s="25"/>
     </row>
-    <row r="43" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="60"/>
       <c r="B43" s="74">
         <v>38632</v>
@@ -9444,7 +9444,7 @@
       <c r="AZ43" s="25"/>
       <c r="BA43" s="25"/>
     </row>
-    <row r="44" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="60"/>
       <c r="B44" s="74">
         <v>38639</v>
@@ -9515,7 +9515,7 @@
       <c r="AZ44" s="25"/>
       <c r="BA44" s="25"/>
     </row>
-    <row r="45" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="60"/>
       <c r="B45" s="74">
         <v>38646</v>
@@ -9586,7 +9586,7 @@
       <c r="AZ45" s="25"/>
       <c r="BA45" s="25"/>
     </row>
-    <row r="46" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="60"/>
       <c r="B46" s="74">
         <v>38653</v>
@@ -9678,7 +9678,7 @@
       <c r="AZ46" s="25"/>
       <c r="BA46" s="25"/>
     </row>
-    <row r="47" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="60"/>
       <c r="B47" s="74">
         <v>38660</v>
@@ -9749,7 +9749,7 @@
       <c r="AZ47" s="25"/>
       <c r="BA47" s="25"/>
     </row>
-    <row r="48" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="60"/>
       <c r="B48" s="74">
         <v>38667</v>
@@ -9820,7 +9820,7 @@
       <c r="AZ48" s="25"/>
       <c r="BA48" s="25"/>
     </row>
-    <row r="49" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="60"/>
       <c r="B49" s="74">
         <v>38674</v>
@@ -9891,7 +9891,7 @@
       <c r="AZ49" s="25"/>
       <c r="BA49" s="25"/>
     </row>
-    <row r="50" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="60"/>
       <c r="B50" s="74">
         <v>38681</v>
@@ -9983,7 +9983,7 @@
       <c r="AZ50" s="25"/>
       <c r="BA50" s="25"/>
     </row>
-    <row r="51" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="60"/>
       <c r="B51" s="74">
         <v>38688</v>
@@ -10054,7 +10054,7 @@
       <c r="AZ51" s="25"/>
       <c r="BA51" s="25"/>
     </row>
-    <row r="52" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="60"/>
       <c r="B52" s="74">
         <v>38695</v>
@@ -10125,7 +10125,7 @@
       <c r="AZ52" s="25"/>
       <c r="BA52" s="25"/>
     </row>
-    <row r="53" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="60"/>
       <c r="B53" s="74">
         <v>38702</v>
@@ -10196,7 +10196,7 @@
       <c r="AZ53" s="25"/>
       <c r="BA53" s="25"/>
     </row>
-    <row r="54" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="60"/>
       <c r="B54" s="74">
         <v>38709</v>
@@ -10267,7 +10267,7 @@
       <c r="AZ54" s="25"/>
       <c r="BA54" s="25"/>
     </row>
-    <row r="55" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="60"/>
       <c r="B55" s="74">
         <v>38716</v>
@@ -10398,7 +10398,7 @@
       <c r="AZ55" s="25"/>
       <c r="BA55" s="25"/>
     </row>
-    <row r="56" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="60"/>
       <c r="B56" s="74">
         <v>38723</v>
@@ -10478,7 +10478,7 @@
         <v>0.31529850746268662</v>
       </c>
     </row>
-    <row r="57" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="60"/>
       <c r="B57" s="74">
         <v>38730</v>
@@ -10558,7 +10558,7 @@
         <v>0.35723486474881927</v>
       </c>
     </row>
-    <row r="58" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="60"/>
       <c r="B58" s="74">
         <v>38737</v>
@@ -10638,7 +10638,7 @@
         <v>0.30085316569375853</v>
       </c>
     </row>
-    <row r="59" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="60"/>
       <c r="B59" s="74">
         <v>38744</v>
@@ -10739,7 +10739,7 @@
         <v>0.34997730367680435</v>
       </c>
     </row>
-    <row r="60" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="60"/>
       <c r="B60" s="74">
         <v>38751</v>
@@ -10819,7 +10819,7 @@
         <v>0.21410579345088165</v>
       </c>
     </row>
-    <row r="61" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="60"/>
       <c r="B61" s="74">
         <v>38758</v>
@@ -10899,7 +10899,7 @@
         <v>0.37227272727272731</v>
       </c>
     </row>
-    <row r="62" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="60"/>
       <c r="B62" s="74">
         <v>38765</v>
@@ -10979,7 +10979,7 @@
         <v>0.2437603993344426</v>
       </c>
     </row>
-    <row r="63" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="60"/>
       <c r="B63" s="74">
         <v>38772</v>
@@ -11080,7 +11080,7 @@
         <v>0.2797202797202798</v>
       </c>
     </row>
-    <row r="64" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="60"/>
       <c r="B64" s="74">
         <v>38779</v>
@@ -11160,7 +11160,7 @@
         <v>0.1874761359297441</v>
       </c>
     </row>
-    <row r="65" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="60"/>
       <c r="B65" s="74">
         <v>38786</v>
@@ -11249,7 +11249,7 @@
         <v>0.33589087809036666</v>
       </c>
     </row>
-    <row r="66" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="60"/>
       <c r="B66" s="74">
         <v>38793</v>
@@ -11329,7 +11329,7 @@
         <v>0.24947764312578347</v>
       </c>
     </row>
-    <row r="67" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="60"/>
       <c r="B67" s="74">
         <v>38800</v>
@@ -11409,7 +11409,7 @@
         <v>0.24701195219123506</v>
       </c>
     </row>
-    <row r="68" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="60"/>
       <c r="B68" s="74">
         <v>38807</v>
@@ -11549,7 +11549,7 @@
         <v>0.27730736663844202</v>
       </c>
     </row>
-    <row r="69" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="60"/>
       <c r="B69" s="74">
         <v>38814</v>
@@ -11629,7 +11629,7 @@
         <v>0.30165975103734444</v>
       </c>
     </row>
-    <row r="70" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="60"/>
       <c r="B70" s="74">
         <v>38821</v>
@@ -11718,7 +11718,7 @@
         <v>0.26976012583562725</v>
       </c>
     </row>
-    <row r="71" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="60"/>
       <c r="B71" s="74">
         <v>38828</v>
@@ -11798,7 +11798,7 @@
         <v>0.22646937936703648</v>
       </c>
     </row>
-    <row r="72" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="60"/>
       <c r="B72" s="74">
         <v>38835</v>
@@ -11899,7 +11899,7 @@
         <v>0.26424242424242417</v>
       </c>
     </row>
-    <row r="73" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="60"/>
       <c r="B73" s="74">
         <v>38842</v>
@@ -11979,7 +11979,7 @@
         <v>0.24841269841269842</v>
       </c>
     </row>
-    <row r="74" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="60"/>
       <c r="B74" s="74">
         <v>38849</v>
@@ -12068,7 +12068,7 @@
         <v>0.28613199665831246</v>
       </c>
     </row>
-    <row r="75" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="60"/>
       <c r="B75" s="74">
         <v>38856</v>
@@ -12148,7 +12148,7 @@
         <v>0.31398747390396653</v>
       </c>
     </row>
-    <row r="76" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="60"/>
       <c r="B76" s="74">
         <v>38863</v>
@@ -12249,7 +12249,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="60"/>
       <c r="B77" s="74">
         <v>38870</v>
@@ -12329,7 +12329,7 @@
         <v>0.21818907060231352</v>
       </c>
     </row>
-    <row r="78" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="60"/>
       <c r="B78" s="74">
         <v>38877</v>
@@ -12418,7 +12418,7 @@
         <v>0.23886328725038397</v>
       </c>
     </row>
-    <row r="79" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="60"/>
       <c r="B79" s="74">
         <v>38884</v>
@@ -12498,7 +12498,7 @@
         <v>0.28233830845771135</v>
       </c>
     </row>
-    <row r="80" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="60"/>
       <c r="B80" s="74">
         <v>38891</v>
@@ -12578,7 +12578,7 @@
         <v>0.30069643588693151</v>
       </c>
     </row>
-    <row r="81" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="60"/>
       <c r="B81" s="74">
         <v>38898</v>
@@ -12718,7 +12718,7 @@
         <v>0.17913669064748206</v>
       </c>
     </row>
-    <row r="82" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="60"/>
       <c r="B82" s="74">
         <v>38905</v>
@@ -12798,7 +12798,7 @@
         <v>0.26476662536142093</v>
       </c>
     </row>
-    <row r="83" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="60"/>
       <c r="B83" s="74">
         <v>38912</v>
@@ -12887,7 +12887,7 @@
         <v>0.21155983697665803</v>
       </c>
     </row>
-    <row r="84" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="60"/>
       <c r="B84" s="74">
         <v>38919</v>
@@ -12976,7 +12976,7 @@
         <v>0.25493354812726543</v>
       </c>
     </row>
-    <row r="85" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="60"/>
       <c r="B85" s="74">
         <v>38926</v>
@@ -13093,7 +13093,7 @@
         <v>0.20147802411513038</v>
       </c>
     </row>
-    <row r="86" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="60"/>
       <c r="B86" s="74">
         <v>38933</v>
@@ -13185,7 +13185,7 @@
         <v>0.21377493413624382</v>
       </c>
     </row>
-    <row r="87" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="60"/>
       <c r="B87" s="74">
         <v>38940</v>
@@ -13286,7 +13286,7 @@
         <v>0.22044013427825448</v>
       </c>
     </row>
-    <row r="88" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="60"/>
       <c r="B88" s="74">
         <v>38947</v>
@@ -13378,7 +13378,7 @@
         <v>0.19290465631929044</v>
       </c>
     </row>
-    <row r="89" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="60"/>
       <c r="B89" s="74">
         <v>38954</v>
@@ -13498,7 +13498,7 @@
         <v>0.16145641780066211</v>
       </c>
     </row>
-    <row r="90" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="60"/>
       <c r="B90" s="74">
         <v>38961</v>
@@ -13590,7 +13590,7 @@
         <v>9.3197278911564707E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="60"/>
       <c r="B91" s="74">
         <v>38968</v>
@@ -13691,7 +13691,7 @@
         <v>0.26927502876869958</v>
       </c>
     </row>
-    <row r="92" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="60"/>
       <c r="B92" s="74">
         <v>38975</v>
@@ -13783,7 +13783,7 @@
         <v>0.17771794008751263</v>
       </c>
     </row>
-    <row r="93" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="60"/>
       <c r="B93" s="74">
         <v>38982</v>
@@ -13875,7 +13875,7 @@
         <v>0.2036101083032491</v>
       </c>
     </row>
-    <row r="94" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="60"/>
       <c r="B94" s="74">
         <v>38989</v>
@@ -14044,7 +14044,7 @@
         <v>0.1020338983050848</v>
       </c>
     </row>
-    <row r="95" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="60"/>
       <c r="B95" s="74">
         <v>38996</v>
@@ -14136,7 +14136,7 @@
         <v>0.17885906040268451</v>
       </c>
     </row>
-    <row r="96" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="60"/>
       <c r="B96" s="74">
         <v>39003</v>
@@ -14237,7 +14237,7 @@
         <v>0.17890382626680457</v>
       </c>
     </row>
-    <row r="97" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="60"/>
       <c r="B97" s="74">
         <v>39010</v>
@@ -14329,7 +14329,7 @@
         <v>0.20549927641099863</v>
       </c>
     </row>
-    <row r="98" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="60"/>
       <c r="B98" s="74">
         <v>39017</v>
@@ -14449,7 +14449,7 @@
         <v>0.1188692098092643</v>
       </c>
     </row>
-    <row r="99" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="60"/>
       <c r="B99" s="74">
         <v>39024</v>
@@ -14541,7 +14541,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="100" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="60"/>
       <c r="B100" s="74">
         <v>39031</v>
@@ -14642,7 +14642,7 @@
         <v>0.18980074299223237</v>
       </c>
     </row>
-    <row r="101" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="60"/>
       <c r="B101" s="74">
         <v>39038</v>
@@ -14734,7 +14734,7 @@
         <v>0.17186440677966108</v>
       </c>
     </row>
-    <row r="102" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="60"/>
       <c r="B102" s="74">
         <v>39045</v>
@@ -14854,7 +14854,7 @@
         <v>0.16834639790966777</v>
       </c>
     </row>
-    <row r="103" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="60"/>
       <c r="B103" s="74">
         <v>39052</v>
@@ -14946,7 +14946,7 @@
         <v>0.1629088599555415</v>
       </c>
     </row>
-    <row r="104" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="60"/>
       <c r="B104" s="74">
         <v>39059</v>
@@ -15038,7 +15038,7 @@
         <v>0.21472792440534372</v>
       </c>
     </row>
-    <row r="105" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="60"/>
       <c r="B105" s="74">
         <v>39066</v>
@@ -15139,7 +15139,7 @@
         <v>0.17038269550748741</v>
       </c>
     </row>
-    <row r="106" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="60"/>
       <c r="B106" s="74">
         <v>39073</v>
@@ -15231,7 +15231,7 @@
         <v>0.1507633587786259</v>
       </c>
     </row>
-    <row r="107" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="60"/>
       <c r="B107" s="74">
         <v>39080</v>
@@ -15403,7 +15403,7 @@
         <v>9.1322603219034182E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="60"/>
       <c r="B108" s="74">
         <v>39087</v>
@@ -15511,7 +15511,7 @@
         <v>0.20921985815602828</v>
       </c>
     </row>
-    <row r="109" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="60"/>
       <c r="B109" s="74">
         <v>39094</v>
@@ -15612,7 +15612,7 @@
         <v>0.16323948117684273</v>
       </c>
     </row>
-    <row r="110" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="60"/>
       <c r="B110" s="74">
         <v>39101</v>
@@ -15704,7 +15704,7 @@
         <v>0.17466344494304442</v>
       </c>
     </row>
-    <row r="111" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="60"/>
       <c r="B111" s="74">
         <v>39108</v>
@@ -15824,7 +15824,7 @@
         <v>0.14525891055817075</v>
       </c>
     </row>
-    <row r="112" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="60"/>
       <c r="B112" s="74">
         <v>39115</v>
@@ -15916,7 +15916,7 @@
         <v>0.20712309820193631</v>
       </c>
     </row>
-    <row r="113" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="60"/>
       <c r="B113" s="74">
         <v>39122</v>
@@ -16017,7 +16017,7 @@
         <v>0.19211659489897315</v>
       </c>
     </row>
-    <row r="114" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="60"/>
       <c r="B114" s="74">
         <v>39129</v>
@@ -16109,7 +16109,7 @@
         <v>0.16120401337792645</v>
       </c>
     </row>
-    <row r="115" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="60"/>
       <c r="B115" s="74">
         <v>39136</v>
@@ -16229,7 +16229,7 @@
         <v>6.3645130183220822E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="60"/>
       <c r="B116" s="74">
         <v>39143</v>
@@ -16321,7 +16321,7 @@
         <v>0.20321543408360121</v>
       </c>
     </row>
-    <row r="117" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="60"/>
       <c r="B117" s="74">
         <v>39150</v>
@@ -16422,7 +16422,7 @@
         <v>0.20644543714103381</v>
       </c>
     </row>
-    <row r="118" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="60"/>
       <c r="B118" s="74">
         <v>39157</v>
@@ -16514,7 +16514,7 @@
         <v>0.18896321070234112</v>
       </c>
     </row>
-    <row r="119" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="60"/>
       <c r="B119" s="74">
         <v>39164</v>
@@ -16606,7 +16606,7 @@
         <v>9.2012779552715696E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="60"/>
       <c r="B120" s="74">
         <v>39171</v>
@@ -16778,7 +16778,7 @@
         <v>0.17732847199204516</v>
       </c>
     </row>
-    <row r="121" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="60"/>
       <c r="B121" s="74">
         <v>39178</v>
@@ -16886,7 +16886,7 @@
         <v>0.10360216767612362</v>
       </c>
     </row>
-    <row r="122" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="60"/>
       <c r="B122" s="74">
         <v>39185</v>
@@ -16987,7 +16987,7 @@
         <v>0.10777330442861577</v>
       </c>
     </row>
-    <row r="123" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="60"/>
       <c r="B123" s="74">
         <v>39192</v>
@@ -17079,7 +17079,7 @@
         <v>0.16487935656836461</v>
       </c>
     </row>
-    <row r="124" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="60"/>
       <c r="B124" s="74">
         <v>39199</v>
@@ -17199,7 +17199,7 @@
         <v>0.13646532438478753</v>
       </c>
     </row>
-    <row r="125" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="60"/>
       <c r="B125" s="74">
         <v>39206</v>
@@ -17291,7 +17291,7 @@
         <v>0.18436109345200258</v>
       </c>
     </row>
-    <row r="126" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="60"/>
       <c r="B126" s="74">
         <v>39213</v>
@@ -17392,7 +17392,7 @@
         <v>0.16693731731081529</v>
       </c>
     </row>
-    <row r="127" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="60"/>
       <c r="B127" s="74">
         <v>39220</v>
@@ -17484,7 +17484,7 @@
         <v>0.12043215761042259</v>
       </c>
     </row>
-    <row r="128" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="60"/>
       <c r="B128" s="74">
         <v>39227</v>
@@ -17604,7 +17604,7 @@
         <v>0.12718357339871278</v>
       </c>
     </row>
-    <row r="129" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="60"/>
       <c r="B129" s="74">
         <v>39234</v>
@@ -17696,7 +17696,7 @@
         <v>9.4957432874918091E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="60"/>
       <c r="B130" s="74">
         <v>39241</v>
@@ -17797,7 +17797,7 @@
         <v>0.17916924984500926</v>
       </c>
     </row>
-    <row r="131" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="60"/>
       <c r="B131" s="74">
         <v>39248</v>
@@ -17889,7 +17889,7 @@
         <v>0.19689621726479145</v>
       </c>
     </row>
-    <row r="132" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="60"/>
       <c r="B132" s="74">
         <v>39255</v>
@@ -17981,7 +17981,7 @@
         <v>0.11653543307086611</v>
       </c>
     </row>
-    <row r="133" spans="1:53" s="54" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:53" s="54" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="60"/>
       <c r="B133" s="74">
         <v>39262</v>
@@ -18153,7 +18153,7 @@
         <v>0.14338010982306293</v>
       </c>
     </row>
-    <row r="134" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="60"/>
       <c r="B134" s="74"/>
       <c r="G134" s="23">
@@ -18184,7 +18184,7 @@
       <c r="AH134" s="25"/>
       <c r="AU134" s="25"/>
     </row>
-    <row r="135" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="60"/>
       <c r="B135" s="74"/>
       <c r="I135" s="25"/>
@@ -18199,7 +18199,7 @@
       <c r="AH135" s="25"/>
       <c r="AU135" s="25"/>
     </row>
-    <row r="136" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="60"/>
       <c r="B136" s="74"/>
       <c r="I136" s="25"/>
@@ -18214,7 +18214,7 @@
       <c r="AH136" s="25"/>
       <c r="AU136" s="25"/>
     </row>
-    <row r="137" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="60"/>
       <c r="B137" s="74"/>
       <c r="I137" s="25"/>
@@ -18229,7 +18229,7 @@
       <c r="AH137" s="25"/>
       <c r="AU137" s="25"/>
     </row>
-    <row r="138" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B138" s="74"/>
       <c r="D138" s="61"/>
       <c r="E138" s="61"/>
@@ -18246,7 +18246,7 @@
       <c r="AH138" s="25"/>
       <c r="AU138" s="25"/>
     </row>
-    <row r="139" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B139" s="74"/>
       <c r="D139" s="68"/>
       <c r="E139" s="71" t="s">
@@ -18265,7 +18265,7 @@
       <c r="AH139" s="25"/>
       <c r="AU139" s="25"/>
     </row>
-    <row r="140" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B140" s="74"/>
       <c r="D140" s="68"/>
       <c r="E140" s="63"/>
@@ -18282,7 +18282,7 @@
       <c r="AH140" s="25"/>
       <c r="AU140" s="25"/>
     </row>
-    <row r="141" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B141" s="74"/>
       <c r="D141" s="61"/>
       <c r="E141" s="65" t="s">
@@ -18304,7 +18304,7 @@
       <c r="AH141" s="25"/>
       <c r="AU141" s="25"/>
     </row>
-    <row r="142" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B142" s="74"/>
       <c r="D142" s="61"/>
       <c r="E142" s="65" t="s">
@@ -18325,7 +18325,7 @@
       <c r="AH142" s="25"/>
       <c r="AU142" s="25"/>
     </row>
-    <row r="143" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B143" s="74"/>
       <c r="D143" s="61"/>
       <c r="E143" s="65" t="s">
@@ -18346,7 +18346,7 @@
       <c r="AH143" s="25"/>
       <c r="AU143" s="25"/>
     </row>
-    <row r="144" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:53" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B144" s="74"/>
       <c r="D144" s="61"/>
       <c r="E144" s="65" t="s">
@@ -18367,7 +18367,7 @@
       <c r="AH144" s="25"/>
       <c r="AU144" s="25"/>
     </row>
-    <row r="145" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B145" s="74"/>
       <c r="D145" s="61"/>
       <c r="E145" s="70" t="s">
@@ -18389,7 +18389,7 @@
       <c r="AH145" s="25"/>
       <c r="AU145" s="25"/>
     </row>
-    <row r="146" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B146" s="74"/>
       <c r="D146" s="61"/>
       <c r="E146" s="61"/>
@@ -18406,7 +18406,7 @@
       <c r="AH146" s="25"/>
       <c r="AU146" s="25"/>
     </row>
-    <row r="147" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B147" s="74"/>
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
@@ -18420,7 +18420,7 @@
       <c r="AH147" s="25"/>
       <c r="AU147" s="25"/>
     </row>
-    <row r="148" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B148" s="74"/>
       <c r="I148" s="25"/>
       <c r="J148" s="25"/>
@@ -18434,7 +18434,7 @@
       <c r="AH148" s="25"/>
       <c r="AU148" s="25"/>
     </row>
-    <row r="149" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B149" s="74"/>
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
@@ -18448,7 +18448,7 @@
       <c r="AH149" s="25"/>
       <c r="AU149" s="25"/>
     </row>
-    <row r="150" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B150" s="74"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
@@ -18462,7 +18462,7 @@
       <c r="AH150" s="25"/>
       <c r="AU150" s="25"/>
     </row>
-    <row r="151" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B151" s="74"/>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
@@ -18476,7 +18476,7 @@
       <c r="AH151" s="25"/>
       <c r="AU151" s="25"/>
     </row>
-    <row r="152" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B152" s="74"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
@@ -18490,7 +18490,7 @@
       <c r="AH152" s="25"/>
       <c r="AU152" s="25"/>
     </row>
-    <row r="153" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B153" s="74"/>
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
@@ -18504,7 +18504,7 @@
       <c r="AH153" s="25"/>
       <c r="AU153" s="25"/>
     </row>
-    <row r="154" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B154" s="74"/>
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
@@ -18518,7 +18518,7 @@
       <c r="AH154" s="25"/>
       <c r="AU154" s="25"/>
     </row>
-    <row r="155" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B155" s="74"/>
       <c r="G155" s="56"/>
       <c r="I155" s="25"/>
@@ -18544,7 +18544,7 @@
       <c r="AS155" s="56"/>
       <c r="AU155" s="25"/>
     </row>
-    <row r="156" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B156" s="74"/>
       <c r="G156" s="56"/>
       <c r="I156" s="25"/>
@@ -18570,7 +18570,7 @@
       <c r="AS156" s="56"/>
       <c r="AU156" s="25"/>
     </row>
-    <row r="157" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B157" s="74"/>
       <c r="G157" s="56"/>
       <c r="I157" s="25"/>
@@ -18596,7 +18596,7 @@
       <c r="AS157" s="56"/>
       <c r="AU157" s="25"/>
     </row>
-    <row r="158" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B158" s="74"/>
       <c r="G158" s="56"/>
       <c r="I158" s="25"/>
@@ -18622,7 +18622,7 @@
       <c r="AS158" s="56"/>
       <c r="AU158" s="25"/>
     </row>
-    <row r="159" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B159" s="74"/>
       <c r="G159" s="56"/>
       <c r="I159" s="25"/>
@@ -18648,7 +18648,7 @@
       <c r="AS159" s="56"/>
       <c r="AU159" s="25"/>
     </row>
-    <row r="160" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B160" s="74"/>
       <c r="G160" s="56"/>
       <c r="I160" s="25"/>
@@ -18674,7 +18674,7 @@
       <c r="AS160" s="56"/>
       <c r="AU160" s="25"/>
     </row>
-    <row r="161" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B161" s="74"/>
       <c r="G161" s="56"/>
       <c r="I161" s="25"/>
@@ -18700,7 +18700,7 @@
       <c r="AS161" s="56"/>
       <c r="AU161" s="25"/>
     </row>
-    <row r="162" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B162" s="74"/>
       <c r="G162" s="56"/>
       <c r="I162" s="25"/>
@@ -18726,7 +18726,7 @@
       <c r="AS162" s="56"/>
       <c r="AU162" s="25"/>
     </row>
-    <row r="163" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B163" s="74"/>
       <c r="G163" s="56"/>
       <c r="I163" s="25"/>
@@ -18752,7 +18752,7 @@
       <c r="AS163" s="56"/>
       <c r="AU163" s="25"/>
     </row>
-    <row r="164" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B164" s="74"/>
       <c r="G164" s="56"/>
       <c r="I164" s="25"/>
@@ -18778,7 +18778,7 @@
       <c r="AS164" s="56"/>
       <c r="AU164" s="25"/>
     </row>
-    <row r="165" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B165" s="74"/>
       <c r="G165" s="56"/>
       <c r="I165" s="25"/>
@@ -18804,7 +18804,7 @@
       <c r="AS165" s="56"/>
       <c r="AU165" s="25"/>
     </row>
-    <row r="166" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B166" s="74"/>
       <c r="G166" s="56"/>
       <c r="I166" s="25"/>
@@ -18830,7 +18830,7 @@
       <c r="AS166" s="56"/>
       <c r="AU166" s="25"/>
     </row>
-    <row r="167" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B167" s="74"/>
       <c r="G167" s="56"/>
       <c r="I167" s="25"/>
@@ -18856,7 +18856,7 @@
       <c r="AS167" s="56"/>
       <c r="AU167" s="25"/>
     </row>
-    <row r="168" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B168" s="74"/>
       <c r="G168" s="56"/>
       <c r="I168" s="25"/>
@@ -18882,7 +18882,7 @@
       <c r="AS168" s="56"/>
       <c r="AU168" s="25"/>
     </row>
-    <row r="169" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B169" s="74"/>
       <c r="G169" s="56"/>
       <c r="I169" s="25"/>
@@ -18908,7 +18908,7 @@
       <c r="AS169" s="56"/>
       <c r="AU169" s="25"/>
     </row>
-    <row r="170" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B170" s="74"/>
       <c r="G170" s="56"/>
       <c r="I170" s="25"/>
@@ -18934,7 +18934,7 @@
       <c r="AS170" s="56"/>
       <c r="AU170" s="25"/>
     </row>
-    <row r="171" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B171" s="74"/>
       <c r="G171" s="56"/>
       <c r="I171" s="25"/>
@@ -18960,7 +18960,7 @@
       <c r="AS171" s="56"/>
       <c r="AU171" s="25"/>
     </row>
-    <row r="172" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B172" s="74"/>
       <c r="G172" s="56"/>
       <c r="I172" s="25"/>
@@ -18986,7 +18986,7 @@
       <c r="AS172" s="56"/>
       <c r="AU172" s="25"/>
     </row>
-    <row r="173" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B173" s="74"/>
       <c r="G173" s="56"/>
       <c r="I173" s="25"/>
@@ -19012,7 +19012,7 @@
       <c r="AS173" s="56"/>
       <c r="AU173" s="25"/>
     </row>
-    <row r="174" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B174" s="74"/>
       <c r="G174" s="56"/>
       <c r="I174" s="25"/>
@@ -19038,7 +19038,7 @@
       <c r="AS174" s="56"/>
       <c r="AU174" s="25"/>
     </row>
-    <row r="175" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B175" s="74"/>
       <c r="G175" s="56"/>
       <c r="I175" s="25"/>
@@ -19064,7 +19064,7 @@
       <c r="AS175" s="56"/>
       <c r="AU175" s="25"/>
     </row>
-    <row r="176" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B176" s="74"/>
       <c r="G176" s="56"/>
       <c r="I176" s="25"/>
@@ -19090,7 +19090,7 @@
       <c r="AS176" s="56"/>
       <c r="AU176" s="25"/>
     </row>
-    <row r="177" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B177" s="74"/>
       <c r="G177" s="56"/>
       <c r="I177" s="25"/>
@@ -19116,7 +19116,7 @@
       <c r="AS177" s="56"/>
       <c r="AU177" s="25"/>
     </row>
-    <row r="178" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B178" s="74"/>
       <c r="G178" s="56"/>
       <c r="I178" s="25"/>
@@ -19142,7 +19142,7 @@
       <c r="AS178" s="56"/>
       <c r="AU178" s="25"/>
     </row>
-    <row r="179" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B179" s="74"/>
       <c r="G179" s="56"/>
       <c r="I179" s="25"/>
@@ -19168,7 +19168,7 @@
       <c r="AS179" s="56"/>
       <c r="AU179" s="25"/>
     </row>
-    <row r="180" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B180" s="74"/>
       <c r="G180" s="56"/>
       <c r="I180" s="25"/>
@@ -19194,7 +19194,7 @@
       <c r="AS180" s="56"/>
       <c r="AU180" s="25"/>
     </row>
-    <row r="181" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B181" s="74"/>
       <c r="G181" s="56"/>
       <c r="I181" s="25"/>
@@ -19220,7 +19220,7 @@
       <c r="AS181" s="56"/>
       <c r="AU181" s="25"/>
     </row>
-    <row r="182" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B182" s="74"/>
       <c r="G182" s="56"/>
       <c r="I182" s="25"/>
@@ -19246,7 +19246,7 @@
       <c r="AS182" s="56"/>
       <c r="AU182" s="25"/>
     </row>
-    <row r="183" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B183" s="74"/>
       <c r="G183" s="56"/>
       <c r="I183" s="25"/>
@@ -19272,7 +19272,7 @@
       <c r="AS183" s="56"/>
       <c r="AU183" s="25"/>
     </row>
-    <row r="184" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B184" s="74"/>
       <c r="G184" s="56"/>
       <c r="I184" s="25"/>
@@ -19298,7 +19298,7 @@
       <c r="AS184" s="56"/>
       <c r="AU184" s="25"/>
     </row>
-    <row r="185" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B185" s="74"/>
       <c r="G185" s="56"/>
       <c r="I185" s="25"/>
@@ -19324,7 +19324,7 @@
       <c r="AS185" s="56"/>
       <c r="AU185" s="25"/>
     </row>
-    <row r="186" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B186" s="74"/>
       <c r="G186" s="56"/>
       <c r="I186" s="25"/>
@@ -19350,7 +19350,7 @@
       <c r="AS186" s="56"/>
       <c r="AU186" s="25"/>
     </row>
-    <row r="187" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B187" s="74"/>
       <c r="G187" s="56"/>
       <c r="I187" s="25"/>
@@ -19376,7 +19376,7 @@
       <c r="AS187" s="56"/>
       <c r="AU187" s="25"/>
     </row>
-    <row r="188" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B188" s="74"/>
       <c r="G188" s="56"/>
       <c r="I188" s="25"/>
@@ -19402,7 +19402,7 @@
       <c r="AS188" s="56"/>
       <c r="AU188" s="25"/>
     </row>
-    <row r="189" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B189" s="74"/>
       <c r="G189" s="56"/>
       <c r="I189" s="25"/>
@@ -19428,7 +19428,7 @@
       <c r="AS189" s="56"/>
       <c r="AU189" s="25"/>
     </row>
-    <row r="190" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B190" s="74"/>
       <c r="G190" s="56"/>
       <c r="I190" s="25"/>
@@ -19454,7 +19454,7 @@
       <c r="AS190" s="56"/>
       <c r="AU190" s="25"/>
     </row>
-    <row r="191" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B191" s="74"/>
       <c r="G191" s="56"/>
       <c r="I191" s="25"/>
@@ -19480,7 +19480,7 @@
       <c r="AS191" s="56"/>
       <c r="AU191" s="25"/>
     </row>
-    <row r="192" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B192" s="74"/>
       <c r="G192" s="56"/>
       <c r="I192" s="25"/>
@@ -19506,7 +19506,7 @@
       <c r="AS192" s="56"/>
       <c r="AU192" s="25"/>
     </row>
-    <row r="193" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B193" s="74"/>
       <c r="G193" s="56"/>
       <c r="I193" s="25"/>
@@ -19532,7 +19532,7 @@
       <c r="AS193" s="56"/>
       <c r="AU193" s="25"/>
     </row>
-    <row r="194" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B194" s="74"/>
       <c r="G194" s="56"/>
       <c r="I194" s="25"/>
@@ -19558,7 +19558,7 @@
       <c r="AS194" s="56"/>
       <c r="AU194" s="25"/>
     </row>
-    <row r="195" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B195" s="74"/>
       <c r="G195" s="56"/>
       <c r="I195" s="25"/>
@@ -19584,7 +19584,7 @@
       <c r="AS195" s="56"/>
       <c r="AU195" s="25"/>
     </row>
-    <row r="196" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B196" s="74"/>
       <c r="G196" s="56"/>
       <c r="I196" s="25"/>
@@ -19610,7 +19610,7 @@
       <c r="AS196" s="56"/>
       <c r="AU196" s="25"/>
     </row>
-    <row r="197" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B197" s="74"/>
       <c r="G197" s="56"/>
       <c r="I197" s="25"/>
@@ -19636,7 +19636,7 @@
       <c r="AS197" s="56"/>
       <c r="AU197" s="25"/>
     </row>
-    <row r="198" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B198" s="74"/>
       <c r="G198" s="56"/>
       <c r="I198" s="25"/>
@@ -19662,7 +19662,7 @@
       <c r="AS198" s="56"/>
       <c r="AU198" s="25"/>
     </row>
-    <row r="199" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B199" s="74"/>
       <c r="G199" s="56"/>
       <c r="I199" s="25"/>
@@ -19688,7 +19688,7 @@
       <c r="AS199" s="56"/>
       <c r="AU199" s="25"/>
     </row>
-    <row r="200" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B200" s="74"/>
       <c r="G200" s="56"/>
       <c r="I200" s="25"/>
@@ -19714,7 +19714,7 @@
       <c r="AS200" s="56"/>
       <c r="AU200" s="25"/>
     </row>
-    <row r="201" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B201" s="74"/>
       <c r="G201" s="56"/>
       <c r="I201" s="25"/>
@@ -19740,7 +19740,7 @@
       <c r="AS201" s="56"/>
       <c r="AU201" s="25"/>
     </row>
-    <row r="202" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B202" s="74"/>
       <c r="G202" s="56"/>
       <c r="I202" s="25"/>
@@ -19766,7 +19766,7 @@
       <c r="AS202" s="56"/>
       <c r="AU202" s="25"/>
     </row>
-    <row r="203" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B203" s="74"/>
       <c r="G203" s="56"/>
       <c r="I203" s="25"/>
@@ -19792,7 +19792,7 @@
       <c r="AS203" s="56"/>
       <c r="AU203" s="25"/>
     </row>
-    <row r="204" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B204" s="74"/>
       <c r="G204" s="56"/>
       <c r="I204" s="25"/>
@@ -19818,7 +19818,7 @@
       <c r="AS204" s="56"/>
       <c r="AU204" s="25"/>
     </row>
-    <row r="205" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B205" s="74"/>
       <c r="G205" s="56"/>
       <c r="I205" s="25"/>
@@ -19844,7 +19844,7 @@
       <c r="AS205" s="56"/>
       <c r="AU205" s="25"/>
     </row>
-    <row r="206" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B206" s="74"/>
       <c r="G206" s="56"/>
       <c r="I206" s="25"/>
@@ -19870,7 +19870,7 @@
       <c r="AS206" s="56"/>
       <c r="AU206" s="25"/>
     </row>
-    <row r="207" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B207" s="74"/>
       <c r="G207" s="56"/>
       <c r="I207" s="25"/>
@@ -19896,7 +19896,7 @@
       <c r="AS207" s="56"/>
       <c r="AU207" s="25"/>
     </row>
-    <row r="208" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B208" s="74"/>
       <c r="G208" s="56"/>
       <c r="I208" s="25"/>
@@ -19922,7 +19922,7 @@
       <c r="AS208" s="56"/>
       <c r="AU208" s="25"/>
     </row>
-    <row r="209" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B209" s="74"/>
       <c r="G209" s="56"/>
       <c r="I209" s="25"/>
@@ -19948,7 +19948,7 @@
       <c r="AS209" s="56"/>
       <c r="AU209" s="25"/>
     </row>
-    <row r="210" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B210" s="74"/>
       <c r="G210" s="56"/>
       <c r="I210" s="25"/>
@@ -19974,7 +19974,7 @@
       <c r="AS210" s="56"/>
       <c r="AU210" s="25"/>
     </row>
-    <row r="211" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B211" s="74"/>
       <c r="G211" s="56"/>
       <c r="I211" s="25"/>
@@ -20000,7 +20000,7 @@
       <c r="AS211" s="56"/>
       <c r="AU211" s="25"/>
     </row>
-    <row r="212" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B212" s="74"/>
       <c r="G212" s="56"/>
       <c r="I212" s="25"/>
@@ -20026,7 +20026,7 @@
       <c r="AS212" s="56"/>
       <c r="AU212" s="25"/>
     </row>
-    <row r="213" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B213" s="74"/>
       <c r="G213" s="56"/>
       <c r="I213" s="25"/>
@@ -20052,7 +20052,7 @@
       <c r="AS213" s="56"/>
       <c r="AU213" s="25"/>
     </row>
-    <row r="214" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B214" s="74"/>
       <c r="G214" s="56"/>
       <c r="I214" s="25"/>
@@ -20078,7 +20078,7 @@
       <c r="AS214" s="56"/>
       <c r="AU214" s="25"/>
     </row>
-    <row r="215" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B215" s="74"/>
       <c r="G215" s="56"/>
       <c r="I215" s="25"/>
@@ -20104,7 +20104,7 @@
       <c r="AS215" s="56"/>
       <c r="AU215" s="25"/>
     </row>
-    <row r="216" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B216" s="74"/>
       <c r="G216" s="56"/>
       <c r="I216" s="25"/>
@@ -20130,7 +20130,7 @@
       <c r="AS216" s="56"/>
       <c r="AU216" s="25"/>
     </row>
-    <row r="217" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B217" s="74"/>
       <c r="G217" s="56"/>
       <c r="I217" s="25"/>
@@ -20156,7 +20156,7 @@
       <c r="AS217" s="56"/>
       <c r="AU217" s="25"/>
     </row>
-    <row r="218" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B218" s="74"/>
       <c r="G218" s="56"/>
       <c r="I218" s="25"/>
@@ -20182,7 +20182,7 @@
       <c r="AS218" s="56"/>
       <c r="AU218" s="25"/>
     </row>
-    <row r="219" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B219" s="74"/>
       <c r="G219" s="56"/>
       <c r="I219" s="25"/>
@@ -20208,7 +20208,7 @@
       <c r="AS219" s="56"/>
       <c r="AU219" s="25"/>
     </row>
-    <row r="220" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B220" s="74"/>
       <c r="G220" s="56"/>
       <c r="I220" s="25"/>
@@ -20234,7 +20234,7 @@
       <c r="AS220" s="56"/>
       <c r="AU220" s="25"/>
     </row>
-    <row r="221" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B221" s="74"/>
       <c r="G221" s="56"/>
       <c r="I221" s="25"/>
@@ -20260,7 +20260,7 @@
       <c r="AS221" s="56"/>
       <c r="AU221" s="25"/>
     </row>
-    <row r="222" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B222" s="74"/>
       <c r="G222" s="56"/>
       <c r="I222" s="25"/>
@@ -20286,7 +20286,7 @@
       <c r="AS222" s="56"/>
       <c r="AU222" s="25"/>
     </row>
-    <row r="223" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B223" s="74"/>
       <c r="G223" s="56"/>
       <c r="I223" s="25"/>
@@ -20312,7 +20312,7 @@
       <c r="AS223" s="56"/>
       <c r="AU223" s="25"/>
     </row>
-    <row r="224" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B224" s="74"/>
       <c r="G224" s="56"/>
       <c r="I224" s="25"/>
@@ -20338,7 +20338,7 @@
       <c r="AS224" s="56"/>
       <c r="AU224" s="25"/>
     </row>
-    <row r="225" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B225" s="74"/>
       <c r="G225" s="56"/>
       <c r="I225" s="25"/>
@@ -20364,7 +20364,7 @@
       <c r="AS225" s="56"/>
       <c r="AU225" s="25"/>
     </row>
-    <row r="226" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B226" s="74"/>
       <c r="G226" s="56"/>
       <c r="I226" s="25"/>
@@ -20390,7 +20390,7 @@
       <c r="AS226" s="56"/>
       <c r="AU226" s="25"/>
     </row>
-    <row r="227" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B227" s="74"/>
       <c r="G227" s="56"/>
       <c r="I227" s="25"/>
@@ -20416,7 +20416,7 @@
       <c r="AS227" s="56"/>
       <c r="AU227" s="25"/>
     </row>
-    <row r="228" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B228" s="74"/>
       <c r="G228" s="56"/>
       <c r="I228" s="25"/>
@@ -20442,7 +20442,7 @@
       <c r="AS228" s="56"/>
       <c r="AU228" s="25"/>
     </row>
-    <row r="229" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B229" s="74"/>
       <c r="G229" s="56"/>
       <c r="I229" s="25"/>
@@ -20468,7 +20468,7 @@
       <c r="AS229" s="56"/>
       <c r="AU229" s="25"/>
     </row>
-    <row r="230" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B230" s="74"/>
       <c r="G230" s="56"/>
       <c r="I230" s="25"/>
@@ -20494,7 +20494,7 @@
       <c r="AS230" s="56"/>
       <c r="AU230" s="25"/>
     </row>
-    <row r="231" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B231" s="74"/>
       <c r="G231" s="56"/>
       <c r="I231" s="25"/>
@@ -20520,7 +20520,7 @@
       <c r="AS231" s="56"/>
       <c r="AU231" s="25"/>
     </row>
-    <row r="232" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B232" s="74"/>
       <c r="G232" s="56"/>
       <c r="I232" s="25"/>
@@ -20546,7 +20546,7 @@
       <c r="AS232" s="56"/>
       <c r="AU232" s="25"/>
     </row>
-    <row r="233" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B233" s="74"/>
       <c r="G233" s="56"/>
       <c r="I233" s="25"/>
@@ -20574,12 +20574,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -20605,37 +20605,37 @@
       <selection pane="bottomRight" activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="5.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="6"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="5.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="1"/>
+    <col min="18" max="18" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="6"/>
+    <col min="21" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D2" s="30"/>
       <c r="E2" s="181" t="s">
         <v>227</v>
@@ -20661,7 +20661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="D3" s="6" t="s">
         <v>287</v>
       </c>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B4" s="42">
         <v>39213</v>
       </c>
@@ -20723,7 +20723,7 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B5" s="42">
         <v>39206</v>
       </c>
@@ -20743,7 +20743,7 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B6" s="42">
         <v>39199</v>
       </c>
@@ -20764,7 +20764,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B7" s="42">
         <v>39192</v>
       </c>
@@ -20785,7 +20785,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B8" s="42">
         <v>39185</v>
       </c>
@@ -20826,7 +20826,7 @@
         <v>36181</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B9" s="45">
         <v>39178</v>
       </c>
@@ -20867,7 +20867,7 @@
         <v>38175</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B10" s="42">
         <v>39171</v>
       </c>
@@ -20908,7 +20908,7 @@
         <v>36398</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B11" s="42">
         <v>39164</v>
       </c>
@@ -20949,7 +20949,7 @@
         <v>36353</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B12" s="42">
         <v>39157</v>
       </c>
@@ -20990,7 +20990,7 @@
         <v>37018</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B13" s="42">
         <v>39150</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>38989</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B14" s="42">
         <v>39143</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>38430</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B15" s="42">
         <v>39136</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>35196</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B16" s="42">
         <v>39129</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>35805</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B17" s="42">
         <v>39122</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>36830</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B18" s="42">
         <v>39115</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>37441</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B19" s="42">
         <v>39108</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>35096</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B20" s="42">
         <v>39101</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>34966</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B21" s="42">
         <v>39094</v>
       </c>
@@ -21359,7 +21359,7 @@
         <v>37023</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B22" s="45">
         <v>39087</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>34374</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B23" s="42">
         <v>39080</v>
       </c>
@@ -21441,7 +21441,7 @@
         <v>32690</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B24" s="42">
         <v>39073</v>
       </c>
@@ -21482,7 +21482,7 @@
         <v>36794</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B25" s="42">
         <v>39066</v>
       </c>
@@ -21523,7 +21523,7 @@
         <v>36089</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B26" s="42">
         <v>39059</v>
       </c>
@@ -21564,7 +21564,7 @@
         <v>36927</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B27" s="42">
         <v>39052</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>37730</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B28" s="42">
         <v>39045</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>30527</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B29" s="42">
         <v>39038</v>
       </c>
@@ -21687,7 +21687,7 @@
         <v>34901</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B30" s="42">
         <v>39031</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>35315</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B31" s="42">
         <v>39024</v>
       </c>
@@ -21769,7 +21769,7 @@
         <v>35507</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B32" s="42">
         <v>39017</v>
       </c>
@@ -21810,7 +21810,7 @@
         <v>33824</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B33" s="42">
         <v>39010</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>33258</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B34" s="42">
         <v>39003</v>
       </c>
@@ -21892,7 +21892,7 @@
         <v>34338</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B35" s="45">
         <v>38996</v>
       </c>
@@ -21929,7 +21929,7 @@
         <v>30028</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B36" s="42">
         <v>38989</v>
       </c>
@@ -21959,7 +21959,7 @@
       </c>
       <c r="S36" s="18"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B37" s="42">
         <v>38982</v>
       </c>
@@ -21989,7 +21989,7 @@
       </c>
       <c r="S37" s="18"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B38" s="42">
         <v>38975</v>
       </c>
@@ -22019,7 +22019,7 @@
       </c>
       <c r="S38" s="18"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B39" s="42">
         <v>38968</v>
       </c>
@@ -22049,7 +22049,7 @@
       </c>
       <c r="S39" s="18"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B40" s="42">
         <v>38961</v>
       </c>
@@ -22079,7 +22079,7 @@
       </c>
       <c r="S40" s="18"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B41" s="42">
         <v>38954</v>
       </c>
@@ -22109,7 +22109,7 @@
       </c>
       <c r="S41" s="18"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B42" s="42">
         <v>38947</v>
       </c>
@@ -22139,7 +22139,7 @@
       </c>
       <c r="S42" s="18"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B43" s="42">
         <v>38940</v>
       </c>
@@ -22169,7 +22169,7 @@
       </c>
       <c r="S43" s="18"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B44" s="42">
         <v>38933</v>
       </c>
@@ -22199,7 +22199,7 @@
       </c>
       <c r="S44" s="18"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B45" s="42">
         <v>38926</v>
       </c>
@@ -22229,7 +22229,7 @@
       </c>
       <c r="S45" s="18"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B46" s="42">
         <v>38919</v>
       </c>
@@ -22259,7 +22259,7 @@
       </c>
       <c r="S46" s="18"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B47" s="42">
         <v>38912</v>
       </c>
@@ -22289,7 +22289,7 @@
       </c>
       <c r="S47" s="18"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B48" s="42">
         <v>38905</v>
       </c>
@@ -22319,7 +22319,7 @@
       </c>
       <c r="S48" s="18"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B49" s="42">
         <v>38898</v>
       </c>
@@ -22349,7 +22349,7 @@
       </c>
       <c r="S49" s="18"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B50" s="42">
         <v>38891</v>
       </c>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="S50" s="18"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B51" s="42">
         <v>38884</v>
       </c>
@@ -22409,7 +22409,7 @@
       </c>
       <c r="S51" s="18"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B52" s="42">
         <v>38877</v>
       </c>
@@ -22439,7 +22439,7 @@
       </c>
       <c r="S52" s="18"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B53" s="42">
         <v>38870</v>
       </c>
@@ -22469,7 +22469,7 @@
       </c>
       <c r="S53" s="18"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B54" s="42">
         <v>38863</v>
       </c>
@@ -22499,7 +22499,7 @@
       </c>
       <c r="S54" s="18"/>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B55" s="42">
         <v>38856</v>
       </c>
@@ -22529,7 +22529,7 @@
       </c>
       <c r="S55" s="18"/>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B56" s="42">
         <v>38849</v>
       </c>
@@ -22559,7 +22559,7 @@
       </c>
       <c r="S56" s="18"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B57" s="42">
         <v>38842</v>
       </c>
@@ -22589,7 +22589,7 @@
       </c>
       <c r="S57" s="18"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B58" s="42">
         <v>38835</v>
       </c>
@@ -22619,7 +22619,7 @@
       </c>
       <c r="S58" s="18"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B59" s="42">
         <v>38828</v>
       </c>
@@ -22649,7 +22649,7 @@
       </c>
       <c r="S59" s="18"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B60" s="42">
         <v>38821</v>
       </c>
@@ -22679,7 +22679,7 @@
       </c>
       <c r="S60" s="18"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
       <c r="D61" s="35"/>
@@ -22714,34 +22714,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -22762,24 +22762,24 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
@@ -22787,7 +22787,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -22795,7 +22795,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>253</v>
       </c>
@@ -22803,42 +22803,42 @@
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="34" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="34" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="34" t="s">
         <v>333</v>
       </c>
@@ -22857,31 +22857,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="9.1640625" style="1"/>
+    <col min="16" max="16" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="92"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>76.08</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B3" s="32" t="s">
         <v>703</v>
       </c>
@@ -22928,13 +22928,13 @@
         <v>21</v>
       </c>
       <c r="J3" s="17">
-        <v>1248</v>
+        <v>1244.9920810000001</v>
       </c>
       <c r="K3" s="101" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>734</v>
       </c>
@@ -22956,10 +22956,10 @@
       </c>
       <c r="J4" s="17">
         <f>J3*J2</f>
-        <v>94947.839999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>94718.99752248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B5" s="32" t="s">
         <v>730</v>
       </c>
@@ -22980,13 +22980,13 @@
         <v>46</v>
       </c>
       <c r="J5" s="17">
-        <v>7199</v>
+        <v>2772</v>
       </c>
       <c r="K5" s="101" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B6" s="32" t="s">
         <v>738</v>
       </c>
@@ -23005,13 +23005,13 @@
         <v>208</v>
       </c>
       <c r="J6" s="17">
-        <v>25239</v>
+        <v>23350</v>
       </c>
       <c r="K6" s="101" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="32" t="s">
         <v>573</v>
       </c>
@@ -23035,10 +23035,10 @@
       </c>
       <c r="J7" s="17">
         <f>J4-J5+J6</f>
-        <v>112987.84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>115296.99752248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" s="32" t="s">
         <v>740</v>
       </c>
@@ -23054,7 +23054,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" s="32" t="s">
         <v>574</v>
       </c>
@@ -23073,7 +23073,7 @@
       </c>
       <c r="N9" s="129"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B10" s="32" t="s">
         <v>404</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>147</v>
       </c>
@@ -23121,7 +23121,7 @@
       <c r="N11" s="15"/>
       <c r="P11" s="130"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B12" s="32" t="s">
         <v>149</v>
       </c>
@@ -23141,7 +23141,7 @@
       </c>
       <c r="N12" s="129"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13" s="32" t="s">
         <v>240</v>
       </c>
@@ -23161,7 +23161,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -23179,7 +23179,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" s="96" t="s">
         <v>682</v>
       </c>
@@ -23189,7 +23189,7 @@
       <c r="F15" s="97"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B16" s="96" t="s">
         <v>683</v>
       </c>
@@ -23199,7 +23199,7 @@
       <c r="F16" s="97"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="96" t="s">
         <v>760</v>
       </c>
@@ -23209,7 +23209,7 @@
       <c r="F17" s="97"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="96" t="s">
         <v>759</v>
       </c>
@@ -23225,7 +23225,7 @@
       <c r="F18" s="97"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="96" t="s">
         <v>591</v>
       </c>
@@ -23241,7 +23241,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="32" t="s">
         <v>754</v>
       </c>
@@ -23253,7 +23253,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="32" t="s">
         <v>693</v>
       </c>
@@ -23269,7 +23269,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="32" t="s">
         <v>685</v>
       </c>
@@ -23285,7 +23285,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="77" t="s">
         <v>12</v>
       </c>
@@ -23301,7 +23301,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -23315,7 +23315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="175" t="s">
         <v>687</v>
       </c>
@@ -23329,7 +23329,7 @@
       </c>
       <c r="G25" s="178"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="96" t="s">
         <v>688</v>
       </c>
@@ -23343,7 +23343,7 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="96" t="s">
         <v>765</v>
       </c>
@@ -23361,7 +23361,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="96" t="s">
         <v>763</v>
       </c>
@@ -23370,7 +23370,7 @@
       </c>
       <c r="G28" s="179"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="32" t="s">
         <v>622</v>
       </c>
@@ -23388,7 +23388,7 @@
       </c>
       <c r="G29" s="116"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="96" t="s">
         <v>619</v>
       </c>
@@ -23406,7 +23406,7 @@
       </c>
       <c r="G30" s="116"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="122" t="s">
         <v>488</v>
       </c>
@@ -23424,7 +23424,7 @@
       </c>
       <c r="G31" s="123"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="122" t="s">
         <v>489</v>
       </c>
@@ -23442,7 +23442,7 @@
       </c>
       <c r="G32" s="123"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="122" t="s">
         <v>632</v>
       </c>
@@ -23462,7 +23462,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="88" t="s">
         <v>500</v>
       </c>
@@ -23478,119 +23478,119 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E36" s="21" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E37" s="21" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E38" s="21" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E39" s="21" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E40" s="21" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E41" s="21" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E42" s="21" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E43" s="21" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E44" s="92" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E45" s="92" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E46" s="92" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E47" s="92" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E48" s="92" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E49" s="92" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E50" s="92" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E51" s="21" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E52" s="124" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E54" s="15" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E57" s="21" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E59" s="92" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E60" s="92" t="s">
         <v>753</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
       <headerFooter alignWithMargins="0"/>
@@ -23624,25 +23624,25 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="10" style="6" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
         <v>140</v>
@@ -23651,7 +23651,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>141</v>
@@ -23660,7 +23660,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -23669,13 +23669,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="C5" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>253</v>
@@ -23684,7 +23684,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>256</v>
@@ -23693,7 +23693,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="1" t="s">
         <v>138</v>
@@ -23702,7 +23702,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -23711,16 +23711,16 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C12" s="1"/>
       <c r="D12" s="6">
         <v>2006</v>
@@ -23753,7 +23753,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>241</v>
       </c>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C14" s="1" t="s">
         <v>242</v>
       </c>
@@ -23806,7 +23806,7 @@
         <v>21349.677186322271</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
         <v>243</v>
       </c>
@@ -23841,7 +23841,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
         <v>207</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>3842.9418935380086</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
         <v>138</v>
       </c>
@@ -23921,7 +23921,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="15" t="s">
         <v>244</v>
       </c>
@@ -23966,50 +23966,50 @@
         <v>288220.64201535063</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C20" s="34" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C24" s="34" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C25" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C28" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C31" s="34" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C33" s="34" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C34" s="34"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36" s="37"/>
@@ -24025,7 +24025,7 @@
       <c r="L36"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37" s="37"/>
@@ -24041,7 +24041,7 @@
       <c r="L37"/>
       <c r="M37"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38" s="37"/>
@@ -24057,7 +24057,7 @@
       <c r="L38"/>
       <c r="M38"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39" s="37"/>
@@ -24073,7 +24073,7 @@
       <c r="L39"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40" s="37"/>
@@ -24089,7 +24089,7 @@
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41" s="37"/>
@@ -24105,7 +24105,7 @@
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42" s="37"/>
@@ -24121,7 +24121,7 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43" s="37"/>
@@ -24137,7 +24137,7 @@
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44" s="37"/>
@@ -24153,7 +24153,7 @@
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45" s="37"/>
@@ -24169,7 +24169,7 @@
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -24183,7 +24183,7 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -24197,7 +24197,7 @@
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -24227,19 +24227,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
@@ -24247,7 +24247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
@@ -24255,7 +24255,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -24263,7 +24263,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -24271,7 +24271,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
@@ -24279,7 +24279,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>138</v>
       </c>
@@ -24287,27 +24287,27 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" s="42">
         <v>39094</v>
       </c>
@@ -24315,7 +24315,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" s="42">
         <v>39087</v>
       </c>
@@ -24339,82 +24339,82 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" s="14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="13" t="s">
         <v>71</v>
       </c>
@@ -24422,12 +24422,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>99</v>
       </c>
@@ -24435,7 +24435,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>43</v>
       </c>
@@ -24443,22 +24443,22 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -24466,7 +24466,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>115</v>
       </c>
@@ -24474,12 +24474,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>44</v>
       </c>
@@ -24487,7 +24487,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -24495,7 +24495,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>42</v>
       </c>
@@ -24503,12 +24503,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>42</v>
       </c>
@@ -24516,12 +24516,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C34" s="31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>126</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>44</v>
       </c>
@@ -24537,7 +24537,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>129</v>
       </c>
@@ -24545,25 +24545,25 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="31"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>115</v>
       </c>
@@ -24571,7 +24571,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>101</v>
       </c>
@@ -24579,7 +24579,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>14</v>
       </c>
@@ -24587,7 +24587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>129</v>
       </c>
@@ -24595,7 +24595,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>43</v>
       </c>
@@ -24603,7 +24603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>101</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>44</v>
       </c>
@@ -24619,61 +24619,61 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="13"/>
       <c r="C52" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C56" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="14" t="s">
         <v>134</v>
       </c>
@@ -24684,20 +24684,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>39</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C71" t="s">
         <v>99</v>
       </c>
@@ -24716,7 +24716,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>38</v>
       </c>
@@ -24727,7 +24727,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>40</v>
       </c>
@@ -24738,12 +24738,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B78" s="14" t="s">
         <v>104</v>
       </c>
@@ -24754,7 +24754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="14" t="s">
         <v>32</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="14" t="s">
         <v>36</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B81" s="14" t="s">
         <v>100</v>
       </c>
@@ -24787,7 +24787,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B82" s="14" t="s">
         <v>37</v>
       </c>
@@ -24798,7 +24798,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B83" s="14" t="s">
         <v>353</v>
       </c>
@@ -24807,7 +24807,7 @@
       </c>
       <c r="D83" s="14"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B84" s="14" t="s">
         <v>5</v>
       </c>
@@ -24818,7 +24818,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B85" s="14" t="s">
         <v>45</v>
       </c>
@@ -24829,25 +24829,25 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>357</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
@@ -24870,19 +24870,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
@@ -24890,7 +24890,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
@@ -24898,7 +24898,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -24906,7 +24906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -24914,7 +24914,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>233</v>
       </c>
@@ -24922,7 +24922,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
         <v>377</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="16" t="s">
         <v>253</v>
       </c>
@@ -24938,122 +24938,122 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="34" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="16" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="16"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="34" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" s="15" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="34" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C28" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C30" s="34" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C31" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -25077,24 +25077,24 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
@@ -25102,7 +25102,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
@@ -25110,7 +25110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
@@ -25118,7 +25118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
@@ -25126,7 +25126,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
@@ -25134,7 +25134,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
@@ -25142,7 +25142,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -25150,7 +25150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>142</v>
       </c>
@@ -25160,12 +25160,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -25186,19 +25186,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -25214,7 +25214,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>256</v>
       </c>
@@ -25230,47 +25230,47 @@
         <v>285</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="34" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="34" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" s="92" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" s="92" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="92" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="92" t="s">
         <v>494</v>
       </c>
@@ -25293,19 +25293,19 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="109" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="109" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="109"/>
+    <col min="2" max="2" width="12.33203125" style="109" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="112" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="112"/>
       <c r="B2" s="109" t="s">
         <v>140</v>
@@ -25314,7 +25314,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="112"/>
       <c r="B3" s="109" t="s">
         <v>141</v>
@@ -25323,7 +25323,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="112"/>
       <c r="B4" s="111" t="s">
         <v>549</v>
@@ -25332,70 +25332,70 @@
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="109" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C6" s="110" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="111" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="111" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="111"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="111" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="111"/>
       <c r="D11" s="111" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="111"/>
       <c r="D12" s="111" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C13" s="111"/>
       <c r="D13" s="111" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C14" s="111"/>
       <c r="D14" s="111" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C15" s="111"/>
       <c r="D15" s="111" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="111" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C17" s="111"/>
       <c r="D17" s="111" t="s">
         <v>516</v>
@@ -25404,249 +25404,249 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C18" s="111"/>
       <c r="E18" s="111" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C19" s="111"/>
       <c r="D19" s="111" t="s">
         <v>557</v>
       </c>
       <c r="E19" s="111"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C20" s="111"/>
       <c r="D20" s="111" t="s">
         <v>560</v>
       </c>
       <c r="E20" s="111"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C21" s="111"/>
       <c r="D21" s="111" t="s">
         <v>561</v>
       </c>
       <c r="E21" s="111"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C22" s="111" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C23" s="111" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C24" s="111"/>
       <c r="D24" s="111" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C25" s="111"/>
       <c r="D25" s="111" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C26" s="111"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D29" s="111"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D31" s="111"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C32" s="110" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C33" s="110"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C34" s="111" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D35" s="111" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D36" s="113" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D37" s="113" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D38" s="114" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D39" s="113" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C40" s="111" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C41" s="111" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C42" s="111" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C43" s="111" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C44" s="111"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C45" s="111" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C46" s="111" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D47" s="111" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C49" s="110" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C50" s="111" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C51" s="111"/>
       <c r="D51" s="111" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C52" s="111"/>
       <c r="D52" s="111" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C53" s="111"/>
       <c r="D53" s="111" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C54" s="111"/>
       <c r="D54" s="111" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C55" s="111"/>
       <c r="D55" s="111" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C56" s="111" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C57" s="111" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C58" s="111" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C59" s="111" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C60" s="111" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C61" s="111" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C62" s="111"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D63" s="115" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D64" s="111" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D65" s="111" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D66" s="111" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D67" s="111" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D68" s="111" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D69" s="111" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D70" s="111" t="s">
         <v>568</v>
       </c>
@@ -25669,19 +25669,19 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="95" t="s">
         <v>140</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="95" t="s">
         <v>141</v>
       </c>
@@ -25697,7 +25697,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="95" t="s">
         <v>1</v>
       </c>
@@ -25705,12 +25705,12 @@
         <v>613</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="95" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="95" t="s">
         <v>608</v>
       </c>
@@ -25718,7 +25718,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="95" t="s">
         <v>319</v>
       </c>
@@ -25726,27 +25726,27 @@
         <v>611</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="95" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="95" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="121" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="121" t="s">
         <v>614</v>
       </c>
@@ -25767,34 +25767,34 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="95" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" s="95" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="95" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="95" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="95" t="s">
         <v>498</v>
       </c>
@@ -25813,19 +25813,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
@@ -25833,7 +25833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
@@ -25841,7 +25841,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
@@ -25857,7 +25857,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -25865,12 +25865,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>319</v>
       </c>
@@ -25878,7 +25878,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>318</v>
       </c>
@@ -25886,52 +25886,52 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="34" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" s="34" t="s">
         <v>192</v>
       </c>
@@ -25953,42 +25953,42 @@
   </sheetPr>
   <dimension ref="A1:GB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CC12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CC58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CE15" sqref="CE15"/>
+      <selection pane="bottomRight" activeCell="CL66" sqref="CL66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="7.42578125" style="76" hidden="1" customWidth="1"/>
-    <col min="19" max="30" width="7.140625" style="76" hidden="1" customWidth="1"/>
-    <col min="31" max="36" width="7.140625" style="76" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" style="76" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="7.140625" style="76" customWidth="1"/>
-    <col min="41" max="41" width="8.85546875" style="76" bestFit="1" customWidth="1"/>
-    <col min="42" max="74" width="7.140625" style="76" customWidth="1"/>
-    <col min="75" max="98" width="7.140625" style="141" customWidth="1"/>
-    <col min="99" max="99" width="4.42578125" customWidth="1"/>
-    <col min="100" max="102" width="6.42578125" customWidth="1"/>
-    <col min="103" max="105" width="5.7109375" customWidth="1"/>
-    <col min="106" max="106" width="5.7109375" style="1" customWidth="1"/>
-    <col min="107" max="107" width="5.7109375" style="76" customWidth="1"/>
-    <col min="108" max="109" width="6.42578125" style="76" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="7.5" style="76" hidden="1" customWidth="1"/>
+    <col min="19" max="30" width="7.1640625" style="76" hidden="1" customWidth="1"/>
+    <col min="31" max="36" width="7.1640625" style="76" customWidth="1"/>
+    <col min="37" max="37" width="8.83203125" style="76" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="7.1640625" style="76" customWidth="1"/>
+    <col min="41" max="41" width="8.83203125" style="76" bestFit="1" customWidth="1"/>
+    <col min="42" max="74" width="7.1640625" style="76" customWidth="1"/>
+    <col min="75" max="98" width="7.1640625" style="141" customWidth="1"/>
+    <col min="99" max="99" width="4.5" customWidth="1"/>
+    <col min="100" max="102" width="6.5" customWidth="1"/>
+    <col min="103" max="105" width="5.6640625" customWidth="1"/>
+    <col min="106" max="106" width="5.6640625" style="1" customWidth="1"/>
+    <col min="107" max="107" width="5.6640625" style="76" customWidth="1"/>
+    <col min="108" max="109" width="6.5" style="76" customWidth="1"/>
     <col min="110" max="111" width="8" style="135" customWidth="1"/>
     <col min="112" max="115" width="8" style="76" customWidth="1"/>
-    <col min="116" max="117" width="7.7109375" style="76" customWidth="1"/>
-    <col min="118" max="121" width="7.42578125" style="141" customWidth="1"/>
-    <col min="122" max="123" width="8.140625" style="141" customWidth="1"/>
-    <col min="124" max="126" width="8.140625" customWidth="1"/>
-    <col min="130" max="136" width="7.42578125" customWidth="1"/>
-    <col min="137" max="16384" width="9.140625" style="1"/>
+    <col min="116" max="117" width="7.6640625" style="76" customWidth="1"/>
+    <col min="118" max="121" width="7.5" style="141" customWidth="1"/>
+    <col min="122" max="123" width="8.1640625" style="141" customWidth="1"/>
+    <col min="124" max="126" width="8.1640625" customWidth="1"/>
+    <col min="130" max="136" width="7.5" customWidth="1"/>
+    <col min="137" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:136" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
@@ -26003,7 +26003,7 @@
       <c r="DO1" s="138"/>
       <c r="DR1" s="138"/>
     </row>
-    <row r="2" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C2" s="101" t="s">
         <v>470</v>
       </c>
@@ -26415,7 +26415,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="92" t="s">
         <v>6</v>
       </c>
@@ -26701,7 +26701,7 @@
         <v>266.11020381820344</v>
       </c>
     </row>
-    <row r="4" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="92" t="s">
         <v>761</v>
       </c>
@@ -26840,7 +26840,7 @@
       <c r="EE4" s="95"/>
       <c r="EF4" s="95"/>
     </row>
-    <row r="5" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="92" t="s">
         <v>762</v>
       </c>
@@ -26979,7 +26979,7 @@
       <c r="EE5" s="95"/>
       <c r="EF5" s="95"/>
     </row>
-    <row r="6" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="101"/>
       <c r="D6" s="101"/>
       <c r="E6" s="101"/>
@@ -27115,7 +27115,7 @@
       <c r="EE6" s="95"/>
       <c r="EF6" s="95"/>
     </row>
-    <row r="7" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="101"/>
       <c r="D7" s="101"/>
       <c r="E7" s="101"/>
@@ -27251,7 +27251,7 @@
       <c r="EE7" s="95"/>
       <c r="EF7" s="95"/>
     </row>
-    <row r="8" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:136" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="101"/>
       <c r="D8" s="101"/>
       <c r="E8" s="101"/>
@@ -27387,7 +27387,7 @@
       <c r="EE8" s="95"/>
       <c r="EF8" s="95"/>
     </row>
-    <row r="9" spans="1:136" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:136" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="100" t="s">
         <v>720</v>
       </c>
@@ -27620,7 +27620,7 @@
         <v>37.342277526183089</v>
       </c>
     </row>
-    <row r="10" spans="1:136" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:136" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="100" t="s">
         <v>725</v>
       </c>
@@ -27853,7 +27853,7 @@
         <v>1.7914625000000007E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:136" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:136" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="100" t="s">
         <v>735</v>
       </c>
@@ -28086,7 +28086,7 @@
         <v>1.5024690000000009E-6</v>
       </c>
     </row>
-    <row r="12" spans="1:136" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:136" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="100" t="s">
         <v>736</v>
       </c>
@@ -28319,7 +28319,7 @@
         <v>6.0795000000000049E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:136" s="100" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:136" s="100" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="100" t="s">
         <v>737</v>
       </c>
@@ -28552,7 +28552,7 @@
         <v>149.12279526196807</v>
       </c>
     </row>
-    <row r="14" spans="1:136" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:136" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="92" t="s">
         <v>723</v>
       </c>
@@ -28833,7 +28833,7 @@
         <v>28.52538318458101</v>
       </c>
     </row>
-    <row r="15" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:136" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="92" t="s">
         <v>724</v>
       </c>
@@ -29141,7 +29141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="100" t="s">
         <v>722</v>
       </c>
@@ -29487,7 +29487,7 @@
         <v>32.196967158834013</v>
       </c>
     </row>
-    <row r="17" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="100" t="s">
         <v>721</v>
       </c>
@@ -29856,7 +29856,7 @@
         <v>18.922778944227005</v>
       </c>
     </row>
-    <row r="18" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="92" t="s">
         <v>587</v>
       </c>
@@ -30095,7 +30095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="92" t="s">
         <v>626</v>
       </c>
@@ -30306,7 +30306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="92" t="s">
         <v>693</v>
       </c>
@@ -30535,7 +30535,7 @@
         <v>19.770067553670003</v>
       </c>
     </row>
-    <row r="21" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="92" t="s">
         <v>742</v>
       </c>
@@ -30768,7 +30768,7 @@
         <v>243.7366899831031</v>
       </c>
     </row>
-    <row r="22" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="92" t="s">
         <v>692</v>
       </c>
@@ -30965,7 +30965,7 @@
       <c r="EE22" s="13"/>
       <c r="EF22" s="13"/>
     </row>
-    <row r="23" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:136" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="92" t="s">
         <v>715</v>
       </c>
@@ -31128,7 +31128,7 @@
       <c r="EE23" s="13"/>
       <c r="EF23" s="13"/>
     </row>
-    <row r="24" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="100" t="s">
         <v>680</v>
       </c>
@@ -31312,7 +31312,7 @@
       <c r="EE24" s="79"/>
       <c r="EF24" s="79"/>
     </row>
-    <row r="25" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="100" t="s">
         <v>681</v>
       </c>
@@ -31510,7 +31510,7 @@
       <c r="EE25" s="79"/>
       <c r="EF25" s="79"/>
     </row>
-    <row r="26" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="17" t="s">
         <v>23</v>
       </c>
@@ -31802,7 +31802,7 @@
       <c r="EE26" s="79"/>
       <c r="EF26" s="79"/>
     </row>
-    <row r="27" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="100" t="s">
         <v>643</v>
       </c>
@@ -32048,7 +32048,7 @@
       <c r="EE27" s="79"/>
       <c r="EF27" s="79"/>
     </row>
-    <row r="28" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="100" t="s">
         <v>682</v>
       </c>
@@ -32246,7 +32246,7 @@
       <c r="EE28" s="79"/>
       <c r="EF28" s="79"/>
     </row>
-    <row r="29" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="100" t="s">
         <v>683</v>
       </c>
@@ -32442,7 +32442,7 @@
       <c r="EE29" s="79"/>
       <c r="EF29" s="79"/>
     </row>
-    <row r="30" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="100" t="s">
         <v>684</v>
       </c>
@@ -32640,7 +32640,7 @@
       <c r="EE30" s="79"/>
       <c r="EF30" s="79"/>
     </row>
-    <row r="31" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="17" t="s">
         <v>9</v>
       </c>
@@ -32940,7 +32940,7 @@
       <c r="EE31" s="79"/>
       <c r="EF31" s="79"/>
     </row>
-    <row r="32" spans="2:136" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:136" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="92" t="s">
         <v>605</v>
       </c>
@@ -33125,7 +33125,7 @@
       <c r="EE32" s="95"/>
       <c r="EF32" s="95"/>
     </row>
-    <row r="33" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
@@ -33471,7 +33471,7 @@
       <c r="EE33" s="79"/>
       <c r="EF33" s="79"/>
     </row>
-    <row r="34" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="100" t="s">
         <v>240</v>
       </c>
@@ -33751,7 +33751,7 @@
       <c r="EE34" s="79"/>
       <c r="EF34" s="79"/>
     </row>
-    <row r="35" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="75" t="s">
         <v>368</v>
       </c>
@@ -33999,7 +33999,7 @@
       <c r="EE35" s="79"/>
       <c r="EF35" s="79"/>
     </row>
-    <row r="36" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="100" t="s">
         <v>622</v>
       </c>
@@ -34165,7 +34165,7 @@
       <c r="EE36" s="79"/>
       <c r="EF36" s="79"/>
     </row>
-    <row r="37" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="17" t="s">
         <v>16</v>
       </c>
@@ -34526,7 +34526,7 @@
       <c r="EE37" s="79"/>
       <c r="EF37" s="79"/>
     </row>
-    <row r="38" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="17" t="s">
         <v>24</v>
       </c>
@@ -34868,7 +34868,7 @@
       <c r="EE38" s="79"/>
       <c r="EF38" s="79"/>
     </row>
-    <row r="39" spans="2:136" s="85" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:136" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="85" t="s">
         <v>48</v>
       </c>
@@ -35316,7 +35316,7 @@
       <c r="EE39" s="154"/>
       <c r="EF39" s="154"/>
     </row>
-    <row r="40" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="17" t="s">
         <v>17</v>
       </c>
@@ -35668,7 +35668,7 @@
       <c r="EE40" s="79"/>
       <c r="EF40" s="79"/>
     </row>
-    <row r="41" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="17" t="s">
         <v>50</v>
       </c>
@@ -36077,7 +36077,7 @@
       <c r="EE41" s="79"/>
       <c r="EF41" s="79"/>
     </row>
-    <row r="42" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="17" t="s">
         <v>19</v>
       </c>
@@ -36413,7 +36413,7 @@
       <c r="EE42" s="79"/>
       <c r="EF42" s="79"/>
     </row>
-    <row r="43" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="17" t="s">
         <v>18</v>
       </c>
@@ -36785,7 +36785,7 @@
       <c r="EE43" s="79"/>
       <c r="EF43" s="79"/>
     </row>
-    <row r="44" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="75" t="s">
         <v>49</v>
       </c>
@@ -37224,7 +37224,7 @@
       <c r="EE44" s="155"/>
       <c r="EF44" s="155"/>
     </row>
-    <row r="45" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="100" t="s">
         <v>642</v>
       </c>
@@ -37663,7 +37663,7 @@
       <c r="EE45" s="79"/>
       <c r="EF45" s="79"/>
     </row>
-    <row r="46" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="17" t="s">
         <v>25</v>
       </c>
@@ -38065,7 +38065,7 @@
       <c r="EE46" s="79"/>
       <c r="EF46" s="79"/>
     </row>
-    <row r="47" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="17" t="s">
         <v>26</v>
       </c>
@@ -38504,7 +38504,7 @@
       <c r="EE47" s="79"/>
       <c r="EF47" s="79"/>
     </row>
-    <row r="48" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="100" t="s">
         <v>641</v>
       </c>
@@ -38893,7 +38893,7 @@
       <c r="EE48" s="79"/>
       <c r="EF48" s="79"/>
     </row>
-    <row r="49" spans="2:184" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:184" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="75" t="s">
         <v>51</v>
       </c>
@@ -39554,7 +39554,7 @@
         <v>-40.780212956071047</v>
       </c>
     </row>
-    <row r="50" spans="2:184" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:184" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="15" t="s">
         <v>20</v>
       </c>
@@ -39990,7 +39990,7 @@
       <c r="EE50" s="13"/>
       <c r="EF50" s="13"/>
     </row>
-    <row r="51" spans="2:184" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:184" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="75" t="s">
         <v>21</v>
       </c>
@@ -40354,7 +40354,7 @@
       <c r="EE51" s="79"/>
       <c r="EF51" s="79"/>
     </row>
-    <row r="52" spans="2:184" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:184" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C52" s="82"/>
       <c r="D52" s="82"/>
       <c r="E52" s="82"/>
@@ -40489,7 +40489,7 @@
       <c r="EE52" s="79"/>
       <c r="EF52" s="79"/>
     </row>
-    <row r="53" spans="2:184" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:184" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="117" t="s">
         <v>589</v>
       </c>
@@ -40928,7 +40928,7 @@
       <c r="EE53" s="157"/>
       <c r="EF53" s="157"/>
     </row>
-    <row r="54" spans="2:184" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:184" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="24" t="s">
         <v>471</v>
       </c>
@@ -41366,7 +41366,7 @@
       <c r="EE54" s="157"/>
       <c r="EF54" s="157"/>
     </row>
-    <row r="55" spans="2:184" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:184" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C55" s="84"/>
       <c r="D55" s="84"/>
       <c r="E55" s="84"/>
@@ -41505,7 +41505,7 @@
       <c r="EE55" s="158"/>
       <c r="EF55" s="158"/>
     </row>
-    <row r="56" spans="2:184" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:184" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="147" t="s">
         <v>699</v>
       </c>
@@ -41689,7 +41689,7 @@
       <c r="EE56" s="159"/>
       <c r="EF56" s="159"/>
     </row>
-    <row r="57" spans="2:184" s="147" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:184" s="147" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="147" t="s">
         <v>769</v>
       </c>
@@ -41833,7 +41833,7 @@
       <c r="EE57" s="159"/>
       <c r="EF57" s="159"/>
     </row>
-    <row r="58" spans="2:184" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:184" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="119" t="s">
         <v>698</v>
       </c>
@@ -42018,7 +42018,7 @@
       <c r="EE58" s="158"/>
       <c r="EF58" s="158"/>
     </row>
-    <row r="59" spans="2:184" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:184" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="119" t="s">
         <v>700</v>
       </c>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="EA59" s="174">
         <f>EA58/Main!J3</f>
-        <v>46.135723478049243</v>
+        <v>46.247188057901752</v>
       </c>
       <c r="EB59" s="158"/>
       <c r="EC59" s="158"/>
@@ -42203,7 +42203,7 @@
       <c r="EE59" s="158"/>
       <c r="EF59" s="158"/>
     </row>
-    <row r="60" spans="2:184" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:184" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="119"/>
       <c r="C60" s="84"/>
       <c r="D60" s="84"/>
@@ -42339,7 +42339,7 @@
       <c r="EE60" s="158"/>
       <c r="EF60" s="158"/>
     </row>
-    <row r="61" spans="2:184" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:184" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B61" s="119" t="s">
         <v>597</v>
       </c>
@@ -42453,7 +42453,10 @@
       <c r="CK61" s="140"/>
       <c r="CL61" s="140"/>
       <c r="CM61" s="140"/>
-      <c r="CN61" s="140"/>
+      <c r="CN61" s="140">
+        <f>+CN62-CN82</f>
+        <v>-20578</v>
+      </c>
       <c r="CO61" s="140"/>
       <c r="CP61" s="140"/>
       <c r="CQ61" s="140"/>
@@ -42534,7 +42537,7 @@
       <c r="EE61" s="158"/>
       <c r="EF61" s="158"/>
     </row>
-    <row r="62" spans="2:184" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:184" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B62" s="100" t="s">
         <v>46</v>
       </c>
@@ -42645,7 +42648,9 @@
       <c r="CK62" s="142"/>
       <c r="CL62" s="142"/>
       <c r="CM62" s="142"/>
-      <c r="CN62" s="142"/>
+      <c r="CN62" s="142">
+        <v>2772</v>
+      </c>
       <c r="CO62" s="142"/>
       <c r="CP62" s="142"/>
       <c r="CQ62" s="142"/>
@@ -42690,7 +42695,7 @@
       <c r="EE62" s="155"/>
       <c r="EF62" s="155"/>
     </row>
-    <row r="63" spans="2:184" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:184" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B63" s="75" t="s">
         <v>441</v>
       </c>
@@ -42795,7 +42800,9 @@
       <c r="CK63" s="142"/>
       <c r="CL63" s="142"/>
       <c r="CM63" s="142"/>
-      <c r="CN63" s="142"/>
+      <c r="CN63" s="142">
+        <v>4663</v>
+      </c>
       <c r="CO63" s="142"/>
       <c r="CP63" s="142"/>
       <c r="CQ63" s="142"/>
@@ -42840,7 +42847,7 @@
       <c r="EE63" s="155"/>
       <c r="EF63" s="155"/>
     </row>
-    <row r="64" spans="2:184" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:184" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B64" s="75" t="s">
         <v>440</v>
       </c>
@@ -42945,7 +42952,9 @@
       <c r="CK64" s="142"/>
       <c r="CL64" s="142"/>
       <c r="CM64" s="142"/>
-      <c r="CN64" s="142"/>
+      <c r="CN64" s="142">
+        <v>2026</v>
+      </c>
       <c r="CO64" s="142"/>
       <c r="CP64" s="142"/>
       <c r="CQ64" s="142"/>
@@ -42990,7 +42999,7 @@
       <c r="EE64" s="155"/>
       <c r="EF64" s="155"/>
     </row>
-    <row r="65" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B65" s="75" t="s">
         <v>439</v>
       </c>
@@ -43139,7 +43148,7 @@
       <c r="EE65" s="155"/>
       <c r="EF65" s="155"/>
     </row>
-    <row r="66" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="75" t="s">
         <v>438</v>
       </c>
@@ -43287,7 +43296,7 @@
       <c r="EE66" s="155"/>
       <c r="EF66" s="155"/>
     </row>
-    <row r="67" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B67" s="75" t="s">
         <v>437</v>
       </c>
@@ -43392,7 +43401,9 @@
       <c r="CK67" s="142"/>
       <c r="CL67" s="142"/>
       <c r="CM67" s="142"/>
-      <c r="CN67" s="142"/>
+      <c r="CN67" s="142">
+        <v>2856</v>
+      </c>
       <c r="CO67" s="142"/>
       <c r="CP67" s="142"/>
       <c r="CQ67" s="142"/>
@@ -43437,7 +43448,7 @@
       <c r="EE67" s="155"/>
       <c r="EF67" s="155"/>
     </row>
-    <row r="68" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="75" t="s">
         <v>436</v>
       </c>
@@ -43585,7 +43596,7 @@
       <c r="EE68" s="155"/>
       <c r="EF68" s="155"/>
     </row>
-    <row r="69" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="75" t="s">
         <v>435</v>
       </c>
@@ -43690,7 +43701,9 @@
       <c r="CK69" s="142"/>
       <c r="CL69" s="142"/>
       <c r="CM69" s="142"/>
-      <c r="CN69" s="142"/>
+      <c r="CN69" s="142">
+        <v>5346</v>
+      </c>
       <c r="CO69" s="142"/>
       <c r="CP69" s="142"/>
       <c r="CQ69" s="142"/>
@@ -43735,7 +43748,7 @@
       <c r="EE69" s="155"/>
       <c r="EF69" s="155"/>
     </row>
-    <row r="70" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="75" t="s">
         <v>434</v>
       </c>
@@ -43883,7 +43896,7 @@
       <c r="EE70" s="155"/>
       <c r="EF70" s="155"/>
     </row>
-    <row r="71" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" s="75" t="s">
         <v>433</v>
       </c>
@@ -44031,7 +44044,7 @@
       <c r="EE71" s="155"/>
       <c r="EF71" s="155"/>
     </row>
-    <row r="72" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="75" t="s">
         <v>432</v>
       </c>
@@ -44141,7 +44154,10 @@
       <c r="CK72" s="142"/>
       <c r="CL72" s="142"/>
       <c r="CM72" s="142"/>
-      <c r="CN72" s="142"/>
+      <c r="CN72" s="142">
+        <f>22832+8314</f>
+        <v>31146</v>
+      </c>
       <c r="CO72" s="142"/>
       <c r="CP72" s="142"/>
       <c r="CQ72" s="142"/>
@@ -44186,7 +44202,7 @@
       <c r="EE72" s="155"/>
       <c r="EF72" s="155"/>
     </row>
-    <row r="73" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="75" t="s">
         <v>16</v>
       </c>
@@ -44291,7 +44307,9 @@
       <c r="CK73" s="142"/>
       <c r="CL73" s="142"/>
       <c r="CM73" s="142"/>
-      <c r="CN73" s="142"/>
+      <c r="CN73" s="142">
+        <v>4770</v>
+      </c>
       <c r="CO73" s="142"/>
       <c r="CP73" s="142"/>
       <c r="CQ73" s="142"/>
@@ -44336,7 +44354,7 @@
       <c r="EE73" s="155"/>
       <c r="EF73" s="155"/>
     </row>
-    <row r="74" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="75" t="s">
         <v>431</v>
       </c>
@@ -44458,11 +44476,26 @@
         <f>SUM(CI62:CI73)</f>
         <v>61876</v>
       </c>
-      <c r="CJ74" s="142"/>
-      <c r="CK74" s="142"/>
-      <c r="CL74" s="142"/>
-      <c r="CM74" s="142"/>
-      <c r="CN74" s="142"/>
+      <c r="CJ74" s="142">
+        <f t="shared" ref="CJ74:CN74" si="242">SUM(CJ62:CJ73)</f>
+        <v>0</v>
+      </c>
+      <c r="CK74" s="142">
+        <f t="shared" si="242"/>
+        <v>0</v>
+      </c>
+      <c r="CL74" s="142">
+        <f t="shared" si="242"/>
+        <v>0</v>
+      </c>
+      <c r="CM74" s="142">
+        <f t="shared" si="242"/>
+        <v>0</v>
+      </c>
+      <c r="CN74" s="142">
+        <f t="shared" si="242"/>
+        <v>53579</v>
+      </c>
       <c r="CO74" s="142"/>
       <c r="CP74" s="142"/>
       <c r="CQ74" s="142"/>
@@ -44507,7 +44540,7 @@
       <c r="EE74" s="155"/>
       <c r="EF74" s="155"/>
     </row>
-    <row r="75" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C75" s="83"/>
       <c r="D75" s="83"/>
       <c r="E75" s="83"/>
@@ -44642,7 +44675,7 @@
       <c r="EE75" s="155"/>
       <c r="EF75" s="155"/>
     </row>
-    <row r="76" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="75" t="s">
         <v>430</v>
       </c>
@@ -44747,7 +44780,9 @@
       <c r="CK76" s="142"/>
       <c r="CL76" s="142"/>
       <c r="CM76" s="142"/>
-      <c r="CN76" s="142"/>
+      <c r="CN76" s="142">
+        <v>537</v>
+      </c>
       <c r="CO76" s="142"/>
       <c r="CP76" s="142"/>
       <c r="CQ76" s="142"/>
@@ -44792,7 +44827,7 @@
       <c r="EE76" s="155"/>
       <c r="EF76" s="155"/>
     </row>
-    <row r="77" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="75" t="s">
         <v>429</v>
       </c>
@@ -44897,7 +44932,9 @@
       <c r="CK77" s="142"/>
       <c r="CL77" s="142"/>
       <c r="CM77" s="142"/>
-      <c r="CN77" s="142"/>
+      <c r="CN77" s="142">
+        <v>3923</v>
+      </c>
       <c r="CO77" s="142"/>
       <c r="CP77" s="142"/>
       <c r="CQ77" s="142"/>
@@ -44942,7 +44979,7 @@
       <c r="EE77" s="155"/>
       <c r="EF77" s="155"/>
     </row>
-    <row r="78" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B78" s="75" t="s">
         <v>428</v>
       </c>
@@ -45084,7 +45121,7 @@
       <c r="EE78" s="155"/>
       <c r="EF78" s="155"/>
     </row>
-    <row r="79" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="75" t="s">
         <v>425</v>
       </c>
@@ -45226,7 +45263,7 @@
       <c r="EE79" s="155"/>
       <c r="EF79" s="155"/>
     </row>
-    <row r="80" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="75" t="s">
         <v>427</v>
       </c>
@@ -45331,7 +45368,9 @@
       <c r="CK80" s="142"/>
       <c r="CL80" s="142"/>
       <c r="CM80" s="142"/>
-      <c r="CN80" s="142"/>
+      <c r="CN80" s="142">
+        <v>4510</v>
+      </c>
       <c r="CO80" s="142"/>
       <c r="CP80" s="142"/>
       <c r="CQ80" s="142"/>
@@ -45376,7 +45415,7 @@
       <c r="EE80" s="155"/>
       <c r="EF80" s="155"/>
     </row>
-    <row r="81" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="75" t="s">
         <v>426</v>
       </c>
@@ -45519,7 +45558,7 @@
       <c r="EE81" s="155"/>
       <c r="EF81" s="155"/>
     </row>
-    <row r="82" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="75" t="s">
         <v>208</v>
       </c>
@@ -45629,7 +45668,10 @@
       <c r="CK82" s="142"/>
       <c r="CL82" s="142"/>
       <c r="CM82" s="142"/>
-      <c r="CN82" s="142"/>
+      <c r="CN82" s="142">
+        <f>1810+21540</f>
+        <v>23350</v>
+      </c>
       <c r="CO82" s="142"/>
       <c r="CP82" s="142"/>
       <c r="CQ82" s="142"/>
@@ -45674,7 +45716,7 @@
       <c r="EE82" s="155"/>
       <c r="EF82" s="155"/>
     </row>
-    <row r="83" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="75" t="s">
         <v>425</v>
       </c>
@@ -45784,7 +45826,9 @@
       <c r="CK83" s="142"/>
       <c r="CL83" s="142"/>
       <c r="CM83" s="142"/>
-      <c r="CN83" s="142"/>
+      <c r="CN83" s="142">
+        <v>738</v>
+      </c>
       <c r="CO83" s="142"/>
       <c r="CP83" s="142"/>
       <c r="CQ83" s="142"/>
@@ -45829,7 +45873,7 @@
       <c r="EE83" s="155"/>
       <c r="EF83" s="155"/>
     </row>
-    <row r="84" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B84" s="75" t="s">
         <v>424</v>
       </c>
@@ -45934,7 +45978,10 @@
       <c r="CK84" s="142"/>
       <c r="CL84" s="142"/>
       <c r="CM84" s="142"/>
-      <c r="CN84" s="142"/>
+      <c r="CN84" s="142">
+        <f>907+1418</f>
+        <v>2325</v>
+      </c>
       <c r="CO84" s="142"/>
       <c r="CP84" s="142"/>
       <c r="CQ84" s="142"/>
@@ -45979,7 +46026,7 @@
       <c r="EE84" s="155"/>
       <c r="EF84" s="155"/>
     </row>
-    <row r="85" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B85" s="100" t="s">
         <v>508</v>
       </c>
@@ -46020,27 +46067,27 @@
         <v>0</v>
       </c>
       <c r="AJ85" s="83">
-        <f t="shared" ref="AJ85:AO85" si="242">SUM(AJ76:AJ84)</f>
+        <f t="shared" ref="AJ85:AO85" si="243">SUM(AJ76:AJ84)</f>
         <v>0</v>
       </c>
       <c r="AK85" s="83">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>0</v>
       </c>
       <c r="AL85" s="83">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>0</v>
       </c>
       <c r="AM85" s="83">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>0</v>
       </c>
       <c r="AN85" s="83">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>0</v>
       </c>
       <c r="AO85" s="83">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>6405.2</v>
       </c>
       <c r="AP85" s="83"/>
@@ -46141,7 +46188,7 @@
       <c r="EE85" s="155"/>
       <c r="EF85" s="155"/>
     </row>
-    <row r="86" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="100" t="s">
         <v>509</v>
       </c>
@@ -46281,7 +46328,7 @@
       <c r="EE86" s="155"/>
       <c r="EF86" s="155"/>
     </row>
-    <row r="87" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="100" t="s">
         <v>510</v>
       </c>
@@ -46421,7 +46468,7 @@
       <c r="EE87" s="155"/>
       <c r="EF87" s="155"/>
     </row>
-    <row r="88" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="100" t="s">
         <v>511</v>
       </c>
@@ -46561,7 +46608,7 @@
       <c r="EE88" s="155"/>
       <c r="EF88" s="155"/>
     </row>
-    <row r="89" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:136" s="75" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="100" t="s">
         <v>512</v>
       </c>
@@ -46701,7 +46748,7 @@
       <c r="EE89" s="155"/>
       <c r="EF89" s="155"/>
     </row>
-    <row r="90" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="75" t="s">
         <v>422</v>
       </c>
@@ -46742,27 +46789,27 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="82">
-        <f t="shared" ref="AJ90:AO90" si="243">SUM(AJ86:AJ89)</f>
+        <f t="shared" ref="AJ90:AO90" si="244">SUM(AJ86:AJ89)</f>
         <v>0</v>
       </c>
       <c r="AK90" s="82">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>0</v>
       </c>
       <c r="AL90" s="82">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>0</v>
       </c>
       <c r="AM90" s="82">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>0</v>
       </c>
       <c r="AN90" s="82">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>0</v>
       </c>
       <c r="AO90" s="82">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>6117.4000000000005</v>
       </c>
       <c r="AP90" s="82"/>
@@ -46823,7 +46870,9 @@
       <c r="CK90" s="140"/>
       <c r="CL90" s="140"/>
       <c r="CM90" s="140"/>
-      <c r="CN90" s="140"/>
+      <c r="CN90" s="140">
+        <v>18197</v>
+      </c>
       <c r="CO90" s="140"/>
       <c r="CP90" s="140"/>
       <c r="CQ90" s="140"/>
@@ -46868,7 +46917,7 @@
       <c r="EE90" s="79"/>
       <c r="EF90" s="79"/>
     </row>
-    <row r="91" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="75" t="s">
         <v>423</v>
       </c>
@@ -46909,27 +46958,27 @@
         <v>0</v>
       </c>
       <c r="AJ91" s="82">
-        <f t="shared" ref="AJ91:AO91" si="244">AJ90+AJ85</f>
+        <f t="shared" ref="AJ91:AO91" si="245">AJ90+AJ85</f>
         <v>0</v>
       </c>
       <c r="AK91" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>0</v>
       </c>
       <c r="AL91" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>0</v>
       </c>
       <c r="AM91" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>0</v>
       </c>
       <c r="AN91" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>0</v>
       </c>
       <c r="AO91" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>12522.6</v>
       </c>
       <c r="AP91" s="82"/>
@@ -46994,7 +47043,10 @@
       <c r="CK91" s="140"/>
       <c r="CL91" s="140"/>
       <c r="CM91" s="140"/>
-      <c r="CN91" s="140"/>
+      <c r="CN91" s="140">
+        <f>SUM(CN76:CN90)</f>
+        <v>53580</v>
+      </c>
       <c r="CO91" s="140"/>
       <c r="CP91" s="140"/>
       <c r="CQ91" s="140"/>
@@ -47039,7 +47091,7 @@
       <c r="EE91" s="79"/>
       <c r="EF91" s="79"/>
     </row>
-    <row r="92" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="75" t="s">
         <v>21</v>
       </c>
@@ -47185,7 +47237,7 @@
       <c r="EE92" s="79"/>
       <c r="EF92" s="79"/>
     </row>
-    <row r="93" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="75"/>
       <c r="C93" s="82"/>
       <c r="D93" s="82"/>
@@ -47321,7 +47373,7 @@
       <c r="EE93" s="79"/>
       <c r="EF93" s="79"/>
     </row>
-    <row r="94" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="75"/>
       <c r="C94" s="82"/>
       <c r="D94" s="82"/>
@@ -47457,7 +47509,7 @@
       <c r="EE94" s="79"/>
       <c r="EF94" s="79"/>
     </row>
-    <row r="95" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B95" s="75"/>
       <c r="C95" s="82"/>
       <c r="D95" s="82"/>
@@ -47593,7 +47645,7 @@
       <c r="EE95" s="79"/>
       <c r="EF95" s="79"/>
     </row>
-    <row r="96" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B96" s="75"/>
       <c r="C96" s="82"/>
       <c r="D96" s="82"/>
@@ -47729,7 +47781,7 @@
       <c r="EE96" s="79"/>
       <c r="EF96" s="79"/>
     </row>
-    <row r="97" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B97" s="75"/>
       <c r="C97" s="82"/>
       <c r="D97" s="82"/>
@@ -47865,7 +47917,7 @@
       <c r="EE97" s="79"/>
       <c r="EF97" s="79"/>
     </row>
-    <row r="98" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="75"/>
       <c r="C98" s="82"/>
       <c r="D98" s="82"/>
@@ -48001,7 +48053,7 @@
       <c r="EE98" s="79"/>
       <c r="EF98" s="79"/>
     </row>
-    <row r="99" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:136" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B99" s="100" t="s">
         <v>637</v>
       </c>
@@ -48142,7 +48194,7 @@
       <c r="EE99" s="79"/>
       <c r="EF99" s="79"/>
     </row>
-    <row r="100" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:136" x14ac:dyDescent="0.15">
       <c r="B100" s="92" t="s">
         <v>638</v>
       </c>
@@ -48151,7 +48203,7 @@
         <v>0.50544168132936818</v>
       </c>
     </row>
-    <row r="101" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:136" x14ac:dyDescent="0.15">
       <c r="B101" s="92" t="s">
         <v>639</v>
       </c>
@@ -48160,7 +48212,7 @@
         <v>0.95795251286393612</v>
       </c>
     </row>
-    <row r="102" spans="2:136" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:136" x14ac:dyDescent="0.15">
       <c r="B102" s="92" t="s">
         <v>640</v>
       </c>
@@ -48171,16 +48223,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" scale="90" showRuler="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" scale="90" showRuler="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" scale="90" showRuler="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" scale="90" showRuler="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
       <headerFooter alignWithMargins="0"/>
@@ -48204,18 +48256,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -48223,33 +48275,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -48271,17 +48323,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="95" t="s">
         <v>54</v>
       </c>
@@ -48289,7 +48341,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="95" t="s">
         <v>53</v>
       </c>
@@ -48297,7 +48349,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -48305,7 +48357,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>719</v>
       </c>
@@ -48326,17 +48378,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="95" t="s">
         <v>54</v>
       </c>
@@ -48344,7 +48396,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="95" t="s">
         <v>53</v>
       </c>
@@ -48352,7 +48404,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="95" t="s">
         <v>1</v>
       </c>
@@ -48360,7 +48412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="95" t="s">
         <v>4</v>
       </c>
@@ -48368,13 +48420,13 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="95"/>
       <c r="C6" s="95" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="95" t="s">
         <v>727</v>
       </c>
@@ -48393,17 +48445,17 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="95" t="s">
         <v>54</v>
       </c>
@@ -48411,7 +48463,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="95" t="s">
         <v>53</v>
       </c>
@@ -48419,7 +48471,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="95" t="s">
         <v>1</v>
       </c>
@@ -48427,7 +48479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="95" t="s">
         <v>4</v>
       </c>
@@ -48451,19 +48503,19 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="95" t="s">
         <v>54</v>
       </c>
@@ -48471,7 +48523,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="95" t="s">
         <v>53</v>
       </c>
@@ -48479,7 +48531,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="95" t="s">
         <v>1</v>
       </c>
@@ -48487,32 +48539,32 @@
         <v>741</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="95" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="121" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="95" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="95" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="121" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="95" t="s">
         <v>746</v>
       </c>
@@ -48531,18 +48583,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>140</v>
       </c>
@@ -48550,57 +48602,57 @@
         <v>586</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" s="95" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" s="95" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" s="95" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="95" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="95" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" s="95" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="95" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="95" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="95" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="95" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="95" t="s">
         <v>486</v>
       </c>
@@ -48619,18 +48671,18 @@
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="95" t="s">
         <v>54</v>
       </c>
@@ -48638,7 +48690,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="95" t="s">
         <v>53</v>
       </c>
@@ -48646,7 +48698,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="95" t="s">
         <v>1</v>
       </c>
@@ -48654,12 +48706,12 @@
         <v>756</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="95" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="95" t="s">
         <v>2</v>
       </c>
@@ -48676,21 +48728,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -48804,10 +48841,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9771E67-9052-4CCB-BDDB-16EF0A4B87FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970FACA6-4FE8-43C1-9C92-1CB4DFD9972C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -48828,17 +48888,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970FACA6-4FE8-43C1-9C92-1CB4DFD9972C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9771E67-9052-4CCB-BDDB-16EF0A4B87FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F19D0EE-C774-FF49-8F0E-C1F032C26FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E0C2E6-07EE-0E4B-8694-02953BCD17F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17360" windowHeight="20740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="41" r:id="rId1"/>
@@ -46,8 +46,8 @@
   </sheets>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <customWorkbookViews>
+    <customWorkbookView name="David Zheng - Personal View" guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="628" activeSheetId="4"/>
     <customWorkbookView name="Martin Shkreli - Personal View" guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1250" windowHeight="882" activeSheetId="15"/>
-    <customWorkbookView name="David Zheng - Personal View" guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="628" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -20574,12 +20574,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -22736,12 +22736,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -22857,7 +22857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -23585,12 +23585,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
       <headerFooter alignWithMargins="0"/>
@@ -24841,13 +24841,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
@@ -25048,12 +25048,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -25160,12 +25160,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -25953,11 +25953,11 @@
   </sheetPr>
   <dimension ref="A1:GB102"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CC58" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CL66" sqref="CL66"/>
+      <selection pane="bottomRight" activeCell="BE14" sqref="BE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -26614,15 +26614,15 @@
       </c>
       <c r="DK3" s="139">
         <f t="shared" si="7"/>
-        <v>9912.8819999999996</v>
+        <v>5929.2059999999992</v>
       </c>
       <c r="DL3" s="139">
         <f t="shared" si="7"/>
-        <v>10395.085550000002</v>
+        <v>6166.6407500000005</v>
       </c>
       <c r="DM3" s="139">
         <f t="shared" si="7"/>
-        <v>11214.300562500002</v>
+        <v>6559.5162225000013</v>
       </c>
       <c r="DN3" s="139">
         <f t="shared" si="7"/>
@@ -28634,21 +28634,21 @@
       <c r="AZ14" s="126">
         <v>269.52</v>
       </c>
-      <c r="BA14" s="93">
-        <f>+AZ14+35</f>
-        <v>304.52</v>
-      </c>
-      <c r="BB14" s="93">
-        <f t="shared" ref="BB14" si="20">+BA14+35</f>
-        <v>339.52</v>
-      </c>
+      <c r="BA14" s="93"/>
+      <c r="BB14" s="93"/>
       <c r="BC14" s="93"/>
-      <c r="BD14" s="93"/>
-      <c r="BE14" s="93"/>
+      <c r="BD14" s="93">
+        <v>447</v>
+      </c>
+      <c r="BE14" s="93">
+        <v>511</v>
+      </c>
       <c r="BF14" s="93"/>
       <c r="BG14" s="93"/>
       <c r="BH14" s="93"/>
-      <c r="BI14" s="93"/>
+      <c r="BI14" s="93">
+        <v>621</v>
+      </c>
       <c r="BJ14" s="93"/>
       <c r="BK14" s="93"/>
       <c r="BL14" s="93"/>
@@ -28755,15 +28755,15 @@
       </c>
       <c r="DK14" s="93">
         <f>SUM(AY14:BB14)</f>
-        <v>1128.8309999999999</v>
+        <v>484.79099999999994</v>
       </c>
       <c r="DL14" s="93">
         <f>+DK14*1.5</f>
-        <v>1693.2464999999997</v>
+        <v>727.18649999999991</v>
       </c>
       <c r="DM14" s="93">
         <f>+DL14*1.5</f>
-        <v>2539.8697499999998</v>
+        <v>1090.7797499999999</v>
       </c>
       <c r="DN14" s="139"/>
       <c r="DO14" s="139"/>
@@ -28785,51 +28785,51 @@
         <v>101</v>
       </c>
       <c r="DU14" s="79">
-        <f t="shared" ref="DU14:EF14" si="21">+DT14*0.9</f>
+        <f t="shared" ref="DU14:EF14" si="20">+DT14*0.9</f>
         <v>90.9</v>
       </c>
       <c r="DV14" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>81.81</v>
       </c>
       <c r="DW14" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>73.629000000000005</v>
       </c>
       <c r="DX14" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>66.266100000000009</v>
       </c>
       <c r="DY14" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>59.639490000000009</v>
       </c>
       <c r="DZ14" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>53.67554100000001</v>
       </c>
       <c r="EA14" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>48.30798690000001</v>
       </c>
       <c r="EB14" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>43.477188210000008</v>
       </c>
       <c r="EC14" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>39.129469389000008</v>
       </c>
       <c r="ED14" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>35.216522450100008</v>
       </c>
       <c r="EE14" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>31.694870205090009</v>
       </c>
       <c r="EF14" s="79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>28.52538318458101</v>
       </c>
     </row>
@@ -28951,21 +28951,21 @@
       <c r="AZ15" s="127">
         <v>870.70799999999997</v>
       </c>
-      <c r="BA15" s="82">
-        <f>+AZ15-10</f>
-        <v>860.70799999999997</v>
-      </c>
-      <c r="BB15" s="82">
-        <f>+BA15-10</f>
-        <v>850.70799999999997</v>
-      </c>
+      <c r="BA15" s="82"/>
+      <c r="BB15" s="82"/>
       <c r="BC15" s="82"/>
-      <c r="BD15" s="82"/>
-      <c r="BE15" s="82"/>
+      <c r="BD15" s="82">
+        <v>782</v>
+      </c>
+      <c r="BE15" s="82">
+        <v>818</v>
+      </c>
       <c r="BF15" s="82"/>
       <c r="BG15" s="82"/>
       <c r="BH15" s="82"/>
-      <c r="BI15" s="82"/>
+      <c r="BI15" s="82">
+        <v>650</v>
+      </c>
       <c r="BJ15" s="82"/>
       <c r="BK15" s="82"/>
       <c r="BL15" s="82"/>
@@ -29050,28 +29050,28 @@
         <v>2926.1129999999998</v>
       </c>
       <c r="DH15" s="93">
-        <f t="shared" ref="DH15" si="22">SUM(AM15:AP15)</f>
+        <f t="shared" ref="DH15" si="21">SUM(AM15:AP15)</f>
         <v>3224.5189999999998</v>
       </c>
       <c r="DI15" s="93">
-        <f t="shared" ref="DI15" si="23">SUM(AQ15:AT15)</f>
+        <f t="shared" ref="DI15" si="22">SUM(AQ15:AT15)</f>
         <v>3574.4830000000002</v>
       </c>
       <c r="DJ15" s="93">
-        <f t="shared" ref="DJ15" si="24">SUM(AU15:AX15)</f>
+        <f t="shared" ref="DJ15" si="23">SUM(AU15:AX15)</f>
         <v>3648.4960000000001</v>
       </c>
       <c r="DK15" s="93">
         <f>SUM(AY15:BB15)</f>
-        <v>3361.7180000000003</v>
+        <v>1650.3020000000001</v>
       </c>
       <c r="DL15" s="83">
-        <f t="shared" ref="DL15:DM15" si="25">DK15*1.05</f>
-        <v>3529.8039000000003</v>
+        <f t="shared" ref="DL15:DM15" si="24">DK15*1.05</f>
+        <v>1732.8171000000002</v>
       </c>
       <c r="DM15" s="83">
-        <f t="shared" si="25"/>
-        <v>3706.2940950000007</v>
+        <f t="shared" si="24"/>
+        <v>1819.4579550000003</v>
       </c>
       <c r="DN15" s="142"/>
       <c r="DO15" s="142"/>
@@ -29093,51 +29093,51 @@
         <v>0</v>
       </c>
       <c r="DU15" s="79">
-        <f t="shared" ref="DU15:EF15" si="26">+DT15*0.9</f>
+        <f t="shared" ref="DU15:EF15" si="25">+DT15*0.9</f>
         <v>0</v>
       </c>
       <c r="DV15" s="79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="DW15" s="79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="DX15" s="79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="DY15" s="79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="DZ15" s="79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="EA15" s="79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="EB15" s="79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="EC15" s="79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="ED15" s="79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="EE15" s="79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="EF15" s="79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -29275,21 +29275,21 @@
       <c r="AZ16" s="127">
         <v>806.61</v>
       </c>
-      <c r="BA16" s="82">
-        <f>+AZ16+5</f>
-        <v>811.61</v>
-      </c>
-      <c r="BB16" s="82">
-        <f>+BA16+5</f>
-        <v>816.61</v>
-      </c>
+      <c r="BA16" s="82"/>
+      <c r="BB16" s="82"/>
       <c r="BC16" s="82"/>
-      <c r="BD16" s="82"/>
-      <c r="BE16" s="82"/>
+      <c r="BD16" s="93">
+        <v>849</v>
+      </c>
+      <c r="BE16" s="82">
+        <v>903</v>
+      </c>
       <c r="BF16" s="82"/>
       <c r="BG16" s="82"/>
       <c r="BH16" s="82"/>
-      <c r="BI16" s="82"/>
+      <c r="BI16" s="82">
+        <v>858</v>
+      </c>
       <c r="BJ16" s="82"/>
       <c r="BK16" s="82"/>
       <c r="BL16" s="82"/>
@@ -29409,15 +29409,15 @@
       </c>
       <c r="DK16" s="93">
         <f>SUM(AY16:BB16)</f>
-        <v>3194.53</v>
+        <v>1566.31</v>
       </c>
       <c r="DL16" s="82">
         <f>+DK16*0.9</f>
-        <v>2875.0770000000002</v>
+        <v>1409.6790000000001</v>
       </c>
       <c r="DM16" s="82">
-        <f t="shared" ref="DM16" si="27">+DL16*0.9</f>
-        <v>2587.5693000000001</v>
+        <f t="shared" ref="DM16" si="26">+DL16*0.9</f>
+        <v>1268.7111000000002</v>
       </c>
       <c r="DN16" s="140"/>
       <c r="DO16" s="140"/>
@@ -29439,51 +29439,51 @@
         <v>114</v>
       </c>
       <c r="DU16" s="79">
-        <f t="shared" ref="DU16:EF16" si="28">+DT16*0.9</f>
+        <f t="shared" ref="DU16:EF16" si="27">+DT16*0.9</f>
         <v>102.60000000000001</v>
       </c>
       <c r="DV16" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>92.34</v>
       </c>
       <c r="DW16" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>83.106000000000009</v>
       </c>
       <c r="DX16" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>74.795400000000015</v>
       </c>
       <c r="DY16" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>67.315860000000015</v>
       </c>
       <c r="DZ16" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>60.584274000000015</v>
       </c>
       <c r="EA16" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>54.525846600000015</v>
       </c>
       <c r="EB16" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>49.073261940000016</v>
       </c>
       <c r="EC16" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>44.165935746000017</v>
       </c>
       <c r="ED16" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>39.749342171400016</v>
       </c>
       <c r="EE16" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>35.774407954260013</v>
       </c>
       <c r="EF16" s="79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>32.196967158834013</v>
       </c>
     </row>
@@ -29644,7 +29644,9 @@
         <v>266.89400000000001</v>
       </c>
       <c r="BC17" s="82"/>
-      <c r="BD17" s="82"/>
+      <c r="BD17" s="82">
+        <v>271</v>
+      </c>
       <c r="BE17" s="82"/>
       <c r="BF17" s="82"/>
       <c r="BG17" s="82"/>
@@ -29781,11 +29783,11 @@
         <v>1005.1469999999999</v>
       </c>
       <c r="DL17" s="82">
-        <f t="shared" ref="DL17:DM17" si="29">DK17*0.95</f>
+        <f t="shared" ref="DL17:DM17" si="28">DK17*0.95</f>
         <v>954.88964999999985</v>
       </c>
       <c r="DM17" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>907.14516749999984</v>
       </c>
       <c r="DN17" s="140"/>
@@ -29808,51 +29810,51 @@
         <v>67</v>
       </c>
       <c r="DU17" s="79">
-        <f t="shared" ref="DU17:EF17" si="30">+DT17*0.9</f>
+        <f t="shared" ref="DU17:EF17" si="29">+DT17*0.9</f>
         <v>60.300000000000004</v>
       </c>
       <c r="DV17" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>54.27</v>
       </c>
       <c r="DW17" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>48.843000000000004</v>
       </c>
       <c r="DX17" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>43.958700000000007</v>
       </c>
       <c r="DY17" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>39.562830000000005</v>
       </c>
       <c r="DZ17" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>35.606547000000006</v>
       </c>
       <c r="EA17" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>32.045892300000006</v>
       </c>
       <c r="EB17" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>28.841303070000006</v>
       </c>
       <c r="EC17" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>25.957172763000006</v>
       </c>
       <c r="ED17" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>23.361455486700006</v>
       </c>
       <c r="EE17" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>21.025309938030006</v>
       </c>
       <c r="EF17" s="79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>18.922778944227005</v>
       </c>
     </row>
@@ -29938,21 +29940,21 @@
       <c r="AZ18" s="126">
         <v>3480.326</v>
       </c>
-      <c r="BA18" s="93">
-        <f>+AZ18+500</f>
-        <v>3980.326</v>
-      </c>
-      <c r="BB18" s="93">
-        <f>+BA18-500</f>
-        <v>3480.326</v>
-      </c>
+      <c r="BA18" s="93"/>
+      <c r="BB18" s="93"/>
       <c r="BC18" s="93"/>
-      <c r="BD18" s="93"/>
-      <c r="BE18" s="93"/>
+      <c r="BD18" s="93">
+        <v>1291</v>
+      </c>
+      <c r="BE18" s="93">
+        <v>1466</v>
+      </c>
       <c r="BF18" s="93"/>
       <c r="BG18" s="93"/>
       <c r="BH18" s="93"/>
-      <c r="BI18" s="93"/>
+      <c r="BI18" s="93">
+        <v>825</v>
+      </c>
       <c r="BJ18" s="93"/>
       <c r="BK18" s="93"/>
       <c r="BL18" s="93"/>
@@ -30016,16 +30018,16 @@
         <v>139.435</v>
       </c>
       <c r="DK18" s="93">
-        <f t="shared" ref="DK18:DK38" si="31">SUM(AY18:BB18)</f>
-        <v>13215.327000000001</v>
+        <f t="shared" ref="DK18:DK38" si="30">SUM(AY18:BB18)</f>
+        <v>5754.6750000000002</v>
       </c>
       <c r="DL18" s="93">
         <f>+DK18*1.2</f>
-        <v>15858.392400000001</v>
+        <v>6905.61</v>
       </c>
       <c r="DM18" s="93">
         <f>+DL18*1.01</f>
-        <v>16016.976324000001</v>
+        <v>6974.6660999999995</v>
       </c>
       <c r="DN18" s="139"/>
       <c r="DO18" s="139"/>
@@ -30047,51 +30049,51 @@
         <v>0</v>
       </c>
       <c r="DU18" s="79">
-        <f t="shared" ref="DU18:EF18" si="32">+DT18*0.9</f>
+        <f t="shared" ref="DU18:EF18" si="31">+DT18*0.9</f>
         <v>0</v>
       </c>
       <c r="DV18" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DW18" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DX18" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DY18" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="DZ18" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="EA18" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="EB18" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="EC18" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="ED18" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="EE18" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="EF18" s="79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -30217,19 +30219,19 @@
       <c r="DF19" s="103"/>
       <c r="DG19" s="103"/>
       <c r="DH19" s="93">
-        <f t="shared" ref="DH19" si="33">SUM(AM19:AP19)</f>
+        <f t="shared" ref="DH19" si="32">SUM(AM19:AP19)</f>
         <v>0</v>
       </c>
       <c r="DI19" s="93">
-        <f t="shared" ref="DI19" si="34">SUM(AQ19:AT19)</f>
+        <f t="shared" ref="DI19" si="33">SUM(AQ19:AT19)</f>
         <v>0</v>
       </c>
       <c r="DJ19" s="83">
-        <f t="shared" ref="DJ19" si="35">SUM(AU19:AX19)</f>
+        <f t="shared" ref="DJ19" si="34">SUM(AU19:AX19)</f>
         <v>0</v>
       </c>
       <c r="DK19" s="93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1000</v>
       </c>
       <c r="DL19" s="93">
@@ -30258,51 +30260,51 @@
         <v>0</v>
       </c>
       <c r="DU19" s="79">
-        <f t="shared" ref="DU19:EF19" si="36">+DT19*0.9</f>
+        <f t="shared" ref="DU19:EF19" si="35">+DT19*0.9</f>
         <v>0</v>
       </c>
       <c r="DV19" s="79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="DW19" s="79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="DX19" s="79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="DY19" s="79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="DZ19" s="79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="EA19" s="79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="EB19" s="79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="EC19" s="79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="ED19" s="79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="EE19" s="79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="EF19" s="79">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -30359,16 +30361,24 @@
       <c r="AW20" s="93"/>
       <c r="AX20" s="93"/>
       <c r="AY20" s="93"/>
-      <c r="AZ20" s="126"/>
+      <c r="AZ20" s="126">
+        <v>0</v>
+      </c>
       <c r="BA20" s="93"/>
       <c r="BB20" s="93"/>
       <c r="BC20" s="93"/>
-      <c r="BD20" s="93"/>
-      <c r="BE20" s="93"/>
+      <c r="BD20" s="93">
+        <v>3608</v>
+      </c>
+      <c r="BE20" s="93">
+        <v>3332</v>
+      </c>
       <c r="BF20" s="93"/>
       <c r="BG20" s="93"/>
       <c r="BH20" s="93"/>
-      <c r="BI20" s="93"/>
+      <c r="BI20" s="93">
+        <v>1860</v>
+      </c>
       <c r="BJ20" s="93"/>
       <c r="BK20" s="93"/>
       <c r="BL20" s="93"/>
@@ -30487,51 +30497,51 @@
         <v>70</v>
       </c>
       <c r="DU20" s="79">
-        <f t="shared" ref="DU20:EF20" si="37">+DT20*0.9</f>
+        <f t="shared" ref="DU20:EF20" si="36">+DT20*0.9</f>
         <v>63</v>
       </c>
       <c r="DV20" s="79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>56.7</v>
       </c>
       <c r="DW20" s="79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>51.03</v>
       </c>
       <c r="DX20" s="79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>45.927</v>
       </c>
       <c r="DY20" s="79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>41.334299999999999</v>
       </c>
       <c r="DZ20" s="79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>37.200870000000002</v>
       </c>
       <c r="EA20" s="79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>33.480783000000002</v>
       </c>
       <c r="EB20" s="79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>30.132704700000001</v>
       </c>
       <c r="EC20" s="79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>27.119434230000003</v>
       </c>
       <c r="ED20" s="79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>24.407490807000002</v>
       </c>
       <c r="EE20" s="79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>21.966741726300004</v>
       </c>
       <c r="EF20" s="79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>19.770067553670003</v>
       </c>
     </row>
@@ -30724,47 +30734,47 @@
         <v>776.7</v>
       </c>
       <c r="DV21" s="79">
-        <f t="shared" ref="DV21:EF21" si="38">+DU21*0.9</f>
+        <f t="shared" ref="DV21:EF21" si="37">+DU21*0.9</f>
         <v>699.03000000000009</v>
       </c>
       <c r="DW21" s="79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>629.12700000000007</v>
       </c>
       <c r="DX21" s="79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>566.21430000000009</v>
       </c>
       <c r="DY21" s="79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>509.59287000000012</v>
       </c>
       <c r="DZ21" s="79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>458.6335830000001</v>
       </c>
       <c r="EA21" s="79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>412.77022470000009</v>
       </c>
       <c r="EB21" s="79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>371.49320223000007</v>
       </c>
       <c r="EC21" s="79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>334.34388200700005</v>
       </c>
       <c r="ED21" s="79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>300.90949380630008</v>
       </c>
       <c r="EE21" s="79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>270.8185444256701</v>
       </c>
       <c r="EF21" s="79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>243.7366899831031</v>
       </c>
     </row>
@@ -30826,11 +30836,15 @@
       <c r="BB22" s="93"/>
       <c r="BC22" s="93"/>
       <c r="BD22" s="93"/>
-      <c r="BE22" s="93"/>
+      <c r="BE22" s="93">
+        <v>0</v>
+      </c>
       <c r="BF22" s="93"/>
       <c r="BG22" s="93"/>
       <c r="BH22" s="93"/>
-      <c r="BI22" s="93"/>
+      <c r="BI22" s="93">
+        <v>640</v>
+      </c>
       <c r="BJ22" s="93"/>
       <c r="BK22" s="93"/>
       <c r="BL22" s="93"/>
@@ -31661,11 +31675,11 @@
         <v>7.343</v>
       </c>
       <c r="BA26" s="82">
-        <f t="shared" ref="BA26:BB26" si="39">+AZ26</f>
+        <f t="shared" ref="BA26:BB26" si="38">+AZ26</f>
         <v>7.343</v>
       </c>
       <c r="BB26" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>7.343</v>
       </c>
       <c r="BC26" s="82"/>
@@ -31743,31 +31757,31 @@
         <v>28.059000000000001</v>
       </c>
       <c r="DG26" s="105">
-        <f t="shared" ref="DG26:DG37" si="40">SUM(AI26:AL26)</f>
+        <f t="shared" ref="DG26:DG37" si="39">SUM(AI26:AL26)</f>
         <v>13.445</v>
       </c>
       <c r="DH26" s="93">
-        <f t="shared" ref="DH26:DH38" si="41">SUM(AM26:AP26)</f>
+        <f t="shared" ref="DH26:DH38" si="40">SUM(AM26:AP26)</f>
         <v>28.796999999999997</v>
       </c>
       <c r="DI26" s="93">
-        <f t="shared" ref="DI26:DI38" si="42">SUM(AQ26:AT26)</f>
+        <f t="shared" ref="DI26:DI38" si="41">SUM(AQ26:AT26)</f>
         <v>29.448999999999998</v>
       </c>
       <c r="DJ26" s="83">
-        <f t="shared" ref="DJ26:DJ38" si="43">SUM(AU26:AX26)</f>
+        <f t="shared" ref="DJ26:DJ38" si="42">SUM(AU26:AX26)</f>
         <v>27.404999999999998</v>
       </c>
       <c r="DK26" s="93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>28.530999999999999</v>
       </c>
       <c r="DL26" s="82">
-        <f t="shared" ref="DL26:DM31" si="44">DK26</f>
+        <f t="shared" ref="DL26:DM31" si="43">DK26</f>
         <v>28.530999999999999</v>
       </c>
       <c r="DM26" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>28.530999999999999</v>
       </c>
       <c r="DN26" s="140"/>
@@ -31887,15 +31901,17 @@
         <v>299.464</v>
       </c>
       <c r="BA27" s="82">
-        <f t="shared" ref="BA27:BB27" si="45">+AZ27+15</f>
+        <f t="shared" ref="BA27:BB27" si="44">+AZ27+15</f>
         <v>314.464</v>
       </c>
       <c r="BB27" s="82">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>329.464</v>
       </c>
       <c r="BC27" s="82"/>
-      <c r="BD27" s="82"/>
+      <c r="BD27" s="82">
+        <v>367</v>
+      </c>
       <c r="BE27" s="82"/>
       <c r="BF27" s="82"/>
       <c r="BG27" s="82"/>
@@ -31993,19 +32009,19 @@
       <c r="DF27" s="105"/>
       <c r="DG27" s="105"/>
       <c r="DH27" s="93">
+        <f t="shared" si="40"/>
+        <v>38.703000000000003</v>
+      </c>
+      <c r="DI27" s="93">
         <f t="shared" si="41"/>
-        <v>38.703000000000003</v>
-      </c>
-      <c r="DI27" s="93">
+        <v>342.2</v>
+      </c>
+      <c r="DJ27" s="83">
         <f t="shared" si="42"/>
-        <v>342.2</v>
-      </c>
-      <c r="DJ27" s="83">
-        <f t="shared" si="43"/>
         <v>809.452</v>
       </c>
       <c r="DK27" s="93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1194.125</v>
       </c>
       <c r="DL27" s="82">
@@ -32013,7 +32029,7 @@
         <v>1313.5375000000001</v>
       </c>
       <c r="DM27" s="82">
-        <f t="shared" ref="DM27" si="46">+DL27*1.1</f>
+        <f t="shared" ref="DM27" si="45">+DL27*1.1</f>
         <v>1444.8912500000004</v>
       </c>
       <c r="DN27" s="140"/>
@@ -32791,11 +32807,11 @@
         <v>17</v>
       </c>
       <c r="BA31" s="82">
-        <f t="shared" ref="BA31:BB31" si="47">+AZ31</f>
+        <f t="shared" ref="BA31:BB31" si="46">+AZ31</f>
         <v>17</v>
       </c>
       <c r="BB31" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>17</v>
       </c>
       <c r="BC31" s="82"/>
@@ -32881,31 +32897,31 @@
         <v>270.71600000000001</v>
       </c>
       <c r="DG31" s="105">
+        <f t="shared" si="39"/>
+        <v>98.834000000000003</v>
+      </c>
+      <c r="DH31" s="93">
         <f t="shared" si="40"/>
-        <v>98.834000000000003</v>
-      </c>
-      <c r="DH31" s="93">
+        <v>145.648</v>
+      </c>
+      <c r="DI31" s="93">
         <f t="shared" si="41"/>
-        <v>145.648</v>
-      </c>
-      <c r="DI31" s="93">
+        <v>108.315</v>
+      </c>
+      <c r="DJ31" s="83">
         <f t="shared" si="42"/>
-        <v>108.315</v>
-      </c>
-      <c r="DJ31" s="83">
+        <v>81.094999999999999</v>
+      </c>
+      <c r="DK31" s="93">
+        <f t="shared" si="30"/>
+        <v>62.722999999999999</v>
+      </c>
+      <c r="DL31" s="82">
         <f t="shared" si="43"/>
-        <v>81.094999999999999</v>
-      </c>
-      <c r="DK31" s="93">
-        <f t="shared" si="31"/>
         <v>62.722999999999999</v>
       </c>
-      <c r="DL31" s="82">
-        <f t="shared" si="44"/>
-        <v>62.722999999999999</v>
-      </c>
       <c r="DM31" s="82">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>62.722999999999999</v>
       </c>
       <c r="DN31" s="140"/>
@@ -32997,7 +33013,9 @@
       <c r="BA32" s="93"/>
       <c r="BB32" s="93"/>
       <c r="BC32" s="93"/>
-      <c r="BD32" s="93"/>
+      <c r="BD32" s="93">
+        <v>30</v>
+      </c>
       <c r="BE32" s="93"/>
       <c r="BF32" s="93"/>
       <c r="BG32" s="93"/>
@@ -33072,19 +33090,19 @@
       <c r="DF32" s="103"/>
       <c r="DG32" s="103"/>
       <c r="DH32" s="93">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="DI32" s="93">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="DI32" s="93">
+      <c r="DJ32" s="83">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="DJ32" s="83">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
       <c r="DK32" s="93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="DL32" s="103">
@@ -33276,15 +33294,17 @@
         <v>94.793999999999997</v>
       </c>
       <c r="BA33" s="82">
-        <f t="shared" ref="BA33:BB33" si="48">+AZ33</f>
+        <f t="shared" ref="BA33:BB33" si="47">+AZ33</f>
         <v>94.793999999999997</v>
       </c>
       <c r="BB33" s="82">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>94.793999999999997</v>
       </c>
       <c r="BC33" s="82"/>
-      <c r="BD33" s="82"/>
+      <c r="BD33" s="82">
+        <v>103</v>
+      </c>
       <c r="BE33" s="82"/>
       <c r="BF33" s="82"/>
       <c r="BG33" s="82"/>
@@ -33416,27 +33436,27 @@
         <v>153.274</v>
       </c>
       <c r="DH33" s="93">
+        <f t="shared" si="40"/>
+        <v>330.11500000000001</v>
+      </c>
+      <c r="DI33" s="93">
         <f t="shared" si="41"/>
-        <v>330.11500000000001</v>
-      </c>
-      <c r="DI33" s="93">
+        <v>346.64600000000002</v>
+      </c>
+      <c r="DJ33" s="83">
         <f t="shared" si="42"/>
-        <v>346.64600000000002</v>
-      </c>
-      <c r="DJ33" s="83">
-        <f t="shared" si="43"/>
         <v>351.827</v>
       </c>
       <c r="DK33" s="93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>376.47499999999997</v>
       </c>
       <c r="DL33" s="82">
-        <f t="shared" ref="DL33:DM33" si="49">DK33</f>
+        <f t="shared" ref="DL33:DM33" si="48">DK33</f>
         <v>376.47499999999997</v>
       </c>
       <c r="DM33" s="82">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>376.47499999999997</v>
       </c>
       <c r="DN33" s="140"/>
@@ -33578,15 +33598,17 @@
         <v>144.71600000000001</v>
       </c>
       <c r="BA34" s="82">
-        <f t="shared" ref="BA34:BB34" si="50">+AZ34+3</f>
+        <f t="shared" ref="BA34:BB34" si="49">+AZ34+3</f>
         <v>147.71600000000001</v>
       </c>
       <c r="BB34" s="82">
-        <f t="shared" si="50"/>
+        <f t="shared" si="49"/>
         <v>150.71600000000001</v>
       </c>
       <c r="BC34" s="82"/>
-      <c r="BD34" s="82"/>
+      <c r="BD34" s="82">
+        <v>176</v>
+      </c>
       <c r="BE34" s="82"/>
       <c r="BF34" s="82"/>
       <c r="BG34" s="82"/>
@@ -33692,31 +33714,31 @@
         <v>183.94900000000001</v>
       </c>
       <c r="DG34" s="104">
+        <f t="shared" si="39"/>
+        <v>120.74799999999999</v>
+      </c>
+      <c r="DH34" s="93">
         <f t="shared" si="40"/>
-        <v>120.74799999999999</v>
-      </c>
-      <c r="DH34" s="93">
+        <v>293.47199999999998</v>
+      </c>
+      <c r="DI34" s="93">
         <f t="shared" si="41"/>
-        <v>293.47199999999998</v>
-      </c>
-      <c r="DI34" s="93">
+        <v>410.05399999999997</v>
+      </c>
+      <c r="DJ34" s="83">
         <f t="shared" si="42"/>
-        <v>410.05399999999997</v>
-      </c>
-      <c r="DJ34" s="83">
-        <f t="shared" si="43"/>
         <v>519.96600000000001</v>
       </c>
       <c r="DK34" s="93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>566.03300000000002</v>
       </c>
       <c r="DL34" s="82">
-        <f t="shared" ref="DL34:DM34" si="51">DK34*1.05</f>
+        <f t="shared" ref="DL34:DM34" si="50">DK34*1.05</f>
         <v>594.33465000000001</v>
       </c>
       <c r="DM34" s="82">
-        <f t="shared" si="51"/>
+        <f t="shared" si="50"/>
         <v>624.05138250000005</v>
       </c>
       <c r="DN34" s="140"/>
@@ -33848,15 +33870,17 @@
         <v>121.956</v>
       </c>
       <c r="BA35" s="82">
-        <f t="shared" ref="BA35:BB35" si="52">+AZ35+3</f>
+        <f t="shared" ref="BA35:BB35" si="51">+AZ35+3</f>
         <v>124.956</v>
       </c>
       <c r="BB35" s="82">
-        <f t="shared" si="52"/>
+        <f t="shared" si="51"/>
         <v>127.956</v>
       </c>
       <c r="BC35" s="82"/>
-      <c r="BD35" s="82"/>
+      <c r="BD35" s="82">
+        <v>141</v>
+      </c>
       <c r="BE35" s="82"/>
       <c r="BF35" s="82"/>
       <c r="BG35" s="82"/>
@@ -33940,31 +33964,31 @@
         <v>131.06199999999998</v>
       </c>
       <c r="DG35" s="104">
+        <f t="shared" si="39"/>
+        <v>120.75999999999999</v>
+      </c>
+      <c r="DH35" s="93">
         <f t="shared" si="40"/>
-        <v>120.75999999999999</v>
-      </c>
-      <c r="DH35" s="93">
+        <v>320.02100000000002</v>
+      </c>
+      <c r="DI35" s="93">
         <f t="shared" si="41"/>
-        <v>320.02100000000002</v>
-      </c>
-      <c r="DI35" s="93">
+        <v>372.94900000000001</v>
+      </c>
+      <c r="DJ35" s="83">
         <f t="shared" si="42"/>
-        <v>372.94900000000001</v>
-      </c>
-      <c r="DJ35" s="83">
-        <f t="shared" si="43"/>
         <v>448.62399999999997</v>
       </c>
       <c r="DK35" s="93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>486.48600000000005</v>
       </c>
       <c r="DL35" s="82">
-        <f t="shared" ref="DL35:DM35" si="53">DK35*1.1</f>
+        <f t="shared" ref="DL35:DM35" si="52">DK35*1.1</f>
         <v>535.13460000000009</v>
       </c>
       <c r="DM35" s="82">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>588.6480600000001</v>
       </c>
       <c r="DN35" s="140"/>
@@ -34112,19 +34136,19 @@
       <c r="DF36" s="105"/>
       <c r="DG36" s="104"/>
       <c r="DH36" s="93">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="DI36" s="93">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="DI36" s="93">
+      <c r="DJ36" s="83">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="DJ36" s="83">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
       <c r="DK36" s="93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="DL36" s="93" t="s">
@@ -34311,15 +34335,18 @@
         <v>39.326999999999998</v>
       </c>
       <c r="BA37" s="82">
-        <f t="shared" ref="BA37:BB37" si="54">+AZ37+1</f>
+        <f t="shared" ref="BA37:BB37" si="53">+AZ37+1</f>
         <v>40.326999999999998</v>
       </c>
       <c r="BB37" s="82">
-        <f t="shared" si="54"/>
+        <f t="shared" si="53"/>
         <v>41.326999999999998</v>
       </c>
       <c r="BC37" s="82"/>
-      <c r="BD37" s="82"/>
+      <c r="BD37" s="82">
+        <f>16+45</f>
+        <v>61</v>
+      </c>
       <c r="BE37" s="82"/>
       <c r="BF37" s="82"/>
       <c r="BG37" s="82"/>
@@ -34467,31 +34494,31 @@
         <v>17.081</v>
       </c>
       <c r="DG37" s="104">
+        <f t="shared" si="39"/>
+        <v>35.142000000000003</v>
+      </c>
+      <c r="DH37" s="93">
         <f t="shared" si="40"/>
-        <v>35.142000000000003</v>
-      </c>
-      <c r="DH37" s="93">
+        <v>85.116</v>
+      </c>
+      <c r="DI37" s="93">
         <f t="shared" si="41"/>
-        <v>85.116</v>
-      </c>
-      <c r="DI37" s="93">
+        <v>126.93199999999999</v>
+      </c>
+      <c r="DJ37" s="83">
         <f t="shared" si="42"/>
-        <v>126.93199999999999</v>
-      </c>
-      <c r="DJ37" s="83">
-        <f t="shared" si="43"/>
         <v>143.399</v>
       </c>
       <c r="DK37" s="93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>156.86199999999999</v>
       </c>
       <c r="DL37" s="82">
-        <f t="shared" ref="DL37:DM37" si="55">+DK37</f>
+        <f t="shared" ref="DL37:DM37" si="54">+DK37</f>
         <v>156.86199999999999</v>
       </c>
       <c r="DM37" s="82">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>156.86199999999999</v>
       </c>
       <c r="DN37" s="140"/>
@@ -34691,7 +34718,9 @@
         <v>76.635999999999996</v>
       </c>
       <c r="BC38" s="82"/>
-      <c r="BD38" s="82"/>
+      <c r="BD38" s="82">
+        <v>118</v>
+      </c>
       <c r="BE38" s="82"/>
       <c r="BF38" s="82"/>
       <c r="BG38" s="82"/>
@@ -34813,27 +34842,27 @@
         <v>559.49900000000002</v>
       </c>
       <c r="DH38" s="93">
+        <f t="shared" si="40"/>
+        <v>283.02500000000003</v>
+      </c>
+      <c r="DI38" s="93">
         <f t="shared" si="41"/>
-        <v>283.02500000000003</v>
-      </c>
-      <c r="DI38" s="93">
+        <v>304.14600000000002</v>
+      </c>
+      <c r="DJ38" s="83">
         <f t="shared" si="42"/>
-        <v>304.14600000000002</v>
-      </c>
-      <c r="DJ38" s="83">
-        <f t="shared" si="43"/>
         <v>397.99299999999994</v>
       </c>
       <c r="DK38" s="93">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>403.26</v>
       </c>
       <c r="DL38" s="82">
-        <f t="shared" ref="DL38:DM38" si="56">DK38*0.9</f>
+        <f t="shared" ref="DL38:DM38" si="55">DK38*0.9</f>
         <v>362.93400000000003</v>
       </c>
       <c r="DM38" s="82">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>326.64060000000001</v>
       </c>
       <c r="DN38" s="140"/>
@@ -34873,35 +34902,35 @@
         <v>48</v>
       </c>
       <c r="C39" s="80">
-        <f t="shared" ref="C39:J39" si="57">SUM(C38:C38)</f>
+        <f t="shared" ref="C39:J39" si="56">SUM(C38:C38)</f>
         <v>5.3769999999999998</v>
       </c>
       <c r="D39" s="80">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>6.7370000000000001</v>
       </c>
       <c r="E39" s="80">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>4.3819999999999997</v>
       </c>
       <c r="F39" s="80">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>3.91</v>
       </c>
       <c r="G39" s="80">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>7.3840000000000003</v>
       </c>
       <c r="H39" s="80">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>7.0350000000000001</v>
       </c>
       <c r="I39" s="80">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>4.875</v>
       </c>
       <c r="J39" s="80">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>5.9249999999999998</v>
       </c>
       <c r="K39" s="80" t="e">
@@ -34985,107 +35014,125 @@
         <v>#REF!</v>
       </c>
       <c r="AE39" s="80">
-        <f t="shared" ref="AE39:BB39" si="58">SUM(AE14:AE38)</f>
+        <f t="shared" ref="AE39:BH39" si="57">SUM(AE14:AE38)</f>
         <v>1530.46</v>
       </c>
       <c r="AF39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1647.155</v>
       </c>
       <c r="AG39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1801.3890000000006</v>
       </c>
       <c r="AH39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2031.8679999999997</v>
       </c>
       <c r="AI39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>297.79000000000002</v>
       </c>
       <c r="AJ39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1927.2239999999999</v>
       </c>
       <c r="AK39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1937.4970000000001</v>
       </c>
       <c r="AL39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>68.448999999999998</v>
       </c>
       <c r="AM39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>1902.1790000000001</v>
       </c>
       <c r="AN39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2137.2530000000002</v>
       </c>
       <c r="AO39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2122.2000000000003</v>
       </c>
       <c r="AP39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2200.3779999999997</v>
       </c>
       <c r="AQ39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2282.4489999999996</v>
       </c>
       <c r="AR39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2405.1859999999997</v>
       </c>
       <c r="AS39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2426.5970000000002</v>
       </c>
       <c r="AT39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2588.2849999999999</v>
       </c>
       <c r="AU39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2531.6350000000002</v>
       </c>
       <c r="AV39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2767.3940000000007</v>
       </c>
       <c r="AW39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>2782.8330000000001</v>
       </c>
       <c r="AX39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>3119.826</v>
       </c>
       <c r="AY39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>4998.9560000000019</v>
       </c>
       <c r="AZ39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>6534.5040000000008</v>
       </c>
       <c r="BA39" s="80">
-        <f t="shared" si="58"/>
-        <v>7047.2940000000008</v>
+        <f t="shared" si="57"/>
+        <v>1090.1300000000001</v>
       </c>
       <c r="BB39" s="80">
-        <f t="shared" si="58"/>
-        <v>7599.2940000000008</v>
-      </c>
-      <c r="BC39" s="80"/>
-      <c r="BD39" s="80"/>
-      <c r="BE39" s="80"/>
-      <c r="BF39" s="80"/>
-      <c r="BG39" s="80"/>
-      <c r="BH39" s="80"/>
+        <f t="shared" si="57"/>
+        <v>2112.13</v>
+      </c>
+      <c r="BC39" s="80">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BD39" s="80">
+        <f t="shared" si="57"/>
+        <v>8244</v>
+      </c>
+      <c r="BE39" s="80">
+        <f t="shared" si="57"/>
+        <v>7030</v>
+      </c>
+      <c r="BF39" s="80">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BG39" s="80">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BH39" s="80">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
       <c r="BI39" s="80"/>
       <c r="BJ39" s="80"/>
       <c r="BK39" s="80"/>
@@ -35095,99 +35142,99 @@
       <c r="BO39" s="80"/>
       <c r="BP39" s="80"/>
       <c r="BQ39" s="167">
-        <f t="shared" ref="BQ39:CH39" si="59">SUM(BQ9:BQ38)</f>
+        <f t="shared" ref="BQ39:CH39" si="58">SUM(BQ9:BQ38)</f>
         <v>5596</v>
       </c>
       <c r="BR39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>5795</v>
       </c>
       <c r="BS39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>5281</v>
       </c>
       <c r="BT39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="BU39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>5604</v>
       </c>
       <c r="BV39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>5879</v>
       </c>
       <c r="BW39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>5548</v>
       </c>
       <c r="BX39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>5143</v>
       </c>
       <c r="BY39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>6577</v>
       </c>
       <c r="BZ39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>7421</v>
       </c>
       <c r="CA39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>6423</v>
       </c>
       <c r="CB39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>6217</v>
       </c>
       <c r="CC39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>7421</v>
       </c>
       <c r="CD39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>7243</v>
       </c>
       <c r="CE39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>6589</v>
       </c>
       <c r="CF39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>6261</v>
       </c>
       <c r="CG39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>7042</v>
       </c>
       <c r="CH39" s="167">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>7389</v>
       </c>
       <c r="CI39" s="167">
-        <f t="shared" ref="CI39" si="60">SUM(CI9:CI38)</f>
+        <f t="shared" ref="CI39" si="59">SUM(CI9:CI38)</f>
         <v>6352</v>
       </c>
       <c r="CJ39" s="167">
-        <f t="shared" ref="CJ39" si="61">SUM(CJ9:CJ38)</f>
+        <f t="shared" ref="CJ39" si="60">SUM(CJ9:CJ38)</f>
         <v>6565</v>
       </c>
       <c r="CK39" s="167">
-        <f t="shared" ref="CK39" si="62">SUM(CK9:CK38)</f>
+        <f t="shared" ref="CK39" si="61">SUM(CK9:CK38)</f>
         <v>6996</v>
       </c>
       <c r="CL39" s="167">
-        <f t="shared" ref="CL39:CN39" si="63">SUM(CL9:CL38)</f>
+        <f t="shared" ref="CL39:CN39" si="62">SUM(CL9:CL38)</f>
         <v>7071</v>
       </c>
       <c r="CM39" s="167">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>6648</v>
       </c>
       <c r="CN39" s="167">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>6913</v>
       </c>
       <c r="CO39" s="167"/>
@@ -35198,39 +35245,39 @@
       <c r="CT39" s="167"/>
       <c r="CU39" s="154"/>
       <c r="CV39" s="154">
-        <f t="shared" ref="CV39:DD39" si="64">SUM(CV3:CV38)</f>
+        <f t="shared" ref="CV39:DD39" si="63">SUM(CV3:CV38)</f>
         <v>150.321</v>
       </c>
       <c r="CW39" s="154">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>174.3</v>
       </c>
       <c r="CX39" s="154">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>213.93899999999999</v>
       </c>
       <c r="CY39" s="154">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>444.28500000000003</v>
       </c>
       <c r="CZ39" s="154">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>861.56000000000006</v>
       </c>
       <c r="DA39" s="154">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>1324.7784390485224</v>
       </c>
       <c r="DB39" s="85">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>2028.3830000000003</v>
       </c>
       <c r="DC39" s="85">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>3017.3370000000004</v>
       </c>
       <c r="DD39" s="85">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>2640.8110000000001</v>
       </c>
       <c r="DE39" s="80">
@@ -35238,71 +35285,71 @@
         <v>250.964</v>
       </c>
       <c r="DF39" s="102">
-        <f t="shared" ref="DF39:DV39" si="65">SUM(DF14:DF38)</f>
+        <f t="shared" ref="DF39:DV39" si="64">SUM(DF14:DF38)</f>
         <v>7010.8720000000003</v>
       </c>
       <c r="DG39" s="102">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>5338.1969999999992</v>
       </c>
       <c r="DH39" s="80">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>8362.01</v>
       </c>
       <c r="DI39" s="80">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>9702.5170000000016</v>
       </c>
       <c r="DJ39" s="80">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>11201.687999999998</v>
       </c>
       <c r="DK39" s="80">
-        <f t="shared" si="65"/>
-        <v>26180.047999999999</v>
+        <f t="shared" si="64"/>
+        <v>14735.72</v>
       </c>
       <c r="DL39" s="80">
-        <f t="shared" si="65"/>
-        <v>30441.941200000001</v>
+        <f t="shared" si="64"/>
+        <v>17260.714000000004</v>
       </c>
       <c r="DM39" s="80">
-        <f t="shared" si="65"/>
-        <v>32016.676929000001</v>
+        <f t="shared" si="64"/>
+        <v>18319.582365000002</v>
       </c>
       <c r="DN39" s="167">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="DO39" s="167">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="DP39" s="167">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="DQ39" s="167">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>10071</v>
       </c>
       <c r="DR39" s="167">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>12002</v>
       </c>
       <c r="DS39" s="167">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>10616</v>
       </c>
       <c r="DT39" s="154">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>9209</v>
       </c>
       <c r="DU39" s="154">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>1093.5</v>
       </c>
       <c r="DV39" s="154">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>984.15000000000009</v>
       </c>
       <c r="DW39" s="154"/>
@@ -35483,14 +35530,16 @@
       </c>
       <c r="BA40" s="82">
         <f>+BA39*0.12</f>
-        <v>845.67528000000004</v>
+        <v>130.81560000000002</v>
       </c>
       <c r="BB40" s="82">
         <f>+BB39*0.12</f>
-        <v>911.91528000000005</v>
+        <v>253.4556</v>
       </c>
       <c r="BC40" s="82"/>
-      <c r="BD40" s="82"/>
+      <c r="BD40" s="82">
+        <v>998</v>
+      </c>
       <c r="BE40" s="82"/>
       <c r="BF40" s="82"/>
       <c r="BG40" s="82"/>
@@ -35559,15 +35608,15 @@
         <v>871</v>
       </c>
       <c r="CJ40" s="140">
-        <f t="shared" ref="CJ40:CL40" si="66">+CJ39-CJ41</f>
+        <f t="shared" ref="CJ40:CL40" si="65">+CJ39-CJ41</f>
         <v>984.75</v>
       </c>
       <c r="CK40" s="140">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1049.4000000000005</v>
       </c>
       <c r="CL40" s="140">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>1060.6500000000005</v>
       </c>
       <c r="CM40" s="140"/>
@@ -35590,71 +35639,71 @@
       <c r="DD40" s="82"/>
       <c r="DE40" s="82"/>
       <c r="DF40" s="104">
-        <f t="shared" ref="DF40:DH40" si="67">DF39-DF41</f>
+        <f t="shared" ref="DF40:DH40" si="66">DF39-DF41</f>
         <v>1567.7789999999995</v>
       </c>
       <c r="DG40" s="104">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>2899.9859999999994</v>
       </c>
       <c r="DH40" s="82">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>2124.4209999999994</v>
       </c>
       <c r="DI40" s="93">
-        <f t="shared" ref="DI40:DI43" si="68">SUM(AQ40:AT40)</f>
+        <f t="shared" ref="DI40:DI43" si="67">SUM(AQ40:AT40)</f>
         <v>2471.3630000000003</v>
       </c>
       <c r="DJ40" s="83">
-        <f t="shared" ref="DJ40" si="69">SUM(AU40:AX40)</f>
+        <f t="shared" ref="DJ40" si="68">SUM(AU40:AX40)</f>
         <v>2731.48</v>
       </c>
       <c r="DK40" s="82">
         <f>+DK39-DK41</f>
-        <v>3141.6057599999986</v>
+        <v>1768.286399999999</v>
       </c>
       <c r="DL40" s="82">
-        <f t="shared" ref="DL40:DQ40" si="70">+DL39-DL41</f>
-        <v>3653.0329439999987</v>
+        <f t="shared" ref="DL40:DQ40" si="69">+DL39-DL41</f>
+        <v>2071.2856800000009</v>
       </c>
       <c r="DM40" s="82">
+        <f t="shared" si="69"/>
+        <v>2198.3498837999996</v>
+      </c>
+      <c r="DN40" s="140">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="DO40" s="140">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="DP40" s="140">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="DQ40" s="140">
+        <f t="shared" si="69"/>
+        <v>1208.5200000000004</v>
+      </c>
+      <c r="DR40" s="140">
+        <f t="shared" ref="DR40:DV40" si="70">+DR39-DR41</f>
+        <v>1440.2399999999998</v>
+      </c>
+      <c r="DS40" s="140">
         <f t="shared" si="70"/>
-        <v>3842.0012314800006</v>
-      </c>
-      <c r="DN40" s="140">
+        <v>1273.92</v>
+      </c>
+      <c r="DT40" s="79">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="DO40" s="140">
+        <v>1105.08</v>
+      </c>
+      <c r="DU40" s="79">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="DP40" s="140">
+        <v>131.22000000000003</v>
+      </c>
+      <c r="DV40" s="79">
         <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="DQ40" s="140">
-        <f t="shared" si="70"/>
-        <v>1208.5200000000004</v>
-      </c>
-      <c r="DR40" s="140">
-        <f t="shared" ref="DR40:DV40" si="71">+DR39-DR41</f>
-        <v>1440.2399999999998</v>
-      </c>
-      <c r="DS40" s="140">
-        <f t="shared" si="71"/>
-        <v>1273.92</v>
-      </c>
-      <c r="DT40" s="79">
-        <f t="shared" si="71"/>
-        <v>1105.08</v>
-      </c>
-      <c r="DU40" s="79">
-        <f t="shared" si="71"/>
-        <v>131.22000000000003</v>
-      </c>
-      <c r="DV40" s="79">
-        <f t="shared" si="71"/>
         <v>118.09799999999996</v>
       </c>
       <c r="DW40" s="79"/>
@@ -35673,159 +35722,159 @@
         <v>50</v>
       </c>
       <c r="C41" s="82">
-        <f t="shared" ref="C41:R41" si="72">C39-C40</f>
+        <f t="shared" ref="C41:R41" si="71">C39-C40</f>
         <v>-6.665</v>
       </c>
       <c r="D41" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>-10.981</v>
       </c>
       <c r="E41" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>-16.03</v>
       </c>
       <c r="F41" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>-15.641999999999999</v>
       </c>
       <c r="G41" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>-13.988</v>
       </c>
       <c r="H41" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>-25.071000000000002</v>
       </c>
       <c r="I41" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>-21.061</v>
       </c>
       <c r="J41" s="82">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>-27.352</v>
       </c>
       <c r="K41" s="82" t="e">
+        <f t="shared" si="71"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L41" s="82" t="e">
+        <f t="shared" si="71"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M41" s="82" t="e">
+        <f t="shared" si="71"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N41" s="82" t="e">
+        <f t="shared" si="71"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O41" s="82" t="e">
+        <f t="shared" si="71"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P41" s="82" t="e">
+        <f t="shared" si="71"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q41" s="82" t="e">
+        <f t="shared" si="71"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R41" s="82" t="e">
+        <f t="shared" si="71"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S41" s="82" t="e">
+        <f t="shared" ref="S41:X41" si="72">S39-S40</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T41" s="82" t="e">
         <f t="shared" si="72"/>
         <v>#REF!</v>
       </c>
-      <c r="L41" s="82" t="e">
+      <c r="U41" s="82" t="e">
         <f t="shared" si="72"/>
         <v>#REF!</v>
       </c>
-      <c r="M41" s="82" t="e">
+      <c r="V41" s="82" t="e">
         <f t="shared" si="72"/>
         <v>#REF!</v>
       </c>
-      <c r="N41" s="82" t="e">
+      <c r="W41" s="82" t="e">
         <f t="shared" si="72"/>
         <v>#REF!</v>
       </c>
-      <c r="O41" s="82" t="e">
+      <c r="X41" s="82" t="e">
         <f t="shared" si="72"/>
         <v>#REF!</v>
       </c>
-      <c r="P41" s="82" t="e">
-        <f t="shared" si="72"/>
+      <c r="Y41" s="82" t="e">
+        <f t="shared" ref="Y41:AD41" si="73">Y39-Y40</f>
         <v>#REF!</v>
       </c>
-      <c r="Q41" s="82" t="e">
-        <f t="shared" si="72"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R41" s="82" t="e">
-        <f t="shared" si="72"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S41" s="82" t="e">
-        <f t="shared" ref="S41:X41" si="73">S39-S40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T41" s="82" t="e">
+      <c r="Z41" s="82" t="e">
         <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
-      <c r="U41" s="82" t="e">
+      <c r="AA41" s="82" t="e">
         <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
-      <c r="V41" s="82" t="e">
+      <c r="AB41" s="82" t="e">
         <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
-      <c r="W41" s="82" t="e">
+      <c r="AC41" s="82" t="e">
         <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
-      <c r="X41" s="82" t="e">
+      <c r="AD41" s="82" t="e">
         <f t="shared" si="73"/>
         <v>#REF!</v>
       </c>
-      <c r="Y41" s="82" t="e">
-        <f t="shared" ref="Y41:AD41" si="74">Y39-Y40</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z41" s="82" t="e">
+      <c r="AE41" s="82">
+        <f t="shared" ref="AE41:AM41" si="74">+AE39-AE40</f>
+        <v>1204.3000000000002</v>
+      </c>
+      <c r="AF41" s="82">
         <f t="shared" si="74"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA41" s="82" t="e">
+        <v>1266.769</v>
+      </c>
+      <c r="AG41" s="82">
         <f t="shared" si="74"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB41" s="82" t="e">
+        <v>1391.6890000000005</v>
+      </c>
+      <c r="AH41" s="82">
         <f t="shared" si="74"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC41" s="82" t="e">
+        <v>1580.3349999999996</v>
+      </c>
+      <c r="AI41" s="82">
         <f t="shared" si="74"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD41" s="82" t="e">
+        <v>-119.82499999999999</v>
+      </c>
+      <c r="AJ41" s="82">
         <f t="shared" si="74"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE41" s="82">
-        <f t="shared" ref="AE41:AM41" si="75">+AE39-AE40</f>
-        <v>1204.3000000000002</v>
-      </c>
-      <c r="AF41" s="82">
+        <v>1491.6889999999999</v>
+      </c>
+      <c r="AK41" s="82">
+        <f t="shared" si="74"/>
+        <v>1477.6220000000001</v>
+      </c>
+      <c r="AL41" s="82">
+        <f t="shared" si="74"/>
+        <v>-411.27499999999998</v>
+      </c>
+      <c r="AM41" s="82">
+        <f t="shared" si="74"/>
+        <v>1428.0680000000002</v>
+      </c>
+      <c r="AN41" s="82">
+        <f t="shared" ref="AN41:AO41" si="75">+AN39-AN40</f>
+        <v>1603.39</v>
+      </c>
+      <c r="AO41" s="82">
         <f t="shared" si="75"/>
-        <v>1266.769</v>
-      </c>
-      <c r="AG41" s="82">
-        <f t="shared" si="75"/>
-        <v>1391.6890000000005</v>
-      </c>
-      <c r="AH41" s="82">
-        <f t="shared" si="75"/>
-        <v>1580.3349999999996</v>
-      </c>
-      <c r="AI41" s="82">
-        <f t="shared" si="75"/>
-        <v>-119.82499999999999</v>
-      </c>
-      <c r="AJ41" s="82">
-        <f t="shared" si="75"/>
-        <v>1491.6889999999999</v>
-      </c>
-      <c r="AK41" s="82">
-        <f t="shared" si="75"/>
-        <v>1477.6220000000001</v>
-      </c>
-      <c r="AL41" s="82">
-        <f t="shared" si="75"/>
-        <v>-411.27499999999998</v>
-      </c>
-      <c r="AM41" s="82">
-        <f t="shared" si="75"/>
-        <v>1428.0680000000002</v>
-      </c>
-      <c r="AN41" s="82">
-        <f t="shared" ref="AN41:AO41" si="76">+AN39-AN40</f>
-        <v>1603.39</v>
-      </c>
-      <c r="AO41" s="82">
-        <f t="shared" si="76"/>
         <v>1590.2000000000003</v>
       </c>
       <c r="AP41" s="82">
@@ -35833,39 +35882,39 @@
         <v>1615.9309999999996</v>
       </c>
       <c r="AQ41" s="82">
-        <f t="shared" ref="AQ41:AY41" si="77">+AQ39-AQ40</f>
+        <f t="shared" ref="AQ41:AY41" si="76">+AQ39-AQ40</f>
         <v>1701.5179999999996</v>
       </c>
       <c r="AR41" s="82">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1787.8409999999997</v>
       </c>
       <c r="AS41" s="82">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1829.3280000000002</v>
       </c>
       <c r="AT41" s="82">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1912.4669999999999</v>
       </c>
       <c r="AU41" s="82">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>1897.1870000000004</v>
       </c>
       <c r="AV41" s="82">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>2106.6270000000004</v>
       </c>
       <c r="AW41" s="82">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>2124.0520000000001</v>
       </c>
       <c r="AX41" s="82">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>2342.3420000000001</v>
       </c>
       <c r="AY41" s="82">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>4387.6230000000023</v>
       </c>
       <c r="AZ41" s="82">
@@ -35874,14 +35923,17 @@
       </c>
       <c r="BA41" s="82">
         <f>+BA39-BA40</f>
-        <v>6201.6187200000004</v>
+        <v>959.31440000000009</v>
       </c>
       <c r="BB41" s="82">
-        <f t="shared" ref="BB41" si="78">+BB39-BB40</f>
-        <v>6687.3787200000006</v>
+        <f t="shared" ref="BB41" si="77">+BB39-BB40</f>
+        <v>1858.6744000000001</v>
       </c>
       <c r="BC41" s="82"/>
-      <c r="BD41" s="82"/>
+      <c r="BD41" s="82">
+        <f>BD39-BD40</f>
+        <v>7246</v>
+      </c>
       <c r="BE41" s="82"/>
       <c r="BF41" s="82"/>
       <c r="BG41" s="82"/>
@@ -35908,7 +35960,7 @@
       </c>
       <c r="BT41" s="82"/>
       <c r="BU41" s="140">
-        <f t="shared" ref="BU41" si="79">+BU39-BU40</f>
+        <f t="shared" ref="BU41" si="78">+BU39-BU40</f>
         <v>4569</v>
       </c>
       <c r="BV41" s="140">
@@ -35928,27 +35980,27 @@
         <v>5702</v>
       </c>
       <c r="BZ41" s="140">
-        <f t="shared" ref="BZ41:CE41" si="80">BZ39-BZ40</f>
+        <f t="shared" ref="BZ41:CE41" si="79">BZ39-BZ40</f>
         <v>6503</v>
       </c>
       <c r="CA41" s="140">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>5568</v>
       </c>
       <c r="CB41" s="140">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>5381</v>
       </c>
       <c r="CC41" s="140">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>6685</v>
       </c>
       <c r="CD41" s="140">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>5132</v>
       </c>
       <c r="CE41" s="140">
-        <f t="shared" si="80"/>
+        <f t="shared" si="79"/>
         <v>5764</v>
       </c>
       <c r="CF41" s="140">
@@ -35968,15 +36020,15 @@
         <v>5481</v>
       </c>
       <c r="CJ41" s="140">
-        <f t="shared" ref="CJ41:CL41" si="81">+CJ39*0.85</f>
+        <f t="shared" ref="CJ41:CL41" si="80">+CJ39*0.85</f>
         <v>5580.25</v>
       </c>
       <c r="CK41" s="140">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>5946.5999999999995</v>
       </c>
       <c r="CL41" s="140">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>6010.3499999999995</v>
       </c>
       <c r="CM41" s="140"/>
@@ -36020,50 +36072,50 @@
       </c>
       <c r="DK41" s="82">
         <f>+DK39*0.88</f>
-        <v>23038.44224</v>
+        <v>12967.4336</v>
       </c>
       <c r="DL41" s="82">
-        <f t="shared" ref="DL41:DV41" si="82">+DL39*0.88</f>
-        <v>26788.908256000002</v>
+        <f t="shared" ref="DL41:DV41" si="81">+DL39*0.88</f>
+        <v>15189.428320000003</v>
       </c>
       <c r="DM41" s="82">
-        <f t="shared" si="82"/>
-        <v>28174.675697520001</v>
+        <f t="shared" si="81"/>
+        <v>16121.232481200002</v>
       </c>
       <c r="DN41" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="DO41" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="DP41" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="DQ41" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>8862.48</v>
       </c>
       <c r="DR41" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>10561.76</v>
       </c>
       <c r="DS41" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>9342.08</v>
       </c>
       <c r="DT41" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>8103.92</v>
       </c>
       <c r="DU41" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>962.28</v>
       </c>
       <c r="DV41" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>866.05200000000013</v>
       </c>
       <c r="DW41" s="79"/>
@@ -36248,7 +36300,9 @@
         <v>541.97400000000005</v>
       </c>
       <c r="BC42" s="82"/>
-      <c r="BD42" s="82"/>
+      <c r="BD42" s="82">
+        <v>818</v>
+      </c>
       <c r="BE42" s="82"/>
       <c r="BF42" s="82"/>
       <c r="BG42" s="82"/>
@@ -36317,15 +36371,15 @@
         <v>1439</v>
       </c>
       <c r="CJ42" s="140">
-        <f t="shared" ref="CJ42" si="83">+CF42</f>
+        <f t="shared" ref="CJ42" si="82">+CF42</f>
         <v>1102</v>
       </c>
       <c r="CK42" s="140">
-        <f t="shared" ref="CK42" si="84">+CG42</f>
+        <f t="shared" ref="CK42" si="83">+CG42</f>
         <v>1173</v>
       </c>
       <c r="CL42" s="140">
-        <f t="shared" ref="CL42" si="85">+CH42</f>
+        <f t="shared" ref="CL42" si="84">+CH42</f>
         <v>1544</v>
       </c>
       <c r="CM42" s="140"/>
@@ -36383,7 +36437,7 @@
         <v>1229.1849999999999</v>
       </c>
       <c r="DI42" s="93">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>1759.9450000000002</v>
       </c>
       <c r="DJ42" s="83">
@@ -36580,11 +36634,13 @@
         <v>579.23</v>
       </c>
       <c r="BB43" s="82">
-        <f t="shared" ref="BB43" si="86">+BA43+10</f>
+        <f t="shared" ref="BB43" si="85">+BA43+10</f>
         <v>589.23</v>
       </c>
       <c r="BC43" s="82"/>
-      <c r="BD43" s="82"/>
+      <c r="BD43" s="82">
+        <v>812</v>
+      </c>
       <c r="BE43" s="82"/>
       <c r="BF43" s="82"/>
       <c r="BG43" s="82"/>
@@ -36653,15 +36709,15 @@
         <v>1318</v>
       </c>
       <c r="CJ43" s="140">
-        <f t="shared" ref="CJ43:CL43" si="87">+CF43</f>
+        <f t="shared" ref="CJ43:CL43" si="86">+CF43</f>
         <v>1272</v>
       </c>
       <c r="CK43" s="140">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>1212</v>
       </c>
       <c r="CL43" s="140">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>2020</v>
       </c>
       <c r="CM43" s="140"/>
@@ -36719,7 +36775,7 @@
         <v>1241.9559999999999</v>
       </c>
       <c r="DI43" s="93">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>1461.0340000000001</v>
       </c>
       <c r="DJ43" s="83">
@@ -36735,43 +36791,43 @@
         <v>2237.7950000000001</v>
       </c>
       <c r="DM43" s="82">
-        <f t="shared" ref="DM43:DV43" si="88">+DL43</f>
+        <f t="shared" ref="DM43:DV43" si="87">+DL43</f>
         <v>2237.7950000000001</v>
       </c>
       <c r="DN43" s="140">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>2237.7950000000001</v>
       </c>
       <c r="DO43" s="140">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>2237.7950000000001</v>
       </c>
       <c r="DP43" s="140">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>2237.7950000000001</v>
       </c>
       <c r="DQ43" s="140">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>2237.7950000000001</v>
       </c>
       <c r="DR43" s="140">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>2237.7950000000001</v>
       </c>
       <c r="DS43" s="140">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>2237.7950000000001</v>
       </c>
       <c r="DT43" s="140">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>2237.7950000000001</v>
       </c>
       <c r="DU43" s="140">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>2237.7950000000001</v>
       </c>
       <c r="DV43" s="140">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>2237.7950000000001</v>
       </c>
       <c r="DW43" s="79"/>
@@ -36790,159 +36846,159 @@
         <v>49</v>
       </c>
       <c r="C44" s="83">
-        <f t="shared" ref="C44:R44" si="89">SUM(C40:C43)</f>
+        <f t="shared" ref="C44:R44" si="88">SUM(C40:C43)</f>
         <v>78.694000000000003</v>
       </c>
       <c r="D44" s="83">
+        <f t="shared" si="88"/>
+        <v>79.188000000000002</v>
+      </c>
+      <c r="E44" s="83">
+        <f t="shared" si="88"/>
+        <v>82.037000000000006</v>
+      </c>
+      <c r="F44" s="83">
+        <f t="shared" si="88"/>
+        <v>96.545999999999992</v>
+      </c>
+      <c r="G44" s="83">
+        <f t="shared" si="88"/>
+        <v>96.115000000000009</v>
+      </c>
+      <c r="H44" s="83">
+        <f t="shared" si="88"/>
+        <v>106.027</v>
+      </c>
+      <c r="I44" s="83">
+        <f t="shared" si="88"/>
+        <v>100.13800000000001</v>
+      </c>
+      <c r="J44" s="83">
+        <f t="shared" si="88"/>
+        <v>137.96899999999999</v>
+      </c>
+      <c r="K44" s="83" t="e">
+        <f t="shared" si="88"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L44" s="83" t="e">
+        <f t="shared" si="88"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M44" s="83" t="e">
+        <f t="shared" si="88"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N44" s="83" t="e">
+        <f t="shared" si="88"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O44" s="83" t="e">
+        <f t="shared" si="88"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P44" s="83" t="e">
+        <f t="shared" si="88"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q44" s="83" t="e">
+        <f t="shared" si="88"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R44" s="83" t="e">
+        <f t="shared" si="88"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S44" s="83">
+        <f t="shared" ref="S44:Z44" si="89">S43+S42</f>
+        <v>204.42400000000001</v>
+      </c>
+      <c r="T44" s="83">
         <f t="shared" si="89"/>
-        <v>79.188000000000002</v>
-      </c>
-      <c r="E44" s="83">
+        <v>207.86300000000003</v>
+      </c>
+      <c r="U44" s="83">
         <f t="shared" si="89"/>
-        <v>82.037000000000006</v>
-      </c>
-      <c r="F44" s="83">
+        <v>196.613</v>
+      </c>
+      <c r="V44" s="82">
         <f t="shared" si="89"/>
-        <v>96.545999999999992</v>
-      </c>
-      <c r="G44" s="83">
+        <v>225.66499999999999</v>
+      </c>
+      <c r="W44" s="83">
         <f t="shared" si="89"/>
-        <v>96.115000000000009</v>
-      </c>
-      <c r="H44" s="83">
+        <v>241.88399999999999</v>
+      </c>
+      <c r="X44" s="83">
         <f t="shared" si="89"/>
-        <v>106.027</v>
-      </c>
-      <c r="I44" s="83">
+        <v>277</v>
+      </c>
+      <c r="Y44" s="83">
         <f t="shared" si="89"/>
-        <v>100.13800000000001</v>
-      </c>
-      <c r="J44" s="83">
+        <v>313.31299999999999</v>
+      </c>
+      <c r="Z44" s="82">
         <f t="shared" si="89"/>
-        <v>137.96899999999999</v>
-      </c>
-      <c r="K44" s="83" t="e">
-        <f t="shared" si="89"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L44" s="83" t="e">
-        <f t="shared" si="89"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M44" s="83" t="e">
-        <f t="shared" si="89"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N44" s="83" t="e">
-        <f t="shared" si="89"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O44" s="83" t="e">
-        <f t="shared" si="89"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P44" s="83" t="e">
-        <f t="shared" si="89"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q44" s="83" t="e">
-        <f t="shared" si="89"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R44" s="83" t="e">
-        <f t="shared" si="89"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S44" s="83">
-        <f t="shared" ref="S44:Z44" si="90">S43+S42</f>
-        <v>204.42400000000001</v>
-      </c>
-      <c r="T44" s="83">
+        <v>364.69600000000003</v>
+      </c>
+      <c r="AA44" s="82">
+        <f t="shared" ref="AA44:AM44" si="90">AA43+AA42</f>
+        <v>315.81599999999997</v>
+      </c>
+      <c r="AB44" s="82">
         <f t="shared" si="90"/>
-        <v>207.86300000000003</v>
-      </c>
-      <c r="U44" s="83">
+        <v>362.048</v>
+      </c>
+      <c r="AC44" s="82">
         <f t="shared" si="90"/>
-        <v>196.613</v>
-      </c>
-      <c r="V44" s="82">
+        <v>338.24900000000002</v>
+      </c>
+      <c r="AD44" s="82">
         <f t="shared" si="90"/>
-        <v>225.66499999999999</v>
-      </c>
-      <c r="W44" s="83">
+        <v>359.947</v>
+      </c>
+      <c r="AE44" s="82">
         <f t="shared" si="90"/>
-        <v>241.88399999999999</v>
-      </c>
-      <c r="X44" s="83">
+        <v>354.9</v>
+      </c>
+      <c r="AF44" s="82">
         <f t="shared" si="90"/>
-        <v>277</v>
-      </c>
-      <c r="Y44" s="83">
+        <v>419.26800000000003</v>
+      </c>
+      <c r="AG44" s="82">
         <f t="shared" si="90"/>
-        <v>313.31299999999999</v>
-      </c>
-      <c r="Z44" s="82">
+        <v>442.5</v>
+      </c>
+      <c r="AH44" s="82">
         <f t="shared" si="90"/>
-        <v>364.69600000000003</v>
-      </c>
-      <c r="AA44" s="82">
-        <f t="shared" ref="AA44:AM44" si="91">AA43+AA42</f>
-        <v>315.81599999999997</v>
-      </c>
-      <c r="AB44" s="82">
-        <f t="shared" si="91"/>
-        <v>362.048</v>
-      </c>
-      <c r="AC44" s="82">
-        <f t="shared" si="91"/>
-        <v>338.24900000000002</v>
-      </c>
-      <c r="AD44" s="82">
-        <f t="shared" si="91"/>
-        <v>359.947</v>
-      </c>
-      <c r="AE44" s="82">
-        <f t="shared" si="91"/>
-        <v>354.9</v>
-      </c>
-      <c r="AF44" s="82">
-        <f t="shared" si="91"/>
-        <v>419.26800000000003</v>
-      </c>
-      <c r="AG44" s="82">
-        <f t="shared" si="91"/>
-        <v>442.5</v>
-      </c>
-      <c r="AH44" s="82">
-        <f t="shared" si="91"/>
         <v>434.68399999999997</v>
       </c>
       <c r="AI44" s="82">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>425.61</v>
       </c>
       <c r="AJ44" s="82">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>430.95600000000002</v>
       </c>
       <c r="AK44" s="82">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>423.79999999999995</v>
       </c>
       <c r="AL44" s="82">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>471.1</v>
       </c>
       <c r="AM44" s="82">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>550.01400000000001</v>
       </c>
       <c r="AN44" s="82">
-        <f t="shared" ref="AN44" si="92">AN43+AN42</f>
+        <f t="shared" ref="AN44" si="91">AN43+AN42</f>
         <v>586.67200000000003</v>
       </c>
       <c r="AO44" s="82">
-        <f t="shared" ref="AO44" si="93">AO43+AO42</f>
+        <f t="shared" ref="AO44" si="92">AO43+AO42</f>
         <v>586</v>
       </c>
       <c r="AP44" s="82">
@@ -36950,35 +37006,35 @@
         <v>748.45499999999993</v>
       </c>
       <c r="AQ44" s="82">
-        <f t="shared" ref="AQ44:AX44" si="94">+AQ43+AQ42</f>
+        <f t="shared" ref="AQ44:AX44" si="93">+AQ43+AQ42</f>
         <v>901.33199999999999</v>
       </c>
       <c r="AR44" s="82">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>728.74900000000002</v>
       </c>
       <c r="AS44" s="82">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>785.41399999999999</v>
       </c>
       <c r="AT44" s="82">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>805.48399999999992</v>
       </c>
       <c r="AU44" s="82">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>871.928</v>
       </c>
       <c r="AV44" s="82">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>864.10699999999997</v>
       </c>
       <c r="AW44" s="82">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>865.37599999999998</v>
       </c>
       <c r="AX44" s="82">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>982.34999999999991</v>
       </c>
       <c r="AY44" s="82">
@@ -36990,15 +37046,21 @@
         <v>1111.2040000000002</v>
       </c>
       <c r="BA44" s="82">
-        <f t="shared" ref="BA44:BB44" si="95">+BA43+BA42</f>
+        <f t="shared" ref="BA44:BD44" si="94">+BA43+BA42</f>
         <v>1121.2040000000002</v>
       </c>
       <c r="BB44" s="82">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>1131.2040000000002</v>
       </c>
-      <c r="BC44" s="82"/>
-      <c r="BD44" s="82"/>
+      <c r="BC44" s="82">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="BD44" s="82">
+        <f t="shared" si="94"/>
+        <v>1630</v>
+      </c>
       <c r="BE44" s="82"/>
       <c r="BF44" s="82"/>
       <c r="BG44" s="82"/>
@@ -37012,40 +37074,40 @@
       <c r="BO44" s="82"/>
       <c r="BP44" s="82"/>
       <c r="BQ44" s="140">
-        <f t="shared" ref="BQ44" si="96">BQ42+BQ43</f>
+        <f t="shared" ref="BQ44" si="95">BQ42+BQ43</f>
         <v>1887</v>
       </c>
       <c r="BR44" s="140">
-        <f t="shared" ref="BR44:BS44" si="97">BR42+BR43</f>
+        <f t="shared" ref="BR44:BS44" si="96">BR42+BR43</f>
         <v>1971</v>
       </c>
       <c r="BS44" s="140">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>1962</v>
       </c>
       <c r="BT44" s="82"/>
       <c r="BU44" s="140">
-        <f t="shared" ref="BU44:BV44" si="98">BU42+BU43</f>
+        <f t="shared" ref="BU44:BV44" si="97">BU42+BU43</f>
         <v>6042</v>
       </c>
       <c r="BV44" s="140">
+        <f t="shared" si="97"/>
+        <v>2307</v>
+      </c>
+      <c r="BW44" s="140">
+        <f t="shared" ref="BW44:BX44" si="98">BW42+BW43</f>
+        <v>2080</v>
+      </c>
+      <c r="BX44" s="140">
         <f t="shared" si="98"/>
-        <v>2307</v>
-      </c>
-      <c r="BW44" s="140">
-        <f t="shared" ref="BW44:BX44" si="99">BW42+BW43</f>
-        <v>2080</v>
-      </c>
-      <c r="BX44" s="140">
-        <f t="shared" si="99"/>
         <v>2350</v>
       </c>
       <c r="BY44" s="140">
-        <f t="shared" ref="BY44" si="100">BY42+BY43</f>
+        <f t="shared" ref="BY44" si="99">BY42+BY43</f>
         <v>2250</v>
       </c>
       <c r="BZ44" s="140">
-        <f t="shared" ref="BZ44" si="101">BZ42+BZ43</f>
+        <f t="shared" ref="BZ44" si="100">BZ42+BZ43</f>
         <v>3011</v>
       </c>
       <c r="CA44" s="140">
@@ -37053,47 +37115,47 @@
         <v>2082</v>
       </c>
       <c r="CB44" s="140">
-        <f t="shared" ref="CB44:CE44" si="102">CB42+CB43</f>
+        <f t="shared" ref="CB44:CE44" si="101">CB42+CB43</f>
         <v>2163</v>
       </c>
       <c r="CC44" s="140">
+        <f t="shared" si="101"/>
+        <v>2241</v>
+      </c>
+      <c r="CD44" s="140">
+        <f t="shared" si="101"/>
+        <v>2957</v>
+      </c>
+      <c r="CE44" s="140">
+        <f t="shared" si="101"/>
+        <v>2241</v>
+      </c>
+      <c r="CF44" s="140">
+        <f t="shared" ref="CF44:CL44" si="102">CF42+CF43</f>
+        <v>2374</v>
+      </c>
+      <c r="CG44" s="140">
         <f t="shared" si="102"/>
-        <v>2241</v>
-      </c>
-      <c r="CD44" s="140">
+        <v>2385</v>
+      </c>
+      <c r="CH44" s="140">
         <f t="shared" si="102"/>
-        <v>2957</v>
-      </c>
-      <c r="CE44" s="140">
+        <v>3564</v>
+      </c>
+      <c r="CI44" s="140">
         <f t="shared" si="102"/>
-        <v>2241</v>
-      </c>
-      <c r="CF44" s="140">
-        <f t="shared" ref="CF44:CL44" si="103">CF42+CF43</f>
+        <v>2757</v>
+      </c>
+      <c r="CJ44" s="140">
+        <f t="shared" si="102"/>
         <v>2374</v>
       </c>
-      <c r="CG44" s="140">
-        <f t="shared" si="103"/>
+      <c r="CK44" s="140">
+        <f t="shared" si="102"/>
         <v>2385</v>
       </c>
-      <c r="CH44" s="140">
-        <f t="shared" si="103"/>
-        <v>3564</v>
-      </c>
-      <c r="CI44" s="140">
-        <f t="shared" si="103"/>
-        <v>2757</v>
-      </c>
-      <c r="CJ44" s="140">
-        <f t="shared" si="103"/>
-        <v>2374</v>
-      </c>
-      <c r="CK44" s="140">
-        <f t="shared" si="103"/>
-        <v>2385</v>
-      </c>
       <c r="CL44" s="140">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>3564</v>
       </c>
       <c r="CM44" s="140"/>
@@ -37106,39 +37168,39 @@
       <c r="CT44" s="140"/>
       <c r="CU44" s="155"/>
       <c r="CV44" s="155">
-        <f t="shared" ref="CV44:DH44" si="104">CV42+CV43</f>
+        <f t="shared" ref="CV44:DH44" si="103">CV42+CV43</f>
         <v>210.292</v>
       </c>
       <c r="CW44" s="155">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>214.36099999999999</v>
       </c>
       <c r="CX44" s="155">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>310.69400000000002</v>
       </c>
       <c r="CY44" s="155">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>316.05899999999997</v>
       </c>
       <c r="CZ44" s="155">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>415.03</v>
       </c>
       <c r="DA44" s="155">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>526.34500000000037</v>
       </c>
       <c r="DB44" s="75">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>656.91200000000003</v>
       </c>
       <c r="DC44" s="83">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>834.56500000000005</v>
       </c>
       <c r="DD44" s="83">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>1196.893</v>
       </c>
       <c r="DE44" s="83">
@@ -37154,63 +37216,63 @@
         <v>1751.4659999999999</v>
       </c>
       <c r="DH44" s="83">
+        <f t="shared" si="103"/>
+        <v>2471.1409999999996</v>
+      </c>
+      <c r="DI44" s="83">
+        <f t="shared" ref="DI44:DN44" si="104">DI42+DI43</f>
+        <v>3220.9790000000003</v>
+      </c>
+      <c r="DJ44" s="83">
         <f t="shared" si="104"/>
-        <v>2471.1409999999996</v>
-      </c>
-      <c r="DI44" s="83">
-        <f t="shared" ref="DI44:DN44" si="105">DI42+DI43</f>
-        <v>3220.9790000000003</v>
-      </c>
-      <c r="DJ44" s="83">
-        <f t="shared" si="105"/>
         <v>3583.761</v>
       </c>
       <c r="DK44" s="83">
+        <f t="shared" si="104"/>
+        <v>2237.7950000000001</v>
+      </c>
+      <c r="DL44" s="83">
+        <f t="shared" si="104"/>
+        <v>2237.7950000000001</v>
+      </c>
+      <c r="DM44" s="83">
+        <f t="shared" si="104"/>
+        <v>2237.7950000000001</v>
+      </c>
+      <c r="DN44" s="142">
+        <f t="shared" si="104"/>
+        <v>2237.7950000000001</v>
+      </c>
+      <c r="DO44" s="142">
+        <f t="shared" ref="DO44:DQ44" si="105">DO42+DO43</f>
+        <v>2237.7950000000001</v>
+      </c>
+      <c r="DP44" s="142">
         <f t="shared" si="105"/>
         <v>2237.7950000000001</v>
       </c>
-      <c r="DL44" s="83">
+      <c r="DQ44" s="142">
         <f t="shared" si="105"/>
         <v>2237.7950000000001</v>
       </c>
-      <c r="DM44" s="83">
-        <f t="shared" si="105"/>
+      <c r="DR44" s="142">
+        <f t="shared" ref="DR44:DV44" si="106">DR42+DR43</f>
         <v>2237.7950000000001</v>
       </c>
-      <c r="DN44" s="142">
-        <f t="shared" si="105"/>
-        <v>2237.7950000000001</v>
-      </c>
-      <c r="DO44" s="142">
-        <f t="shared" ref="DO44:DQ44" si="106">DO42+DO43</f>
-        <v>2237.7950000000001</v>
-      </c>
-      <c r="DP44" s="142">
+      <c r="DS44" s="142">
         <f t="shared" si="106"/>
         <v>2237.7950000000001</v>
       </c>
-      <c r="DQ44" s="142">
+      <c r="DT44" s="155">
         <f t="shared" si="106"/>
         <v>2237.7950000000001</v>
       </c>
-      <c r="DR44" s="142">
-        <f t="shared" ref="DR44:DV44" si="107">DR42+DR43</f>
+      <c r="DU44" s="155">
+        <f t="shared" si="106"/>
         <v>2237.7950000000001</v>
       </c>
-      <c r="DS44" s="142">
-        <f t="shared" si="107"/>
-        <v>2237.7950000000001</v>
-      </c>
-      <c r="DT44" s="155">
-        <f t="shared" si="107"/>
-        <v>2237.7950000000001</v>
-      </c>
-      <c r="DU44" s="155">
-        <f t="shared" si="107"/>
-        <v>2237.7950000000001</v>
-      </c>
       <c r="DV44" s="155">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>2237.7950000000001</v>
       </c>
       <c r="DW44" s="155"/>
@@ -37229,159 +37291,159 @@
         <v>642</v>
       </c>
       <c r="C45" s="82">
-        <f t="shared" ref="C45:R45" si="108">C39-C44</f>
+        <f t="shared" ref="C45:R45" si="107">C39-C44</f>
         <v>-73.317000000000007</v>
       </c>
       <c r="D45" s="82">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-72.451000000000008</v>
       </c>
       <c r="E45" s="82">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-77.655000000000001</v>
       </c>
       <c r="F45" s="82">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-92.635999999999996</v>
       </c>
       <c r="G45" s="82">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-88.731000000000009</v>
       </c>
       <c r="H45" s="82">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-98.992000000000004</v>
       </c>
       <c r="I45" s="82">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-95.263000000000005</v>
       </c>
       <c r="J45" s="82">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>-132.04399999999998</v>
       </c>
       <c r="K45" s="82" t="e">
+        <f t="shared" si="107"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L45" s="82" t="e">
+        <f t="shared" si="107"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M45" s="82" t="e">
+        <f t="shared" si="107"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N45" s="82" t="e">
+        <f t="shared" si="107"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O45" s="82" t="e">
+        <f t="shared" si="107"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P45" s="82" t="e">
+        <f t="shared" si="107"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q45" s="82" t="e">
+        <f t="shared" si="107"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R45" s="82" t="e">
+        <f t="shared" si="107"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S45" s="82" t="e">
+        <f t="shared" ref="S45:Z45" si="108">S41-S44</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T45" s="82" t="e">
         <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
-      <c r="L45" s="82" t="e">
+      <c r="U45" s="82" t="e">
         <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
-      <c r="M45" s="82" t="e">
+      <c r="V45" s="82" t="e">
         <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
-      <c r="N45" s="82" t="e">
+      <c r="W45" s="82" t="e">
         <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
-      <c r="O45" s="82" t="e">
+      <c r="X45" s="82" t="e">
         <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
-      <c r="P45" s="82" t="e">
+      <c r="Y45" s="82" t="e">
         <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
-      <c r="Q45" s="82" t="e">
+      <c r="Z45" s="82" t="e">
         <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
-      <c r="R45" s="82" t="e">
-        <f t="shared" si="108"/>
+      <c r="AA45" s="82" t="e">
+        <f t="shared" ref="AA45:AM45" si="109">AA41-AA44</f>
         <v>#REF!</v>
       </c>
-      <c r="S45" s="82" t="e">
-        <f t="shared" ref="S45:Z45" si="109">S41-S44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T45" s="82" t="e">
+      <c r="AB45" s="82" t="e">
         <f t="shared" si="109"/>
         <v>#REF!</v>
       </c>
-      <c r="U45" s="82" t="e">
+      <c r="AC45" s="82" t="e">
         <f t="shared" si="109"/>
         <v>#REF!</v>
       </c>
-      <c r="V45" s="82" t="e">
+      <c r="AD45" s="82" t="e">
         <f t="shared" si="109"/>
         <v>#REF!</v>
       </c>
-      <c r="W45" s="82" t="e">
+      <c r="AE45" s="82">
         <f t="shared" si="109"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X45" s="82" t="e">
+        <v>849.4000000000002</v>
+      </c>
+      <c r="AF45" s="82">
         <f t="shared" si="109"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y45" s="82" t="e">
+        <v>847.50099999999998</v>
+      </c>
+      <c r="AG45" s="82">
         <f t="shared" si="109"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z45" s="82" t="e">
+        <v>949.18900000000053</v>
+      </c>
+      <c r="AH45" s="82">
         <f t="shared" si="109"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA45" s="82" t="e">
-        <f t="shared" ref="AA45:AM45" si="110">AA41-AA44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB45" s="82" t="e">
-        <f t="shared" si="110"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC45" s="82" t="e">
-        <f t="shared" si="110"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD45" s="82" t="e">
-        <f t="shared" si="110"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE45" s="82">
-        <f t="shared" si="110"/>
-        <v>849.4000000000002</v>
-      </c>
-      <c r="AF45" s="82">
-        <f t="shared" si="110"/>
-        <v>847.50099999999998</v>
-      </c>
-      <c r="AG45" s="82">
-        <f t="shared" si="110"/>
-        <v>949.18900000000053</v>
-      </c>
-      <c r="AH45" s="82">
-        <f t="shared" si="110"/>
         <v>1145.6509999999996</v>
       </c>
       <c r="AI45" s="82">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-545.43499999999995</v>
       </c>
       <c r="AJ45" s="82">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>1060.7329999999997</v>
       </c>
       <c r="AK45" s="82">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>1053.8220000000001</v>
       </c>
       <c r="AL45" s="82">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>-882.375</v>
       </c>
       <c r="AM45" s="82">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>878.0540000000002</v>
       </c>
       <c r="AN45" s="82">
-        <f t="shared" ref="AN45" si="111">AN41-AN44</f>
+        <f t="shared" ref="AN45" si="110">AN41-AN44</f>
         <v>1016.7180000000001</v>
       </c>
       <c r="AO45" s="82">
-        <f t="shared" ref="AO45" si="112">AO41-AO44</f>
+        <f t="shared" ref="AO45" si="111">AO41-AO44</f>
         <v>1004.2000000000003</v>
       </c>
       <c r="AP45" s="82">
@@ -37389,35 +37451,35 @@
         <v>867.47599999999966</v>
       </c>
       <c r="AQ45" s="82">
-        <f t="shared" ref="AQ45:AX45" si="113">+AQ41-AQ44</f>
+        <f t="shared" ref="AQ45:AX45" si="112">+AQ41-AQ44</f>
         <v>800.18599999999958</v>
       </c>
       <c r="AR45" s="82">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>1059.0919999999996</v>
       </c>
       <c r="AS45" s="82">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>1043.9140000000002</v>
       </c>
       <c r="AT45" s="82">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>1106.9829999999999</v>
       </c>
       <c r="AU45" s="82">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>1025.2590000000005</v>
       </c>
       <c r="AV45" s="82">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>1242.5200000000004</v>
       </c>
       <c r="AW45" s="82">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>1258.6760000000002</v>
       </c>
       <c r="AX45" s="82">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>1359.9920000000002</v>
       </c>
       <c r="AY45" s="82">
@@ -37429,15 +37491,21 @@
         <v>4700.3860000000004</v>
       </c>
       <c r="BA45" s="82">
-        <f t="shared" ref="BA45:BB45" si="114">+BA41-BA44</f>
-        <v>5080.4147200000007</v>
+        <f t="shared" ref="BA45:BD45" si="113">+BA41-BA44</f>
+        <v>-161.88960000000009</v>
       </c>
       <c r="BB45" s="82">
-        <f t="shared" si="114"/>
-        <v>5556.1747200000009</v>
-      </c>
-      <c r="BC45" s="82"/>
-      <c r="BD45" s="82"/>
+        <f t="shared" si="113"/>
+        <v>727.47039999999993</v>
+      </c>
+      <c r="BC45" s="82">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="BD45" s="82">
+        <f t="shared" si="113"/>
+        <v>5616</v>
+      </c>
       <c r="BE45" s="82"/>
       <c r="BF45" s="82"/>
       <c r="BG45" s="82"/>
@@ -37451,40 +37519,40 @@
       <c r="BO45" s="82"/>
       <c r="BP45" s="82"/>
       <c r="BQ45" s="140">
-        <f t="shared" ref="BQ45" si="115">BQ41-BQ44</f>
+        <f t="shared" ref="BQ45" si="114">BQ41-BQ44</f>
         <v>2623</v>
       </c>
       <c r="BR45" s="140">
-        <f t="shared" ref="BR45:BS45" si="116">BR41-BR44</f>
+        <f t="shared" ref="BR45:BS45" si="115">BR41-BR44</f>
         <v>2567</v>
       </c>
       <c r="BS45" s="140">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>2645</v>
       </c>
       <c r="BT45" s="82"/>
       <c r="BU45" s="140">
-        <f t="shared" ref="BU45:BV45" si="117">BU41-BU44</f>
+        <f t="shared" ref="BU45:BV45" si="116">BU41-BU44</f>
         <v>-1473</v>
       </c>
       <c r="BV45" s="140">
+        <f t="shared" si="116"/>
+        <v>2155</v>
+      </c>
+      <c r="BW45" s="140">
+        <f t="shared" ref="BW45:BX45" si="117">BW41-BW44</f>
+        <v>2765</v>
+      </c>
+      <c r="BX45" s="140">
         <f t="shared" si="117"/>
-        <v>2155</v>
-      </c>
-      <c r="BW45" s="140">
-        <f t="shared" ref="BW45:BX45" si="118">BW41-BW44</f>
-        <v>2765</v>
-      </c>
-      <c r="BX45" s="140">
-        <f t="shared" si="118"/>
         <v>1995</v>
       </c>
       <c r="BY45" s="140">
-        <f t="shared" ref="BY45" si="119">BY41-BY44</f>
+        <f t="shared" ref="BY45" si="118">BY41-BY44</f>
         <v>3452</v>
       </c>
       <c r="BZ45" s="140">
-        <f t="shared" ref="BZ45" si="120">BZ41-BZ44</f>
+        <f t="shared" ref="BZ45" si="119">BZ41-BZ44</f>
         <v>3492</v>
       </c>
       <c r="CA45" s="140">
@@ -37492,47 +37560,47 @@
         <v>3486</v>
       </c>
       <c r="CB45" s="140">
-        <f t="shared" ref="CB45:CE45" si="121">CB41-CB44</f>
+        <f t="shared" ref="CB45:CE45" si="120">CB41-CB44</f>
         <v>3218</v>
       </c>
       <c r="CC45" s="140">
+        <f t="shared" si="120"/>
+        <v>4444</v>
+      </c>
+      <c r="CD45" s="140">
+        <f t="shared" si="120"/>
+        <v>2175</v>
+      </c>
+      <c r="CE45" s="140">
+        <f t="shared" si="120"/>
+        <v>3523</v>
+      </c>
+      <c r="CF45" s="140">
+        <f t="shared" ref="CF45:CL45" si="121">CF41-CF44</f>
+        <v>3001</v>
+      </c>
+      <c r="CG45" s="140">
         <f t="shared" si="121"/>
-        <v>4444</v>
-      </c>
-      <c r="CD45" s="140">
+        <v>3734</v>
+      </c>
+      <c r="CH45" s="140">
         <f t="shared" si="121"/>
-        <v>2175</v>
-      </c>
-      <c r="CE45" s="140">
+        <v>2857</v>
+      </c>
+      <c r="CI45" s="140">
         <f t="shared" si="121"/>
-        <v>3523</v>
-      </c>
-      <c r="CF45" s="140">
-        <f t="shared" ref="CF45:CL45" si="122">CF41-CF44</f>
-        <v>3001</v>
-      </c>
-      <c r="CG45" s="140">
-        <f t="shared" si="122"/>
-        <v>3734</v>
-      </c>
-      <c r="CH45" s="140">
-        <f t="shared" si="122"/>
-        <v>2857</v>
-      </c>
-      <c r="CI45" s="140">
-        <f t="shared" si="122"/>
         <v>2724</v>
       </c>
       <c r="CJ45" s="140">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>3206.25</v>
       </c>
       <c r="CK45" s="140">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>3561.5999999999995</v>
       </c>
       <c r="CL45" s="140">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>2446.3499999999995</v>
       </c>
       <c r="CM45" s="140"/>
@@ -37545,35 +37613,35 @@
       <c r="CT45" s="140"/>
       <c r="CU45" s="79"/>
       <c r="CV45" s="79">
-        <f t="shared" ref="CV45:DC45" si="123">CV41-CV44</f>
+        <f t="shared" ref="CV45:DC45" si="122">CV41-CV44</f>
         <v>-210.292</v>
       </c>
       <c r="CW45" s="79">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>-214.36099999999999</v>
       </c>
       <c r="CX45" s="79">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>-310.69400000000002</v>
       </c>
       <c r="CY45" s="79">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>-316.05899999999997</v>
       </c>
       <c r="CZ45" s="79">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>-415.03</v>
       </c>
       <c r="DA45" s="79">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>-526.34500000000037</v>
       </c>
       <c r="DB45" s="17">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>-656.91200000000003</v>
       </c>
       <c r="DC45" s="82">
-        <f t="shared" si="123"/>
+        <f t="shared" si="122"/>
         <v>-834.56500000000005</v>
       </c>
       <c r="DD45" s="82">
@@ -37593,63 +37661,63 @@
         <v>686.74499999999989</v>
       </c>
       <c r="DH45" s="82">
-        <f t="shared" ref="DH45" si="124">DH41-DH44</f>
+        <f t="shared" ref="DH45" si="123">DH41-DH44</f>
         <v>3766.4480000000012</v>
       </c>
       <c r="DI45" s="82">
-        <f t="shared" ref="DI45:DN45" si="125">DI41-DI44</f>
+        <f t="shared" ref="DI45:DN45" si="124">DI41-DI44</f>
         <v>4010.1750000000011</v>
       </c>
       <c r="DJ45" s="82">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>4886.4469999999983</v>
       </c>
       <c r="DK45" s="82">
-        <f t="shared" si="125"/>
-        <v>20800.647239999998</v>
+        <f t="shared" si="124"/>
+        <v>10729.6386</v>
       </c>
       <c r="DL45" s="82">
-        <f t="shared" si="125"/>
-        <v>24551.113256000004</v>
+        <f t="shared" si="124"/>
+        <v>12951.633320000003</v>
       </c>
       <c r="DM45" s="82">
-        <f t="shared" si="125"/>
-        <v>25936.880697519999</v>
+        <f t="shared" si="124"/>
+        <v>13883.437481200002</v>
       </c>
       <c r="DN45" s="140">
+        <f t="shared" si="124"/>
+        <v>-2237.7950000000001</v>
+      </c>
+      <c r="DO45" s="140">
+        <f t="shared" ref="DO45:DQ45" si="125">DO41-DO44</f>
+        <v>-2237.7950000000001</v>
+      </c>
+      <c r="DP45" s="140">
         <f t="shared" si="125"/>
         <v>-2237.7950000000001</v>
       </c>
-      <c r="DO45" s="140">
-        <f t="shared" ref="DO45:DQ45" si="126">DO41-DO44</f>
-        <v>-2237.7950000000001</v>
-      </c>
-      <c r="DP45" s="140">
+      <c r="DQ45" s="140">
+        <f t="shared" si="125"/>
+        <v>6624.6849999999995</v>
+      </c>
+      <c r="DR45" s="140">
+        <f t="shared" ref="DR45:DV45" si="126">DR41-DR44</f>
+        <v>8323.9650000000001</v>
+      </c>
+      <c r="DS45" s="140">
         <f t="shared" si="126"/>
-        <v>-2237.7950000000001</v>
-      </c>
-      <c r="DQ45" s="140">
+        <v>7104.2849999999999</v>
+      </c>
+      <c r="DT45" s="79">
         <f t="shared" si="126"/>
-        <v>6624.6849999999995</v>
-      </c>
-      <c r="DR45" s="140">
-        <f t="shared" ref="DR45:DV45" si="127">DR41-DR44</f>
-        <v>8323.9650000000001</v>
-      </c>
-      <c r="DS45" s="140">
-        <f t="shared" si="127"/>
-        <v>7104.2849999999999</v>
-      </c>
-      <c r="DT45" s="79">
-        <f t="shared" si="127"/>
         <v>5866.125</v>
       </c>
       <c r="DU45" s="79">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>-1275.5150000000001</v>
       </c>
       <c r="DV45" s="79">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>-1371.7429999999999</v>
       </c>
       <c r="DW45" s="79"/>
@@ -37852,7 +37920,7 @@
         <v>-105.649</v>
       </c>
       <c r="BA46" s="82">
-        <f t="shared" ref="BA46" si="128">-73.15-11.108</f>
+        <f t="shared" ref="BA46" si="127">-73.15-11.108</f>
         <v>-84.25800000000001</v>
       </c>
       <c r="BB46" s="82">
@@ -37860,7 +37928,10 @@
         <v>-84.25800000000001</v>
       </c>
       <c r="BC46" s="82"/>
-      <c r="BD46" s="82"/>
+      <c r="BD46" s="82">
+        <f>-140+35</f>
+        <v>-105</v>
+      </c>
       <c r="BE46" s="82"/>
       <c r="BF46" s="82"/>
       <c r="BG46" s="82"/>
@@ -37999,7 +38070,7 @@
       </c>
       <c r="DH46" s="82"/>
       <c r="DI46" s="93">
-        <f t="shared" ref="DI46:DI48" si="129">SUM(AQ46:AT46)</f>
+        <f t="shared" ref="DI46:DI48" si="128">SUM(AQ46:AT46)</f>
         <v>-400.96699999999998</v>
       </c>
       <c r="DJ46" s="83">
@@ -38011,48 +38082,48 @@
         <v>-368.346</v>
       </c>
       <c r="DL46" s="82">
-        <f t="shared" ref="DL46:DV46" si="130">+DK61*$EA$55</f>
-        <v>39.639115400000023</v>
+        <f t="shared" ref="DL46:DV46" si="129">+DK61*$EA$55</f>
+        <v>1.8728330000000086</v>
       </c>
       <c r="DM46" s="82">
-        <f t="shared" si="130"/>
-        <v>132.46920560203503</v>
+        <f t="shared" si="129"/>
+        <v>50.772318727575019</v>
       </c>
       <c r="DN46" s="140">
-        <f t="shared" si="130"/>
-        <v>230.88100148632071</v>
+        <f t="shared" si="129"/>
+        <v>103.37396072230163</v>
       </c>
       <c r="DO46" s="140">
-        <f t="shared" si="130"/>
-        <v>223.30490114193159</v>
+        <f t="shared" si="129"/>
+        <v>95.316521299028324</v>
       </c>
       <c r="DP46" s="140">
-        <f t="shared" si="130"/>
-        <v>215.70020101874238</v>
+        <f t="shared" si="129"/>
+        <v>87.228665041932146</v>
       </c>
       <c r="DQ46" s="140">
-        <f t="shared" si="130"/>
-        <v>208.06679315258816</v>
+        <f t="shared" si="129"/>
+        <v>79.110277127465437</v>
       </c>
       <c r="DR46" s="140">
-        <f t="shared" si="130"/>
-        <v>233.86043117173915</v>
+        <f t="shared" si="129"/>
+        <v>104.41710429862164</v>
       </c>
       <c r="DS46" s="140">
-        <f t="shared" si="130"/>
-        <v>266.1662221744125</v>
+        <f t="shared" si="129"/>
+        <v>136.23424674234894</v>
       </c>
       <c r="DT46" s="79">
-        <f t="shared" si="130"/>
-        <v>293.98967553812088</v>
+        <f t="shared" si="129"/>
+        <v>163.56720689880132</v>
       </c>
       <c r="DU46" s="79">
-        <f t="shared" si="130"/>
-        <v>317.24410843827724</v>
+        <f t="shared" si="129"/>
+        <v>186.32929497984426</v>
       </c>
       <c r="DV46" s="79">
-        <f t="shared" si="130"/>
-        <v>313.62663582263178</v>
+        <f t="shared" si="129"/>
+        <v>182.21761894339318</v>
       </c>
       <c r="DW46" s="79"/>
       <c r="DX46" s="79"/>
@@ -38070,59 +38141,59 @@
         <v>26</v>
       </c>
       <c r="C47" s="82">
-        <f t="shared" ref="C47:V47" si="131">SUM(C45:C46)</f>
+        <f t="shared" ref="C47:V47" si="130">SUM(C45:C46)</f>
         <v>-71.188000000000002</v>
       </c>
       <c r="D47" s="82">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-71.296000000000006</v>
       </c>
       <c r="E47" s="82">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-76.216999999999999</v>
       </c>
       <c r="F47" s="82">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-88.92</v>
       </c>
       <c r="G47" s="82">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-90.528000000000006</v>
       </c>
       <c r="H47" s="82">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-101.117</v>
       </c>
       <c r="I47" s="82">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-97.484999999999999</v>
       </c>
       <c r="J47" s="82">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-134.75799999999998</v>
       </c>
       <c r="K47" s="82" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>#REF!</v>
       </c>
       <c r="L47" s="82" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>#REF!</v>
       </c>
       <c r="M47" s="82" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>#REF!</v>
       </c>
       <c r="N47" s="82" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>#REF!</v>
       </c>
       <c r="O47" s="82" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>#REF!</v>
       </c>
       <c r="P47" s="82" t="e">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>#REF!</v>
       </c>
       <c r="Q47" s="82" t="e">
@@ -38134,87 +38205,87 @@
         <v>#REF!</v>
       </c>
       <c r="S47" s="82" t="e">
+        <f t="shared" si="130"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T47" s="82" t="e">
+        <f t="shared" si="130"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U47" s="82" t="e">
+        <f t="shared" si="130"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V47" s="82" t="e">
+        <f t="shared" si="130"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W47" s="82" t="e">
+        <f t="shared" ref="W47:AB47" si="131">SUM(W45:W46)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X47" s="82" t="e">
         <f t="shared" si="131"/>
         <v>#REF!</v>
       </c>
-      <c r="T47" s="82" t="e">
+      <c r="Y47" s="82" t="e">
         <f t="shared" si="131"/>
         <v>#REF!</v>
       </c>
-      <c r="U47" s="82" t="e">
+      <c r="Z47" s="82" t="e">
         <f t="shared" si="131"/>
         <v>#REF!</v>
       </c>
-      <c r="V47" s="82" t="e">
+      <c r="AA47" s="82" t="e">
         <f t="shared" si="131"/>
         <v>#REF!</v>
       </c>
-      <c r="W47" s="82" t="e">
-        <f t="shared" ref="W47:AB47" si="132">SUM(W45:W46)</f>
+      <c r="AB47" s="82" t="e">
+        <f t="shared" si="131"/>
         <v>#REF!</v>
       </c>
-      <c r="X47" s="82" t="e">
+      <c r="AC47" s="82" t="e">
+        <f t="shared" ref="AC47:AM47" si="132">SUM(AC45:AC46)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AD47" s="82" t="e">
         <f t="shared" si="132"/>
         <v>#REF!</v>
       </c>
-      <c r="Y47" s="82" t="e">
+      <c r="AE47" s="82">
         <f t="shared" si="132"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z47" s="82" t="e">
+        <v>836.88800000000015</v>
+      </c>
+      <c r="AF47" s="82">
         <f t="shared" si="132"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA47" s="82" t="e">
+        <v>841.93999999999994</v>
+      </c>
+      <c r="AG47" s="82">
         <f t="shared" si="132"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB47" s="82" t="e">
+        <v>945.98900000000049</v>
+      </c>
+      <c r="AH47" s="82">
         <f t="shared" si="132"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC47" s="82" t="e">
-        <f t="shared" ref="AC47:AM47" si="133">SUM(AC45:AC46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD47" s="82" t="e">
-        <f t="shared" si="133"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE47" s="82">
-        <f t="shared" si="133"/>
-        <v>836.88800000000015</v>
-      </c>
-      <c r="AF47" s="82">
-        <f t="shared" si="133"/>
-        <v>841.93999999999994</v>
-      </c>
-      <c r="AG47" s="82">
-        <f t="shared" si="133"/>
-        <v>945.98900000000049</v>
-      </c>
-      <c r="AH47" s="82">
-        <f t="shared" si="133"/>
         <v>1139.6599999999996</v>
       </c>
       <c r="AI47" s="82">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>-546.74499999999989</v>
       </c>
       <c r="AJ47" s="82">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>1061.2539999999997</v>
       </c>
       <c r="AK47" s="82">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>1035.7950000000001</v>
       </c>
       <c r="AL47" s="82">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>-912.23299999999995</v>
       </c>
       <c r="AM47" s="82">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>850.67000000000019</v>
       </c>
       <c r="AN47" s="82">
@@ -38242,23 +38313,23 @@
         <v>951.08700000000022</v>
       </c>
       <c r="AT47" s="82">
-        <f t="shared" ref="AT47:AX47" si="134">+AT46+AT45</f>
+        <f t="shared" ref="AT47:AX47" si="133">+AT46+AT45</f>
         <v>1019.6909999999999</v>
       </c>
       <c r="AU47" s="82">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>940.14800000000048</v>
       </c>
       <c r="AV47" s="82">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>1164.2810000000004</v>
       </c>
       <c r="AW47" s="82">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>1178.9500000000003</v>
       </c>
       <c r="AX47" s="82">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>1275.7340000000002</v>
       </c>
       <c r="AY47" s="82">
@@ -38270,15 +38341,21 @@
         <v>4594.7370000000001</v>
       </c>
       <c r="BA47" s="82">
-        <f t="shared" ref="BA47:BB47" si="135">+BA46+BA45</f>
-        <v>4996.1567200000009</v>
+        <f t="shared" ref="BA47:BD47" si="134">+BA46+BA45</f>
+        <v>-246.1476000000001</v>
       </c>
       <c r="BB47" s="82">
-        <f t="shared" si="135"/>
-        <v>5471.9167200000011</v>
-      </c>
-      <c r="BC47" s="82"/>
-      <c r="BD47" s="82"/>
+        <f t="shared" si="134"/>
+        <v>643.21239999999989</v>
+      </c>
+      <c r="BC47" s="82">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="BD47" s="82">
+        <f t="shared" si="134"/>
+        <v>5511</v>
+      </c>
       <c r="BE47" s="82"/>
       <c r="BF47" s="82"/>
       <c r="BG47" s="82"/>
@@ -38292,56 +38369,56 @@
       <c r="BO47" s="82"/>
       <c r="BP47" s="82"/>
       <c r="BQ47" s="140">
-        <f t="shared" ref="BQ47" si="136">BQ45+BQ46</f>
+        <f t="shared" ref="BQ47" si="135">BQ45+BQ46</f>
         <v>2664</v>
       </c>
       <c r="BR47" s="140">
-        <f t="shared" ref="BR47:BS47" si="137">BR45+BR46</f>
+        <f t="shared" ref="BR47:BS47" si="136">BR45+BR46</f>
         <v>2473</v>
       </c>
       <c r="BS47" s="140">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>2561</v>
       </c>
       <c r="BT47" s="82"/>
       <c r="BU47" s="140">
-        <f t="shared" ref="BU47:BV47" si="138">BU45+BU46</f>
+        <f t="shared" ref="BU47:BV47" si="137">BU45+BU46</f>
         <v>-1501</v>
       </c>
       <c r="BV47" s="140">
+        <f t="shared" si="137"/>
+        <v>2034</v>
+      </c>
+      <c r="BW47" s="140">
+        <f t="shared" ref="BW47:BX47" si="138">BW45+BW46</f>
+        <v>2649</v>
+      </c>
+      <c r="BX47" s="140">
         <f t="shared" si="138"/>
-        <v>2034</v>
-      </c>
-      <c r="BW47" s="140">
-        <f t="shared" ref="BW47:BX47" si="139">BW45+BW46</f>
-        <v>2649</v>
-      </c>
-      <c r="BX47" s="140">
-        <f t="shared" si="139"/>
         <v>2005</v>
       </c>
       <c r="BY47" s="140">
-        <f t="shared" ref="BY47" si="140">BY45+BY46</f>
+        <f t="shared" ref="BY47" si="139">BY45+BY46</f>
         <v>3259</v>
       </c>
       <c r="BZ47" s="140">
-        <f t="shared" ref="BZ47:CD47" si="141">BZ45+BZ46</f>
+        <f t="shared" ref="BZ47:CD47" si="140">BZ45+BZ46</f>
         <v>3271</v>
       </c>
       <c r="CA47" s="140">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>2860</v>
       </c>
       <c r="CB47" s="140">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>2789</v>
       </c>
       <c r="CC47" s="140">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>4194</v>
       </c>
       <c r="CD47" s="140">
-        <f t="shared" si="141"/>
+        <f t="shared" si="140"/>
         <v>1994</v>
       </c>
       <c r="CE47" s="140">
@@ -38353,27 +38430,27 @@
         <v>2778</v>
       </c>
       <c r="CG47" s="140">
-        <f t="shared" ref="CG47:CL47" si="142">CG45+CG46</f>
+        <f t="shared" ref="CG47:CL47" si="141">CG45+CG46</f>
         <v>3329</v>
       </c>
       <c r="CH47" s="140">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>2621</v>
       </c>
       <c r="CI47" s="140">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>2320</v>
       </c>
       <c r="CJ47" s="140">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>3206.25</v>
       </c>
       <c r="CK47" s="140">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>3561.5999999999995</v>
       </c>
       <c r="CL47" s="140">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>2446.3499999999995</v>
       </c>
       <c r="CM47" s="140"/>
@@ -38386,31 +38463,31 @@
       <c r="CT47" s="140"/>
       <c r="CU47" s="79"/>
       <c r="CV47" s="79">
-        <f t="shared" ref="CV47:DB47" si="143">SUM(CV45:CV46)</f>
+        <f t="shared" ref="CV47:DB47" si="142">SUM(CV45:CV46)</f>
         <v>-200.375</v>
       </c>
       <c r="CW47" s="79">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>-201.09199999999998</v>
       </c>
       <c r="CX47" s="79">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>-299.08300000000003</v>
       </c>
       <c r="CY47" s="79">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>-307.62099999999998</v>
       </c>
       <c r="CZ47" s="79">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>-423.88799999999998</v>
       </c>
       <c r="DA47" s="79">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>-514.75000000000034</v>
       </c>
       <c r="DB47" s="17">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
         <v>-610.19460000000004</v>
       </c>
       <c r="DC47" s="82">
@@ -38418,7 +38495,7 @@
         <v>-754.62412138582215</v>
       </c>
       <c r="DD47" s="82">
-        <f t="shared" ref="DD47:DI47" si="144">SUM(DD45:DD46)</f>
+        <f t="shared" ref="DD47:DI47" si="143">SUM(DD45:DD46)</f>
         <v>-1061.099093109437</v>
       </c>
       <c r="DE47" s="82">
@@ -38434,11 +38511,11 @@
         <v>638.07099999999991</v>
       </c>
       <c r="DH47" s="82">
-        <f t="shared" si="144"/>
+        <f t="shared" si="143"/>
         <v>3766.4480000000012</v>
       </c>
       <c r="DI47" s="82">
-        <f t="shared" si="144"/>
+        <f t="shared" si="143"/>
         <v>3609.208000000001</v>
       </c>
       <c r="DJ47" s="82">
@@ -38447,51 +38524,51 @@
       </c>
       <c r="DK47" s="82">
         <f>SUM(DK45:DK46)</f>
-        <v>20432.301239999997</v>
+        <v>10361.292600000001</v>
       </c>
       <c r="DL47" s="82">
         <f>SUM(DL45:DL46)</f>
-        <v>24590.752371400005</v>
+        <v>12953.506153000002</v>
       </c>
       <c r="DM47" s="82">
         <f>SUM(DM45:DM46)</f>
-        <v>26069.349903122034</v>
+        <v>13934.209799927577</v>
       </c>
       <c r="DN47" s="140">
         <f>SUM(DN45:DN46)</f>
-        <v>-2006.9139985136794</v>
+        <v>-2134.4210392776986</v>
       </c>
       <c r="DO47" s="140">
-        <f t="shared" ref="DO47:DV47" si="145">SUM(DO45:DO46)</f>
-        <v>-2014.4900988580684</v>
+        <f t="shared" ref="DO47:DV47" si="144">SUM(DO45:DO46)</f>
+        <v>-2142.4784787009717</v>
       </c>
       <c r="DP47" s="140">
-        <f t="shared" si="145"/>
-        <v>-2022.0947989812578</v>
+        <f t="shared" si="144"/>
+        <v>-2150.5663349580677</v>
       </c>
       <c r="DQ47" s="140">
-        <f t="shared" si="145"/>
-        <v>6832.7517931525872</v>
+        <f t="shared" si="144"/>
+        <v>6703.7952771274649</v>
       </c>
       <c r="DR47" s="140">
-        <f t="shared" si="145"/>
-        <v>8557.8254311717392</v>
+        <f t="shared" si="144"/>
+        <v>8428.3821042986219</v>
       </c>
       <c r="DS47" s="140">
-        <f t="shared" si="145"/>
-        <v>7370.4512221744126</v>
+        <f t="shared" si="144"/>
+        <v>7240.5192467423485</v>
       </c>
       <c r="DT47" s="79">
-        <f t="shared" si="145"/>
-        <v>6160.1146755381205</v>
+        <f t="shared" si="144"/>
+        <v>6029.6922068988015</v>
       </c>
       <c r="DU47" s="79">
-        <f t="shared" si="145"/>
-        <v>-958.27089156172292</v>
+        <f t="shared" si="144"/>
+        <v>-1089.1857050201559</v>
       </c>
       <c r="DV47" s="79">
-        <f t="shared" si="145"/>
-        <v>-1058.1163641773683</v>
+        <f t="shared" si="144"/>
+        <v>-1189.5253810566069</v>
       </c>
       <c r="DW47" s="79"/>
       <c r="DX47" s="79"/>
@@ -38674,15 +38751,18 @@
         <v>651.51300000000003</v>
       </c>
       <c r="BA48" s="82">
-        <f t="shared" ref="BA48:BB48" si="146">+BA47*0.25</f>
-        <v>1249.0391800000002</v>
+        <f t="shared" ref="BA48:BB48" si="145">+BA47*0.25</f>
+        <v>-61.536900000000024</v>
       </c>
       <c r="BB48" s="82">
-        <f t="shared" si="146"/>
-        <v>1367.9791800000003</v>
+        <f t="shared" si="145"/>
+        <v>160.80309999999997</v>
       </c>
       <c r="BC48" s="82"/>
-      <c r="BD48" s="82"/>
+      <c r="BD48" s="82">
+        <f>1014+5</f>
+        <v>1019</v>
+      </c>
       <c r="BE48" s="82"/>
       <c r="BF48" s="82"/>
       <c r="BG48" s="82"/>
@@ -38761,15 +38841,15 @@
         <v>290</v>
       </c>
       <c r="CJ48" s="140">
-        <f t="shared" ref="CJ48:CL48" si="147">+CJ47*0.2</f>
+        <f t="shared" ref="CJ48:CL48" si="146">+CJ47*0.2</f>
         <v>641.25</v>
       </c>
       <c r="CK48" s="140">
-        <f t="shared" si="147"/>
+        <f t="shared" si="146"/>
         <v>712.31999999999994</v>
       </c>
       <c r="CL48" s="140">
-        <f t="shared" si="147"/>
+        <f t="shared" si="146"/>
         <v>489.26999999999992</v>
       </c>
       <c r="CM48" s="140"/>
@@ -38823,11 +38903,11 @@
         <v>-1077</v>
       </c>
       <c r="DH48" s="82">
-        <f t="shared" ref="DH48" si="148">DH47*DH54</f>
+        <f t="shared" ref="DH48" si="147">DH47*DH54</f>
         <v>979.27648000000033</v>
       </c>
       <c r="DI48" s="93">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>1030.329</v>
       </c>
       <c r="DJ48" s="83">
@@ -38836,51 +38916,51 @@
       </c>
       <c r="DK48" s="82">
         <f>SUM(AY48:BB48)</f>
-        <v>3994.4133600000005</v>
+        <v>1476.6612</v>
       </c>
       <c r="DL48" s="82">
-        <f t="shared" ref="DL48:DV48" si="149">+DL47*0.245</f>
-        <v>6024.7343309930011</v>
+        <f t="shared" ref="DL48:DV48" si="148">+DL47*0.245</f>
+        <v>3173.6090074850003</v>
       </c>
       <c r="DM48" s="82">
-        <f t="shared" si="149"/>
-        <v>6386.9907262648985</v>
+        <f t="shared" si="148"/>
+        <v>3413.8814009822563</v>
       </c>
       <c r="DN48" s="140">
-        <f t="shared" si="149"/>
-        <v>-491.69392963585148</v>
+        <f t="shared" si="148"/>
+        <v>-522.9331546230361</v>
       </c>
       <c r="DO48" s="140">
-        <f t="shared" si="149"/>
-        <v>-493.55007422022675</v>
+        <f t="shared" si="148"/>
+        <v>-524.90722728173807</v>
       </c>
       <c r="DP48" s="140">
-        <f t="shared" si="149"/>
-        <v>-495.41322575040817</v>
+        <f t="shared" si="148"/>
+        <v>-526.88875206472653</v>
       </c>
       <c r="DQ48" s="140">
-        <f t="shared" si="149"/>
-        <v>1674.0241893223838</v>
+        <f t="shared" si="148"/>
+        <v>1642.4298428962288</v>
       </c>
       <c r="DR48" s="140">
-        <f t="shared" si="149"/>
-        <v>2096.667230637076</v>
+        <f t="shared" si="148"/>
+        <v>2064.9536155531623</v>
       </c>
       <c r="DS48" s="140">
-        <f t="shared" si="149"/>
-        <v>1805.7605494327311</v>
+        <f t="shared" si="148"/>
+        <v>1773.9272154518753</v>
       </c>
       <c r="DT48" s="79">
-        <f t="shared" si="149"/>
-        <v>1509.2280955068395</v>
+        <f t="shared" si="148"/>
+        <v>1477.2745906902064</v>
       </c>
       <c r="DU48" s="79">
-        <f t="shared" si="149"/>
-        <v>-234.77636843262212</v>
+        <f t="shared" si="148"/>
+        <v>-266.85049772993818</v>
       </c>
       <c r="DV48" s="79">
-        <f t="shared" si="149"/>
-        <v>-259.2385092234552</v>
+        <f t="shared" si="148"/>
+        <v>-291.4337183588687</v>
       </c>
       <c r="DW48" s="79"/>
       <c r="DX48" s="79"/>
@@ -38902,155 +38982,155 @@
         <v>-70.224000000000004</v>
       </c>
       <c r="D49" s="83">
-        <f t="shared" ref="D49:V49" si="150">D47-D48</f>
+        <f t="shared" ref="D49:V49" si="149">D47-D48</f>
         <v>-71.934000000000012</v>
       </c>
       <c r="E49" s="83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-76.766999999999996</v>
       </c>
       <c r="F49" s="83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-89.995999999999995</v>
       </c>
       <c r="G49" s="83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-93.188000000000002</v>
       </c>
       <c r="H49" s="83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-106.39200000000001</v>
       </c>
       <c r="I49" s="83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-101.34</v>
       </c>
       <c r="J49" s="83">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-27.437999999999988</v>
       </c>
       <c r="K49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V49" s="83" t="e">
+        <f t="shared" si="149"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W49" s="83" t="e">
+        <f t="shared" ref="W49:AB49" si="150">W47-W48</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X49" s="83" t="e">
         <f t="shared" si="150"/>
         <v>#REF!</v>
       </c>
-      <c r="L49" s="83" t="e">
+      <c r="Y49" s="83" t="e">
         <f t="shared" si="150"/>
         <v>#REF!</v>
       </c>
-      <c r="M49" s="83" t="e">
+      <c r="Z49" s="83" t="e">
         <f t="shared" si="150"/>
         <v>#REF!</v>
       </c>
-      <c r="N49" s="83" t="e">
+      <c r="AA49" s="83" t="e">
         <f t="shared" si="150"/>
         <v>#REF!</v>
       </c>
-      <c r="O49" s="83" t="e">
+      <c r="AB49" s="83" t="e">
         <f t="shared" si="150"/>
         <v>#REF!</v>
       </c>
-      <c r="P49" s="83" t="e">
-        <f t="shared" si="150"/>
+      <c r="AC49" s="83" t="e">
+        <f t="shared" ref="AC49:AD49" si="151">AC47-AC48</f>
         <v>#REF!</v>
       </c>
-      <c r="Q49" s="83" t="e">
-        <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R49" s="83" t="e">
-        <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S49" s="83" t="e">
-        <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T49" s="83" t="e">
-        <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U49" s="83" t="e">
-        <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V49" s="83" t="e">
-        <f t="shared" si="150"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W49" s="83" t="e">
-        <f t="shared" ref="W49:AB49" si="151">W47-W48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X49" s="83" t="e">
+      <c r="AD49" s="83" t="e">
         <f t="shared" si="151"/>
         <v>#REF!</v>
       </c>
-      <c r="Y49" s="83" t="e">
-        <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z49" s="83" t="e">
-        <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA49" s="83" t="e">
-        <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB49" s="83" t="e">
-        <f t="shared" si="151"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC49" s="83" t="e">
-        <f t="shared" ref="AC49:AD49" si="152">AC47-AC48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD49" s="83" t="e">
+      <c r="AE49" s="108">
+        <f t="shared" ref="AE49:AO49" si="152">AE47+AE48</f>
+        <v>619.88800000000015</v>
+      </c>
+      <c r="AF49" s="108">
         <f t="shared" si="152"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE49" s="108">
-        <f t="shared" ref="AE49:AO49" si="153">AE47+AE48</f>
-        <v>619.88800000000015</v>
-      </c>
-      <c r="AF49" s="108">
-        <f t="shared" si="153"/>
         <v>645.93999999999994</v>
       </c>
       <c r="AG49" s="108">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>727.98900000000049</v>
       </c>
       <c r="AH49" s="108">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>863.65999999999963</v>
       </c>
       <c r="AI49" s="108">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>-873.74499999999989</v>
       </c>
       <c r="AJ49" s="108">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>760.25399999999968</v>
       </c>
       <c r="AK49" s="108">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>759.79500000000007</v>
       </c>
       <c r="AL49" s="108">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>-1085.2329999999999</v>
       </c>
       <c r="AM49" s="108">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>623.67000000000019</v>
       </c>
       <c r="AN49" s="108">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>1222.7190000000001</v>
       </c>
       <c r="AO49" s="108">
-        <f t="shared" si="153"/>
+        <f t="shared" si="152"/>
         <v>738.10000000000025</v>
       </c>
       <c r="AP49" s="108">
@@ -39058,35 +39138,35 @@
         <v>661.75899999999956</v>
       </c>
       <c r="AQ49" s="108">
-        <f t="shared" ref="AQ49:AX49" si="154">+AQ47-AQ48</f>
+        <f t="shared" ref="AQ49:AX49" si="153">+AQ47-AQ48</f>
         <v>437.53099999999955</v>
       </c>
       <c r="AR49" s="108">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>706.07399999999961</v>
       </c>
       <c r="AS49" s="108">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>675.50500000000022</v>
       </c>
       <c r="AT49" s="108">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>759.76899999999989</v>
       </c>
       <c r="AU49" s="108">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>717.71000000000049</v>
       </c>
       <c r="AV49" s="108">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>861.28700000000049</v>
       </c>
       <c r="AW49" s="108">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>887.86700000000019</v>
       </c>
       <c r="AX49" s="108">
-        <f t="shared" si="154"/>
+        <f t="shared" si="153"/>
         <v>949.69300000000021</v>
       </c>
       <c r="AY49" s="108">
@@ -39098,15 +39178,18 @@
         <v>3943.2240000000002</v>
       </c>
       <c r="BA49" s="108">
-        <f t="shared" ref="BA49:BB49" si="155">+BA47-BA48</f>
-        <v>3747.1175400000006</v>
+        <f t="shared" ref="BA49:BB49" si="154">+BA47-BA48</f>
+        <v>-184.61070000000007</v>
       </c>
       <c r="BB49" s="108">
-        <f t="shared" si="155"/>
-        <v>4103.9375400000008</v>
+        <f t="shared" si="154"/>
+        <v>482.40929999999992</v>
       </c>
       <c r="BC49" s="108"/>
-      <c r="BD49" s="108"/>
+      <c r="BD49" s="108">
+        <f>BD47-BD48</f>
+        <v>4492</v>
+      </c>
       <c r="BE49" s="108"/>
       <c r="BF49" s="108"/>
       <c r="BG49" s="108"/>
@@ -39128,12 +39211,12 @@
         <v>1873</v>
       </c>
       <c r="BS49" s="142">
-        <f t="shared" ref="BS49" si="156">BS47-BS48</f>
+        <f t="shared" ref="BS49" si="155">BS47-BS48</f>
         <v>2141</v>
       </c>
       <c r="BT49" s="108"/>
       <c r="BU49" s="142">
-        <f t="shared" ref="BU49" si="157">BU47-BU48</f>
+        <f t="shared" ref="BU49" si="156">BU47-BU48</f>
         <v>-1165</v>
       </c>
       <c r="BV49" s="142">
@@ -39141,35 +39224,35 @@
         <v>1435</v>
       </c>
       <c r="BW49" s="142">
-        <f t="shared" ref="BW49" si="158">BW47-BW48</f>
+        <f t="shared" ref="BW49" si="157">BW47-BW48</f>
         <v>2139</v>
       </c>
       <c r="BX49" s="142">
-        <f t="shared" ref="BX49:CD49" si="159">BX47-BX48</f>
+        <f t="shared" ref="BX49:CD49" si="158">BX47-BX48</f>
         <v>1632</v>
       </c>
       <c r="BY49" s="142">
-        <f t="shared" si="159"/>
+        <f t="shared" si="158"/>
         <v>2741</v>
       </c>
       <c r="BZ49" s="142">
-        <f t="shared" si="159"/>
+        <f t="shared" si="158"/>
         <v>2761</v>
       </c>
       <c r="CA49" s="142">
-        <f t="shared" si="159"/>
+        <f t="shared" si="158"/>
         <v>2578</v>
       </c>
       <c r="CB49" s="142">
-        <f t="shared" si="159"/>
+        <f t="shared" si="158"/>
         <v>2489</v>
       </c>
       <c r="CC49" s="142">
-        <f t="shared" si="159"/>
+        <f t="shared" si="158"/>
         <v>3454</v>
       </c>
       <c r="CD49" s="142">
-        <f t="shared" si="159"/>
+        <f t="shared" si="158"/>
         <v>1619</v>
       </c>
       <c r="CE49" s="142">
@@ -39181,27 +39264,27 @@
         <v>2410</v>
       </c>
       <c r="CG49" s="142">
-        <f t="shared" ref="CG49:CL49" si="160">CG47-CG48</f>
+        <f t="shared" ref="CG49:CL49" si="159">CG47-CG48</f>
         <v>2686</v>
       </c>
       <c r="CH49" s="142">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>2230</v>
       </c>
       <c r="CI49" s="142">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>2030</v>
       </c>
       <c r="CJ49" s="142">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>2565</v>
       </c>
       <c r="CK49" s="142">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>2849.2799999999997</v>
       </c>
       <c r="CL49" s="142">
-        <f t="shared" si="160"/>
+        <f t="shared" si="159"/>
         <v>1957.0799999999995</v>
       </c>
       <c r="CM49" s="142"/>
@@ -39214,39 +39297,39 @@
       <c r="CT49" s="142"/>
       <c r="CU49" s="155"/>
       <c r="CV49" s="155">
-        <f t="shared" ref="CV49:DU49" si="161">CV47-CV48</f>
+        <f t="shared" ref="CV49:DU49" si="160">CV47-CV48</f>
         <v>-201.26300000000001</v>
       </c>
       <c r="CW49" s="155">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>-202.291</v>
       </c>
       <c r="CX49" s="155">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>-303.21800000000002</v>
       </c>
       <c r="CY49" s="155">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>-308.92099999999999</v>
       </c>
       <c r="CZ49" s="155">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>-328.35799999999995</v>
       </c>
       <c r="DA49" s="155">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>-721.80100000000039</v>
       </c>
       <c r="DB49" s="75">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>-958.13769300000001</v>
       </c>
       <c r="DC49" s="83">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>-510.03170624625841</v>
       </c>
       <c r="DD49" s="83">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>-1061.099093109437</v>
       </c>
       <c r="DE49" s="83">
@@ -39262,11 +39345,11 @@
         <v>1715.0709999999999</v>
       </c>
       <c r="DH49" s="83">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>2787.1715200000008</v>
       </c>
       <c r="DI49" s="83">
-        <f t="shared" si="161"/>
+        <f t="shared" si="160"/>
         <v>2578.8790000000008</v>
       </c>
       <c r="DJ49" s="83">
@@ -39275,283 +39358,283 @@
       </c>
       <c r="DK49" s="93">
         <f>DK47-DK48</f>
-        <v>16437.887879999995</v>
+        <v>8884.6314000000002</v>
       </c>
       <c r="DL49" s="93">
-        <f t="shared" si="161"/>
-        <v>18566.018040407005</v>
+        <f t="shared" si="160"/>
+        <v>9779.8971455150022</v>
       </c>
       <c r="DM49" s="93">
-        <f t="shared" si="161"/>
-        <v>19682.359176857135</v>
+        <f t="shared" si="160"/>
+        <v>10520.328398945321</v>
       </c>
       <c r="DN49" s="142">
-        <f t="shared" si="161"/>
-        <v>-1515.220068877828</v>
+        <f t="shared" si="160"/>
+        <v>-1611.4878846546626</v>
       </c>
       <c r="DO49" s="142">
-        <f t="shared" si="161"/>
-        <v>-1520.9400246378418</v>
+        <f t="shared" si="160"/>
+        <v>-1617.5712514192337</v>
       </c>
       <c r="DP49" s="142">
-        <f t="shared" si="161"/>
-        <v>-1526.6815732308496</v>
+        <f t="shared" si="160"/>
+        <v>-1623.6775828933412</v>
       </c>
       <c r="DQ49" s="139">
-        <f t="shared" si="161"/>
-        <v>5158.7276038302034</v>
+        <f t="shared" si="160"/>
+        <v>5061.3654342312366</v>
       </c>
       <c r="DR49" s="142">
-        <f t="shared" si="161"/>
-        <v>6461.1582005346627</v>
+        <f t="shared" si="160"/>
+        <v>6363.4284887454596</v>
       </c>
       <c r="DS49" s="142">
-        <f t="shared" si="161"/>
-        <v>5564.6906727416817</v>
+        <f t="shared" si="160"/>
+        <v>5466.5920312904727</v>
       </c>
       <c r="DT49" s="155">
-        <f t="shared" si="161"/>
-        <v>4650.8865800312815</v>
+        <f t="shared" si="160"/>
+        <v>4552.4176162085951</v>
       </c>
       <c r="DU49" s="155">
-        <f t="shared" si="161"/>
-        <v>-723.4945231291008</v>
+        <f t="shared" si="160"/>
+        <v>-822.33520729021768</v>
       </c>
       <c r="DV49" s="155">
         <f>DV47-DV48</f>
-        <v>-798.87785495391313</v>
+        <v>-898.09166269773823</v>
       </c>
       <c r="DW49" s="155">
         <f>+DV49*(1+$EA$54)</f>
-        <v>-758.93396220621742</v>
+        <v>-853.1870795628513</v>
       </c>
       <c r="DX49" s="155">
-        <f t="shared" ref="DX49:GB49" si="162">+DW49*(1+$EA$54)</f>
-        <v>-720.98726409590654</v>
+        <f t="shared" ref="DX49:GB49" si="161">+DW49*(1+$EA$54)</f>
+        <v>-810.52772558470872</v>
       </c>
       <c r="DY49" s="155">
-        <f t="shared" si="162"/>
-        <v>-684.93790089111121</v>
+        <f t="shared" si="161"/>
+        <v>-770.00133930547327</v>
       </c>
       <c r="DZ49" s="155">
-        <f t="shared" si="162"/>
-        <v>-650.69100584655564</v>
+        <f t="shared" si="161"/>
+        <v>-731.50127234019953</v>
       </c>
       <c r="EA49" s="155">
-        <f t="shared" si="162"/>
-        <v>-618.15645555422782</v>
+        <f t="shared" si="161"/>
+        <v>-694.92620872318957</v>
       </c>
       <c r="EB49" s="155">
-        <f t="shared" si="162"/>
-        <v>-587.24863277651639</v>
+        <f t="shared" si="161"/>
+        <v>-660.17989828703003</v>
       </c>
       <c r="EC49" s="155">
-        <f t="shared" si="162"/>
-        <v>-557.88620113769059</v>
+        <f t="shared" si="161"/>
+        <v>-627.17090337267848</v>
       </c>
       <c r="ED49" s="155">
-        <f t="shared" si="162"/>
-        <v>-529.991891080806</v>
+        <f t="shared" si="161"/>
+        <v>-595.81235820404459</v>
       </c>
       <c r="EE49" s="155">
-        <f t="shared" si="162"/>
-        <v>-503.4922965267657</v>
+        <f t="shared" si="161"/>
+        <v>-566.0217402938423</v>
       </c>
       <c r="EF49" s="155">
-        <f t="shared" si="162"/>
-        <v>-478.31768170042739</v>
+        <f t="shared" si="161"/>
+        <v>-537.72065327915016</v>
       </c>
       <c r="EG49" s="75">
-        <f t="shared" si="162"/>
-        <v>-454.401797615406</v>
+        <f t="shared" si="161"/>
+        <v>-510.83462061519265</v>
       </c>
       <c r="EH49" s="75">
-        <f t="shared" si="162"/>
-        <v>-431.68170773463567</v>
+        <f t="shared" si="161"/>
+        <v>-485.292889584433</v>
       </c>
       <c r="EI49" s="75">
-        <f t="shared" si="162"/>
-        <v>-410.09762234790384</v>
+        <f t="shared" si="161"/>
+        <v>-461.02824510521134</v>
       </c>
       <c r="EJ49" s="75">
-        <f t="shared" si="162"/>
-        <v>-389.59274123050864</v>
+        <f t="shared" si="161"/>
+        <v>-437.97683284995077</v>
       </c>
       <c r="EK49" s="75">
-        <f t="shared" si="162"/>
-        <v>-370.11310416898317</v>
+        <f t="shared" si="161"/>
+        <v>-416.07799120745324</v>
       </c>
       <c r="EL49" s="75">
-        <f t="shared" si="162"/>
-        <v>-351.60744896053399</v>
+        <f t="shared" si="161"/>
+        <v>-395.27409164708058</v>
       </c>
       <c r="EM49" s="75">
-        <f t="shared" si="162"/>
-        <v>-334.02707651250728</v>
+        <f t="shared" si="161"/>
+        <v>-375.51038706472656</v>
       </c>
       <c r="EN49" s="75">
-        <f t="shared" si="162"/>
-        <v>-317.32572268688187</v>
+        <f t="shared" si="161"/>
+        <v>-356.73486771149021</v>
       </c>
       <c r="EO49" s="75">
-        <f t="shared" si="162"/>
-        <v>-301.4594365525378</v>
+        <f t="shared" si="161"/>
+        <v>-338.89812432591566</v>
       </c>
       <c r="EP49" s="75">
-        <f t="shared" si="162"/>
-        <v>-286.38646472491087</v>
+        <f t="shared" si="161"/>
+        <v>-321.95321810961985</v>
       </c>
       <c r="EQ49" s="75">
-        <f t="shared" si="162"/>
-        <v>-272.0671414886653</v>
+        <f t="shared" si="161"/>
+        <v>-305.85555720413885</v>
       </c>
       <c r="ER49" s="75">
-        <f t="shared" si="162"/>
-        <v>-258.46378441423201</v>
+        <f t="shared" si="161"/>
+        <v>-290.56277934393188</v>
       </c>
       <c r="ES49" s="75">
-        <f t="shared" si="162"/>
-        <v>-245.5405951935204</v>
+        <f t="shared" si="161"/>
+        <v>-276.0346403767353</v>
       </c>
       <c r="ET49" s="75">
-        <f t="shared" si="162"/>
-        <v>-233.26356543384438</v>
+        <f t="shared" si="161"/>
+        <v>-262.23290835789851</v>
       </c>
       <c r="EU49" s="75">
-        <f t="shared" si="162"/>
-        <v>-221.60038716215215</v>
+        <f t="shared" si="161"/>
+        <v>-249.12126294000356</v>
       </c>
       <c r="EV49" s="75">
-        <f t="shared" si="162"/>
-        <v>-210.52036780404453</v>
+        <f t="shared" si="161"/>
+        <v>-236.66519979300338</v>
       </c>
       <c r="EW49" s="75">
-        <f t="shared" si="162"/>
-        <v>-199.99434941384229</v>
+        <f t="shared" si="161"/>
+        <v>-224.83193980335321</v>
       </c>
       <c r="EX49" s="75">
-        <f t="shared" si="162"/>
-        <v>-189.99463194315015</v>
+        <f t="shared" si="161"/>
+        <v>-213.59034281318554</v>
       </c>
       <c r="EY49" s="75">
-        <f t="shared" si="162"/>
-        <v>-180.49490034599265</v>
+        <f t="shared" si="161"/>
+        <v>-202.91082567252624</v>
       </c>
       <c r="EZ49" s="75">
-        <f t="shared" si="162"/>
-        <v>-171.47015532869301</v>
+        <f t="shared" si="161"/>
+        <v>-192.76528438889991</v>
       </c>
       <c r="FA49" s="75">
-        <f t="shared" si="162"/>
-        <v>-162.89664756225835</v>
+        <f t="shared" si="161"/>
+        <v>-183.12702016945491</v>
       </c>
       <c r="FB49" s="75">
-        <f t="shared" si="162"/>
-        <v>-154.75181518414541</v>
+        <f t="shared" si="161"/>
+        <v>-173.97066916098217</v>
       </c>
       <c r="FC49" s="75">
-        <f t="shared" si="162"/>
-        <v>-147.01422442493813</v>
+        <f t="shared" si="161"/>
+        <v>-165.27213570293304</v>
       </c>
       <c r="FD49" s="75">
-        <f t="shared" si="162"/>
-        <v>-139.66351320369122</v>
+        <f t="shared" si="161"/>
+        <v>-157.00852891778638</v>
       </c>
       <c r="FE49" s="75">
-        <f t="shared" si="162"/>
-        <v>-132.68033754350665</v>
+        <f t="shared" si="161"/>
+        <v>-149.15810247189705</v>
       </c>
       <c r="FF49" s="75">
-        <f t="shared" si="162"/>
-        <v>-126.04632066633131</v>
+        <f t="shared" si="161"/>
+        <v>-141.7001973483022</v>
       </c>
       <c r="FG49" s="75">
-        <f t="shared" si="162"/>
-        <v>-119.74400463301474</v>
+        <f t="shared" si="161"/>
+        <v>-134.61518748088707</v>
       </c>
       <c r="FH49" s="75">
-        <f t="shared" si="162"/>
-        <v>-113.75680440136399</v>
+        <f t="shared" si="161"/>
+        <v>-127.88442810684272</v>
       </c>
       <c r="FI49" s="75">
-        <f t="shared" si="162"/>
-        <v>-108.06896418129578</v>
+        <f t="shared" si="161"/>
+        <v>-121.49020670150058</v>
       </c>
       <c r="FJ49" s="75">
-        <f t="shared" si="162"/>
-        <v>-102.66551597223099</v>
+        <f t="shared" si="161"/>
+        <v>-115.41569636642555</v>
       </c>
       <c r="FK49" s="75">
-        <f t="shared" si="162"/>
-        <v>-97.532240173619442</v>
+        <f t="shared" si="161"/>
+        <v>-109.64491154810426</v>
       </c>
       <c r="FL49" s="75">
-        <f t="shared" si="162"/>
-        <v>-92.655628164938463</v>
+        <f t="shared" si="161"/>
+        <v>-104.16266597069904</v>
       </c>
       <c r="FM49" s="75">
-        <f t="shared" si="162"/>
-        <v>-88.022846756691536</v>
+        <f t="shared" si="161"/>
+        <v>-98.954532672164078</v>
       </c>
       <c r="FN49" s="75">
-        <f t="shared" si="162"/>
-        <v>-83.62170441885695</v>
+        <f t="shared" si="161"/>
+        <v>-94.006806038555865</v>
       </c>
       <c r="FO49" s="75">
-        <f t="shared" si="162"/>
-        <v>-79.440619197914103</v>
+        <f t="shared" si="161"/>
+        <v>-89.30646573662807</v>
       </c>
       <c r="FP49" s="75">
-        <f t="shared" si="162"/>
-        <v>-75.468588238018398</v>
+        <f t="shared" si="161"/>
+        <v>-84.841142449796664</v>
       </c>
       <c r="FQ49" s="75">
-        <f t="shared" si="162"/>
-        <v>-71.695158826117478</v>
+        <f t="shared" si="161"/>
+        <v>-80.599085327306824</v>
       </c>
       <c r="FR49" s="75">
-        <f t="shared" si="162"/>
-        <v>-68.110400884811597</v>
+        <f t="shared" si="161"/>
+        <v>-76.569131060941473</v>
       </c>
       <c r="FS49" s="75">
-        <f t="shared" si="162"/>
-        <v>-64.704880840571008</v>
+        <f t="shared" si="161"/>
+        <v>-72.740674507894397</v>
       </c>
       <c r="FT49" s="75">
-        <f t="shared" si="162"/>
-        <v>-61.469636798542453</v>
+        <f t="shared" si="161"/>
+        <v>-69.103640782499667</v>
       </c>
       <c r="FU49" s="75">
-        <f t="shared" si="162"/>
-        <v>-58.396154958615327</v>
+        <f t="shared" si="161"/>
+        <v>-65.648458743374675</v>
       </c>
       <c r="FV49" s="75">
-        <f t="shared" si="162"/>
-        <v>-55.476347210684558</v>
+        <f t="shared" si="161"/>
+        <v>-62.366035806205936</v>
       </c>
       <c r="FW49" s="75">
-        <f t="shared" si="162"/>
-        <v>-52.702529850150327</v>
+        <f t="shared" si="161"/>
+        <v>-59.247734015895638</v>
       </c>
       <c r="FX49" s="75">
-        <f t="shared" si="162"/>
-        <v>-50.06740335764281</v>
+        <f t="shared" si="161"/>
+        <v>-56.28534731510085</v>
       </c>
       <c r="FY49" s="75">
-        <f t="shared" si="162"/>
-        <v>-47.564033189760664</v>
+        <f t="shared" si="161"/>
+        <v>-53.471079949345807</v>
       </c>
       <c r="FZ49" s="75">
-        <f t="shared" si="162"/>
-        <v>-45.18583153027263</v>
+        <f t="shared" si="161"/>
+        <v>-50.797525951878512</v>
       </c>
       <c r="GA49" s="75">
-        <f t="shared" si="162"/>
-        <v>-42.926539953758997</v>
+        <f t="shared" si="161"/>
+        <v>-48.257649654284585</v>
       </c>
       <c r="GB49" s="75">
-        <f t="shared" si="162"/>
-        <v>-40.780212956071047</v>
+        <f t="shared" si="161"/>
+        <v>-45.844767171570354</v>
       </c>
     </row>
     <row r="50" spans="2:184" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -39563,119 +39646,119 @@
         <v>-0.1811764705882353</v>
       </c>
       <c r="D50" s="131">
-        <f t="shared" ref="D50:V50" si="163">D49/D51</f>
+        <f t="shared" ref="D50:V50" si="162">D49/D51</f>
         <v>-0.17427138600188971</v>
       </c>
       <c r="E50" s="131">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>-0.18618306169965074</v>
       </c>
       <c r="F50" s="131">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>-0.21697076068507945</v>
       </c>
       <c r="G50" s="131">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>-0.23493404864668629</v>
       </c>
       <c r="H50" s="131">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>-0.23094555873925504</v>
       </c>
       <c r="I50" s="131">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>-0.21706535522122075</v>
       </c>
       <c r="J50" s="131">
-        <f t="shared" si="163"/>
+        <f t="shared" si="162"/>
         <v>-5.9655347848206919E-2</v>
       </c>
       <c r="K50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V50" s="131" t="e">
+        <f t="shared" si="162"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W50" s="131" t="e">
+        <f t="shared" ref="W50:AD50" si="163">W49/W51</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X50" s="131" t="e">
         <f t="shared" si="163"/>
         <v>#REF!</v>
       </c>
-      <c r="L50" s="131" t="e">
+      <c r="Y50" s="131" t="e">
         <f t="shared" si="163"/>
         <v>#REF!</v>
       </c>
-      <c r="M50" s="131" t="e">
+      <c r="Z50" s="131" t="e">
         <f t="shared" si="163"/>
         <v>#REF!</v>
       </c>
-      <c r="N50" s="131" t="e">
+      <c r="AA50" s="131" t="e">
         <f t="shared" si="163"/>
         <v>#REF!</v>
       </c>
-      <c r="O50" s="131" t="e">
+      <c r="AB50" s="131" t="e">
         <f t="shared" si="163"/>
         <v>#REF!</v>
       </c>
-      <c r="P50" s="131" t="e">
+      <c r="AC50" s="131" t="e">
         <f t="shared" si="163"/>
         <v>#REF!</v>
       </c>
-      <c r="Q50" s="131" t="e">
+      <c r="AD50" s="131" t="e">
         <f t="shared" si="163"/>
         <v>#REF!</v>
       </c>
-      <c r="R50" s="131" t="e">
-        <f t="shared" si="163"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S50" s="131" t="e">
-        <f t="shared" si="163"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T50" s="131" t="e">
-        <f t="shared" si="163"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U50" s="131" t="e">
-        <f t="shared" si="163"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V50" s="131" t="e">
-        <f t="shared" si="163"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W50" s="131" t="e">
-        <f t="shared" ref="W50:AD50" si="164">W49/W51</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X50" s="131" t="e">
+      <c r="AE50" s="132">
+        <f t="shared" ref="AE50:AO50" si="164">AE49/AE51</f>
+        <v>0.6571636357468319</v>
+      </c>
+      <c r="AF50" s="132">
         <f t="shared" si="164"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y50" s="131" t="e">
-        <f t="shared" si="164"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z50" s="131" t="e">
-        <f t="shared" si="164"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA50" s="131" t="e">
-        <f t="shared" si="164"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB50" s="131" t="e">
-        <f t="shared" si="164"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC50" s="131" t="e">
-        <f t="shared" si="164"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD50" s="131" t="e">
-        <f t="shared" si="164"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE50" s="132">
-        <f t="shared" ref="AE50:AO50" si="165">AE49/AE51</f>
-        <v>0.6571636357468319</v>
-      </c>
-      <c r="AF50" s="132">
-        <f t="shared" si="165"/>
         <v>0.69121011529085952</v>
       </c>
       <c r="AG50" s="132">
@@ -39683,23 +39766,23 @@
         <v>0.78074888677254184</v>
       </c>
       <c r="AH50" s="132">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.93236102189859771</v>
       </c>
       <c r="AI50" s="132">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>-0.94187556930572991</v>
       </c>
       <c r="AJ50" s="132">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.84589870631864328</v>
       </c>
       <c r="AK50" s="132">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.89680109722530432</v>
       </c>
       <c r="AL50" s="132">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>-1.3204098840357177</v>
       </c>
       <c r="AM50" s="132">
@@ -39707,51 +39790,51 @@
         <v>0.76820178923135507</v>
       </c>
       <c r="AN50" s="132">
+        <f t="shared" si="164"/>
+        <v>1.5060768090932271</v>
+      </c>
+      <c r="AO50" s="131">
+        <f t="shared" si="164"/>
+        <v>0.92032418952618489</v>
+      </c>
+      <c r="AP50" s="131">
+        <f t="shared" ref="AP50:AY50" si="165">AP49/AP51</f>
+        <v>0.8635476285549486</v>
+      </c>
+      <c r="AQ50" s="131">
         <f t="shared" si="165"/>
-        <v>1.5060768090932271</v>
-      </c>
-      <c r="AO50" s="131">
+        <v>0.56282191132355985</v>
+      </c>
+      <c r="AR50" s="131">
         <f t="shared" si="165"/>
-        <v>0.92032418952618489</v>
-      </c>
-      <c r="AP50" s="131">
-        <f t="shared" ref="AP50:AY50" si="166">AP49/AP51</f>
-        <v>0.8635476285549486</v>
-      </c>
-      <c r="AQ50" s="131">
-        <f t="shared" si="166"/>
-        <v>0.56282191132355985</v>
-      </c>
-      <c r="AR50" s="131">
-        <f t="shared" si="166"/>
         <v>0.90463622316804693</v>
       </c>
       <c r="AS50" s="131">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>0.85258309941638599</v>
       </c>
       <c r="AT50" s="131">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>0.46414008096819726</v>
       </c>
       <c r="AU50" s="131">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>0.4310415240291644</v>
       </c>
       <c r="AV50" s="131">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>0.50826076360059202</v>
       </c>
       <c r="AW50" s="131">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>0.5247757252505767</v>
       </c>
       <c r="AX50" s="131">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>0.56062160566706032</v>
       </c>
       <c r="AY50" s="131">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>1.4939540000392901</v>
       </c>
       <c r="AZ50" s="131">
@@ -39759,15 +39842,21 @@
         <v>2.3691351015221565</v>
       </c>
       <c r="BA50" s="131">
-        <f t="shared" ref="BA50:BB50" si="167">BA49/BA51</f>
-        <v>2.2119938252656439</v>
+        <f t="shared" ref="BA50:BD50" si="166">BA49/BA51</f>
+        <v>-0.10897916174734361</v>
       </c>
       <c r="BB50" s="131">
-        <f t="shared" si="167"/>
-        <v>2.4226313695395518</v>
-      </c>
-      <c r="BC50" s="131"/>
-      <c r="BD50" s="131"/>
+        <f t="shared" si="166"/>
+        <v>0.28477526564344741</v>
+      </c>
+      <c r="BC50" s="131" t="e">
+        <f t="shared" si="166"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BD50" s="131">
+        <f t="shared" si="166"/>
+        <v>2.9168831168831169</v>
+      </c>
       <c r="BE50" s="131"/>
       <c r="BF50" s="131"/>
       <c r="BG50" s="131"/>
@@ -39781,56 +39870,56 @@
       <c r="BO50" s="131"/>
       <c r="BP50" s="131"/>
       <c r="BQ50" s="143">
-        <f t="shared" ref="BQ50" si="168">BQ49/BQ51</f>
+        <f t="shared" ref="BQ50" si="167">BQ49/BQ51</f>
         <v>1.6044376434583014</v>
       </c>
       <c r="BR50" s="143">
-        <f t="shared" ref="BR50:BS50" si="169">BR49/BR51</f>
+        <f t="shared" ref="BR50:BS50" si="168">BR49/BR51</f>
         <v>1.4418783679753657</v>
       </c>
       <c r="BS50" s="143">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>1.6687451286048325</v>
       </c>
       <c r="BT50" s="131"/>
       <c r="BU50" s="143">
-        <f t="shared" ref="BU50" si="170">BU49/BU51</f>
+        <f t="shared" ref="BU50" si="169">BU49/BU51</f>
         <v>-0.91949486977111283</v>
       </c>
       <c r="BV50" s="143">
-        <f t="shared" ref="BV50:BW50" si="171">BV49/BV51</f>
+        <f t="shared" ref="BV50:BW50" si="170">BV49/BV51</f>
         <v>1.1272584446190101</v>
       </c>
       <c r="BW50" s="143">
+        <f t="shared" si="170"/>
+        <v>1.684251968503937</v>
+      </c>
+      <c r="BX50" s="143">
+        <f t="shared" ref="BX50:CA50" si="171">BX49/BX51</f>
+        <v>1.300398406374502</v>
+      </c>
+      <c r="BY50" s="143">
         <f t="shared" si="171"/>
-        <v>1.684251968503937</v>
-      </c>
-      <c r="BX50" s="143">
-        <f t="shared" ref="BX50:CA50" si="172">BX49/BX51</f>
-        <v>1.300398406374502</v>
-      </c>
-      <c r="BY50" s="143">
-        <f t="shared" si="172"/>
         <v>2.1736716891356065</v>
       </c>
       <c r="BZ50" s="143">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>2.193010325655282</v>
       </c>
       <c r="CA50" s="143">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>2.0427892234548337</v>
       </c>
       <c r="CB50" s="143">
-        <f t="shared" ref="CB50" si="173">CB49/CB51</f>
+        <f t="shared" ref="CB50" si="172">CB49/CB51</f>
         <v>1.9753968253968255</v>
       </c>
       <c r="CC50" s="143">
-        <f t="shared" ref="CC50:CD50" si="174">CC49/CC51</f>
+        <f t="shared" ref="CC50:CD50" si="173">CC49/CC51</f>
         <v>2.7369255150554674</v>
       </c>
       <c r="CD50" s="143">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>1.2828843106180665</v>
       </c>
       <c r="CE50" s="143">
@@ -39842,27 +39931,27 @@
         <v>1.9126984126984128</v>
       </c>
       <c r="CG50" s="143">
-        <f t="shared" ref="CG50" si="175">CG49/CG51</f>
+        <f t="shared" ref="CG50" si="174">CG49/CG51</f>
         <v>2.1300555114988104</v>
       </c>
       <c r="CH50" s="143">
-        <f t="shared" ref="CH50" si="176">CH49/CH51</f>
+        <f t="shared" ref="CH50" si="175">CH49/CH51</f>
         <v>1.764240506329114</v>
       </c>
       <c r="CI50" s="143">
-        <f t="shared" ref="CI50" si="177">CI49/CI51</f>
+        <f t="shared" ref="CI50" si="176">CI49/CI51</f>
         <v>1.6098334655035687</v>
       </c>
       <c r="CJ50" s="143">
-        <f t="shared" ref="CJ50" si="178">CJ49/CJ51</f>
+        <f t="shared" ref="CJ50" si="177">CJ49/CJ51</f>
         <v>2.0340999206978587</v>
       </c>
       <c r="CK50" s="143">
-        <f t="shared" ref="CK50" si="179">CK49/CK51</f>
+        <f t="shared" ref="CK50" si="178">CK49/CK51</f>
         <v>2.2595400475812846</v>
       </c>
       <c r="CL50" s="143">
-        <f t="shared" ref="CL50" si="180">CL49/CL51</f>
+        <f t="shared" ref="CL50" si="179">CL49/CL51</f>
         <v>1.5520063441712921</v>
       </c>
       <c r="CM50" s="143"/>
@@ -39875,36 +39964,36 @@
       <c r="CT50" s="143"/>
       <c r="CU50" s="13"/>
       <c r="CV50" s="156">
-        <f t="shared" ref="CV50:DH50" si="181">CV49/CV51</f>
+        <f t="shared" ref="CV50:DH50" si="180">CV49/CV51</f>
         <v>-0.58744053004874341</v>
       </c>
       <c r="CW50" s="156">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-0.55544236926067692</v>
       </c>
       <c r="CX50" s="156">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-0.7493488070936779</v>
       </c>
       <c r="CY50" s="156">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-0.74807605689737833</v>
       </c>
       <c r="CZ50" s="156">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-0.81638447577136308</v>
       </c>
       <c r="DA50" s="156">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-1.5622941753866506</v>
       </c>
       <c r="DB50" s="133">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-2.0220124848713792</v>
       </c>
       <c r="DC50" s="131"/>
       <c r="DD50" s="131">
-        <f t="shared" si="181"/>
+        <f t="shared" si="180"/>
         <v>-1.0998806083911572</v>
       </c>
       <c r="DE50" s="131">
@@ -39920,64 +40009,64 @@
         <v>1.9625837174660143</v>
       </c>
       <c r="DH50" s="131">
+        <f t="shared" si="180"/>
+        <v>3.3911692913050526</v>
+      </c>
+      <c r="DI50" s="131">
+        <f t="shared" ref="DI50:DN50" si="181">DI49/DI51</f>
+        <v>2.5871987844912288</v>
+      </c>
+      <c r="DJ50" s="131">
         <f t="shared" si="181"/>
-        <v>3.3911692913050526</v>
-      </c>
-      <c r="DI50" s="131">
-        <f t="shared" ref="DI50:DN50" si="182">DI49/DI51</f>
-        <v>2.5871987844912288</v>
-      </c>
-      <c r="DJ50" s="131">
+        <v>2.025966509698637</v>
+      </c>
+      <c r="DK50" s="131">
+        <f t="shared" si="181"/>
+        <v>5.2788199431812615</v>
+      </c>
+      <c r="DL50" s="131">
+        <f t="shared" si="181"/>
+        <v>5.8107437179674202</v>
+      </c>
+      <c r="DM50" s="131">
+        <f t="shared" si="181"/>
+        <v>6.2506722970149049</v>
+      </c>
+      <c r="DN50" s="143">
+        <f t="shared" si="181"/>
+        <v>-0.95746846444412048</v>
+      </c>
+      <c r="DO50" s="143">
+        <f t="shared" ref="DO50:DQ50" si="182">DO49/DO51</f>
+        <v>-0.96108290789739692</v>
+      </c>
+      <c r="DP50" s="143">
         <f t="shared" si="182"/>
-        <v>2.025966509698637</v>
-      </c>
-      <c r="DK50" s="131">
+        <v>-0.96471099587470954</v>
+      </c>
+      <c r="DQ50" s="143">
         <f t="shared" si="182"/>
-        <v>9.7666010505198351</v>
-      </c>
-      <c r="DL50" s="131">
-        <f t="shared" si="182"/>
-        <v>11.031033464952026</v>
-      </c>
-      <c r="DM50" s="131">
-        <f t="shared" si="182"/>
-        <v>11.694309586287412</v>
-      </c>
-      <c r="DN50" s="143">
-        <f t="shared" si="182"/>
-        <v>-0.90027076620204671</v>
-      </c>
-      <c r="DO50" s="143">
-        <f t="shared" ref="DO50:DQ50" si="183">DO49/DO51</f>
-        <v>-0.90366928834445936</v>
-      </c>
-      <c r="DP50" s="143">
+        <v>3.0072194997248998</v>
+      </c>
+      <c r="DR50" s="143">
+        <f t="shared" ref="DR50:DV50" si="183">DR49/DR51</f>
+        <v>3.7808426372530577</v>
+      </c>
+      <c r="DS50" s="143">
         <f t="shared" si="183"/>
-        <v>-0.90708063990795973</v>
-      </c>
-      <c r="DQ50" s="143">
+        <v>3.2479856211043159</v>
+      </c>
+      <c r="DT50" s="156">
         <f t="shared" si="183"/>
-        <v>3.0650674102854234</v>
-      </c>
-      <c r="DR50" s="143">
-        <f t="shared" ref="DR50:DV50" si="184">DR49/DR51</f>
-        <v>3.8389089236759477</v>
-      </c>
-      <c r="DS50" s="143">
-        <f t="shared" si="184"/>
-        <v>3.3062711077584535</v>
-      </c>
-      <c r="DT50" s="156">
-        <f t="shared" si="184"/>
-        <v>2.7633327401903491</v>
+        <v>2.7048272258240931</v>
       </c>
       <c r="DU50" s="156">
-        <f t="shared" si="184"/>
-        <v>-0.429865589862998</v>
+        <f t="shared" si="183"/>
+        <v>-0.48859196254598669</v>
       </c>
       <c r="DV50" s="156">
-        <f t="shared" si="184"/>
-        <v>-0.47465473389212109</v>
+        <f t="shared" si="183"/>
+        <v>-0.53360279863198812</v>
       </c>
       <c r="DW50" s="13"/>
       <c r="DX50" s="13"/>
@@ -40153,7 +40242,9 @@
         <v>1694</v>
       </c>
       <c r="BC51" s="82"/>
-      <c r="BD51" s="82"/>
+      <c r="BD51" s="82">
+        <v>1540</v>
+      </c>
       <c r="BE51" s="82"/>
       <c r="BF51" s="82"/>
       <c r="BG51" s="82"/>
@@ -40222,15 +40313,15 @@
         <v>1261</v>
       </c>
       <c r="CJ51" s="140">
-        <f t="shared" ref="CJ51:CL51" si="185">+CI51</f>
+        <f t="shared" ref="CJ51:CL51" si="184">+CI51</f>
         <v>1261</v>
       </c>
       <c r="CK51" s="140">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>1261</v>
       </c>
       <c r="CL51" s="140">
-        <f t="shared" si="185"/>
+        <f t="shared" si="184"/>
         <v>1261</v>
       </c>
       <c r="CM51" s="140"/>
@@ -40300,15 +40391,15 @@
         <v>1683.0715</v>
       </c>
       <c r="DL51" s="82">
-        <f t="shared" ref="DL51:DN51" si="186">DK51</f>
+        <f t="shared" ref="DL51:DN51" si="185">DK51</f>
         <v>1683.0715</v>
       </c>
       <c r="DM51" s="82">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>1683.0715</v>
       </c>
       <c r="DN51" s="140">
-        <f t="shared" si="186"/>
+        <f t="shared" si="185"/>
         <v>1683.0715</v>
       </c>
       <c r="DO51" s="140">
@@ -40324,23 +40415,23 @@
         <v>1683.0715</v>
       </c>
       <c r="DR51" s="140">
-        <f t="shared" ref="DR51:DV51" si="187">DQ51</f>
+        <f t="shared" ref="DR51:DV51" si="186">DQ51</f>
         <v>1683.0715</v>
       </c>
       <c r="DS51" s="140">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>1683.0715</v>
       </c>
       <c r="DT51" s="79">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>1683.0715</v>
       </c>
       <c r="DU51" s="79">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>1683.0715</v>
       </c>
       <c r="DV51" s="79">
-        <f t="shared" si="187"/>
+        <f t="shared" si="186"/>
         <v>1683.0715</v>
       </c>
       <c r="DW51" s="79"/>
@@ -40494,199 +40585,199 @@
         <v>589</v>
       </c>
       <c r="C53" s="78">
-        <f t="shared" ref="C53:R53" si="188">(C39-C40)/C39</f>
+        <f t="shared" ref="C53:R53" si="187">(C39-C40)/C39</f>
         <v>-1.2395387762692951</v>
       </c>
       <c r="D53" s="78">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>-1.6299539854534659</v>
       </c>
       <c r="E53" s="78">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>-3.6581469648562304</v>
       </c>
       <c r="F53" s="78">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>-4.0005115089514067</v>
       </c>
       <c r="G53" s="78">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>-1.8943661971830985</v>
       </c>
       <c r="H53" s="78">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>-3.5637526652452025</v>
       </c>
       <c r="I53" s="78">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>-4.3202051282051279</v>
       </c>
       <c r="J53" s="78">
-        <f t="shared" si="188"/>
+        <f t="shared" si="187"/>
         <v>-4.6163713080168778</v>
       </c>
       <c r="K53" s="78" t="e">
+        <f t="shared" si="187"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L53" s="78" t="e">
+        <f t="shared" si="187"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M53" s="78" t="e">
+        <f t="shared" si="187"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N53" s="78" t="e">
+        <f t="shared" si="187"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O53" s="78" t="e">
+        <f t="shared" si="187"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P53" s="78" t="e">
+        <f t="shared" si="187"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q53" s="78" t="e">
+        <f t="shared" si="187"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R53" s="78" t="e">
+        <f t="shared" si="187"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S53" s="86" t="e">
+        <f t="shared" ref="S53:AQ53" si="188">S41/S39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T53" s="86" t="e">
         <f t="shared" si="188"/>
         <v>#REF!</v>
       </c>
-      <c r="L53" s="78" t="e">
+      <c r="U53" s="86" t="e">
         <f t="shared" si="188"/>
         <v>#REF!</v>
       </c>
-      <c r="M53" s="78" t="e">
+      <c r="V53" s="86" t="e">
         <f t="shared" si="188"/>
         <v>#REF!</v>
       </c>
-      <c r="N53" s="78" t="e">
+      <c r="W53" s="86" t="e">
         <f t="shared" si="188"/>
         <v>#REF!</v>
       </c>
-      <c r="O53" s="78" t="e">
+      <c r="X53" s="86" t="e">
         <f t="shared" si="188"/>
         <v>#REF!</v>
       </c>
-      <c r="P53" s="78" t="e">
+      <c r="Y53" s="86" t="e">
         <f t="shared" si="188"/>
         <v>#REF!</v>
       </c>
-      <c r="Q53" s="78" t="e">
+      <c r="Z53" s="86" t="e">
         <f t="shared" si="188"/>
         <v>#REF!</v>
       </c>
-      <c r="R53" s="78" t="e">
+      <c r="AA53" s="86" t="e">
         <f t="shared" si="188"/>
         <v>#REF!</v>
       </c>
-      <c r="S53" s="86" t="e">
-        <f t="shared" ref="S53:AQ53" si="189">S41/S39</f>
+      <c r="AB53" s="86" t="e">
+        <f t="shared" si="188"/>
         <v>#REF!</v>
       </c>
-      <c r="T53" s="86" t="e">
+      <c r="AC53" s="86" t="e">
+        <f t="shared" si="188"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AD53" s="86" t="e">
+        <f t="shared" si="188"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE53" s="106">
+        <f t="shared" si="188"/>
+        <v>0.78688760242018752</v>
+      </c>
+      <c r="AF53" s="106">
+        <f t="shared" si="188"/>
+        <v>0.76906484210654125</v>
+      </c>
+      <c r="AG53" s="106">
+        <f t="shared" si="188"/>
+        <v>0.77256439336534199</v>
+      </c>
+      <c r="AH53" s="106">
+        <f t="shared" si="188"/>
+        <v>0.77777444204052615</v>
+      </c>
+      <c r="AI53" s="106">
+        <f t="shared" si="188"/>
+        <v>-0.40238087242687792</v>
+      </c>
+      <c r="AJ53" s="106">
+        <f t="shared" si="188"/>
+        <v>0.77400914475950899</v>
+      </c>
+      <c r="AK53" s="106">
+        <f t="shared" si="188"/>
+        <v>0.76264479377258387</v>
+      </c>
+      <c r="AL53" s="106">
+        <f t="shared" si="188"/>
+        <v>-6.0084880714108309</v>
+      </c>
+      <c r="AM53" s="106">
+        <f t="shared" si="188"/>
+        <v>0.75075374084142454</v>
+      </c>
+      <c r="AN53" s="106">
+        <f t="shared" si="188"/>
+        <v>0.7502106676186675</v>
+      </c>
+      <c r="AO53" s="86">
+        <f t="shared" si="188"/>
+        <v>0.74931674677221749</v>
+      </c>
+      <c r="AP53" s="86">
+        <f t="shared" si="188"/>
+        <v>0.73438790971369461</v>
+      </c>
+      <c r="AQ53" s="86">
+        <f t="shared" si="188"/>
+        <v>0.74547908847032285</v>
+      </c>
+      <c r="AR53" s="86">
+        <f t="shared" ref="AR53:AS53" si="189">AR41/AR39</f>
+        <v>0.74332754306735527</v>
+      </c>
+      <c r="AS53" s="86">
         <f t="shared" si="189"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U53" s="86" t="e">
-        <f t="shared" si="189"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V53" s="86" t="e">
-        <f t="shared" si="189"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W53" s="86" t="e">
-        <f t="shared" si="189"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X53" s="86" t="e">
-        <f t="shared" si="189"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y53" s="86" t="e">
-        <f t="shared" si="189"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z53" s="86" t="e">
-        <f t="shared" si="189"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA53" s="86" t="e">
-        <f t="shared" si="189"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB53" s="86" t="e">
-        <f t="shared" si="189"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC53" s="86" t="e">
-        <f t="shared" si="189"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD53" s="86" t="e">
-        <f t="shared" si="189"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE53" s="106">
-        <f t="shared" si="189"/>
-        <v>0.78688760242018752</v>
-      </c>
-      <c r="AF53" s="106">
-        <f t="shared" si="189"/>
-        <v>0.76906484210654125</v>
-      </c>
-      <c r="AG53" s="106">
-        <f t="shared" si="189"/>
-        <v>0.77256439336534199</v>
-      </c>
-      <c r="AH53" s="106">
-        <f t="shared" si="189"/>
-        <v>0.77777444204052615</v>
-      </c>
-      <c r="AI53" s="106">
-        <f t="shared" si="189"/>
-        <v>-0.40238087242687792</v>
-      </c>
-      <c r="AJ53" s="106">
-        <f t="shared" si="189"/>
-        <v>0.77400914475950899</v>
-      </c>
-      <c r="AK53" s="106">
-        <f t="shared" si="189"/>
-        <v>0.76264479377258387</v>
-      </c>
-      <c r="AL53" s="106">
-        <f t="shared" si="189"/>
-        <v>-6.0084880714108309</v>
-      </c>
-      <c r="AM53" s="106">
-        <f t="shared" si="189"/>
-        <v>0.75075374084142454</v>
-      </c>
-      <c r="AN53" s="106">
-        <f t="shared" si="189"/>
-        <v>0.7502106676186675</v>
-      </c>
-      <c r="AO53" s="86">
-        <f t="shared" si="189"/>
-        <v>0.74931674677221749</v>
-      </c>
-      <c r="AP53" s="86">
-        <f t="shared" si="189"/>
-        <v>0.73438790971369461</v>
-      </c>
-      <c r="AQ53" s="86">
-        <f t="shared" si="189"/>
-        <v>0.74547908847032285</v>
-      </c>
-      <c r="AR53" s="86">
-        <f t="shared" ref="AR53:AS53" si="190">AR41/AR39</f>
-        <v>0.74332754306735527</v>
-      </c>
-      <c r="AS53" s="86">
+        <v>0.75386559861402613</v>
+      </c>
+      <c r="AT53" s="86">
+        <f t="shared" ref="AT53:AU53" si="190">AT41/AT39</f>
+        <v>0.73889351443137052</v>
+      </c>
+      <c r="AU53" s="86">
         <f t="shared" si="190"/>
-        <v>0.75386559861402613</v>
-      </c>
-      <c r="AT53" s="86">
-        <f t="shared" ref="AT53:AU53" si="191">AT41/AT39</f>
-        <v>0.73889351443137052</v>
-      </c>
-      <c r="AU53" s="86">
+        <v>0.74939199371157383</v>
+      </c>
+      <c r="AV53" s="86">
+        <f t="shared" ref="AV53:BB53" si="191">AV41/AV39</f>
+        <v>0.76123132448794784</v>
+      </c>
+      <c r="AW53" s="86">
         <f t="shared" si="191"/>
-        <v>0.74939199371157383</v>
-      </c>
-      <c r="AV53" s="86">
-        <f t="shared" ref="AV53:BB53" si="192">AV41/AV39</f>
-        <v>0.76123132448794784</v>
-      </c>
-      <c r="AW53" s="86">
-        <f t="shared" si="192"/>
         <v>0.76326966080968572</v>
       </c>
       <c r="AX53" s="86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>0.75079251214651077</v>
       </c>
       <c r="AY53" s="86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>0.87770786540229617</v>
       </c>
       <c r="AZ53" s="86">
@@ -40694,11 +40785,11 @@
         <v>0.88936972109895418</v>
       </c>
       <c r="BA53" s="86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>0.88</v>
       </c>
       <c r="BB53" s="86">
-        <f t="shared" si="192"/>
+        <f t="shared" si="191"/>
         <v>0.88</v>
       </c>
       <c r="BC53" s="86"/>
@@ -40716,88 +40807,88 @@
       <c r="BO53" s="86"/>
       <c r="BP53" s="86"/>
       <c r="BQ53" s="144">
-        <f t="shared" ref="BQ53" si="193">BQ41/BQ39</f>
+        <f t="shared" ref="BQ53" si="192">BQ41/BQ39</f>
         <v>0.80593280914939247</v>
       </c>
       <c r="BR53" s="144">
-        <f t="shared" ref="BR53:BS53" si="194">BR41/BR39</f>
+        <f t="shared" ref="BR53:BS53" si="193">BR41/BR39</f>
         <v>0.78308886971527181</v>
       </c>
       <c r="BS53" s="144">
-        <f t="shared" si="194"/>
+        <f t="shared" si="193"/>
         <v>0.87237265669380804</v>
       </c>
       <c r="BT53" s="86"/>
       <c r="BU53" s="144">
-        <f t="shared" ref="BU53" si="195">BU41/BU39</f>
+        <f t="shared" ref="BU53" si="194">BU41/BU39</f>
         <v>0.81531049250535337</v>
       </c>
       <c r="BV53" s="144">
-        <f t="shared" ref="BV53:BW53" si="196">BV41/BV39</f>
+        <f t="shared" ref="BV53:BW53" si="195">BV41/BV39</f>
         <v>0.75897261439020236</v>
       </c>
       <c r="BW53" s="144">
+        <f t="shared" si="195"/>
+        <v>0.87328767123287676</v>
+      </c>
+      <c r="BX53" s="144">
+        <f t="shared" ref="BX53:BZ53" si="196">BX41/BX39</f>
+        <v>0.84483764339879452</v>
+      </c>
+      <c r="BY53" s="144">
         <f t="shared" si="196"/>
-        <v>0.87328767123287676</v>
-      </c>
-      <c r="BX53" s="144">
-        <f t="shared" ref="BX53:BZ53" si="197">BX41/BX39</f>
-        <v>0.84483764339879452</v>
-      </c>
-      <c r="BY53" s="144">
+        <v>0.86696062034362176</v>
+      </c>
+      <c r="BZ53" s="144">
+        <f t="shared" si="196"/>
+        <v>0.87629699501414904</v>
+      </c>
+      <c r="CA53" s="144">
+        <f t="shared" ref="CA53:CE53" si="197">CA41/CA39</f>
+        <v>0.86688463334890242</v>
+      </c>
+      <c r="CB53" s="144">
+        <f t="shared" ref="CB53" si="198">CB41/CB39</f>
+        <v>0.86552999839150713</v>
+      </c>
+      <c r="CC53" s="144">
+        <f t="shared" ref="CC53" si="199">CC41/CC39</f>
+        <v>0.90082199164533083</v>
+      </c>
+      <c r="CD53" s="144">
         <f t="shared" si="197"/>
-        <v>0.86696062034362176</v>
-      </c>
-      <c r="BZ53" s="144">
+        <v>0.70854618252105483</v>
+      </c>
+      <c r="CE53" s="144">
         <f t="shared" si="197"/>
-        <v>0.87629699501414904</v>
-      </c>
-      <c r="CA53" s="144">
-        <f t="shared" ref="CA53:CE53" si="198">CA41/CA39</f>
-        <v>0.86688463334890242</v>
-      </c>
-      <c r="CB53" s="144">
-        <f t="shared" ref="CB53" si="199">CB41/CB39</f>
-        <v>0.86552999839150713</v>
-      </c>
-      <c r="CC53" s="144">
-        <f t="shared" ref="CC53" si="200">CC41/CC39</f>
-        <v>0.90082199164533083</v>
-      </c>
-      <c r="CD53" s="144">
-        <f t="shared" si="198"/>
-        <v>0.70854618252105483</v>
-      </c>
-      <c r="CE53" s="144">
-        <f t="shared" si="198"/>
         <v>0.87479131886477457</v>
       </c>
       <c r="CF53" s="144">
-        <f t="shared" ref="CF53:CL53" si="201">CF41/CF39</f>
+        <f t="shared" ref="CF53:CL53" si="200">CF41/CF39</f>
         <v>0.85848905925570995</v>
       </c>
       <c r="CG53" s="144">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>0.8689292814541324</v>
       </c>
       <c r="CH53" s="144">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>0.86899445121125996</v>
       </c>
       <c r="CI53" s="144">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>0.86287783375314864</v>
       </c>
       <c r="CJ53" s="144">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>0.85</v>
       </c>
       <c r="CK53" s="144">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>0.84999999999999987</v>
       </c>
       <c r="CL53" s="144">
-        <f t="shared" si="201"/>
+        <f t="shared" si="200"/>
         <v>0.85</v>
       </c>
       <c r="CM53" s="144"/>
@@ -40810,35 +40901,35 @@
       <c r="CT53" s="144"/>
       <c r="CU53" s="157"/>
       <c r="CV53" s="157">
-        <f t="shared" ref="CV53:DC53" si="202">(CV39-CV40)/CV39</f>
+        <f t="shared" ref="CV53:DC53" si="201">(CV39-CV40)/CV39</f>
         <v>1</v>
       </c>
       <c r="CW53" s="157">
-        <f t="shared" si="202"/>
+        <f t="shared" si="201"/>
         <v>1</v>
       </c>
       <c r="CX53" s="157">
-        <f t="shared" si="202"/>
+        <f t="shared" si="201"/>
         <v>1</v>
       </c>
       <c r="CY53" s="157">
-        <f t="shared" si="202"/>
+        <f t="shared" si="201"/>
         <v>1</v>
       </c>
       <c r="CZ53" s="157">
-        <f t="shared" si="202"/>
+        <f t="shared" si="201"/>
         <v>1</v>
       </c>
       <c r="DA53" s="157">
-        <f t="shared" si="202"/>
+        <f t="shared" si="201"/>
         <v>1</v>
       </c>
       <c r="DB53" s="24">
-        <f t="shared" si="202"/>
+        <f t="shared" si="201"/>
         <v>1</v>
       </c>
       <c r="DC53" s="78">
-        <f t="shared" si="202"/>
+        <f t="shared" si="201"/>
         <v>1</v>
       </c>
       <c r="DD53" s="78">
@@ -40846,19 +40937,19 @@
         <v>0</v>
       </c>
       <c r="DE53" s="78">
-        <f t="shared" ref="DE53:DH53" si="203">(DE39-DE40)/DE39</f>
+        <f t="shared" ref="DE53:DH53" si="202">(DE39-DE40)/DE39</f>
         <v>1</v>
       </c>
       <c r="DF53" s="136">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>0.77637888696299129</v>
       </c>
       <c r="DG53" s="136">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>0.45674803683715687</v>
       </c>
       <c r="DH53" s="78">
-        <f t="shared" si="203"/>
+        <f t="shared" si="202"/>
         <v>0.74594373840739259</v>
       </c>
       <c r="DI53" s="78">
@@ -40870,51 +40961,51 @@
         <v>0.75615460812691804</v>
       </c>
       <c r="DK53" s="78">
-        <f t="shared" ref="DK53:DQ53" si="204">DK41/DK39</f>
+        <f t="shared" ref="DK53:DQ53" si="203">DK41/DK39</f>
         <v>0.88</v>
       </c>
       <c r="DL53" s="78">
+        <f t="shared" si="203"/>
+        <v>0.88</v>
+      </c>
+      <c r="DM53" s="78">
+        <f t="shared" si="203"/>
+        <v>0.88</v>
+      </c>
+      <c r="DN53" s="169" t="e">
+        <f t="shared" si="203"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DO53" s="169" t="e">
+        <f t="shared" si="203"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DP53" s="169" t="e">
+        <f t="shared" si="203"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="DQ53" s="169">
+        <f t="shared" si="203"/>
+        <v>0.88</v>
+      </c>
+      <c r="DR53" s="169">
+        <f t="shared" ref="DR53:DV53" si="204">DR41/DR39</f>
+        <v>0.88</v>
+      </c>
+      <c r="DS53" s="169">
         <f t="shared" si="204"/>
         <v>0.88</v>
       </c>
-      <c r="DM53" s="78">
+      <c r="DT53" s="157">
         <f t="shared" si="204"/>
         <v>0.88</v>
       </c>
-      <c r="DN53" s="169" t="e">
-        <f t="shared" si="204"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DO53" s="169" t="e">
-        <f t="shared" si="204"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DP53" s="169" t="e">
-        <f t="shared" si="204"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="DQ53" s="169">
+      <c r="DU53" s="157">
         <f t="shared" si="204"/>
         <v>0.88</v>
       </c>
-      <c r="DR53" s="169">
-        <f t="shared" ref="DR53:DV53" si="205">DR41/DR39</f>
-        <v>0.88</v>
-      </c>
-      <c r="DS53" s="169">
-        <f t="shared" si="205"/>
-        <v>0.88</v>
-      </c>
-      <c r="DT53" s="157">
-        <f t="shared" si="205"/>
-        <v>0.88</v>
-      </c>
-      <c r="DU53" s="157">
-        <f t="shared" si="205"/>
-        <v>0.88</v>
-      </c>
       <c r="DV53" s="157">
-        <f t="shared" si="205"/>
+        <f t="shared" si="204"/>
         <v>0.88</v>
       </c>
       <c r="DW53" s="157"/>
@@ -40933,199 +41024,199 @@
         <v>471</v>
       </c>
       <c r="C54" s="78">
-        <f t="shared" ref="C54:AP54" si="206">C48/C47</f>
+        <f t="shared" ref="C54:AP54" si="205">C48/C47</f>
         <v>1.354160813620273E-2</v>
       </c>
       <c r="D54" s="78">
+        <f t="shared" si="205"/>
+        <v>-8.9486086175942538E-3</v>
+      </c>
+      <c r="E54" s="78">
+        <f t="shared" si="205"/>
+        <v>-7.2162378471994446E-3</v>
+      </c>
+      <c r="F54" s="78">
+        <f t="shared" si="205"/>
+        <v>-1.210076473234368E-2</v>
+      </c>
+      <c r="G54" s="78">
+        <f t="shared" si="205"/>
+        <v>-2.9383174266525272E-2</v>
+      </c>
+      <c r="H54" s="78">
+        <f t="shared" si="205"/>
+        <v>-5.2167291355558414E-2</v>
+      </c>
+      <c r="I54" s="78">
+        <f t="shared" si="205"/>
+        <v>-3.9544545314663795E-2</v>
+      </c>
+      <c r="J54" s="78">
+        <f t="shared" si="205"/>
+        <v>0.79639056679380826</v>
+      </c>
+      <c r="K54" s="78" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L54" s="78" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M54" s="78" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N54" s="78" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O54" s="78" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P54" s="78" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q54" s="78" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R54" s="78" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="X54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AB54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AC54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AD54" s="86" t="e">
+        <f t="shared" si="205"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE54" s="106">
+        <f t="shared" si="205"/>
+        <v>-0.25929395570255515</v>
+      </c>
+      <c r="AF54" s="106">
+        <f t="shared" si="205"/>
+        <v>-0.23279568615340762</v>
+      </c>
+      <c r="AG54" s="106">
+        <f t="shared" si="205"/>
+        <v>-0.23044665424227964</v>
+      </c>
+      <c r="AH54" s="106">
+        <f t="shared" si="205"/>
+        <v>-0.24217749153256243</v>
+      </c>
+      <c r="AI54" s="106">
+        <f t="shared" si="205"/>
+        <v>0.59808503049867867</v>
+      </c>
+      <c r="AJ54" s="106">
+        <f t="shared" si="205"/>
+        <v>-0.28362672837982245</v>
+      </c>
+      <c r="AK54" s="106">
+        <f t="shared" si="205"/>
+        <v>-0.2664619929619278</v>
+      </c>
+      <c r="AL54" s="106">
+        <f t="shared" si="205"/>
+        <v>0.18964453160541223</v>
+      </c>
+      <c r="AM54" s="106">
+        <f t="shared" si="205"/>
+        <v>-0.2668484841360339</v>
+      </c>
+      <c r="AN54" s="106">
+        <f t="shared" si="205"/>
+        <v>0.24438498700881037</v>
+      </c>
+      <c r="AO54" s="86">
+        <f t="shared" si="205"/>
+        <v>-0.24336237826755505</v>
+      </c>
+      <c r="AP54" s="86">
+        <f t="shared" si="205"/>
+        <v>0.19183653032388392</v>
+      </c>
+      <c r="AQ54" s="86">
+        <f t="shared" ref="AQ54:AV54" si="206">AQ48/AQ47</f>
+        <v>0.34582727176222416</v>
+      </c>
+      <c r="AR54" s="86">
         <f t="shared" si="206"/>
-        <v>-8.9486086175942538E-3</v>
-      </c>
-      <c r="E54" s="78">
+        <v>0.27178761529250761</v>
+      </c>
+      <c r="AS54" s="86">
         <f t="shared" si="206"/>
-        <v>-7.2162378471994446E-3</v>
-      </c>
-      <c r="F54" s="78">
+        <v>0.28975477532549593</v>
+      </c>
+      <c r="AT54" s="86">
         <f t="shared" si="206"/>
-        <v>-1.210076473234368E-2</v>
-      </c>
-      <c r="G54" s="78">
+        <v>0.25490271072315052</v>
+      </c>
+      <c r="AU54" s="86">
         <f t="shared" si="206"/>
-        <v>-2.9383174266525272E-2</v>
-      </c>
-      <c r="H54" s="78">
+        <v>0.23659891846815595</v>
+      </c>
+      <c r="AV54" s="86">
         <f t="shared" si="206"/>
-        <v>-5.2167291355558414E-2</v>
-      </c>
-      <c r="I54" s="78">
-        <f t="shared" si="206"/>
-        <v>-3.9544545314663795E-2</v>
-      </c>
-      <c r="J54" s="78">
-        <f t="shared" si="206"/>
-        <v>0.79639056679380826</v>
-      </c>
-      <c r="K54" s="78" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L54" s="78" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M54" s="78" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N54" s="78" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O54" s="78" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P54" s="78" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q54" s="78" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R54" s="78" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD54" s="86" t="e">
-        <f t="shared" si="206"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE54" s="106">
-        <f t="shared" si="206"/>
-        <v>-0.25929395570255515</v>
-      </c>
-      <c r="AF54" s="106">
-        <f t="shared" si="206"/>
-        <v>-0.23279568615340762</v>
-      </c>
-      <c r="AG54" s="106">
-        <f t="shared" si="206"/>
-        <v>-0.23044665424227964</v>
-      </c>
-      <c r="AH54" s="106">
-        <f t="shared" si="206"/>
-        <v>-0.24217749153256243</v>
-      </c>
-      <c r="AI54" s="106">
-        <f t="shared" si="206"/>
-        <v>0.59808503049867867</v>
-      </c>
-      <c r="AJ54" s="106">
-        <f t="shared" si="206"/>
-        <v>-0.28362672837982245</v>
-      </c>
-      <c r="AK54" s="106">
-        <f t="shared" si="206"/>
-        <v>-0.2664619929619278</v>
-      </c>
-      <c r="AL54" s="106">
-        <f t="shared" si="206"/>
-        <v>0.18964453160541223</v>
-      </c>
-      <c r="AM54" s="106">
-        <f t="shared" si="206"/>
-        <v>-0.2668484841360339</v>
-      </c>
-      <c r="AN54" s="106">
-        <f t="shared" si="206"/>
-        <v>0.24438498700881037</v>
-      </c>
-      <c r="AO54" s="86">
-        <f t="shared" si="206"/>
-        <v>-0.24336237826755505</v>
-      </c>
-      <c r="AP54" s="86">
-        <f t="shared" si="206"/>
-        <v>0.19183653032388392</v>
-      </c>
-      <c r="AQ54" s="86">
-        <f t="shared" ref="AQ54:AV54" si="207">AQ48/AQ47</f>
-        <v>0.34582727176222416</v>
-      </c>
-      <c r="AR54" s="86">
+        <v>0.26024129913654853</v>
+      </c>
+      <c r="AW54" s="86">
+        <f t="shared" ref="AW54:BB54" si="207">AW48/AW47</f>
+        <v>0.24690020781203609</v>
+      </c>
+      <c r="AX54" s="86">
         <f t="shared" si="207"/>
-        <v>0.27178761529250761</v>
-      </c>
-      <c r="AS54" s="86">
+        <v>0.25557130248155174</v>
+      </c>
+      <c r="AY54" s="86">
         <f t="shared" si="207"/>
-        <v>0.28975477532549593</v>
-      </c>
-      <c r="AT54" s="86">
-        <f t="shared" si="207"/>
-        <v>0.25490271072315052</v>
-      </c>
-      <c r="AU54" s="86">
-        <f t="shared" si="207"/>
-        <v>0.23659891846815595</v>
-      </c>
-      <c r="AV54" s="86">
-        <f t="shared" si="207"/>
-        <v>0.26024129913654853</v>
-      </c>
-      <c r="AW54" s="86">
-        <f t="shared" ref="AW54:BB54" si="208">AW48/AW47</f>
-        <v>0.24690020781203609</v>
-      </c>
-      <c r="AX54" s="86">
-        <f t="shared" si="208"/>
-        <v>0.25557130248155174</v>
-      </c>
-      <c r="AY54" s="86">
-        <f t="shared" si="208"/>
         <v>0.2243470316473456</v>
       </c>
       <c r="AZ54" s="86">
@@ -41133,11 +41224,11 @@
         <v>0.14179549340908959</v>
       </c>
       <c r="BA54" s="86">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.25</v>
       </c>
       <c r="BB54" s="86">
-        <f t="shared" si="208"/>
+        <f t="shared" si="207"/>
         <v>0.25</v>
       </c>
       <c r="BC54" s="86"/>
@@ -41155,52 +41246,52 @@
       <c r="BO54" s="86"/>
       <c r="BP54" s="86"/>
       <c r="BQ54" s="144">
-        <f t="shared" ref="BQ54" si="209">BQ48/BQ47</f>
+        <f t="shared" ref="BQ54" si="208">BQ48/BQ47</f>
         <v>0.21283783783783783</v>
       </c>
       <c r="BR54" s="144">
-        <f t="shared" ref="BR54:BS54" si="210">BR48/BR47</f>
+        <f t="shared" ref="BR54:BS54" si="209">BR48/BR47</f>
         <v>0.24262029923170239</v>
       </c>
       <c r="BS54" s="144">
-        <f t="shared" si="210"/>
+        <f t="shared" si="209"/>
         <v>0.16399843811011325</v>
       </c>
       <c r="BT54" s="86"/>
       <c r="BU54" s="144">
-        <f t="shared" ref="BU54" si="211">BU48/BU47</f>
+        <f t="shared" ref="BU54" si="210">BU48/BU47</f>
         <v>0.22385076615589608</v>
       </c>
       <c r="BV54" s="144">
-        <f t="shared" ref="BV54:BW54" si="212">BV48/BV47</f>
+        <f t="shared" ref="BV54:BW54" si="211">BV48/BV47</f>
         <v>0.2944936086529007</v>
       </c>
       <c r="BW54" s="144">
+        <f t="shared" si="211"/>
+        <v>0.19252548131370328</v>
+      </c>
+      <c r="BX54" s="144">
+        <f t="shared" ref="BX54:BZ54" si="212">BX48/BX47</f>
+        <v>0.18603491271820449</v>
+      </c>
+      <c r="BY54" s="144">
         <f t="shared" si="212"/>
-        <v>0.19252548131370328</v>
-      </c>
-      <c r="BX54" s="144">
-        <f t="shared" ref="BX54:BZ54" si="213">BX48/BX47</f>
-        <v>0.18603491271820449</v>
-      </c>
-      <c r="BY54" s="144">
-        <f t="shared" si="213"/>
         <v>0.15894446149125499</v>
       </c>
       <c r="BZ54" s="144">
-        <f t="shared" si="213"/>
+        <f t="shared" si="212"/>
         <v>0.155915622133904</v>
       </c>
       <c r="CA54" s="144">
-        <f t="shared" ref="CA54" si="214">CA48/CA47</f>
+        <f t="shared" ref="CA54" si="213">CA48/CA47</f>
         <v>9.8601398601398604E-2</v>
       </c>
       <c r="CB54" s="144">
-        <f t="shared" ref="CB54" si="215">CB48/CB47</f>
+        <f t="shared" ref="CB54" si="214">CB48/CB47</f>
         <v>0.10756543564001435</v>
       </c>
       <c r="CC54" s="144">
-        <f t="shared" ref="CC54" si="216">CC48/CC47</f>
+        <f t="shared" ref="CC54" si="215">CC48/CC47</f>
         <v>0.1764425369575584</v>
       </c>
       <c r="CD54" s="144">
@@ -41208,35 +41299,35 @@
         <v>0.18806419257773319</v>
       </c>
       <c r="CE54" s="144">
-        <f t="shared" ref="CE54:CF54" si="217">CE48/CE47</f>
+        <f t="shared" ref="CE54:CF54" si="216">CE48/CE47</f>
         <v>0.15689981096408318</v>
       </c>
       <c r="CF54" s="144">
+        <f t="shared" si="216"/>
+        <v>0.13246940244780417</v>
+      </c>
+      <c r="CG54" s="144">
+        <f t="shared" ref="CG54:CL54" si="217">CG48/CG47</f>
+        <v>0.19315109642535297</v>
+      </c>
+      <c r="CH54" s="144">
         <f t="shared" si="217"/>
-        <v>0.13246940244780417</v>
-      </c>
-      <c r="CG54" s="144">
-        <f t="shared" ref="CG54:CL54" si="218">CG48/CG47</f>
-        <v>0.19315109642535297</v>
-      </c>
-      <c r="CH54" s="144">
-        <f t="shared" si="218"/>
         <v>0.14917970240366271</v>
       </c>
       <c r="CI54" s="144">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>0.125</v>
       </c>
       <c r="CJ54" s="144">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>0.2</v>
       </c>
       <c r="CK54" s="144">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>0.2</v>
       </c>
       <c r="CL54" s="144">
-        <f t="shared" si="218"/>
+        <f t="shared" si="217"/>
         <v>0.2</v>
       </c>
       <c r="CM54" s="144"/>
@@ -41249,31 +41340,31 @@
       <c r="CT54" s="144"/>
       <c r="CU54" s="157"/>
       <c r="CV54" s="157">
-        <f t="shared" ref="CV54:DB54" si="219">CV48/CV47</f>
+        <f t="shared" ref="CV54:DB54" si="218">CV48/CV47</f>
         <v>-4.4316905801621963E-3</v>
       </c>
       <c r="CW54" s="157">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>-5.9624450500268544E-3</v>
       </c>
       <c r="CX54" s="157">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>-1.3825593564328295E-2</v>
       </c>
       <c r="CY54" s="157">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>-4.2259793707191649E-3</v>
       </c>
       <c r="CZ54" s="157">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>0.2253661344506096</v>
       </c>
       <c r="DA54" s="157">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>-0.40223603691112159</v>
       </c>
       <c r="DB54" s="24">
-        <f t="shared" si="219"/>
+        <f t="shared" si="218"/>
         <v>-0.57021660467005109</v>
       </c>
       <c r="DC54" s="78">
@@ -41304,52 +41395,52 @@
         <v>0.25060927421627854</v>
       </c>
       <c r="DK54" s="78">
-        <f t="shared" ref="DK54:DQ54" si="220">DK48/DK47</f>
-        <v>0.19549503078880806</v>
+        <f t="shared" ref="DK54:DQ54" si="219">DK48/DK47</f>
+        <v>0.14251708324499976</v>
       </c>
       <c r="DL54" s="78">
+        <f t="shared" si="219"/>
+        <v>0.245</v>
+      </c>
+      <c r="DM54" s="78">
+        <f t="shared" si="219"/>
+        <v>0.245</v>
+      </c>
+      <c r="DN54" s="169">
+        <f t="shared" si="219"/>
+        <v>0.24499999999999997</v>
+      </c>
+      <c r="DO54" s="169">
+        <f t="shared" si="219"/>
+        <v>0.245</v>
+      </c>
+      <c r="DP54" s="169">
+        <f t="shared" si="219"/>
+        <v>0.24499999999999997</v>
+      </c>
+      <c r="DQ54" s="169">
+        <f t="shared" si="219"/>
+        <v>0.245</v>
+      </c>
+      <c r="DR54" s="169">
+        <f t="shared" ref="DR54:DV54" si="220">DR48/DR47</f>
+        <v>0.245</v>
+      </c>
+      <c r="DS54" s="169">
         <f t="shared" si="220"/>
         <v>0.245</v>
       </c>
-      <c r="DM54" s="78">
+      <c r="DT54" s="157">
+        <f t="shared" si="220"/>
+        <v>0.24500000000000002</v>
+      </c>
+      <c r="DU54" s="157">
         <f t="shared" si="220"/>
         <v>0.245</v>
       </c>
-      <c r="DN54" s="169">
+      <c r="DV54" s="157">
         <f t="shared" si="220"/>
-        <v>0.245</v>
-      </c>
-      <c r="DO54" s="169">
-        <f t="shared" si="220"/>
-        <v>0.245</v>
-      </c>
-      <c r="DP54" s="169">
-        <f t="shared" si="220"/>
-        <v>0.245</v>
-      </c>
-      <c r="DQ54" s="169">
-        <f t="shared" si="220"/>
-        <v>0.245</v>
-      </c>
-      <c r="DR54" s="169">
-        <f t="shared" ref="DR54:DV54" si="221">DR48/DR47</f>
-        <v>0.245</v>
-      </c>
-      <c r="DS54" s="169">
-        <f t="shared" si="221"/>
-        <v>0.245</v>
-      </c>
-      <c r="DT54" s="157">
-        <f t="shared" si="221"/>
-        <v>0.245</v>
-      </c>
-      <c r="DU54" s="157">
-        <f t="shared" si="221"/>
-        <v>0.245</v>
-      </c>
-      <c r="DV54" s="157">
-        <f t="shared" si="221"/>
-        <v>0.24499999999999997</v>
+        <v>0.24500000000000002</v>
       </c>
       <c r="DW54" s="157"/>
       <c r="DX54" s="157"/>
@@ -41584,59 +41675,59 @@
       <c r="BW56" s="150"/>
       <c r="BX56" s="150"/>
       <c r="BY56" s="151">
-        <f t="shared" ref="BY56:CE56" si="222">BY39/BU39-1</f>
+        <f t="shared" ref="BY56:CE56" si="221">BY39/BU39-1</f>
         <v>0.17362598144182728</v>
       </c>
       <c r="BZ56" s="151">
-        <f t="shared" si="222"/>
+        <f t="shared" si="221"/>
         <v>0.26228950501786019</v>
       </c>
       <c r="CA56" s="151">
-        <f t="shared" si="222"/>
+        <f t="shared" si="221"/>
         <v>0.15771449170872387</v>
       </c>
       <c r="CB56" s="151">
-        <f t="shared" si="222"/>
+        <f t="shared" si="221"/>
         <v>0.20882753256853981</v>
       </c>
       <c r="CC56" s="151">
-        <f t="shared" si="222"/>
+        <f t="shared" si="221"/>
         <v>0.12832598449140953</v>
       </c>
       <c r="CD56" s="151">
-        <f t="shared" si="222"/>
+        <f t="shared" si="221"/>
         <v>-2.39859857162108E-2</v>
       </c>
       <c r="CE56" s="151">
-        <f t="shared" si="222"/>
+        <f t="shared" si="221"/>
         <v>2.584462089366335E-2</v>
       </c>
       <c r="CF56" s="151">
-        <f t="shared" ref="CF56" si="223">CF39/CB39-1</f>
+        <f t="shared" ref="CF56" si="222">CF39/CB39-1</f>
         <v>7.0773685057101687E-3</v>
       </c>
       <c r="CG56" s="151">
-        <f t="shared" ref="CG56" si="224">CG39/CC39-1</f>
+        <f t="shared" ref="CG56" si="223">CG39/CC39-1</f>
         <v>-5.1071284193504929E-2</v>
       </c>
       <c r="CH56" s="151">
-        <f t="shared" ref="CH56" si="225">CH39/CD39-1</f>
+        <f t="shared" ref="CH56" si="224">CH39/CD39-1</f>
         <v>2.015739334529898E-2</v>
       </c>
       <c r="CI56" s="151">
-        <f t="shared" ref="CI56" si="226">CI39/CE39-1</f>
+        <f t="shared" ref="CI56" si="225">CI39/CE39-1</f>
         <v>-3.5969039307937489E-2</v>
       </c>
       <c r="CJ56" s="151">
-        <f t="shared" ref="CJ56" si="227">CJ39/CF39-1</f>
+        <f t="shared" ref="CJ56" si="226">CJ39/CF39-1</f>
         <v>4.8554544002555433E-2</v>
       </c>
       <c r="CK56" s="151">
-        <f t="shared" ref="CK56" si="228">CK39/CG39-1</f>
+        <f t="shared" ref="CK56" si="227">CK39/CG39-1</f>
         <v>-6.5322351604657491E-3</v>
       </c>
       <c r="CL56" s="151">
-        <f t="shared" ref="CL56" si="229">CL39/CH39-1</f>
+        <f t="shared" ref="CL56" si="228">CL39/CH39-1</f>
         <v>-4.3036946812829879E-2</v>
       </c>
       <c r="CM56" s="151"/>
@@ -41912,27 +42003,27 @@
       <c r="BW58" s="145"/>
       <c r="BX58" s="145"/>
       <c r="BY58" s="146">
-        <f t="shared" ref="BY58:CD58" si="230">BY3/BU3-1</f>
+        <f t="shared" ref="BY58:CD58" si="229">BY3/BU3-1</f>
         <v>7.3342736248237062E-2</v>
       </c>
       <c r="BZ58" s="146">
-        <f t="shared" si="230"/>
+        <f t="shared" si="229"/>
         <v>-6.7303517151541481E-2</v>
       </c>
       <c r="CA58" s="146">
-        <f t="shared" si="230"/>
+        <f t="shared" si="229"/>
         <v>-0.12794047047527601</v>
       </c>
       <c r="CB58" s="146">
-        <f t="shared" si="230"/>
+        <f t="shared" si="229"/>
         <v>-2.0312112955164774E-2</v>
       </c>
       <c r="CC58" s="146">
-        <f t="shared" si="230"/>
+        <f t="shared" si="229"/>
         <v>-7.8405606657906302E-2</v>
       </c>
       <c r="CD58" s="146">
-        <f t="shared" si="230"/>
+        <f t="shared" si="229"/>
         <v>5.2607076350093207E-2</v>
       </c>
       <c r="CE58" s="146">
@@ -41940,31 +42031,31 @@
         <v>2.2570878062207589E-2</v>
       </c>
       <c r="CF58" s="146">
-        <f t="shared" ref="CF58" si="231">CF3/CB3-1</f>
+        <f t="shared" ref="CF58" si="230">CF3/CB3-1</f>
         <v>7.0290771175727018E-2</v>
       </c>
       <c r="CG58" s="146">
-        <f t="shared" ref="CG58" si="232">CG3/CC3-1</f>
+        <f t="shared" ref="CG58" si="231">CG3/CC3-1</f>
         <v>6.8678707224334667E-2</v>
       </c>
       <c r="CH58" s="146">
-        <f t="shared" ref="CH58" si="233">CH3/CD3-1</f>
+        <f t="shared" ref="CH58" si="232">CH3/CD3-1</f>
         <v>5.7717823971694004E-2</v>
       </c>
       <c r="CI58" s="146">
-        <f t="shared" ref="CI58" si="234">CI3/CE3-1</f>
+        <f t="shared" ref="CI58" si="233">CI3/CE3-1</f>
         <v>0.13055181695827733</v>
       </c>
       <c r="CJ58" s="146">
-        <f t="shared" ref="CJ58" si="235">CJ3/CF3-1</f>
+        <f t="shared" ref="CJ58" si="234">CJ3/CF3-1</f>
         <v>9.284195605953216E-2</v>
       </c>
       <c r="CK58" s="146">
-        <f t="shared" ref="CK58" si="236">CK3/CG3-1</f>
+        <f t="shared" ref="CK58" si="235">CK3/CG3-1</f>
         <v>3.780297976428737E-2</v>
       </c>
       <c r="CL58" s="146">
-        <f t="shared" ref="CL58" si="237">CL3/CH3-1</f>
+        <f t="shared" ref="CL58" si="236">CL3/CH3-1</f>
         <v>-1.8816642274723017E-2</v>
       </c>
       <c r="CM58" s="146"/>
@@ -42010,7 +42101,7 @@
       </c>
       <c r="EA58" s="155">
         <f>NPV(EA56,DL49:GC49)+DK49</f>
-        <v>57577.382900605458</v>
+        <v>32539.795771241326</v>
       </c>
       <c r="EB58" s="158"/>
       <c r="EC58" s="158"/>
@@ -42097,31 +42188,31 @@
       <c r="BW59" s="145"/>
       <c r="BX59" s="145"/>
       <c r="BY59" s="146">
-        <f t="shared" ref="BY59:CE59" si="238">+BY9/BU9-1</f>
+        <f t="shared" ref="BY59:CE59" si="237">+BY9/BU9-1</f>
         <v>0.50198570293884037</v>
       </c>
       <c r="BZ59" s="146">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>0.31910828025477711</v>
       </c>
       <c r="CA59" s="146">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>7.7377436503248687E-2</v>
       </c>
       <c r="CB59" s="146">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>0.24314214463840389</v>
       </c>
       <c r="CC59" s="146">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>0.20359598096245368</v>
       </c>
       <c r="CD59" s="146">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>0.2216320618058909</v>
       </c>
       <c r="CE59" s="146">
-        <f t="shared" si="238"/>
+        <f t="shared" si="237"/>
         <v>0.17927631578947367</v>
       </c>
       <c r="CF59" s="146">
@@ -42133,23 +42224,23 @@
         <v>0.21528998242530761</v>
       </c>
       <c r="CH59" s="146">
-        <f t="shared" ref="CH59:CL59" si="239">+CH9/CD9-1</f>
+        <f t="shared" ref="CH59:CL59" si="238">+CH9/CD9-1</f>
         <v>0.15335968379446641</v>
       </c>
       <c r="CI59" s="146">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>0.24453742445374238</v>
       </c>
       <c r="CJ59" s="146">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>0.16549295774647876</v>
       </c>
       <c r="CK59" s="146">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>0.11532899493853943</v>
       </c>
       <c r="CL59" s="146">
-        <f t="shared" si="239"/>
+        <f t="shared" si="238"/>
         <v>6.5455791638108218E-2</v>
       </c>
       <c r="CM59" s="146"/>
@@ -42195,7 +42286,7 @@
       </c>
       <c r="EA59" s="174">
         <f>EA58/Main!J3</f>
-        <v>46.247188057901752</v>
+        <v>26.136548390817694</v>
       </c>
       <c r="EB59" s="158"/>
       <c r="EC59" s="158"/>
@@ -42398,11 +42489,11 @@
       </c>
       <c r="BA61" s="82">
         <f>+AZ61+BA49</f>
-        <v>3823.8855400000025</v>
+        <v>-107.84269999999822</v>
       </c>
       <c r="BB61" s="82">
         <f>+BA61+BB49</f>
-        <v>7927.8230800000038</v>
+        <v>374.5666000000017</v>
       </c>
       <c r="BC61" s="82"/>
       <c r="BD61" s="82"/>
@@ -42480,51 +42571,51 @@
       <c r="DJ61" s="83"/>
       <c r="DK61" s="83">
         <f>+BB61</f>
-        <v>7927.8230800000038</v>
+        <v>374.5666000000017</v>
       </c>
       <c r="DL61" s="83">
-        <f t="shared" ref="DL61:DV61" si="240">+DK61+DL49</f>
-        <v>26493.841120407007</v>
+        <f t="shared" ref="DL61:DV61" si="239">+DK61+DL49</f>
+        <v>10154.463745515004</v>
       </c>
       <c r="DM61" s="83">
-        <f t="shared" si="240"/>
-        <v>46176.200297264142</v>
+        <f t="shared" si="239"/>
+        <v>20674.792144460327</v>
       </c>
       <c r="DN61" s="142">
-        <f t="shared" si="240"/>
-        <v>44660.980228386317</v>
+        <f t="shared" si="239"/>
+        <v>19063.304259805664</v>
       </c>
       <c r="DO61" s="142">
-        <f t="shared" si="240"/>
-        <v>43140.040203748475</v>
+        <f t="shared" si="239"/>
+        <v>17445.733008386429</v>
       </c>
       <c r="DP61" s="142">
-        <f t="shared" si="240"/>
-        <v>41613.358630517629</v>
+        <f t="shared" si="239"/>
+        <v>15822.055425493088</v>
       </c>
       <c r="DQ61" s="142">
-        <f t="shared" si="240"/>
-        <v>46772.086234347829</v>
+        <f t="shared" si="239"/>
+        <v>20883.420859724327</v>
       </c>
       <c r="DR61" s="142">
-        <f t="shared" si="240"/>
-        <v>53233.244434882494</v>
+        <f t="shared" si="239"/>
+        <v>27246.849348469786</v>
       </c>
       <c r="DS61" s="142">
-        <f t="shared" si="240"/>
-        <v>58797.935107624173</v>
+        <f t="shared" si="239"/>
+        <v>32713.441379760261</v>
       </c>
       <c r="DT61" s="142">
-        <f t="shared" si="240"/>
-        <v>63448.821687655451</v>
+        <f t="shared" si="239"/>
+        <v>37265.858995968854</v>
       </c>
       <c r="DU61" s="142">
-        <f t="shared" si="240"/>
-        <v>62725.327164526352</v>
+        <f t="shared" si="239"/>
+        <v>36443.523788678634</v>
       </c>
       <c r="DV61" s="142">
-        <f t="shared" si="240"/>
-        <v>61926.449309572439</v>
+        <f t="shared" si="239"/>
+        <v>35545.432125980893</v>
       </c>
       <c r="DW61" s="158"/>
       <c r="DX61" s="158"/>
@@ -44408,11 +44499,11 @@
         <v>0</v>
       </c>
       <c r="AN74" s="83">
-        <f t="shared" ref="AN74:AO74" si="241">SUM(AN62:AN73)</f>
+        <f t="shared" ref="AN74:AO74" si="240">SUM(AN62:AN73)</f>
         <v>0</v>
       </c>
       <c r="AO74" s="83">
-        <f t="shared" si="241"/>
+        <f t="shared" si="240"/>
         <v>12640</v>
       </c>
       <c r="AP74" s="83"/>
@@ -44477,23 +44568,23 @@
         <v>61876</v>
       </c>
       <c r="CJ74" s="142">
-        <f t="shared" ref="CJ74:CN74" si="242">SUM(CJ62:CJ73)</f>
+        <f t="shared" ref="CJ74:CN74" si="241">SUM(CJ62:CJ73)</f>
         <v>0</v>
       </c>
       <c r="CK74" s="142">
-        <f t="shared" si="242"/>
+        <f t="shared" si="241"/>
         <v>0</v>
       </c>
       <c r="CL74" s="142">
-        <f t="shared" si="242"/>
+        <f t="shared" si="241"/>
         <v>0</v>
       </c>
       <c r="CM74" s="142">
-        <f t="shared" si="242"/>
+        <f t="shared" si="241"/>
         <v>0</v>
       </c>
       <c r="CN74" s="142">
-        <f t="shared" si="242"/>
+        <f t="shared" si="241"/>
         <v>53579</v>
       </c>
       <c r="CO74" s="142"/>
@@ -46067,27 +46158,27 @@
         <v>0</v>
       </c>
       <c r="AJ85" s="83">
-        <f t="shared" ref="AJ85:AO85" si="243">SUM(AJ76:AJ84)</f>
+        <f t="shared" ref="AJ85:AO85" si="242">SUM(AJ76:AJ84)</f>
         <v>0</v>
       </c>
       <c r="AK85" s="83">
-        <f t="shared" si="243"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="AL85" s="83">
-        <f t="shared" si="243"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="AM85" s="83">
-        <f t="shared" si="243"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="AN85" s="83">
-        <f t="shared" si="243"/>
+        <f t="shared" si="242"/>
         <v>0</v>
       </c>
       <c r="AO85" s="83">
-        <f t="shared" si="243"/>
+        <f t="shared" si="242"/>
         <v>6405.2</v>
       </c>
       <c r="AP85" s="83"/>
@@ -46789,27 +46880,27 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="82">
-        <f t="shared" ref="AJ90:AO90" si="244">SUM(AJ86:AJ89)</f>
+        <f t="shared" ref="AJ90:AO90" si="243">SUM(AJ86:AJ89)</f>
         <v>0</v>
       </c>
       <c r="AK90" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v>0</v>
       </c>
       <c r="AL90" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v>0</v>
       </c>
       <c r="AM90" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v>0</v>
       </c>
       <c r="AN90" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v>0</v>
       </c>
       <c r="AO90" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="243"/>
         <v>6117.4000000000005</v>
       </c>
       <c r="AP90" s="82"/>
@@ -46958,27 +47049,27 @@
         <v>0</v>
       </c>
       <c r="AJ91" s="82">
-        <f t="shared" ref="AJ91:AO91" si="245">AJ90+AJ85</f>
+        <f t="shared" ref="AJ91:AO91" si="244">AJ90+AJ85</f>
         <v>0</v>
       </c>
       <c r="AK91" s="82">
-        <f t="shared" si="245"/>
+        <f t="shared" si="244"/>
         <v>0</v>
       </c>
       <c r="AL91" s="82">
-        <f t="shared" si="245"/>
+        <f t="shared" si="244"/>
         <v>0</v>
       </c>
       <c r="AM91" s="82">
-        <f t="shared" si="245"/>
+        <f t="shared" si="244"/>
         <v>0</v>
       </c>
       <c r="AN91" s="82">
-        <f t="shared" si="245"/>
+        <f t="shared" si="244"/>
         <v>0</v>
       </c>
       <c r="AO91" s="82">
-        <f t="shared" si="245"/>
+        <f t="shared" si="244"/>
         <v>12522.6</v>
       </c>
       <c r="AP91" s="82"/>
@@ -48223,16 +48314,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" scale="90" showRuler="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" scale="90" showRuler="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" scale="90" showRuler="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" scale="90" showRuler="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
       <headerFooter alignWithMargins="0"/>
@@ -48297,11 +48388,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -48728,6 +48819,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -48841,33 +48947,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970FACA6-4FE8-43C1-9C92-1CB4DFD9972C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9771E67-9052-4CCB-BDDB-16EF0A4B87FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -48888,9 +48971,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9771E67-9052-4CCB-BDDB-16EF0A4B87FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970FACA6-4FE8-43C1-9C92-1CB4DFD9972C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GILD.xlsx
+++ b/GILD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9F3DB7-1970-4698-8DAD-A4A8C532368B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6719A5-BB12-4E5A-B5BF-435EBF4A3F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51615" yWindow="1650" windowWidth="30150" windowHeight="17955" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51945" yWindow="645" windowWidth="25650" windowHeight="19635" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="41" r:id="rId1"/>
@@ -46,8 +46,8 @@
   </sheets>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <customWorkbookViews>
+    <customWorkbookView name="Martin Shkreli - Personal View" guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1250" windowHeight="882" activeSheetId="15"/>
     <customWorkbookView name="David Zheng - Personal View" guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="628" activeSheetId="4"/>
-    <customWorkbookView name="Martin Shkreli - Personal View" guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1250" windowHeight="882" activeSheetId="15"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1138,7 +1138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="781">
   <si>
     <t>Name</t>
   </si>
@@ -3472,6 +3472,15 @@
   </si>
   <si>
     <t>Q425</t>
+  </si>
+  <si>
+    <t>lenacapavir</t>
+  </si>
+  <si>
+    <t>Livdelzi (seladelpar)</t>
+  </si>
+  <si>
+    <t>PBC</t>
   </si>
 </sst>
 </file>
@@ -4171,20 +4180,20 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -20592,12 +20601,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -20655,10 +20664,10 @@
     </row>
     <row r="2" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D2" s="30"/>
-      <c r="E2" s="181" t="s">
+      <c r="E2" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="181"/>
+      <c r="F2" s="183"/>
       <c r="G2" s="19"/>
       <c r="H2" s="52"/>
       <c r="I2" s="30" t="s">
@@ -22754,12 +22763,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -22873,10 +22882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23245,227 +23254,217 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="96" t="s">
+        <v>779</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>780</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="96" t="s">
         <v>591</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D20" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="32" t="s">
-        <v>754</v>
-      </c>
-      <c r="C20" s="97" t="s">
-        <v>756</v>
-      </c>
-      <c r="D20" s="25"/>
       <c r="E20" s="97"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="29"/>
+      <c r="G20" s="29" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="32" t="s">
-        <v>693</v>
+        <v>754</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="25">
-        <v>1</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="D21" s="25"/>
       <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="116" t="s">
-        <v>618</v>
-      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>612</v>
+        <v>15</v>
       </c>
       <c r="D22" s="25">
         <v>1</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="116" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>612</v>
+      </c>
+      <c r="D23" s="25">
+        <v>1</v>
+      </c>
+      <c r="E23" s="97" t="s">
         <v>610</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="77" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E24" s="36">
         <v>36460</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="175" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="175" t="s">
         <v>687</v>
       </c>
-      <c r="C25" s="176"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="176" t="s">
+      <c r="C26" s="176"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="176" t="s">
         <v>322</v>
       </c>
-      <c r="F25" s="176" t="s">
+      <c r="F26" s="176" t="s">
         <v>690</v>
       </c>
-      <c r="G25" s="178"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="96" t="s">
-        <v>688</v>
-      </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="97" t="s">
-        <v>322</v>
-      </c>
-      <c r="F26" s="97" t="s">
-        <v>689</v>
-      </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="178"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="96" t="s">
-        <v>765</v>
-      </c>
-      <c r="C27" s="97" t="s">
-        <v>766</v>
-      </c>
-      <c r="D27" s="98" t="s">
-        <v>767</v>
-      </c>
-      <c r="E27" s="97" t="s">
-        <v>317</v>
-      </c>
-      <c r="F27" s="97" t="s">
-        <v>768</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="C27" s="184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="185">
+        <v>1</v>
+      </c>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="96" t="s">
-        <v>763</v>
-      </c>
-      <c r="C28" s="97" t="s">
-        <v>741</v>
-      </c>
-      <c r="G28" s="179"/>
+        <v>688</v>
+      </c>
+      <c r="C28" s="97"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="97" t="s">
+        <v>322</v>
+      </c>
+      <c r="F28" s="97" t="s">
+        <v>689</v>
+      </c>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="32" t="s">
-        <v>622</v>
+      <c r="B29" s="96" t="s">
+        <v>765</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>623</v>
-      </c>
-      <c r="D29" s="98">
-        <v>1</v>
+        <v>766</v>
+      </c>
+      <c r="D29" s="98" t="s">
+        <v>767</v>
       </c>
       <c r="E29" s="97" t="s">
         <v>317</v>
       </c>
       <c r="F29" s="97" t="s">
-        <v>627</v>
-      </c>
-      <c r="G29" s="116"/>
+        <v>768</v>
+      </c>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="96" t="s">
+        <v>763</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>741</v>
+      </c>
+      <c r="G30" s="179"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="C31" s="97" t="s">
+        <v>623</v>
+      </c>
+      <c r="D31" s="98">
+        <v>1</v>
+      </c>
+      <c r="E31" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="F31" s="97" t="s">
+        <v>627</v>
+      </c>
+      <c r="G31" s="116"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="96" t="s">
         <v>619</v>
       </c>
-      <c r="C30" s="97" t="s">
+      <c r="C32" s="97" t="s">
         <v>620</v>
       </c>
-      <c r="D30" s="98">
+      <c r="D32" s="98">
         <v>1</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="E32" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="F30" s="97" t="s">
+      <c r="F32" s="97" t="s">
         <v>621</v>
       </c>
-      <c r="G30" s="116"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="122" t="s">
-        <v>488</v>
-      </c>
-      <c r="C31" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="180">
-        <v>1</v>
-      </c>
-      <c r="E31" s="94" t="s">
-        <v>317</v>
-      </c>
-      <c r="F31" s="94" t="s">
-        <v>506</v>
-      </c>
-      <c r="G31" s="123"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="122" t="s">
-        <v>489</v>
-      </c>
-      <c r="C32" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="180">
-        <v>1</v>
-      </c>
-      <c r="E32" s="94" t="s">
-        <v>507</v>
-      </c>
-      <c r="F32" s="94" t="s">
-        <v>490</v>
-      </c>
-      <c r="G32" s="123"/>
+      <c r="G32" s="116"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="122" t="s">
-        <v>632</v>
-      </c>
-      <c r="C33" s="111" t="s">
-        <v>635</v>
+        <v>488</v>
+      </c>
+      <c r="C33" s="94" t="s">
+        <v>15</v>
       </c>
       <c r="D33" s="180">
         <v>1</v>
@@ -23474,141 +23473,177 @@
         <v>317</v>
       </c>
       <c r="F33" s="94" t="s">
+        <v>506</v>
+      </c>
+      <c r="G33" s="123"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="122" t="s">
+        <v>489</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="180">
+        <v>1</v>
+      </c>
+      <c r="E34" s="94" t="s">
+        <v>507</v>
+      </c>
+      <c r="F34" s="94" t="s">
+        <v>490</v>
+      </c>
+      <c r="G34" s="123"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="122" t="s">
+        <v>632</v>
+      </c>
+      <c r="C35" s="111" t="s">
+        <v>635</v>
+      </c>
+      <c r="D35" s="180">
+        <v>1</v>
+      </c>
+      <c r="E35" s="94" t="s">
+        <v>317</v>
+      </c>
+      <c r="F35" s="94" t="s">
         <v>636</v>
       </c>
-      <c r="G33" s="125" t="s">
+      <c r="G35" s="125" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="88" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="88" t="s">
         <v>500</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E36" s="21" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E37" s="21" t="s">
-        <v>472</v>
-      </c>
+      <c r="G36" s="11"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E38" s="21" t="s">
-        <v>231</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E39" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E40" s="21" t="s">
-        <v>442</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E41" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E42" s="21" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E43" s="21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E44" s="21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E45" s="21" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E44" s="92" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="92" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E46" s="92" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E47" s="92" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E48" s="92" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E49" s="92" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="92" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="92" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="92" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E51" s="21" t="s">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E53" s="21" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E52" s="124" t="s">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="124" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E54" s="15" t="s">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" s="15" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E57" s="21" t="s">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E59" s="21" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E59" s="92" t="s">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E61" s="92" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E60" s="92" t="s">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="92" t="s">
         <v>753</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
       <headerFooter alignWithMargins="0"/>
@@ -23621,14 +23656,14 @@
     <hyperlink ref="B10" location="Atripla!A1" display="Atripla" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="B13" location="Letairis!A1" display="Letairis (ambrisentan)" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
     <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B23" location="Tamiflu!A1" display="Tamiflu" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B24" location="Tamiflu!A1" display="Tamiflu" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="B7" location="Stribild!A1" display="Stribild (Truvada/elvitegravir/cobicistat)" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="B9" location="sofosbuvir!A1" display="GS-7977" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B29" location="'5806'!A1" display="GS5806" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B21" location="Harvoni!A1" display="Harvoni (ledipasvir (GS-5885)/sofosbuvir)" xr:uid="{BF60304D-83C5-40EB-9F48-17522961056C}"/>
+    <hyperlink ref="B31" location="'5806'!A1" display="GS5806" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B22" location="Harvoni!A1" display="Harvoni (ledipasvir (GS-5885)/sofosbuvir)" xr:uid="{BF60304D-83C5-40EB-9F48-17522961056C}"/>
     <hyperlink ref="B3" location="Biktarvy!A1" display="Biktarvy (bictegravir/emtricitabine/TAF)" xr:uid="{A2CE480C-605B-43E0-B496-E9C5589F4A6B}"/>
     <hyperlink ref="B8" location="Veklury!A1" display="Veklury (remdesivir)" xr:uid="{795364B5-4E23-4C23-AC6F-B4DE0C4295C4}"/>
-    <hyperlink ref="B20" location="Trodelvy!A1" display="Trodelvy (sacituzumab govitecan)" xr:uid="{E1DA42CE-651F-4365-A31D-B57C11B4139C}"/>
+    <hyperlink ref="B21" location="Trodelvy!A1" display="Trodelvy (sacituzumab govitecan)" xr:uid="{E1DA42CE-651F-4365-A31D-B57C11B4139C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -24859,13 +24894,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B13" sqref="B13"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
@@ -25066,12 +25101,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -25178,12 +25213,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
@@ -25972,10 +26007,10 @@
   <dimension ref="A1:GB102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CF63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BA20" sqref="BA20:CL20"/>
+      <selection pane="bottomRight" activeCell="CJ47" sqref="CJ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26488,7 +26523,7 @@
       <c r="AY3" s="101"/>
       <c r="AZ3" s="101"/>
       <c r="BA3" s="139">
-        <f t="shared" ref="BA3:BN3" si="6">SUM(BA9:BA17)+BA27</f>
+        <f t="shared" ref="BA3:BM3" si="6">SUM(BA9:BA17)+BA27</f>
         <v>2704</v>
       </c>
       <c r="BB3" s="139">
@@ -27485,41 +27520,41 @@
       <c r="AB9" s="93"/>
       <c r="AC9" s="93"/>
       <c r="AD9" s="93"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="184"/>
-      <c r="AG9" s="184"/>
-      <c r="AH9" s="184"/>
-      <c r="AI9" s="184"/>
-      <c r="AJ9" s="184"/>
-      <c r="AK9" s="184"/>
-      <c r="AL9" s="184"/>
-      <c r="AM9" s="184"/>
-      <c r="AN9" s="184"/>
-      <c r="AO9" s="184"/>
-      <c r="AP9" s="184"/>
-      <c r="AQ9" s="184"/>
-      <c r="AR9" s="184"/>
-      <c r="AS9" s="184"/>
-      <c r="AT9" s="184"/>
-      <c r="AU9" s="184"/>
-      <c r="AV9" s="184"/>
-      <c r="AW9" s="184"/>
-      <c r="AX9" s="184"/>
-      <c r="AY9" s="184"/>
-      <c r="AZ9" s="184"/>
-      <c r="BA9" s="184"/>
-      <c r="BB9" s="184"/>
-      <c r="BC9" s="184"/>
-      <c r="BD9" s="184"/>
-      <c r="BE9" s="184"/>
-      <c r="BF9" s="184"/>
-      <c r="BG9" s="184"/>
-      <c r="BH9" s="184"/>
-      <c r="BI9" s="184"/>
-      <c r="BJ9" s="184"/>
-      <c r="BK9" s="184"/>
-      <c r="BL9" s="184"/>
-      <c r="BM9" s="184"/>
+      <c r="AE9" s="181"/>
+      <c r="AF9" s="181"/>
+      <c r="AG9" s="181"/>
+      <c r="AH9" s="181"/>
+      <c r="AI9" s="181"/>
+      <c r="AJ9" s="181"/>
+      <c r="AK9" s="181"/>
+      <c r="AL9" s="181"/>
+      <c r="AM9" s="181"/>
+      <c r="AN9" s="181"/>
+      <c r="AO9" s="181"/>
+      <c r="AP9" s="181"/>
+      <c r="AQ9" s="181"/>
+      <c r="AR9" s="181"/>
+      <c r="AS9" s="181"/>
+      <c r="AT9" s="181"/>
+      <c r="AU9" s="181"/>
+      <c r="AV9" s="181"/>
+      <c r="AW9" s="181"/>
+      <c r="AX9" s="181"/>
+      <c r="AY9" s="181"/>
+      <c r="AZ9" s="181"/>
+      <c r="BA9" s="181"/>
+      <c r="BB9" s="181"/>
+      <c r="BC9" s="181"/>
+      <c r="BD9" s="181"/>
+      <c r="BE9" s="181"/>
+      <c r="BF9" s="181"/>
+      <c r="BG9" s="181"/>
+      <c r="BH9" s="181"/>
+      <c r="BI9" s="181"/>
+      <c r="BJ9" s="181"/>
+      <c r="BK9" s="181"/>
+      <c r="BL9" s="181"/>
+      <c r="BM9" s="181"/>
       <c r="BN9" s="139">
         <v>0</v>
       </c>
@@ -27726,34 +27761,34 @@
       <c r="AB10" s="93"/>
       <c r="AC10" s="93"/>
       <c r="AD10" s="93"/>
-      <c r="AE10" s="184"/>
-      <c r="AF10" s="184"/>
-      <c r="AG10" s="184"/>
-      <c r="AH10" s="184"/>
-      <c r="AI10" s="184"/>
-      <c r="AJ10" s="184"/>
-      <c r="AK10" s="184"/>
-      <c r="AL10" s="184"/>
-      <c r="AM10" s="184"/>
-      <c r="AN10" s="184"/>
-      <c r="AO10" s="184"/>
-      <c r="AP10" s="184"/>
-      <c r="AQ10" s="184"/>
-      <c r="AR10" s="184"/>
-      <c r="AS10" s="184"/>
-      <c r="AT10" s="184"/>
-      <c r="AU10" s="184"/>
-      <c r="AV10" s="184"/>
-      <c r="AW10" s="184"/>
-      <c r="AX10" s="184"/>
-      <c r="AY10" s="184"/>
-      <c r="AZ10" s="184"/>
-      <c r="BA10" s="184"/>
-      <c r="BB10" s="184"/>
-      <c r="BC10" s="184"/>
-      <c r="BD10" s="184"/>
-      <c r="BE10" s="184"/>
-      <c r="BF10" s="184"/>
+      <c r="AE10" s="181"/>
+      <c r="AF10" s="181"/>
+      <c r="AG10" s="181"/>
+      <c r="AH10" s="181"/>
+      <c r="AI10" s="181"/>
+      <c r="AJ10" s="181"/>
+      <c r="AK10" s="181"/>
+      <c r="AL10" s="181"/>
+      <c r="AM10" s="181"/>
+      <c r="AN10" s="181"/>
+      <c r="AO10" s="181"/>
+      <c r="AP10" s="181"/>
+      <c r="AQ10" s="181"/>
+      <c r="AR10" s="181"/>
+      <c r="AS10" s="181"/>
+      <c r="AT10" s="181"/>
+      <c r="AU10" s="181"/>
+      <c r="AV10" s="181"/>
+      <c r="AW10" s="181"/>
+      <c r="AX10" s="181"/>
+      <c r="AY10" s="181"/>
+      <c r="AZ10" s="181"/>
+      <c r="BA10" s="181"/>
+      <c r="BB10" s="181"/>
+      <c r="BC10" s="181"/>
+      <c r="BD10" s="181"/>
+      <c r="BE10" s="181"/>
+      <c r="BF10" s="181"/>
       <c r="BG10" s="93">
         <v>0</v>
       </c>
@@ -27766,10 +27801,10 @@
       <c r="BJ10" s="93">
         <v>149</v>
       </c>
-      <c r="BK10" s="182">
+      <c r="BK10" s="139">
         <v>251</v>
       </c>
-      <c r="BL10" s="182">
+      <c r="BL10" s="139">
         <v>286</v>
       </c>
       <c r="BM10" s="93">
@@ -27981,33 +28016,33 @@
       <c r="AB11" s="93"/>
       <c r="AC11" s="93"/>
       <c r="AD11" s="93"/>
-      <c r="AE11" s="184"/>
-      <c r="AF11" s="184"/>
-      <c r="AG11" s="184"/>
-      <c r="AH11" s="184"/>
-      <c r="AI11" s="184"/>
-      <c r="AJ11" s="184"/>
-      <c r="AK11" s="184"/>
-      <c r="AL11" s="184"/>
-      <c r="AM11" s="184"/>
-      <c r="AN11" s="184"/>
-      <c r="AO11" s="184"/>
-      <c r="AP11" s="184"/>
-      <c r="AQ11" s="184"/>
-      <c r="AR11" s="184"/>
-      <c r="AS11" s="184"/>
-      <c r="AT11" s="184"/>
-      <c r="AU11" s="184"/>
-      <c r="AV11" s="184"/>
-      <c r="AW11" s="184"/>
-      <c r="AX11" s="184"/>
-      <c r="AY11" s="184"/>
-      <c r="AZ11" s="184"/>
-      <c r="BA11" s="184"/>
-      <c r="BB11" s="184"/>
-      <c r="BC11" s="184"/>
-      <c r="BD11" s="184"/>
-      <c r="BE11" s="184"/>
+      <c r="AE11" s="181"/>
+      <c r="AF11" s="181"/>
+      <c r="AG11" s="181"/>
+      <c r="AH11" s="181"/>
+      <c r="AI11" s="181"/>
+      <c r="AJ11" s="181"/>
+      <c r="AK11" s="181"/>
+      <c r="AL11" s="181"/>
+      <c r="AM11" s="181"/>
+      <c r="AN11" s="181"/>
+      <c r="AO11" s="181"/>
+      <c r="AP11" s="181"/>
+      <c r="AQ11" s="181"/>
+      <c r="AR11" s="181"/>
+      <c r="AS11" s="181"/>
+      <c r="AT11" s="181"/>
+      <c r="AU11" s="181"/>
+      <c r="AV11" s="181"/>
+      <c r="AW11" s="181"/>
+      <c r="AX11" s="181"/>
+      <c r="AY11" s="181"/>
+      <c r="AZ11" s="181"/>
+      <c r="BA11" s="181"/>
+      <c r="BB11" s="181"/>
+      <c r="BC11" s="181"/>
+      <c r="BD11" s="181"/>
+      <c r="BE11" s="181"/>
       <c r="BF11" s="93">
         <v>45</v>
       </c>
@@ -28023,10 +28058,10 @@
       <c r="BJ11" s="93">
         <v>563</v>
       </c>
-      <c r="BK11" s="182">
+      <c r="BK11" s="139">
         <v>769</v>
       </c>
-      <c r="BL11" s="182">
+      <c r="BL11" s="139">
         <v>857</v>
       </c>
       <c r="BM11" s="93">
@@ -28276,10 +28311,10 @@
       <c r="BJ12" s="93">
         <v>155</v>
       </c>
-      <c r="BK12" s="182">
+      <c r="BK12" s="139">
         <v>227</v>
       </c>
-      <c r="BL12" s="182">
+      <c r="BL12" s="139">
         <v>258</v>
       </c>
       <c r="BM12" s="93">
@@ -28513,19 +28548,19 @@
       <c r="AX13" s="93"/>
       <c r="AY13" s="93"/>
       <c r="AZ13" s="93"/>
-      <c r="BA13" s="184"/>
-      <c r="BB13" s="184"/>
-      <c r="BC13" s="184"/>
-      <c r="BD13" s="184"/>
-      <c r="BE13" s="184"/>
-      <c r="BF13" s="184"/>
-      <c r="BG13" s="184"/>
-      <c r="BH13" s="184"/>
-      <c r="BI13" s="184"/>
-      <c r="BJ13" s="184"/>
-      <c r="BK13" s="184"/>
-      <c r="BL13" s="184"/>
-      <c r="BM13" s="184"/>
+      <c r="BA13" s="181"/>
+      <c r="BB13" s="181"/>
+      <c r="BC13" s="181"/>
+      <c r="BD13" s="181"/>
+      <c r="BE13" s="181"/>
+      <c r="BF13" s="181"/>
+      <c r="BG13" s="181"/>
+      <c r="BH13" s="181"/>
+      <c r="BI13" s="181"/>
+      <c r="BJ13" s="181"/>
+      <c r="BK13" s="181"/>
+      <c r="BL13" s="181"/>
+      <c r="BM13" s="181"/>
       <c r="BN13" s="139">
         <v>0</v>
       </c>
@@ -28812,10 +28847,10 @@
       <c r="BJ14" s="93">
         <v>387</v>
       </c>
-      <c r="BK14" s="182">
+      <c r="BK14" s="139">
         <v>309</v>
       </c>
-      <c r="BL14" s="182">
+      <c r="BL14" s="139">
         <v>293</v>
       </c>
       <c r="BM14" s="93">
@@ -29157,10 +29192,10 @@
       <c r="BJ15" s="82">
         <v>607</v>
       </c>
-      <c r="BK15" s="183">
+      <c r="BK15" s="140">
         <v>452</v>
       </c>
-      <c r="BL15" s="183">
+      <c r="BL15" s="140">
         <v>475</v>
       </c>
       <c r="BM15" s="82">
@@ -29509,10 +29544,10 @@
       <c r="BJ16" s="82">
         <v>868</v>
       </c>
-      <c r="BK16" s="183">
+      <c r="BK16" s="140">
         <v>714</v>
       </c>
-      <c r="BL16" s="183">
+      <c r="BL16" s="140">
         <v>812</v>
       </c>
       <c r="BM16" s="82">
@@ -29899,10 +29934,10 @@
       <c r="BJ17" s="82">
         <v>324</v>
       </c>
-      <c r="BK17" s="183">
+      <c r="BK17" s="140">
         <v>260</v>
       </c>
-      <c r="BL17" s="183">
+      <c r="BL17" s="140">
         <v>300</v>
       </c>
       <c r="BM17" s="82">
@@ -30230,10 +30265,10 @@
       <c r="BJ18" s="93">
         <v>541</v>
       </c>
-      <c r="BK18" s="182">
+      <c r="BK18" s="139">
         <v>313</v>
       </c>
-      <c r="BL18" s="182">
+      <c r="BL18" s="139">
         <v>315</v>
       </c>
       <c r="BM18" s="93">
@@ -30449,8 +30484,8 @@
       <c r="BH19" s="93"/>
       <c r="BI19" s="93"/>
       <c r="BJ19" s="93"/>
-      <c r="BK19" s="182"/>
-      <c r="BL19" s="182"/>
+      <c r="BK19" s="139"/>
+      <c r="BL19" s="139"/>
       <c r="BM19" s="93"/>
       <c r="BN19" s="139"/>
       <c r="BO19" s="93"/>
@@ -30674,10 +30709,10 @@
       <c r="BJ20" s="93">
         <v>1640</v>
       </c>
-      <c r="BK20" s="182">
+      <c r="BK20" s="139">
         <v>1371</v>
       </c>
-      <c r="BL20" s="182">
+      <c r="BL20" s="139">
         <v>1382</v>
       </c>
       <c r="BM20" s="93">
@@ -30917,10 +30952,10 @@
       <c r="BH21" s="93"/>
       <c r="BI21" s="93"/>
       <c r="BJ21" s="93"/>
-      <c r="BK21" s="182">
+      <c r="BK21" s="139">
         <v>11</v>
       </c>
-      <c r="BL21" s="182">
+      <c r="BL21" s="139">
         <v>22</v>
       </c>
       <c r="BM21" s="93"/>
@@ -31168,10 +31203,10 @@
       <c r="BJ22" s="93">
         <v>1048</v>
       </c>
-      <c r="BK22" s="182">
+      <c r="BK22" s="139">
         <v>892</v>
       </c>
-      <c r="BL22" s="182">
+      <c r="BL22" s="139">
         <v>1171</v>
       </c>
       <c r="BM22" s="93">
@@ -31385,10 +31420,10 @@
       <c r="BJ23" s="93">
         <v>0</v>
       </c>
-      <c r="BK23" s="182">
+      <c r="BK23" s="139">
         <v>0</v>
       </c>
-      <c r="BL23" s="182">
+      <c r="BL23" s="139">
         <v>0</v>
       </c>
       <c r="BM23" s="93">
@@ -31568,10 +31603,10 @@
       <c r="BJ24" s="93">
         <v>0</v>
       </c>
-      <c r="BK24" s="182">
+      <c r="BK24" s="139">
         <v>0</v>
       </c>
-      <c r="BL24" s="182">
+      <c r="BL24" s="139">
         <v>0</v>
       </c>
       <c r="BM24" s="82">
@@ -31770,10 +31805,10 @@
       <c r="BJ25" s="93">
         <v>0</v>
       </c>
-      <c r="BK25" s="182">
+      <c r="BK25" s="139">
         <v>0</v>
       </c>
-      <c r="BL25" s="182">
+      <c r="BL25" s="139">
         <v>0</v>
       </c>
       <c r="BM25" s="82">
@@ -32072,46 +32107,46 @@
       <c r="BD26" s="82"/>
       <c r="BE26" s="82"/>
       <c r="BF26" s="82"/>
-      <c r="BG26" s="185"/>
-      <c r="BH26" s="185"/>
-      <c r="BI26" s="185"/>
-      <c r="BJ26" s="185"/>
-      <c r="BK26" s="185"/>
-      <c r="BL26" s="185"/>
-      <c r="BM26" s="185"/>
-      <c r="BN26" s="185"/>
-      <c r="BO26" s="185"/>
-      <c r="BP26" s="185"/>
-      <c r="BQ26" s="185"/>
-      <c r="BR26" s="185"/>
-      <c r="BS26" s="185"/>
-      <c r="BT26" s="185"/>
-      <c r="BU26" s="185"/>
-      <c r="BV26" s="185"/>
-      <c r="BW26" s="185"/>
-      <c r="BX26" s="185"/>
-      <c r="BY26" s="185"/>
-      <c r="BZ26" s="185"/>
-      <c r="CA26" s="185"/>
-      <c r="CB26" s="185"/>
-      <c r="CC26" s="185"/>
-      <c r="CD26" s="185"/>
-      <c r="CE26" s="185"/>
-      <c r="CF26" s="185"/>
-      <c r="CG26" s="185"/>
-      <c r="CH26" s="185"/>
-      <c r="CI26" s="185"/>
-      <c r="CJ26" s="185"/>
-      <c r="CK26" s="185"/>
-      <c r="CL26" s="185"/>
-      <c r="CM26" s="185"/>
-      <c r="CN26" s="185"/>
-      <c r="CO26" s="185"/>
-      <c r="CP26" s="185"/>
-      <c r="CQ26" s="185"/>
-      <c r="CR26" s="185"/>
-      <c r="CS26" s="185"/>
-      <c r="CT26" s="185"/>
+      <c r="BG26" s="182"/>
+      <c r="BH26" s="182"/>
+      <c r="BI26" s="182"/>
+      <c r="BJ26" s="182"/>
+      <c r="BK26" s="182"/>
+      <c r="BL26" s="182"/>
+      <c r="BM26" s="182"/>
+      <c r="BN26" s="182"/>
+      <c r="BO26" s="182"/>
+      <c r="BP26" s="182"/>
+      <c r="BQ26" s="182"/>
+      <c r="BR26" s="182"/>
+      <c r="BS26" s="182"/>
+      <c r="BT26" s="182"/>
+      <c r="BU26" s="182"/>
+      <c r="BV26" s="182"/>
+      <c r="BW26" s="182"/>
+      <c r="BX26" s="182"/>
+      <c r="BY26" s="182"/>
+      <c r="BZ26" s="182"/>
+      <c r="CA26" s="182"/>
+      <c r="CB26" s="182"/>
+      <c r="CC26" s="182"/>
+      <c r="CD26" s="182"/>
+      <c r="CE26" s="182"/>
+      <c r="CF26" s="182"/>
+      <c r="CG26" s="182"/>
+      <c r="CH26" s="182"/>
+      <c r="CI26" s="182"/>
+      <c r="CJ26" s="182"/>
+      <c r="CK26" s="182"/>
+      <c r="CL26" s="182"/>
+      <c r="CM26" s="182"/>
+      <c r="CN26" s="182"/>
+      <c r="CO26" s="182"/>
+      <c r="CP26" s="182"/>
+      <c r="CQ26" s="182"/>
+      <c r="CR26" s="182"/>
+      <c r="CS26" s="182"/>
+      <c r="CT26" s="182"/>
       <c r="CU26" s="79"/>
       <c r="CV26" s="79"/>
       <c r="CW26" s="79"/>
@@ -32316,10 +32351,10 @@
       <c r="BJ27" s="82">
         <v>297</v>
       </c>
-      <c r="BK27" s="183">
+      <c r="BK27" s="140">
         <v>253</v>
       </c>
-      <c r="BL27" s="183">
+      <c r="BL27" s="140">
         <v>254</v>
       </c>
       <c r="BM27" s="82">
@@ -32546,10 +32581,10 @@
       <c r="BJ28" s="82">
         <v>0</v>
       </c>
-      <c r="BK28" s="183">
+      <c r="BK28" s="140">
         <v>0</v>
       </c>
-      <c r="BL28" s="183">
+      <c r="BL28" s="140">
         <v>0</v>
       </c>
       <c r="BM28" s="82">
@@ -32762,10 +32797,10 @@
       <c r="BJ29" s="82">
         <v>0</v>
       </c>
-      <c r="BK29" s="183">
+      <c r="BK29" s="140">
         <v>0</v>
       </c>
-      <c r="BL29" s="183">
+      <c r="BL29" s="140">
         <v>0</v>
       </c>
       <c r="BM29" s="82">
@@ -32978,10 +33013,10 @@
       <c r="BJ30" s="82">
         <v>0</v>
       </c>
-      <c r="BK30" s="183">
+      <c r="BK30" s="140">
         <v>0</v>
       </c>
-      <c r="BL30" s="183">
+      <c r="BL30" s="140">
         <v>0</v>
       </c>
       <c r="BM30" s="82">
@@ -33284,8 +33319,8 @@
       <c r="BH31" s="82"/>
       <c r="BI31" s="82"/>
       <c r="BJ31" s="82"/>
-      <c r="BK31" s="183"/>
-      <c r="BL31" s="183"/>
+      <c r="BK31" s="140"/>
+      <c r="BL31" s="140"/>
       <c r="BM31" s="82"/>
       <c r="BN31" s="140"/>
       <c r="BO31" s="82"/>
@@ -33502,7 +33537,7 @@
       <c r="BJ32" s="93">
         <v>39</v>
       </c>
-      <c r="BK32" s="182">
+      <c r="BK32" s="139">
         <v>35</v>
       </c>
       <c r="BL32" s="93">
@@ -33817,7 +33852,7 @@
       <c r="BJ33" s="82">
         <v>94</v>
       </c>
-      <c r="BK33" s="183">
+      <c r="BK33" s="140">
         <v>92</v>
       </c>
       <c r="BL33" s="82">
@@ -34147,7 +34182,7 @@
       <c r="BJ34" s="82">
         <v>226</v>
       </c>
-      <c r="BK34" s="183">
+      <c r="BK34" s="140">
         <v>211</v>
       </c>
       <c r="BL34" s="82">
@@ -34445,7 +34480,7 @@
       <c r="BJ35" s="82">
         <v>210</v>
       </c>
-      <c r="BK35" s="183">
+      <c r="BK35" s="140">
         <v>153</v>
       </c>
       <c r="BL35" s="82">
@@ -34659,7 +34694,7 @@
       <c r="BH36" s="82"/>
       <c r="BI36" s="82"/>
       <c r="BJ36" s="82"/>
-      <c r="BK36" s="183"/>
+      <c r="BK36" s="140"/>
       <c r="BL36" s="82"/>
       <c r="BM36" s="82"/>
       <c r="BN36" s="140"/>
@@ -35433,8 +35468,12 @@
       <c r="CJ38" s="140"/>
       <c r="CK38" s="140"/>
       <c r="CL38" s="140"/>
-      <c r="CM38" s="140"/>
-      <c r="CN38" s="140"/>
+      <c r="CM38" s="140">
+        <v>39</v>
+      </c>
+      <c r="CN38" s="140">
+        <v>41</v>
+      </c>
       <c r="CO38" s="140"/>
       <c r="CP38" s="140"/>
       <c r="CQ38" s="140"/>
@@ -35656,7 +35695,7 @@
         <v>#REF!</v>
       </c>
       <c r="AE39" s="80">
-        <f t="shared" ref="AE39:BH39" si="51">SUM(AE14:AE38)</f>
+        <f t="shared" ref="AE39:BD39" si="51">SUM(AE14:AE38)</f>
         <v>1530.46</v>
       </c>
       <c r="AF39" s="80">
@@ -35768,55 +35807,55 @@
         <v>8506</v>
       </c>
       <c r="BG39" s="80">
-        <f>SUM(BG9:BG38)</f>
+        <f t="shared" ref="BG39:BP39" si="52">SUM(BG9:BG38)</f>
         <v>7794</v>
       </c>
       <c r="BH39" s="80">
-        <f>SUM(BH9:BH38)</f>
+        <f t="shared" si="52"/>
         <v>7776</v>
       </c>
       <c r="BI39" s="167">
-        <f>SUM(BI9:BI38)</f>
+        <f t="shared" si="52"/>
         <v>7500</v>
       </c>
       <c r="BJ39" s="167">
-        <f>SUM(BJ9:BJ38)</f>
+        <f t="shared" si="52"/>
         <v>7320</v>
       </c>
       <c r="BK39" s="167">
-        <f>SUM(BK9:BK38)</f>
+        <f t="shared" si="52"/>
         <v>6505</v>
       </c>
       <c r="BL39" s="167">
-        <f>SUM(BL9:BL38)</f>
+        <f t="shared" si="52"/>
         <v>7141</v>
       </c>
       <c r="BM39" s="167">
-        <f>SUM(BM9:BM38)</f>
+        <f t="shared" si="52"/>
         <v>6512</v>
       </c>
       <c r="BN39" s="167">
-        <f>SUM(BN9:BN38)</f>
+        <f t="shared" si="52"/>
         <v>5949</v>
       </c>
       <c r="BO39" s="167">
-        <f>SUM(BO9:BO38)</f>
+        <f t="shared" si="52"/>
         <v>5088</v>
       </c>
       <c r="BP39" s="167">
-        <f>SUM(BP9:BP38)</f>
+        <f t="shared" si="52"/>
         <v>5648</v>
       </c>
       <c r="BQ39" s="167">
-        <f t="shared" ref="BQ39:CH39" si="52">SUM(BQ9:BQ38)</f>
+        <f t="shared" ref="BQ39:CH39" si="53">SUM(BQ9:BQ38)</f>
         <v>5596</v>
       </c>
       <c r="BR39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5795</v>
       </c>
       <c r="BS39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5281</v>
       </c>
       <c r="BT39" s="167">
@@ -35824,144 +35863,144 @@
         <v>5685</v>
       </c>
       <c r="BU39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5604</v>
       </c>
       <c r="BV39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5879</v>
       </c>
       <c r="BW39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5548</v>
       </c>
       <c r="BX39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5143</v>
       </c>
       <c r="BY39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6577</v>
       </c>
       <c r="BZ39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7421</v>
       </c>
       <c r="CA39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6423</v>
       </c>
       <c r="CB39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6217</v>
       </c>
       <c r="CC39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7421</v>
       </c>
       <c r="CD39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7243</v>
       </c>
       <c r="CE39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6589</v>
       </c>
       <c r="CF39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6261</v>
       </c>
       <c r="CG39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7042</v>
       </c>
       <c r="CH39" s="167">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7389</v>
       </c>
       <c r="CI39" s="167">
-        <f t="shared" ref="CI39" si="53">SUM(CI9:CI38)</f>
+        <f t="shared" ref="CI39" si="54">SUM(CI9:CI38)</f>
         <v>6352</v>
       </c>
       <c r="CJ39" s="167">
-        <f t="shared" ref="CJ39" si="54">SUM(CJ9:CJ38)</f>
+        <f t="shared" ref="CJ39" si="55">SUM(CJ9:CJ38)</f>
         <v>6565</v>
       </c>
       <c r="CK39" s="167">
-        <f t="shared" ref="CK39" si="55">SUM(CK9:CK38)</f>
+        <f t="shared" ref="CK39" si="56">SUM(CK9:CK38)</f>
         <v>6996</v>
       </c>
       <c r="CL39" s="167">
-        <f t="shared" ref="CL39:CT39" si="56">SUM(CL9:CL38)</f>
+        <f t="shared" ref="CL39:CT39" si="57">SUM(CL9:CL38)</f>
         <v>7071</v>
       </c>
       <c r="CM39" s="167">
-        <f t="shared" si="56"/>
-        <v>6648</v>
+        <f t="shared" si="57"/>
+        <v>6687</v>
       </c>
       <c r="CN39" s="167">
-        <f t="shared" si="56"/>
-        <v>6913</v>
+        <f t="shared" si="57"/>
+        <v>6954</v>
       </c>
       <c r="CO39" s="167">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CP39" s="167">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CQ39" s="167">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CR39" s="167">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CS39" s="167">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CT39" s="167">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CU39" s="154"/>
       <c r="CV39" s="154">
-        <f t="shared" ref="CV39:DD39" si="57">SUM(CV3:CV38)</f>
+        <f t="shared" ref="CV39:DD39" si="58">SUM(CV3:CV38)</f>
         <v>150.321</v>
       </c>
       <c r="CW39" s="154">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>174.3</v>
       </c>
       <c r="CX39" s="154">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>213.93899999999999</v>
       </c>
       <c r="CY39" s="154">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>444.28500000000003</v>
       </c>
       <c r="CZ39" s="154">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>861.56000000000006</v>
       </c>
       <c r="DA39" s="154">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1324.7784390485224</v>
       </c>
       <c r="DB39" s="85">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2028.3830000000003</v>
       </c>
       <c r="DC39" s="85">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>3017.3370000000004</v>
       </c>
       <c r="DD39" s="85">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2640.8110000000001</v>
       </c>
       <c r="DE39" s="80">
@@ -35969,71 +36008,71 @@
         <v>250.964</v>
       </c>
       <c r="DF39" s="102">
-        <f t="shared" ref="DF39:DV39" si="58">SUM(DF14:DF38)</f>
+        <f t="shared" ref="DF39:DV39" si="59">SUM(DF14:DF38)</f>
         <v>7010.8720000000003</v>
       </c>
       <c r="DG39" s="102">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>5338.1969999999992</v>
       </c>
       <c r="DH39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>8362.01</v>
       </c>
       <c r="DI39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9702.5170000000016</v>
       </c>
       <c r="DJ39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>11201.687999999998</v>
       </c>
       <c r="DK39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>22762.46</v>
       </c>
       <c r="DL39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>27442.915000000005</v>
       </c>
       <c r="DM39" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>29030.171195000003</v>
       </c>
       <c r="DN39" s="167">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="DO39" s="167">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="DP39" s="167">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="DQ39" s="167">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>10071</v>
       </c>
       <c r="DR39" s="167">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>12002</v>
       </c>
       <c r="DS39" s="167">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>10616</v>
       </c>
       <c r="DT39" s="154">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9209</v>
       </c>
       <c r="DU39" s="154">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1093.5</v>
       </c>
       <c r="DV39" s="154">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>984.15000000000009</v>
       </c>
       <c r="DW39" s="154"/>
@@ -36318,20 +36357,15 @@
       <c r="CI40" s="140">
         <v>871</v>
       </c>
-      <c r="CJ40" s="140">
-        <f t="shared" ref="CJ40:CL40" si="59">+CJ39-CJ41</f>
-        <v>984.75</v>
-      </c>
-      <c r="CK40" s="140">
-        <f t="shared" si="59"/>
-        <v>1049.4000000000005</v>
-      </c>
-      <c r="CL40" s="140">
-        <f t="shared" si="59"/>
-        <v>1060.6500000000005</v>
-      </c>
-      <c r="CM40" s="140"/>
-      <c r="CN40" s="140"/>
+      <c r="CJ40" s="140"/>
+      <c r="CK40" s="140"/>
+      <c r="CL40" s="140"/>
+      <c r="CM40" s="140">
+        <v>974</v>
+      </c>
+      <c r="CN40" s="140">
+        <v>965</v>
+      </c>
       <c r="CO40" s="140"/>
       <c r="CP40" s="140"/>
       <c r="CQ40" s="140"/>
@@ -36772,20 +36806,17 @@
         <f>CI39-CI40</f>
         <v>5481</v>
       </c>
-      <c r="CJ41" s="140">
-        <f t="shared" ref="CJ41:CL41" si="76">+CJ39*0.85</f>
-        <v>5580.25</v>
-      </c>
-      <c r="CK41" s="140">
-        <f t="shared" si="76"/>
-        <v>5946.5999999999995</v>
-      </c>
-      <c r="CL41" s="140">
-        <f t="shared" si="76"/>
-        <v>6010.3499999999995</v>
-      </c>
-      <c r="CM41" s="140"/>
-      <c r="CN41" s="140"/>
+      <c r="CJ41" s="140"/>
+      <c r="CK41" s="140"/>
+      <c r="CL41" s="140"/>
+      <c r="CM41" s="140">
+        <f>+CM39-CM40</f>
+        <v>5713</v>
+      </c>
+      <c r="CN41" s="140">
+        <f>+CN39-CN40</f>
+        <v>5989</v>
+      </c>
       <c r="CO41" s="140"/>
       <c r="CP41" s="140"/>
       <c r="CQ41" s="140"/>
@@ -36828,47 +36859,47 @@
         <v>20030.964799999998</v>
       </c>
       <c r="DL41" s="82">
-        <f t="shared" ref="DL41:DV41" si="77">+DL39*0.88</f>
+        <f t="shared" ref="DL41:DV41" si="76">+DL39*0.88</f>
         <v>24149.765200000005</v>
       </c>
       <c r="DM41" s="82">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>25546.550651600002</v>
       </c>
       <c r="DN41" s="140">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DO41" s="140">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DP41" s="140">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="DQ41" s="140">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>8862.48</v>
       </c>
       <c r="DR41" s="140">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>10561.76</v>
       </c>
       <c r="DS41" s="140">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>9342.08</v>
       </c>
       <c r="DT41" s="140">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>8103.92</v>
       </c>
       <c r="DU41" s="140">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>962.28</v>
       </c>
       <c r="DV41" s="140">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>866.05200000000013</v>
       </c>
       <c r="DW41" s="79"/>
@@ -37151,19 +37182,23 @@
         <v>1439</v>
       </c>
       <c r="CJ42" s="140">
-        <f t="shared" ref="CJ42" si="78">+CF42</f>
+        <f t="shared" ref="CJ42" si="77">+CF42</f>
         <v>1102</v>
       </c>
       <c r="CK42" s="140">
-        <f t="shared" ref="CK42" si="79">+CG42</f>
+        <f t="shared" ref="CK42" si="78">+CG42</f>
         <v>1173</v>
       </c>
       <c r="CL42" s="140">
-        <f t="shared" ref="CL42" si="80">+CH42</f>
+        <f t="shared" ref="CL42" si="79">+CH42</f>
         <v>1544</v>
       </c>
-      <c r="CM42" s="140"/>
-      <c r="CN42" s="140"/>
+      <c r="CM42" s="140">
+        <v>1403</v>
+      </c>
+      <c r="CN42" s="140">
+        <v>1335</v>
+      </c>
       <c r="CO42" s="140"/>
       <c r="CP42" s="140"/>
       <c r="CQ42" s="140"/>
@@ -37516,19 +37551,23 @@
         <v>1318</v>
       </c>
       <c r="CJ43" s="140">
-        <f t="shared" ref="CJ43:CL43" si="81">+CF43</f>
+        <f t="shared" ref="CJ43:CL43" si="80">+CF43</f>
         <v>1272</v>
       </c>
       <c r="CK43" s="140">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>1212</v>
       </c>
       <c r="CL43" s="140">
-        <f t="shared" si="81"/>
+        <f t="shared" si="80"/>
         <v>2020</v>
       </c>
-      <c r="CM43" s="140"/>
-      <c r="CN43" s="140"/>
+      <c r="CM43" s="140">
+        <v>1295</v>
+      </c>
+      <c r="CN43" s="140">
+        <v>1351</v>
+      </c>
       <c r="CO43" s="140"/>
       <c r="CP43" s="140"/>
       <c r="CQ43" s="140"/>
@@ -37598,43 +37637,43 @@
         <v>2449.105</v>
       </c>
       <c r="DM43" s="82">
-        <f t="shared" ref="DM43:DV43" si="82">+DL43</f>
+        <f t="shared" ref="DM43:DV43" si="81">+DL43</f>
         <v>2449.105</v>
       </c>
       <c r="DN43" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2449.105</v>
       </c>
       <c r="DO43" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2449.105</v>
       </c>
       <c r="DP43" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2449.105</v>
       </c>
       <c r="DQ43" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2449.105</v>
       </c>
       <c r="DR43" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2449.105</v>
       </c>
       <c r="DS43" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2449.105</v>
       </c>
       <c r="DT43" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2449.105</v>
       </c>
       <c r="DU43" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2449.105</v>
       </c>
       <c r="DV43" s="140">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>2449.105</v>
       </c>
       <c r="DW43" s="79"/>
@@ -37653,159 +37692,159 @@
         <v>49</v>
       </c>
       <c r="C44" s="83">
-        <f t="shared" ref="C44:R44" si="83">SUM(C40:C43)</f>
+        <f t="shared" ref="C44:R44" si="82">SUM(C40:C43)</f>
         <v>78.694000000000003</v>
       </c>
       <c r="D44" s="83">
+        <f t="shared" si="82"/>
+        <v>79.188000000000002</v>
+      </c>
+      <c r="E44" s="83">
+        <f t="shared" si="82"/>
+        <v>82.037000000000006</v>
+      </c>
+      <c r="F44" s="83">
+        <f t="shared" si="82"/>
+        <v>96.545999999999992</v>
+      </c>
+      <c r="G44" s="83">
+        <f t="shared" si="82"/>
+        <v>96.115000000000009</v>
+      </c>
+      <c r="H44" s="83">
+        <f t="shared" si="82"/>
+        <v>106.027</v>
+      </c>
+      <c r="I44" s="83">
+        <f t="shared" si="82"/>
+        <v>100.13800000000001</v>
+      </c>
+      <c r="J44" s="83">
+        <f t="shared" si="82"/>
+        <v>137.96899999999999</v>
+      </c>
+      <c r="K44" s="83" t="e">
+        <f t="shared" si="82"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L44" s="83" t="e">
+        <f t="shared" si="82"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M44" s="83" t="e">
+        <f t="shared" si="82"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N44" s="83" t="e">
+        <f t="shared" si="82"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O44" s="83" t="e">
+        <f t="shared" si="82"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P44" s="83" t="e">
+        <f t="shared" si="82"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q44" s="83" t="e">
+        <f t="shared" si="82"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R44" s="83" t="e">
+        <f t="shared" si="82"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S44" s="83">
+        <f t="shared" ref="S44:Z44" si="83">S43+S42</f>
+        <v>204.42400000000001</v>
+      </c>
+      <c r="T44" s="83">
         <f t="shared" si="83"/>
-        <v>79.188000000000002</v>
-      </c>
-      <c r="E44" s="83">
+        <v>207.86300000000003</v>
+      </c>
+      <c r="U44" s="83">
         <f t="shared" si="83"/>
-        <v>82.037000000000006</v>
-      </c>
-      <c r="F44" s="83">
+        <v>196.613</v>
+      </c>
+      <c r="V44" s="82">
         <f t="shared" si="83"/>
-        <v>96.545999999999992</v>
-      </c>
-      <c r="G44" s="83">
+        <v>225.66499999999999</v>
+      </c>
+      <c r="W44" s="83">
         <f t="shared" si="83"/>
-        <v>96.115000000000009</v>
-      </c>
-      <c r="H44" s="83">
+        <v>241.88399999999999</v>
+      </c>
+      <c r="X44" s="83">
         <f t="shared" si="83"/>
-        <v>106.027</v>
-      </c>
-      <c r="I44" s="83">
+        <v>277</v>
+      </c>
+      <c r="Y44" s="83">
         <f t="shared" si="83"/>
-        <v>100.13800000000001</v>
-      </c>
-      <c r="J44" s="83">
+        <v>313.31299999999999</v>
+      </c>
+      <c r="Z44" s="82">
         <f t="shared" si="83"/>
-        <v>137.96899999999999</v>
-      </c>
-      <c r="K44" s="83" t="e">
-        <f t="shared" si="83"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L44" s="83" t="e">
-        <f t="shared" si="83"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M44" s="83" t="e">
-        <f t="shared" si="83"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N44" s="83" t="e">
-        <f t="shared" si="83"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O44" s="83" t="e">
-        <f t="shared" si="83"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P44" s="83" t="e">
-        <f t="shared" si="83"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q44" s="83" t="e">
-        <f t="shared" si="83"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R44" s="83" t="e">
-        <f t="shared" si="83"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S44" s="83">
-        <f t="shared" ref="S44:Z44" si="84">S43+S42</f>
-        <v>204.42400000000001</v>
-      </c>
-      <c r="T44" s="83">
+        <v>364.69600000000003</v>
+      </c>
+      <c r="AA44" s="82">
+        <f t="shared" ref="AA44:AM44" si="84">AA43+AA42</f>
+        <v>315.81599999999997</v>
+      </c>
+      <c r="AB44" s="82">
         <f t="shared" si="84"/>
-        <v>207.86300000000003</v>
-      </c>
-      <c r="U44" s="83">
+        <v>362.048</v>
+      </c>
+      <c r="AC44" s="82">
         <f t="shared" si="84"/>
-        <v>196.613</v>
-      </c>
-      <c r="V44" s="82">
+        <v>338.24900000000002</v>
+      </c>
+      <c r="AD44" s="82">
         <f t="shared" si="84"/>
-        <v>225.66499999999999</v>
-      </c>
-      <c r="W44" s="83">
+        <v>359.947</v>
+      </c>
+      <c r="AE44" s="82">
         <f t="shared" si="84"/>
-        <v>241.88399999999999</v>
-      </c>
-      <c r="X44" s="83">
+        <v>354.9</v>
+      </c>
+      <c r="AF44" s="82">
         <f t="shared" si="84"/>
-        <v>277</v>
-      </c>
-      <c r="Y44" s="83">
+        <v>419.26800000000003</v>
+      </c>
+      <c r="AG44" s="82">
         <f t="shared" si="84"/>
-        <v>313.31299999999999</v>
-      </c>
-      <c r="Z44" s="82">
+        <v>442.5</v>
+      </c>
+      <c r="AH44" s="82">
         <f t="shared" si="84"/>
-        <v>364.69600000000003</v>
-      </c>
-      <c r="AA44" s="82">
-        <f t="shared" ref="AA44:AM44" si="85">AA43+AA42</f>
-        <v>315.81599999999997</v>
-      </c>
-      <c r="AB44" s="82">
-        <f t="shared" si="85"/>
-        <v>362.048</v>
-      </c>
-      <c r="AC44" s="82">
-        <f t="shared" si="85"/>
-        <v>338.24900000000002</v>
-      </c>
-      <c r="AD44" s="82">
-        <f t="shared" si="85"/>
-        <v>359.947</v>
-      </c>
-      <c r="AE44" s="82">
-        <f t="shared" si="85"/>
-        <v>354.9</v>
-      </c>
-      <c r="AF44" s="82">
-        <f t="shared" si="85"/>
-        <v>419.26800000000003</v>
-      </c>
-      <c r="AG44" s="82">
-        <f t="shared" si="85"/>
-        <v>442.5</v>
-      </c>
-      <c r="AH44" s="82">
-        <f t="shared" si="85"/>
         <v>434.68399999999997</v>
       </c>
       <c r="AI44" s="82">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>425.61</v>
       </c>
       <c r="AJ44" s="82">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>430.95600000000002</v>
       </c>
       <c r="AK44" s="82">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>423.79999999999995</v>
       </c>
       <c r="AL44" s="82">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>471.1</v>
       </c>
       <c r="AM44" s="82">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>550.01400000000001</v>
       </c>
       <c r="AN44" s="82">
-        <f t="shared" ref="AN44" si="86">AN43+AN42</f>
+        <f t="shared" ref="AN44" si="85">AN43+AN42</f>
         <v>586.67200000000003</v>
       </c>
       <c r="AO44" s="82">
-        <f t="shared" ref="AO44" si="87">AO43+AO42</f>
+        <f t="shared" ref="AO44" si="86">AO43+AO42</f>
         <v>586</v>
       </c>
       <c r="AP44" s="82">
@@ -37813,35 +37852,35 @@
         <v>748.45499999999993</v>
       </c>
       <c r="AQ44" s="82">
-        <f t="shared" ref="AQ44:AX44" si="88">+AQ43+AQ42</f>
+        <f t="shared" ref="AQ44:AX44" si="87">+AQ43+AQ42</f>
         <v>901.33199999999999</v>
       </c>
       <c r="AR44" s="82">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>728.74900000000002</v>
       </c>
       <c r="AS44" s="82">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>785.41399999999999</v>
       </c>
       <c r="AT44" s="82">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>805.48399999999992</v>
       </c>
       <c r="AU44" s="82">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>871.928</v>
       </c>
       <c r="AV44" s="82">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>864.10699999999997</v>
       </c>
       <c r="AW44" s="82">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>865.37599999999998</v>
       </c>
       <c r="AX44" s="82">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>982.34999999999991</v>
       </c>
       <c r="AY44" s="82">
@@ -37853,107 +37892,107 @@
         <v>1111.9740000000002</v>
       </c>
       <c r="BA44" s="82">
-        <f t="shared" ref="BA44:BE44" si="89">+BA43+BA42</f>
+        <f t="shared" ref="BA44:BE44" si="88">+BA43+BA42</f>
         <v>1121.9740000000002</v>
       </c>
       <c r="BB44" s="82">
+        <f t="shared" si="88"/>
+        <v>1698</v>
+      </c>
+      <c r="BC44" s="82">
+        <f t="shared" si="88"/>
+        <v>1251</v>
+      </c>
+      <c r="BD44" s="82">
+        <f t="shared" si="88"/>
+        <v>1463</v>
+      </c>
+      <c r="BE44" s="82">
+        <f t="shared" si="88"/>
+        <v>1646</v>
+      </c>
+      <c r="BF44" s="140">
+        <f t="shared" ref="BF44:BG44" si="89">BF42+BF43</f>
+        <v>1792</v>
+      </c>
+      <c r="BG44" s="140">
         <f t="shared" si="89"/>
+        <v>1407</v>
+      </c>
+      <c r="BH44" s="140">
+        <f t="shared" ref="BH44:BI44" si="90">BH42+BH43</f>
+        <v>2374</v>
+      </c>
+      <c r="BI44" s="140">
+        <f t="shared" si="90"/>
+        <v>1972</v>
+      </c>
+      <c r="BJ44" s="140">
+        <f t="shared" ref="BJ44:BM44" si="91">BJ42+BJ43</f>
+        <v>1897</v>
+      </c>
+      <c r="BK44" s="140">
+        <f t="shared" si="91"/>
+        <v>1696</v>
+      </c>
+      <c r="BL44" s="140">
+        <f t="shared" si="91"/>
+        <v>1761</v>
+      </c>
+      <c r="BM44" s="140">
+        <f t="shared" si="91"/>
+        <v>1668</v>
+      </c>
+      <c r="BN44" s="140">
+        <f t="shared" ref="BN44" si="92">BN42+BN43</f>
+        <v>1768</v>
+      </c>
+      <c r="BO44" s="140">
+        <f t="shared" ref="BO44" si="93">BO42+BO43</f>
         <v>1698</v>
       </c>
-      <c r="BC44" s="82">
-        <f t="shared" si="89"/>
-        <v>1251</v>
-      </c>
-      <c r="BD44" s="82">
-        <f t="shared" si="89"/>
-        <v>1463</v>
-      </c>
-      <c r="BE44" s="82">
-        <f t="shared" si="89"/>
-        <v>1646</v>
-      </c>
-      <c r="BF44" s="140">
-        <f t="shared" ref="BF44:BG44" si="90">BF42+BF43</f>
-        <v>1792</v>
-      </c>
-      <c r="BG44" s="140">
-        <f t="shared" si="90"/>
-        <v>1407</v>
-      </c>
-      <c r="BH44" s="140">
-        <f t="shared" ref="BH44:BJ44" si="91">BH42+BH43</f>
-        <v>2374</v>
-      </c>
-      <c r="BI44" s="140">
-        <f t="shared" si="91"/>
-        <v>1972</v>
-      </c>
-      <c r="BJ44" s="140">
-        <f t="shared" ref="BJ44:BM44" si="92">BJ42+BJ43</f>
-        <v>1897</v>
-      </c>
-      <c r="BK44" s="140">
-        <f t="shared" si="92"/>
-        <v>1696</v>
-      </c>
-      <c r="BL44" s="140">
-        <f t="shared" si="92"/>
+      <c r="BP44" s="140">
+        <f t="shared" ref="BP44:BQ44" si="94">BP42+BP43</f>
         <v>1761</v>
       </c>
-      <c r="BM44" s="140">
-        <f t="shared" si="92"/>
-        <v>1668</v>
-      </c>
-      <c r="BN44" s="140">
-        <f t="shared" ref="BN44" si="93">BN42+BN43</f>
-        <v>1768</v>
-      </c>
-      <c r="BO44" s="140">
-        <f t="shared" ref="BO44" si="94">BO42+BO43</f>
-        <v>1698</v>
-      </c>
-      <c r="BP44" s="140">
-        <f t="shared" ref="BP44:BQ44" si="95">BP42+BP43</f>
-        <v>1761</v>
-      </c>
       <c r="BQ44" s="140">
+        <f t="shared" si="94"/>
+        <v>1887</v>
+      </c>
+      <c r="BR44" s="140">
+        <f t="shared" ref="BR44:BT44" si="95">BR42+BR43</f>
+        <v>1971</v>
+      </c>
+      <c r="BS44" s="140">
         <f t="shared" si="95"/>
-        <v>1887</v>
-      </c>
-      <c r="BR44" s="140">
-        <f t="shared" ref="BR44:BT44" si="96">BR42+BR43</f>
-        <v>1971</v>
-      </c>
-      <c r="BS44" s="140">
+        <v>1962</v>
+      </c>
+      <c r="BT44" s="140">
+        <f t="shared" si="95"/>
+        <v>1931</v>
+      </c>
+      <c r="BU44" s="140">
+        <f t="shared" ref="BU44:BV44" si="96">BU42+BU43</f>
+        <v>6042</v>
+      </c>
+      <c r="BV44" s="140">
         <f t="shared" si="96"/>
-        <v>1962</v>
-      </c>
-      <c r="BT44" s="140">
-        <f t="shared" si="96"/>
-        <v>1931</v>
-      </c>
-      <c r="BU44" s="140">
-        <f t="shared" ref="BU44:BV44" si="97">BU42+BU43</f>
-        <v>6042</v>
-      </c>
-      <c r="BV44" s="140">
+        <v>2307</v>
+      </c>
+      <c r="BW44" s="140">
+        <f t="shared" ref="BW44:BX44" si="97">BW42+BW43</f>
+        <v>2080</v>
+      </c>
+      <c r="BX44" s="140">
         <f t="shared" si="97"/>
-        <v>2307</v>
-      </c>
-      <c r="BW44" s="140">
-        <f t="shared" ref="BW44:BX44" si="98">BW42+BW43</f>
-        <v>2080</v>
-      </c>
-      <c r="BX44" s="140">
-        <f t="shared" si="98"/>
         <v>2350</v>
       </c>
       <c r="BY44" s="140">
-        <f t="shared" ref="BY44" si="99">BY42+BY43</f>
+        <f t="shared" ref="BY44" si="98">BY42+BY43</f>
         <v>2250</v>
       </c>
       <c r="BZ44" s="140">
-        <f t="shared" ref="BZ44" si="100">BZ42+BZ43</f>
+        <f t="shared" ref="BZ44" si="99">BZ42+BZ43</f>
         <v>3011</v>
       </c>
       <c r="CA44" s="140">
@@ -37961,51 +38000,57 @@
         <v>2082</v>
       </c>
       <c r="CB44" s="140">
-        <f t="shared" ref="CB44:CE44" si="101">CB42+CB43</f>
+        <f t="shared" ref="CB44:CE44" si="100">CB42+CB43</f>
         <v>2163</v>
       </c>
       <c r="CC44" s="140">
+        <f t="shared" si="100"/>
+        <v>2241</v>
+      </c>
+      <c r="CD44" s="140">
+        <f t="shared" si="100"/>
+        <v>2957</v>
+      </c>
+      <c r="CE44" s="140">
+        <f t="shared" si="100"/>
+        <v>2241</v>
+      </c>
+      <c r="CF44" s="140">
+        <f t="shared" ref="CF44:CM44" si="101">CF42+CF43</f>
+        <v>2374</v>
+      </c>
+      <c r="CG44" s="140">
         <f t="shared" si="101"/>
-        <v>2241</v>
-      </c>
-      <c r="CD44" s="140">
+        <v>2385</v>
+      </c>
+      <c r="CH44" s="140">
         <f t="shared" si="101"/>
-        <v>2957</v>
-      </c>
-      <c r="CE44" s="140">
+        <v>3564</v>
+      </c>
+      <c r="CI44" s="140">
         <f t="shared" si="101"/>
-        <v>2241</v>
-      </c>
-      <c r="CF44" s="140">
-        <f t="shared" ref="CF44:CL44" si="102">CF42+CF43</f>
+        <v>2757</v>
+      </c>
+      <c r="CJ44" s="140">
+        <f t="shared" si="101"/>
         <v>2374</v>
       </c>
-      <c r="CG44" s="140">
-        <f t="shared" si="102"/>
+      <c r="CK44" s="140">
+        <f t="shared" si="101"/>
         <v>2385</v>
       </c>
-      <c r="CH44" s="140">
-        <f t="shared" si="102"/>
+      <c r="CL44" s="140">
+        <f t="shared" si="101"/>
         <v>3564</v>
       </c>
-      <c r="CI44" s="140">
-        <f t="shared" si="102"/>
-        <v>2757</v>
-      </c>
-      <c r="CJ44" s="140">
-        <f t="shared" si="102"/>
-        <v>2374</v>
-      </c>
-      <c r="CK44" s="140">
-        <f t="shared" si="102"/>
-        <v>2385</v>
-      </c>
-      <c r="CL44" s="140">
-        <f t="shared" si="102"/>
-        <v>3564</v>
-      </c>
-      <c r="CM44" s="140"/>
-      <c r="CN44" s="140"/>
+      <c r="CM44" s="140">
+        <f t="shared" si="101"/>
+        <v>2698</v>
+      </c>
+      <c r="CN44" s="140">
+        <f>+CN42+CN43</f>
+        <v>2686</v>
+      </c>
       <c r="CO44" s="140"/>
       <c r="CP44" s="140"/>
       <c r="CQ44" s="140"/>
@@ -38014,39 +38059,39 @@
       <c r="CT44" s="140"/>
       <c r="CU44" s="155"/>
       <c r="CV44" s="155">
-        <f t="shared" ref="CV44:DH44" si="103">CV42+CV43</f>
+        <f t="shared" ref="CV44:DH44" si="102">CV42+CV43</f>
         <v>210.292</v>
       </c>
       <c r="CW44" s="155">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>214.36099999999999</v>
       </c>
       <c r="CX44" s="155">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>310.69400000000002</v>
       </c>
       <c r="CY44" s="155">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>316.05899999999997</v>
       </c>
       <c r="CZ44" s="155">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>415.03</v>
       </c>
       <c r="DA44" s="155">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>526.34500000000037</v>
       </c>
       <c r="DB44" s="75">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>656.91200000000003</v>
       </c>
       <c r="DC44" s="83">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>834.56500000000005</v>
       </c>
       <c r="DD44" s="83">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>1196.893</v>
       </c>
       <c r="DE44" s="83">
@@ -38062,63 +38107,63 @@
         <v>1751.4659999999999</v>
       </c>
       <c r="DH44" s="83">
+        <f t="shared" si="102"/>
+        <v>2471.1409999999996</v>
+      </c>
+      <c r="DI44" s="83">
+        <f t="shared" ref="DI44:DN44" si="103">DI42+DI43</f>
+        <v>3220.9790000000003</v>
+      </c>
+      <c r="DJ44" s="83">
         <f t="shared" si="103"/>
-        <v>2471.1409999999996</v>
-      </c>
-      <c r="DI44" s="83">
-        <f t="shared" ref="DI44:DN44" si="104">DI42+DI43</f>
-        <v>3220.9790000000003</v>
-      </c>
-      <c r="DJ44" s="83">
-        <f t="shared" si="104"/>
         <v>3583.761</v>
       </c>
       <c r="DK44" s="83">
+        <f t="shared" si="103"/>
+        <v>2449.105</v>
+      </c>
+      <c r="DL44" s="83">
+        <f t="shared" si="103"/>
+        <v>2449.105</v>
+      </c>
+      <c r="DM44" s="83">
+        <f t="shared" si="103"/>
+        <v>2449.105</v>
+      </c>
+      <c r="DN44" s="142">
+        <f t="shared" si="103"/>
+        <v>2449.105</v>
+      </c>
+      <c r="DO44" s="142">
+        <f t="shared" ref="DO44:DQ44" si="104">DO42+DO43</f>
+        <v>2449.105</v>
+      </c>
+      <c r="DP44" s="142">
         <f t="shared" si="104"/>
         <v>2449.105</v>
       </c>
-      <c r="DL44" s="83">
+      <c r="DQ44" s="142">
         <f t="shared" si="104"/>
         <v>2449.105</v>
       </c>
-      <c r="DM44" s="83">
-        <f t="shared" si="104"/>
+      <c r="DR44" s="142">
+        <f t="shared" ref="DR44:DV44" si="105">DR42+DR43</f>
         <v>2449.105</v>
       </c>
-      <c r="DN44" s="142">
-        <f t="shared" si="104"/>
-        <v>2449.105</v>
-      </c>
-      <c r="DO44" s="142">
-        <f t="shared" ref="DO44:DQ44" si="105">DO42+DO43</f>
-        <v>2449.105</v>
-      </c>
-      <c r="DP44" s="142">
+      <c r="DS44" s="142">
         <f t="shared" si="105"/>
         <v>2449.105</v>
       </c>
-      <c r="DQ44" s="142">
+      <c r="DT44" s="155">
         <f t="shared" si="105"/>
         <v>2449.105</v>
       </c>
-      <c r="DR44" s="142">
-        <f t="shared" ref="DR44:DV44" si="106">DR42+DR43</f>
+      <c r="DU44" s="155">
+        <f t="shared" si="105"/>
         <v>2449.105</v>
       </c>
-      <c r="DS44" s="142">
-        <f t="shared" si="106"/>
-        <v>2449.105</v>
-      </c>
-      <c r="DT44" s="155">
-        <f t="shared" si="106"/>
-        <v>2449.105</v>
-      </c>
-      <c r="DU44" s="155">
-        <f t="shared" si="106"/>
-        <v>2449.105</v>
-      </c>
       <c r="DV44" s="155">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>2449.105</v>
       </c>
       <c r="DW44" s="155"/>
@@ -38137,159 +38182,159 @@
         <v>642</v>
       </c>
       <c r="C45" s="82">
-        <f t="shared" ref="C45:R45" si="107">C39-C44</f>
+        <f t="shared" ref="C45:R45" si="106">C39-C44</f>
         <v>-73.317000000000007</v>
       </c>
       <c r="D45" s="82">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>-72.451000000000008</v>
       </c>
       <c r="E45" s="82">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>-77.655000000000001</v>
       </c>
       <c r="F45" s="82">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>-92.635999999999996</v>
       </c>
       <c r="G45" s="82">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>-88.731000000000009</v>
       </c>
       <c r="H45" s="82">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>-98.992000000000004</v>
       </c>
       <c r="I45" s="82">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>-95.263000000000005</v>
       </c>
       <c r="J45" s="82">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>-132.04399999999998</v>
       </c>
       <c r="K45" s="82" t="e">
+        <f t="shared" si="106"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L45" s="82" t="e">
+        <f t="shared" si="106"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M45" s="82" t="e">
+        <f t="shared" si="106"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N45" s="82" t="e">
+        <f t="shared" si="106"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O45" s="82" t="e">
+        <f t="shared" si="106"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P45" s="82" t="e">
+        <f t="shared" si="106"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q45" s="82" t="e">
+        <f t="shared" si="106"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R45" s="82" t="e">
+        <f t="shared" si="106"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S45" s="82" t="e">
+        <f t="shared" ref="S45:Z45" si="107">S41-S44</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T45" s="82" t="e">
         <f t="shared" si="107"/>
         <v>#REF!</v>
       </c>
-      <c r="L45" s="82" t="e">
+      <c r="U45" s="82" t="e">
         <f t="shared" si="107"/>
         <v>#REF!</v>
       </c>
-      <c r="M45" s="82" t="e">
+      <c r="V45" s="82" t="e">
         <f t="shared" si="107"/>
         <v>#REF!</v>
       </c>
-      <c r="N45" s="82" t="e">
+      <c r="W45" s="82" t="e">
         <f t="shared" si="107"/>
         <v>#REF!</v>
       </c>
-      <c r="O45" s="82" t="e">
+      <c r="X45" s="82" t="e">
         <f t="shared" si="107"/>
         <v>#REF!</v>
       </c>
-      <c r="P45" s="82" t="e">
+      <c r="Y45" s="82" t="e">
         <f t="shared" si="107"/>
         <v>#REF!</v>
       </c>
-      <c r="Q45" s="82" t="e">
+      <c r="Z45" s="82" t="e">
         <f t="shared" si="107"/>
         <v>#REF!</v>
       </c>
-      <c r="R45" s="82" t="e">
-        <f t="shared" si="107"/>
+      <c r="AA45" s="82" t="e">
+        <f t="shared" ref="AA45:AM45" si="108">AA41-AA44</f>
         <v>#REF!</v>
       </c>
-      <c r="S45" s="82" t="e">
-        <f t="shared" ref="S45:Z45" si="108">S41-S44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T45" s="82" t="e">
+      <c r="AB45" s="82" t="e">
         <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
-      <c r="U45" s="82" t="e">
+      <c r="AC45" s="82" t="e">
         <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
-      <c r="V45" s="82" t="e">
+      <c r="AD45" s="82" t="e">
         <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
-      <c r="W45" s="82" t="e">
+      <c r="AE45" s="82">
         <f t="shared" si="108"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X45" s="82" t="e">
+        <v>849.4000000000002</v>
+      </c>
+      <c r="AF45" s="82">
         <f t="shared" si="108"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y45" s="82" t="e">
+        <v>847.50099999999998</v>
+      </c>
+      <c r="AG45" s="82">
         <f t="shared" si="108"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z45" s="82" t="e">
+        <v>949.18900000000053</v>
+      </c>
+      <c r="AH45" s="82">
         <f t="shared" si="108"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA45" s="82" t="e">
-        <f t="shared" ref="AA45:AM45" si="109">AA41-AA44</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB45" s="82" t="e">
-        <f t="shared" si="109"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC45" s="82" t="e">
-        <f t="shared" si="109"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD45" s="82" t="e">
-        <f t="shared" si="109"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE45" s="82">
-        <f t="shared" si="109"/>
-        <v>849.4000000000002</v>
-      </c>
-      <c r="AF45" s="82">
-        <f t="shared" si="109"/>
-        <v>847.50099999999998</v>
-      </c>
-      <c r="AG45" s="82">
-        <f t="shared" si="109"/>
-        <v>949.18900000000053</v>
-      </c>
-      <c r="AH45" s="82">
-        <f t="shared" si="109"/>
         <v>1145.6509999999996</v>
       </c>
       <c r="AI45" s="82">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>-545.43499999999995</v>
       </c>
       <c r="AJ45" s="82">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>1060.7329999999997</v>
       </c>
       <c r="AK45" s="82">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>1053.8220000000001</v>
       </c>
       <c r="AL45" s="82">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>-882.375</v>
       </c>
       <c r="AM45" s="82">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>878.0540000000002</v>
       </c>
       <c r="AN45" s="82">
-        <f t="shared" ref="AN45" si="110">AN41-AN44</f>
+        <f t="shared" ref="AN45" si="109">AN41-AN44</f>
         <v>1016.7180000000001</v>
       </c>
       <c r="AO45" s="82">
-        <f t="shared" ref="AO45" si="111">AO41-AO44</f>
+        <f t="shared" ref="AO45" si="110">AO41-AO44</f>
         <v>1004.2000000000003</v>
       </c>
       <c r="AP45" s="82">
@@ -38297,35 +38342,35 @@
         <v>867.47599999999966</v>
       </c>
       <c r="AQ45" s="82">
-        <f t="shared" ref="AQ45:AX45" si="112">+AQ41-AQ44</f>
+        <f t="shared" ref="AQ45:AX45" si="111">+AQ41-AQ44</f>
         <v>800.18599999999958</v>
       </c>
       <c r="AR45" s="82">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>1059.0919999999996</v>
       </c>
       <c r="AS45" s="82">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>1043.9140000000002</v>
       </c>
       <c r="AT45" s="82">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>1106.9829999999999</v>
       </c>
       <c r="AU45" s="82">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>1025.2590000000005</v>
       </c>
       <c r="AV45" s="82">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>1242.5200000000004</v>
       </c>
       <c r="AW45" s="82">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>1258.6760000000002</v>
       </c>
       <c r="AX45" s="82">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>1359.9920000000002</v>
       </c>
       <c r="AY45" s="82">
@@ -38337,107 +38382,107 @@
         <v>4699.6160000000009</v>
       </c>
       <c r="BA45" s="82">
-        <f t="shared" ref="BA45:BE45" si="113">+BA41-BA44</f>
+        <f t="shared" ref="BA45:BE45" si="112">+BA41-BA44</f>
         <v>4194.9859999999999</v>
       </c>
       <c r="BB45" s="82">
+        <f t="shared" si="112"/>
+        <v>4769</v>
+      </c>
+      <c r="BC45" s="82">
+        <f t="shared" si="112"/>
+        <v>5669</v>
+      </c>
+      <c r="BD45" s="82">
+        <f t="shared" si="112"/>
+        <v>5993</v>
+      </c>
+      <c r="BE45" s="82">
+        <f t="shared" si="112"/>
+        <v>5585</v>
+      </c>
+      <c r="BF45" s="140">
+        <f t="shared" ref="BF45:BG45" si="113">BF41-BF44</f>
+        <v>5857</v>
+      </c>
+      <c r="BG45" s="140">
         <f t="shared" si="113"/>
-        <v>4769</v>
-      </c>
-      <c r="BC45" s="82">
-        <f t="shared" si="113"/>
-        <v>5669</v>
-      </c>
-      <c r="BD45" s="82">
-        <f t="shared" si="113"/>
-        <v>5993</v>
-      </c>
-      <c r="BE45" s="82">
-        <f t="shared" si="113"/>
-        <v>5585</v>
-      </c>
-      <c r="BF45" s="140">
-        <f t="shared" ref="BF45:BG45" si="114">BF41-BF44</f>
-        <v>5857</v>
-      </c>
-      <c r="BG45" s="140">
+        <v>5404</v>
+      </c>
+      <c r="BH45" s="140">
+        <f t="shared" ref="BH45:BI45" si="114">BH41-BH44</f>
+        <v>4538</v>
+      </c>
+      <c r="BI45" s="140">
         <f t="shared" si="114"/>
-        <v>5404</v>
-      </c>
-      <c r="BH45" s="140">
-        <f t="shared" ref="BH45:BJ45" si="115">BH41-BH44</f>
-        <v>4538</v>
-      </c>
-      <c r="BI45" s="140">
+        <v>4399</v>
+      </c>
+      <c r="BJ45" s="140">
+        <f t="shared" ref="BJ45:BM45" si="115">BJ41-BJ44</f>
+        <v>4563</v>
+      </c>
+      <c r="BK45" s="140">
         <f t="shared" si="115"/>
-        <v>4399</v>
-      </c>
-      <c r="BJ45" s="140">
-        <f t="shared" ref="BJ45:BM45" si="116">BJ41-BJ44</f>
-        <v>4563</v>
-      </c>
-      <c r="BK45" s="140">
-        <f t="shared" si="116"/>
         <v>4066</v>
       </c>
       <c r="BL45" s="140">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>4254</v>
       </c>
       <c r="BM45" s="140">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>3812</v>
       </c>
       <c r="BN45" s="140">
-        <f t="shared" ref="BN45" si="117">BN41-BN44</f>
+        <f t="shared" ref="BN45" si="116">BN41-BN44</f>
         <v>3215</v>
       </c>
       <c r="BO45" s="140">
-        <f t="shared" ref="BO45" si="118">BO41-BO44</f>
+        <f t="shared" ref="BO45" si="117">BO41-BO44</f>
         <v>2703</v>
       </c>
       <c r="BP45" s="140">
-        <f t="shared" ref="BP45:BQ45" si="119">BP41-BP44</f>
+        <f t="shared" ref="BP45:BQ45" si="118">BP41-BP44</f>
         <v>3012</v>
       </c>
       <c r="BQ45" s="140">
+        <f t="shared" si="118"/>
+        <v>2623</v>
+      </c>
+      <c r="BR45" s="140">
+        <f t="shared" ref="BR45:BT45" si="119">BR41-BR44</f>
+        <v>2567</v>
+      </c>
+      <c r="BS45" s="140">
         <f t="shared" si="119"/>
-        <v>2623</v>
-      </c>
-      <c r="BR45" s="140">
-        <f t="shared" ref="BR45:BT45" si="120">BR41-BR44</f>
-        <v>2567</v>
-      </c>
-      <c r="BS45" s="140">
+        <v>2645</v>
+      </c>
+      <c r="BT45" s="140">
+        <f t="shared" si="119"/>
+        <v>3040</v>
+      </c>
+      <c r="BU45" s="140">
+        <f t="shared" ref="BU45:BV45" si="120">BU41-BU44</f>
+        <v>-1473</v>
+      </c>
+      <c r="BV45" s="140">
         <f t="shared" si="120"/>
-        <v>2645</v>
-      </c>
-      <c r="BT45" s="140">
-        <f t="shared" si="120"/>
-        <v>3040</v>
-      </c>
-      <c r="BU45" s="140">
-        <f t="shared" ref="BU45:BV45" si="121">BU41-BU44</f>
-        <v>-1473</v>
-      </c>
-      <c r="BV45" s="140">
+        <v>2155</v>
+      </c>
+      <c r="BW45" s="140">
+        <f t="shared" ref="BW45:BX45" si="121">BW41-BW44</f>
+        <v>2765</v>
+      </c>
+      <c r="BX45" s="140">
         <f t="shared" si="121"/>
-        <v>2155</v>
-      </c>
-      <c r="BW45" s="140">
-        <f t="shared" ref="BW45:BX45" si="122">BW41-BW44</f>
-        <v>2765</v>
-      </c>
-      <c r="BX45" s="140">
-        <f t="shared" si="122"/>
         <v>1995</v>
       </c>
       <c r="BY45" s="140">
-        <f t="shared" ref="BY45" si="123">BY41-BY44</f>
+        <f t="shared" ref="BY45" si="122">BY41-BY44</f>
         <v>3452</v>
       </c>
       <c r="BZ45" s="140">
-        <f t="shared" ref="BZ45" si="124">BZ41-BZ44</f>
+        <f t="shared" ref="BZ45" si="123">BZ41-BZ44</f>
         <v>3492</v>
       </c>
       <c r="CA45" s="140">
@@ -38445,51 +38490,57 @@
         <v>3486</v>
       </c>
       <c r="CB45" s="140">
-        <f t="shared" ref="CB45:CE45" si="125">CB41-CB44</f>
+        <f t="shared" ref="CB45:CE45" si="124">CB41-CB44</f>
         <v>3218</v>
       </c>
       <c r="CC45" s="140">
+        <f t="shared" si="124"/>
+        <v>4444</v>
+      </c>
+      <c r="CD45" s="140">
+        <f t="shared" si="124"/>
+        <v>2175</v>
+      </c>
+      <c r="CE45" s="140">
+        <f t="shared" si="124"/>
+        <v>3523</v>
+      </c>
+      <c r="CF45" s="140">
+        <f t="shared" ref="CF45:CM45" si="125">CF41-CF44</f>
+        <v>3001</v>
+      </c>
+      <c r="CG45" s="140">
         <f t="shared" si="125"/>
-        <v>4444</v>
-      </c>
-      <c r="CD45" s="140">
+        <v>3734</v>
+      </c>
+      <c r="CH45" s="140">
         <f t="shared" si="125"/>
-        <v>2175</v>
-      </c>
-      <c r="CE45" s="140">
+        <v>2857</v>
+      </c>
+      <c r="CI45" s="140">
         <f t="shared" si="125"/>
-        <v>3523</v>
-      </c>
-      <c r="CF45" s="140">
-        <f t="shared" ref="CF45:CL45" si="126">CF41-CF44</f>
-        <v>3001</v>
-      </c>
-      <c r="CG45" s="140">
-        <f t="shared" si="126"/>
-        <v>3734</v>
-      </c>
-      <c r="CH45" s="140">
-        <f t="shared" si="126"/>
-        <v>2857</v>
-      </c>
-      <c r="CI45" s="140">
-        <f t="shared" si="126"/>
         <v>2724</v>
       </c>
       <c r="CJ45" s="140">
-        <f t="shared" si="126"/>
-        <v>3206.25</v>
+        <f t="shared" si="125"/>
+        <v>-2374</v>
       </c>
       <c r="CK45" s="140">
-        <f t="shared" si="126"/>
-        <v>3561.5999999999995</v>
+        <f t="shared" si="125"/>
+        <v>-2385</v>
       </c>
       <c r="CL45" s="140">
-        <f t="shared" si="126"/>
-        <v>2446.3499999999995</v>
-      </c>
-      <c r="CM45" s="140"/>
-      <c r="CN45" s="140"/>
+        <f t="shared" si="125"/>
+        <v>-3564</v>
+      </c>
+      <c r="CM45" s="140">
+        <f t="shared" si="125"/>
+        <v>3015</v>
+      </c>
+      <c r="CN45" s="140">
+        <f>+CN41-CN44</f>
+        <v>3303</v>
+      </c>
       <c r="CO45" s="140"/>
       <c r="CP45" s="140"/>
       <c r="CQ45" s="140"/>
@@ -38498,35 +38549,35 @@
       <c r="CT45" s="140"/>
       <c r="CU45" s="79"/>
       <c r="CV45" s="79">
-        <f t="shared" ref="CV45:DC45" si="127">CV41-CV44</f>
+        <f t="shared" ref="CV45:DC45" si="126">CV41-CV44</f>
         <v>-210.292</v>
       </c>
       <c r="CW45" s="79">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>-214.36099999999999</v>
       </c>
       <c r="CX45" s="79">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>-310.69400000000002</v>
       </c>
       <c r="CY45" s="79">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>-316.05899999999997</v>
       </c>
       <c r="CZ45" s="79">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>-415.03</v>
       </c>
       <c r="DA45" s="79">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>-526.34500000000037</v>
       </c>
       <c r="DB45" s="17">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>-656.91200000000003</v>
       </c>
       <c r="DC45" s="82">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>-834.56500000000005</v>
       </c>
       <c r="DD45" s="82">
@@ -38546,63 +38597,63 @@
         <v>686.74499999999989</v>
       </c>
       <c r="DH45" s="82">
-        <f t="shared" ref="DH45" si="128">DH41-DH44</f>
+        <f t="shared" ref="DH45" si="127">DH41-DH44</f>
         <v>3766.4480000000012</v>
       </c>
       <c r="DI45" s="82">
-        <f t="shared" ref="DI45:DN45" si="129">DI41-DI44</f>
+        <f t="shared" ref="DI45:DN45" si="128">DI41-DI44</f>
         <v>4010.1750000000011</v>
       </c>
       <c r="DJ45" s="82">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>4886.4469999999983</v>
       </c>
       <c r="DK45" s="82">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>17581.859799999998</v>
       </c>
       <c r="DL45" s="82">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>21700.660200000006</v>
       </c>
       <c r="DM45" s="82">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>23097.445651600003</v>
       </c>
       <c r="DN45" s="140">
+        <f t="shared" si="128"/>
+        <v>-2449.105</v>
+      </c>
+      <c r="DO45" s="140">
+        <f t="shared" ref="DO45:DQ45" si="129">DO41-DO44</f>
+        <v>-2449.105</v>
+      </c>
+      <c r="DP45" s="140">
         <f t="shared" si="129"/>
         <v>-2449.105</v>
       </c>
-      <c r="DO45" s="140">
-        <f t="shared" ref="DO45:DQ45" si="130">DO41-DO44</f>
-        <v>-2449.105</v>
-      </c>
-      <c r="DP45" s="140">
+      <c r="DQ45" s="140">
+        <f t="shared" si="129"/>
+        <v>6413.375</v>
+      </c>
+      <c r="DR45" s="140">
+        <f t="shared" ref="DR45:DV45" si="130">DR41-DR44</f>
+        <v>8112.6550000000007</v>
+      </c>
+      <c r="DS45" s="140">
         <f t="shared" si="130"/>
-        <v>-2449.105</v>
-      </c>
-      <c r="DQ45" s="140">
+        <v>6892.9750000000004</v>
+      </c>
+      <c r="DT45" s="79">
         <f t="shared" si="130"/>
-        <v>6413.375</v>
-      </c>
-      <c r="DR45" s="140">
-        <f t="shared" ref="DR45:DV45" si="131">DR41-DR44</f>
-        <v>8112.6550000000007</v>
-      </c>
-      <c r="DS45" s="140">
-        <f t="shared" si="131"/>
-        <v>6892.9750000000004</v>
-      </c>
-      <c r="DT45" s="79">
-        <f t="shared" si="131"/>
         <v>5654.8150000000005</v>
       </c>
       <c r="DU45" s="79">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-1486.825</v>
       </c>
       <c r="DV45" s="79">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>-1583.0529999999999</v>
       </c>
       <c r="DW45" s="79"/>
@@ -38805,7 +38856,7 @@
         <v>-105.649</v>
       </c>
       <c r="BA46" s="82">
-        <f t="shared" ref="BA46" si="132">-73.15-11.108</f>
+        <f t="shared" ref="BA46" si="131">-73.15-11.108</f>
         <v>-84.25800000000001</v>
       </c>
       <c r="BB46" s="82">
@@ -38947,8 +38998,14 @@
       <c r="CJ46" s="140"/>
       <c r="CK46" s="140"/>
       <c r="CL46" s="140"/>
-      <c r="CM46" s="140"/>
-      <c r="CN46" s="140"/>
+      <c r="CM46" s="140">
+        <f>-254+104</f>
+        <v>-150</v>
+      </c>
+      <c r="CN46" s="140">
+        <f>-237+37</f>
+        <v>-200</v>
+      </c>
       <c r="CO46" s="140"/>
       <c r="CP46" s="140"/>
       <c r="CQ46" s="140"/>
@@ -38997,7 +39054,7 @@
       </c>
       <c r="DH46" s="82"/>
       <c r="DI46" s="93">
-        <f t="shared" ref="DI46:DI48" si="133">SUM(AQ46:AT46)</f>
+        <f t="shared" ref="DI46:DI48" si="132">SUM(AQ46:AT46)</f>
         <v>-400.96699999999998</v>
       </c>
       <c r="DJ46" s="83">
@@ -39009,47 +39066,47 @@
         <v>-384.08800000000002</v>
       </c>
       <c r="DL46" s="82">
-        <f t="shared" ref="DL46:DV46" si="134">+DK61*$EA$55</f>
+        <f t="shared" ref="DL46:DV46" si="133">+DK61*$EA$55</f>
         <v>35.42907000000001</v>
       </c>
       <c r="DM46" s="82">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>117.48280699425003</v>
       </c>
       <c r="DN46" s="140">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>205.11916192544334</v>
       </c>
       <c r="DO46" s="140">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>196.64811538671188</v>
       </c>
       <c r="DP46" s="140">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>188.14509064729671</v>
       </c>
       <c r="DQ46" s="140">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>179.60996698949023</v>
       </c>
       <c r="DR46" s="140">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>204.49848523987555</v>
       </c>
       <c r="DS46" s="140">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>235.89573964665607</v>
       </c>
       <c r="DT46" s="79">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>262.8072266888222</v>
       </c>
       <c r="DU46" s="79">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>285.14625059457251</v>
       </c>
       <c r="DV46" s="79">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>280.60991331556698</v>
       </c>
       <c r="DW46" s="79"/>
@@ -39068,59 +39125,59 @@
         <v>26</v>
       </c>
       <c r="C47" s="82">
-        <f t="shared" ref="C47:V47" si="135">SUM(C45:C46)</f>
+        <f t="shared" ref="C47:V47" si="134">SUM(C45:C46)</f>
         <v>-71.188000000000002</v>
       </c>
       <c r="D47" s="82">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-71.296000000000006</v>
       </c>
       <c r="E47" s="82">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-76.216999999999999</v>
       </c>
       <c r="F47" s="82">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-88.92</v>
       </c>
       <c r="G47" s="82">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-90.528000000000006</v>
       </c>
       <c r="H47" s="82">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-101.117</v>
       </c>
       <c r="I47" s="82">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-97.484999999999999</v>
       </c>
       <c r="J47" s="82">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-134.75799999999998</v>
       </c>
       <c r="K47" s="82" t="e">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>#REF!</v>
       </c>
       <c r="L47" s="82" t="e">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>#REF!</v>
       </c>
       <c r="M47" s="82" t="e">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>#REF!</v>
       </c>
       <c r="N47" s="82" t="e">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>#REF!</v>
       </c>
       <c r="O47" s="82" t="e">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>#REF!</v>
       </c>
       <c r="P47" s="82" t="e">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>#REF!</v>
       </c>
       <c r="Q47" s="82" t="e">
@@ -39132,87 +39189,87 @@
         <v>#REF!</v>
       </c>
       <c r="S47" s="82" t="e">
+        <f t="shared" si="134"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T47" s="82" t="e">
+        <f t="shared" si="134"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U47" s="82" t="e">
+        <f t="shared" si="134"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V47" s="82" t="e">
+        <f t="shared" si="134"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W47" s="82" t="e">
+        <f t="shared" ref="W47:AB47" si="135">SUM(W45:W46)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X47" s="82" t="e">
         <f t="shared" si="135"/>
         <v>#REF!</v>
       </c>
-      <c r="T47" s="82" t="e">
+      <c r="Y47" s="82" t="e">
         <f t="shared" si="135"/>
         <v>#REF!</v>
       </c>
-      <c r="U47" s="82" t="e">
+      <c r="Z47" s="82" t="e">
         <f t="shared" si="135"/>
         <v>#REF!</v>
       </c>
-      <c r="V47" s="82" t="e">
+      <c r="AA47" s="82" t="e">
         <f t="shared" si="135"/>
         <v>#REF!</v>
       </c>
-      <c r="W47" s="82" t="e">
-        <f t="shared" ref="W47:AB47" si="136">SUM(W45:W46)</f>
+      <c r="AB47" s="82" t="e">
+        <f t="shared" si="135"/>
         <v>#REF!</v>
       </c>
-      <c r="X47" s="82" t="e">
+      <c r="AC47" s="82" t="e">
+        <f t="shared" ref="AC47:AM47" si="136">SUM(AC45:AC46)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AD47" s="82" t="e">
         <f t="shared" si="136"/>
         <v>#REF!</v>
       </c>
-      <c r="Y47" s="82" t="e">
+      <c r="AE47" s="82">
         <f t="shared" si="136"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z47" s="82" t="e">
+        <v>836.88800000000015</v>
+      </c>
+      <c r="AF47" s="82">
         <f t="shared" si="136"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA47" s="82" t="e">
+        <v>841.93999999999994</v>
+      </c>
+      <c r="AG47" s="82">
         <f t="shared" si="136"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB47" s="82" t="e">
+        <v>945.98900000000049</v>
+      </c>
+      <c r="AH47" s="82">
         <f t="shared" si="136"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC47" s="82" t="e">
-        <f t="shared" ref="AC47:AM47" si="137">SUM(AC45:AC46)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD47" s="82" t="e">
-        <f t="shared" si="137"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE47" s="82">
-        <f t="shared" si="137"/>
-        <v>836.88800000000015</v>
-      </c>
-      <c r="AF47" s="82">
-        <f t="shared" si="137"/>
-        <v>841.93999999999994</v>
-      </c>
-      <c r="AG47" s="82">
-        <f t="shared" si="137"/>
-        <v>945.98900000000049</v>
-      </c>
-      <c r="AH47" s="82">
-        <f t="shared" si="137"/>
         <v>1139.6599999999996</v>
       </c>
       <c r="AI47" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>-546.74499999999989</v>
       </c>
       <c r="AJ47" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>1061.2539999999997</v>
       </c>
       <c r="AK47" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>1035.7950000000001</v>
       </c>
       <c r="AL47" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>-912.23299999999995</v>
       </c>
       <c r="AM47" s="82">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>850.67000000000019</v>
       </c>
       <c r="AN47" s="82">
@@ -39240,23 +39297,23 @@
         <v>951.08700000000022</v>
       </c>
       <c r="AT47" s="82">
-        <f t="shared" ref="AT47:AX47" si="138">+AT46+AT45</f>
+        <f t="shared" ref="AT47:AX47" si="137">+AT46+AT45</f>
         <v>1019.6909999999999</v>
       </c>
       <c r="AU47" s="82">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>940.14800000000048</v>
       </c>
       <c r="AV47" s="82">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>1164.2810000000004</v>
       </c>
       <c r="AW47" s="82">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>1178.9500000000003</v>
       </c>
       <c r="AX47" s="82">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>1275.7340000000002</v>
       </c>
       <c r="AY47" s="82">
@@ -39268,123 +39325,123 @@
         <v>4593.9670000000006</v>
       </c>
       <c r="BA47" s="82">
-        <f t="shared" ref="BA47:BE47" si="139">+BA46+BA45</f>
+        <f t="shared" ref="BA47:BE47" si="138">+BA46+BA45</f>
         <v>4110.7280000000001</v>
       </c>
       <c r="BB47" s="82">
+        <f t="shared" si="138"/>
+        <v>4669</v>
+      </c>
+      <c r="BC47" s="82">
+        <f t="shared" si="138"/>
+        <v>5537</v>
+      </c>
+      <c r="BD47" s="82">
+        <f t="shared" si="138"/>
+        <v>5888</v>
+      </c>
+      <c r="BE47" s="82">
+        <f t="shared" si="138"/>
+        <v>5472</v>
+      </c>
+      <c r="BF47" s="140">
+        <f t="shared" ref="BF47:BG47" si="139">BF45+BF46</f>
+        <v>5673</v>
+      </c>
+      <c r="BG47" s="140">
         <f t="shared" si="139"/>
-        <v>4669</v>
-      </c>
-      <c r="BC47" s="82">
-        <f t="shared" si="139"/>
-        <v>5537</v>
-      </c>
-      <c r="BD47" s="82">
-        <f t="shared" si="139"/>
-        <v>5888</v>
-      </c>
-      <c r="BE47" s="82">
-        <f t="shared" si="139"/>
-        <v>5472</v>
-      </c>
-      <c r="BF47" s="140">
-        <f t="shared" ref="BF47:BG47" si="140">BF45+BF46</f>
-        <v>5673</v>
-      </c>
-      <c r="BG47" s="140">
+        <v>5255</v>
+      </c>
+      <c r="BH47" s="140">
+        <f t="shared" ref="BH47:BM47" si="140">BH45+BH46</f>
+        <v>4399</v>
+      </c>
+      <c r="BI47" s="140">
         <f t="shared" si="140"/>
-        <v>5255</v>
-      </c>
-      <c r="BH47" s="140">
-        <f t="shared" ref="BH47:BM47" si="141">BH45+BH46</f>
-        <v>4399</v>
-      </c>
-      <c r="BI47" s="140">
+        <v>4276</v>
+      </c>
+      <c r="BJ47" s="140">
+        <f t="shared" si="140"/>
+        <v>4438</v>
+      </c>
+      <c r="BK47" s="140">
+        <f t="shared" si="140"/>
+        <v>3916</v>
+      </c>
+      <c r="BL47" s="140">
+        <f t="shared" si="140"/>
+        <v>4115</v>
+      </c>
+      <c r="BM47" s="140">
+        <f t="shared" si="140"/>
+        <v>3671</v>
+      </c>
+      <c r="BN47" s="140">
+        <f t="shared" ref="BN47:BO47" si="141">BN45+BN46</f>
+        <v>3050</v>
+      </c>
+      <c r="BO47" s="140">
         <f t="shared" si="141"/>
-        <v>4276</v>
-      </c>
-      <c r="BJ47" s="140">
-        <f t="shared" si="141"/>
-        <v>4438</v>
-      </c>
-      <c r="BK47" s="140">
-        <f t="shared" si="141"/>
-        <v>3916</v>
-      </c>
-      <c r="BL47" s="140">
-        <f t="shared" si="141"/>
-        <v>4115</v>
-      </c>
-      <c r="BM47" s="140">
-        <f t="shared" si="141"/>
-        <v>3671</v>
-      </c>
-      <c r="BN47" s="140">
-        <f t="shared" ref="BN47:BO47" si="142">BN45+BN46</f>
-        <v>3050</v>
-      </c>
-      <c r="BO47" s="140">
+        <v>2538</v>
+      </c>
+      <c r="BP47" s="140">
+        <f t="shared" ref="BP47:BQ47" si="142">BP45+BP46</f>
+        <v>2882</v>
+      </c>
+      <c r="BQ47" s="140">
         <f t="shared" si="142"/>
-        <v>2538</v>
-      </c>
-      <c r="BP47" s="140">
-        <f t="shared" ref="BP47:BQ47" si="143">BP45+BP46</f>
-        <v>2882</v>
-      </c>
-      <c r="BQ47" s="140">
+        <v>2664</v>
+      </c>
+      <c r="BR47" s="140">
+        <f t="shared" ref="BR47:BT47" si="143">BR45+BR46</f>
+        <v>2473</v>
+      </c>
+      <c r="BS47" s="140">
         <f t="shared" si="143"/>
-        <v>2664</v>
-      </c>
-      <c r="BR47" s="140">
-        <f t="shared" ref="BR47:BT47" si="144">BR45+BR46</f>
-        <v>2473</v>
-      </c>
-      <c r="BS47" s="140">
+        <v>2561</v>
+      </c>
+      <c r="BT47" s="140">
+        <f t="shared" si="143"/>
+        <v>2963</v>
+      </c>
+      <c r="BU47" s="140">
+        <f t="shared" ref="BU47:BV47" si="144">BU45+BU46</f>
+        <v>-1501</v>
+      </c>
+      <c r="BV47" s="140">
         <f t="shared" si="144"/>
-        <v>2561</v>
-      </c>
-      <c r="BT47" s="140">
-        <f t="shared" si="144"/>
-        <v>2963</v>
-      </c>
-      <c r="BU47" s="140">
-        <f t="shared" ref="BU47:BV47" si="145">BU45+BU46</f>
-        <v>-1501</v>
-      </c>
-      <c r="BV47" s="140">
+        <v>2034</v>
+      </c>
+      <c r="BW47" s="140">
+        <f t="shared" ref="BW47:BX47" si="145">BW45+BW46</f>
+        <v>2649</v>
+      </c>
+      <c r="BX47" s="140">
         <f t="shared" si="145"/>
-        <v>2034</v>
-      </c>
-      <c r="BW47" s="140">
-        <f t="shared" ref="BW47:BX47" si="146">BW45+BW46</f>
-        <v>2649</v>
-      </c>
-      <c r="BX47" s="140">
-        <f t="shared" si="146"/>
         <v>2005</v>
       </c>
       <c r="BY47" s="140">
-        <f t="shared" ref="BY47" si="147">BY45+BY46</f>
+        <f t="shared" ref="BY47" si="146">BY45+BY46</f>
         <v>3259</v>
       </c>
       <c r="BZ47" s="140">
-        <f t="shared" ref="BZ47:CD47" si="148">BZ45+BZ46</f>
+        <f t="shared" ref="BZ47:CD47" si="147">BZ45+BZ46</f>
         <v>3271</v>
       </c>
       <c r="CA47" s="140">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>2860</v>
       </c>
       <c r="CB47" s="140">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>2789</v>
       </c>
       <c r="CC47" s="140">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>4194</v>
       </c>
       <c r="CD47" s="140">
-        <f t="shared" si="148"/>
+        <f t="shared" si="147"/>
         <v>1994</v>
       </c>
       <c r="CE47" s="140">
@@ -39396,31 +39453,37 @@
         <v>2778</v>
       </c>
       <c r="CG47" s="140">
-        <f t="shared" ref="CG47:CL47" si="149">CG45+CG46</f>
+        <f t="shared" ref="CG47:CM47" si="148">CG45+CG46</f>
         <v>3329</v>
       </c>
       <c r="CH47" s="140">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>2621</v>
       </c>
       <c r="CI47" s="140">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>2320</v>
       </c>
       <c r="CJ47" s="140">
-        <f t="shared" si="149"/>
-        <v>3206.25</v>
+        <f t="shared" si="148"/>
+        <v>-2374</v>
       </c>
       <c r="CK47" s="140">
-        <f t="shared" si="149"/>
-        <v>3561.5999999999995</v>
+        <f t="shared" si="148"/>
+        <v>-2385</v>
       </c>
       <c r="CL47" s="140">
-        <f t="shared" si="149"/>
-        <v>2446.3499999999995</v>
-      </c>
-      <c r="CM47" s="140"/>
-      <c r="CN47" s="140"/>
+        <f t="shared" si="148"/>
+        <v>-3564</v>
+      </c>
+      <c r="CM47" s="140">
+        <f t="shared" si="148"/>
+        <v>2865</v>
+      </c>
+      <c r="CN47" s="140">
+        <f>+CN45+CN46</f>
+        <v>3103</v>
+      </c>
       <c r="CO47" s="140"/>
       <c r="CP47" s="140"/>
       <c r="CQ47" s="140"/>
@@ -39429,31 +39492,31 @@
       <c r="CT47" s="140"/>
       <c r="CU47" s="79"/>
       <c r="CV47" s="79">
-        <f t="shared" ref="CV47:DB47" si="150">SUM(CV45:CV46)</f>
+        <f t="shared" ref="CV47:DB47" si="149">SUM(CV45:CV46)</f>
         <v>-200.375</v>
       </c>
       <c r="CW47" s="79">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-201.09199999999998</v>
       </c>
       <c r="CX47" s="79">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-299.08300000000003</v>
       </c>
       <c r="CY47" s="79">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-307.62099999999998</v>
       </c>
       <c r="CZ47" s="79">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-423.88799999999998</v>
       </c>
       <c r="DA47" s="79">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-514.75000000000034</v>
       </c>
       <c r="DB47" s="17">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>-610.19460000000004</v>
       </c>
       <c r="DC47" s="82">
@@ -39461,7 +39524,7 @@
         <v>-754.62412138582215</v>
       </c>
       <c r="DD47" s="82">
-        <f t="shared" ref="DD47:DI47" si="151">SUM(DD45:DD46)</f>
+        <f t="shared" ref="DD47:DI47" si="150">SUM(DD45:DD46)</f>
         <v>-1061.099093109437</v>
       </c>
       <c r="DE47" s="82">
@@ -39477,11 +39540,11 @@
         <v>638.07099999999991</v>
       </c>
       <c r="DH47" s="82">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>3766.4480000000012</v>
       </c>
       <c r="DI47" s="82">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>3609.208000000001</v>
       </c>
       <c r="DJ47" s="82">
@@ -39505,35 +39568,35 @@
         <v>-2243.9858380745568</v>
       </c>
       <c r="DO47" s="140">
-        <f t="shared" ref="DO47:DV47" si="152">SUM(DO45:DO46)</f>
+        <f t="shared" ref="DO47:DV47" si="151">SUM(DO45:DO46)</f>
         <v>-2252.4568846132879</v>
       </c>
       <c r="DP47" s="140">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>-2260.9599093527031</v>
       </c>
       <c r="DQ47" s="140">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>6592.9849669894902</v>
       </c>
       <c r="DR47" s="140">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>8317.1534852398763</v>
       </c>
       <c r="DS47" s="140">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>7128.8707396466561</v>
       </c>
       <c r="DT47" s="79">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>5917.6222266888226</v>
       </c>
       <c r="DU47" s="79">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>-1201.6787494054274</v>
       </c>
       <c r="DV47" s="79">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
         <v>-1302.443086684433</v>
       </c>
       <c r="DW47" s="79"/>
@@ -39717,7 +39780,7 @@
         <v>651.51300000000003</v>
       </c>
       <c r="BA48" s="82">
-        <f t="shared" ref="BA48:BB48" si="153">+BA47*0.25</f>
+        <f t="shared" ref="BA48" si="152">+BA47*0.25</f>
         <v>1027.682</v>
       </c>
       <c r="BB48" s="82">
@@ -39842,20 +39905,15 @@
         <f>316-26</f>
         <v>290</v>
       </c>
-      <c r="CJ48" s="140">
-        <f t="shared" ref="CJ48:CL48" si="154">+CJ47*0.2</f>
-        <v>641.25</v>
-      </c>
-      <c r="CK48" s="140">
-        <f t="shared" si="154"/>
-        <v>712.31999999999994</v>
-      </c>
-      <c r="CL48" s="140">
-        <f t="shared" si="154"/>
-        <v>489.26999999999992</v>
-      </c>
-      <c r="CM48" s="140"/>
-      <c r="CN48" s="140"/>
+      <c r="CJ48" s="140"/>
+      <c r="CK48" s="140"/>
+      <c r="CL48" s="140"/>
+      <c r="CM48" s="140">
+        <v>379</v>
+      </c>
+      <c r="CN48" s="140">
+        <v>438</v>
+      </c>
       <c r="CO48" s="140"/>
       <c r="CP48" s="140"/>
       <c r="CQ48" s="140"/>
@@ -39905,11 +39963,11 @@
         <v>-1077</v>
       </c>
       <c r="DH48" s="82">
-        <f t="shared" ref="DH48" si="155">DH47*DH54</f>
+        <f t="shared" ref="DH48" si="153">DH47*DH54</f>
         <v>979.27648000000033</v>
       </c>
       <c r="DI48" s="93">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>1030.329</v>
       </c>
       <c r="DJ48" s="83">
@@ -39921,47 +39979,47 @@
         <v>3148.0770000000002</v>
       </c>
       <c r="DL48" s="82">
-        <f t="shared" ref="DL48:DV48" si="156">+DL47*0.245</f>
+        <f t="shared" ref="DL48:DV48" si="154">+DL47*0.245</f>
         <v>5325.3418711500008</v>
       </c>
       <c r="DM48" s="82">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>5687.6574723555914</v>
       </c>
       <c r="DN48" s="140">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>-549.7765303282664</v>
       </c>
       <c r="DO48" s="140">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>-551.85193673025549</v>
       </c>
       <c r="DP48" s="140">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>-553.93517779141223</v>
       </c>
       <c r="DQ48" s="140">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>1615.2813169124252</v>
       </c>
       <c r="DR48" s="140">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>2037.7026038837696</v>
       </c>
       <c r="DS48" s="140">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>1746.5733312134307</v>
       </c>
       <c r="DT48" s="79">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>1449.8174455387616</v>
       </c>
       <c r="DU48" s="79">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>-294.41129360432973</v>
       </c>
       <c r="DV48" s="79">
-        <f t="shared" si="156"/>
+        <f t="shared" si="154"/>
         <v>-319.09855623768607</v>
       </c>
       <c r="DW48" s="79"/>
@@ -39984,155 +40042,155 @@
         <v>-70.224000000000004</v>
       </c>
       <c r="D49" s="83">
-        <f t="shared" ref="D49:V49" si="157">D47-D48</f>
+        <f t="shared" ref="D49:V49" si="155">D47-D48</f>
         <v>-71.934000000000012</v>
       </c>
       <c r="E49" s="83">
-        <f t="shared" si="157"/>
+        <f t="shared" si="155"/>
         <v>-76.766999999999996</v>
       </c>
       <c r="F49" s="83">
-        <f t="shared" si="157"/>
+        <f t="shared" si="155"/>
         <v>-89.995999999999995</v>
       </c>
       <c r="G49" s="83">
-        <f t="shared" si="157"/>
+        <f t="shared" si="155"/>
         <v>-93.188000000000002</v>
       </c>
       <c r="H49" s="83">
-        <f t="shared" si="157"/>
+        <f t="shared" si="155"/>
         <v>-106.39200000000001</v>
       </c>
       <c r="I49" s="83">
-        <f t="shared" si="157"/>
+        <f t="shared" si="155"/>
         <v>-101.34</v>
       </c>
       <c r="J49" s="83">
-        <f t="shared" si="157"/>
+        <f t="shared" si="155"/>
         <v>-27.437999999999988</v>
       </c>
       <c r="K49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V49" s="83" t="e">
+        <f t="shared" si="155"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W49" s="83" t="e">
+        <f t="shared" ref="W49:AB49" si="156">W47-W48</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X49" s="83" t="e">
+        <f t="shared" si="156"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y49" s="83" t="e">
+        <f t="shared" si="156"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z49" s="83" t="e">
+        <f t="shared" si="156"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA49" s="83" t="e">
+        <f t="shared" si="156"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AB49" s="83" t="e">
+        <f t="shared" si="156"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AC49" s="83" t="e">
+        <f t="shared" ref="AC49:AD49" si="157">AC47-AC48</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AD49" s="83" t="e">
         <f t="shared" si="157"/>
         <v>#REF!</v>
       </c>
-      <c r="L49" s="83" t="e">
-        <f t="shared" si="157"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M49" s="83" t="e">
-        <f t="shared" si="157"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N49" s="83" t="e">
-        <f t="shared" si="157"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O49" s="83" t="e">
-        <f t="shared" si="157"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P49" s="83" t="e">
-        <f t="shared" si="157"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q49" s="83" t="e">
-        <f t="shared" si="157"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R49" s="83" t="e">
-        <f t="shared" si="157"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S49" s="83" t="e">
-        <f t="shared" si="157"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T49" s="83" t="e">
-        <f t="shared" si="157"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U49" s="83" t="e">
-        <f t="shared" si="157"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V49" s="83" t="e">
-        <f t="shared" si="157"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W49" s="83" t="e">
-        <f t="shared" ref="W49:AB49" si="158">W47-W48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X49" s="83" t="e">
+      <c r="AE49" s="108">
+        <f t="shared" ref="AE49:AO49" si="158">AE47+AE48</f>
+        <v>619.88800000000015</v>
+      </c>
+      <c r="AF49" s="108">
         <f t="shared" si="158"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y49" s="83" t="e">
+        <v>645.93999999999994</v>
+      </c>
+      <c r="AG49" s="108">
         <f t="shared" si="158"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z49" s="83" t="e">
+        <v>727.98900000000049</v>
+      </c>
+      <c r="AH49" s="108">
         <f t="shared" si="158"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA49" s="83" t="e">
+        <v>863.65999999999963</v>
+      </c>
+      <c r="AI49" s="108">
         <f t="shared" si="158"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB49" s="83" t="e">
+        <v>-873.74499999999989</v>
+      </c>
+      <c r="AJ49" s="108">
         <f t="shared" si="158"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC49" s="83" t="e">
-        <f t="shared" ref="AC49:AD49" si="159">AC47-AC48</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD49" s="83" t="e">
-        <f t="shared" si="159"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE49" s="108">
-        <f t="shared" ref="AE49:AO49" si="160">AE47+AE48</f>
-        <v>619.88800000000015</v>
-      </c>
-      <c r="AF49" s="108">
-        <f t="shared" si="160"/>
-        <v>645.93999999999994</v>
-      </c>
-      <c r="AG49" s="108">
-        <f t="shared" si="160"/>
-        <v>727.98900000000049</v>
-      </c>
-      <c r="AH49" s="108">
-        <f t="shared" si="160"/>
-        <v>863.65999999999963</v>
-      </c>
-      <c r="AI49" s="108">
-        <f t="shared" si="160"/>
-        <v>-873.74499999999989</v>
-      </c>
-      <c r="AJ49" s="108">
-        <f t="shared" si="160"/>
         <v>760.25399999999968</v>
       </c>
       <c r="AK49" s="108">
-        <f t="shared" si="160"/>
+        <f t="shared" si="158"/>
         <v>759.79500000000007</v>
       </c>
       <c r="AL49" s="108">
-        <f t="shared" si="160"/>
+        <f t="shared" si="158"/>
         <v>-1085.2329999999999</v>
       </c>
       <c r="AM49" s="108">
-        <f t="shared" si="160"/>
+        <f t="shared" si="158"/>
         <v>623.67000000000019</v>
       </c>
       <c r="AN49" s="108">
-        <f t="shared" si="160"/>
+        <f t="shared" si="158"/>
         <v>1222.7190000000001</v>
       </c>
       <c r="AO49" s="108">
-        <f t="shared" si="160"/>
+        <f t="shared" si="158"/>
         <v>738.10000000000025</v>
       </c>
       <c r="AP49" s="108">
@@ -40140,35 +40198,35 @@
         <v>661.75899999999956</v>
       </c>
       <c r="AQ49" s="108">
-        <f t="shared" ref="AQ49:AX49" si="161">+AQ47-AQ48</f>
+        <f t="shared" ref="AQ49:AX49" si="159">+AQ47-AQ48</f>
         <v>437.53099999999955</v>
       </c>
       <c r="AR49" s="108">
-        <f t="shared" si="161"/>
+        <f t="shared" si="159"/>
         <v>706.07399999999961</v>
       </c>
       <c r="AS49" s="108">
-        <f t="shared" si="161"/>
+        <f t="shared" si="159"/>
         <v>675.50500000000022</v>
       </c>
       <c r="AT49" s="108">
-        <f t="shared" si="161"/>
+        <f t="shared" si="159"/>
         <v>759.76899999999989</v>
       </c>
       <c r="AU49" s="108">
-        <f t="shared" si="161"/>
+        <f t="shared" si="159"/>
         <v>717.71000000000049</v>
       </c>
       <c r="AV49" s="108">
-        <f t="shared" si="161"/>
+        <f t="shared" si="159"/>
         <v>861.28700000000049</v>
       </c>
       <c r="AW49" s="108">
-        <f t="shared" si="161"/>
+        <f t="shared" si="159"/>
         <v>887.86700000000019</v>
       </c>
       <c r="AX49" s="108">
-        <f t="shared" si="161"/>
+        <f t="shared" si="159"/>
         <v>949.69300000000021</v>
       </c>
       <c r="AY49" s="108">
@@ -40180,15 +40238,15 @@
         <v>3942.4540000000006</v>
       </c>
       <c r="BA49" s="108">
-        <f t="shared" ref="BA49:BC49" si="162">+BA47-BA48</f>
+        <f t="shared" ref="BA49:BC49" si="160">+BA47-BA48</f>
         <v>3083.0460000000003</v>
       </c>
       <c r="BB49" s="108">
-        <f t="shared" si="162"/>
+        <f t="shared" si="160"/>
         <v>3926</v>
       </c>
       <c r="BC49" s="108">
-        <f t="shared" si="162"/>
+        <f t="shared" si="160"/>
         <v>4630</v>
       </c>
       <c r="BD49" s="108">
@@ -40200,47 +40258,47 @@
         <v>4600</v>
       </c>
       <c r="BF49" s="142">
-        <f t="shared" ref="BF49:BG49" si="163">BF47-BF48</f>
+        <f t="shared" ref="BF49:BG49" si="161">BF47-BF48</f>
         <v>4919</v>
       </c>
       <c r="BG49" s="142">
+        <f t="shared" si="161"/>
+        <v>4319</v>
+      </c>
+      <c r="BH49" s="142">
+        <f t="shared" ref="BH49:BM49" si="162">BH47-BH48</f>
+        <v>3497</v>
+      </c>
+      <c r="BI49" s="142">
+        <f t="shared" si="162"/>
+        <v>3325</v>
+      </c>
+      <c r="BJ49" s="142">
+        <f t="shared" si="162"/>
+        <v>3608</v>
+      </c>
+      <c r="BK49" s="142">
+        <f t="shared" si="162"/>
+        <v>3001</v>
+      </c>
+      <c r="BL49" s="142">
+        <f t="shared" si="162"/>
+        <v>3069</v>
+      </c>
+      <c r="BM49" s="142">
+        <f t="shared" si="162"/>
+        <v>2712</v>
+      </c>
+      <c r="BN49" s="142">
+        <f t="shared" ref="BN49:BP49" si="163">BN47-BN48</f>
+        <v>3050</v>
+      </c>
+      <c r="BO49" s="142">
         <f t="shared" si="163"/>
-        <v>4319</v>
-      </c>
-      <c r="BH49" s="142">
-        <f t="shared" ref="BH49:BM49" si="164">BH47-BH48</f>
-        <v>3497</v>
-      </c>
-      <c r="BI49" s="142">
-        <f t="shared" si="164"/>
-        <v>3325</v>
-      </c>
-      <c r="BJ49" s="142">
-        <f t="shared" si="164"/>
-        <v>3608</v>
-      </c>
-      <c r="BK49" s="142">
-        <f t="shared" si="164"/>
-        <v>3001</v>
-      </c>
-      <c r="BL49" s="142">
-        <f t="shared" si="164"/>
-        <v>3069</v>
-      </c>
-      <c r="BM49" s="142">
-        <f t="shared" si="164"/>
-        <v>2712</v>
-      </c>
-      <c r="BN49" s="142">
-        <f t="shared" ref="BN49:BP49" si="165">BN47-BN48</f>
-        <v>3050</v>
-      </c>
-      <c r="BO49" s="142">
-        <f t="shared" si="165"/>
         <v>2043</v>
       </c>
       <c r="BP49" s="142">
-        <f t="shared" si="165"/>
+        <f t="shared" si="163"/>
         <v>2613</v>
       </c>
       <c r="BQ49" s="142">
@@ -40252,15 +40310,15 @@
         <v>1873</v>
       </c>
       <c r="BS49" s="142">
-        <f t="shared" ref="BS49:BT49" si="166">BS47-BS48</f>
+        <f t="shared" ref="BS49:BT49" si="164">BS47-BS48</f>
         <v>2141</v>
       </c>
       <c r="BT49" s="142">
-        <f t="shared" si="166"/>
+        <f t="shared" si="164"/>
         <v>2433</v>
       </c>
       <c r="BU49" s="142">
-        <f t="shared" ref="BU49" si="167">BU47-BU48</f>
+        <f t="shared" ref="BU49" si="165">BU47-BU48</f>
         <v>-1165</v>
       </c>
       <c r="BV49" s="142">
@@ -40268,35 +40326,35 @@
         <v>1435</v>
       </c>
       <c r="BW49" s="142">
-        <f t="shared" ref="BW49" si="168">BW47-BW48</f>
+        <f t="shared" ref="BW49" si="166">BW47-BW48</f>
         <v>2139</v>
       </c>
       <c r="BX49" s="142">
-        <f t="shared" ref="BX49:CD49" si="169">BX47-BX48</f>
+        <f t="shared" ref="BX49:CD49" si="167">BX47-BX48</f>
         <v>1632</v>
       </c>
       <c r="BY49" s="142">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>2741</v>
       </c>
       <c r="BZ49" s="142">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>2761</v>
       </c>
       <c r="CA49" s="142">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>2578</v>
       </c>
       <c r="CB49" s="142">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>2489</v>
       </c>
       <c r="CC49" s="142">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>3454</v>
       </c>
       <c r="CD49" s="142">
-        <f t="shared" si="169"/>
+        <f t="shared" si="167"/>
         <v>1619</v>
       </c>
       <c r="CE49" s="142">
@@ -40308,31 +40366,37 @@
         <v>2410</v>
       </c>
       <c r="CG49" s="142">
-        <f t="shared" ref="CG49:CL49" si="170">CG47-CG48</f>
+        <f t="shared" ref="CG49:CM49" si="168">CG47-CG48</f>
         <v>2686</v>
       </c>
       <c r="CH49" s="142">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>2230</v>
       </c>
       <c r="CI49" s="142">
-        <f t="shared" si="170"/>
+        <f t="shared" si="168"/>
         <v>2030</v>
       </c>
       <c r="CJ49" s="142">
-        <f t="shared" si="170"/>
-        <v>2565</v>
+        <f t="shared" si="168"/>
+        <v>-2374</v>
       </c>
       <c r="CK49" s="142">
-        <f t="shared" si="170"/>
-        <v>2849.2799999999997</v>
+        <f t="shared" si="168"/>
+        <v>-2385</v>
       </c>
       <c r="CL49" s="142">
-        <f t="shared" si="170"/>
-        <v>1957.0799999999995</v>
-      </c>
-      <c r="CM49" s="142"/>
-      <c r="CN49" s="142"/>
+        <f t="shared" si="168"/>
+        <v>-3564</v>
+      </c>
+      <c r="CM49" s="142">
+        <f t="shared" si="168"/>
+        <v>2486</v>
+      </c>
+      <c r="CN49" s="142">
+        <f>+CN47-CN48</f>
+        <v>2665</v>
+      </c>
       <c r="CO49" s="142"/>
       <c r="CP49" s="142"/>
       <c r="CQ49" s="142"/>
@@ -40341,39 +40405,39 @@
       <c r="CT49" s="142"/>
       <c r="CU49" s="155"/>
       <c r="CV49" s="155">
-        <f t="shared" ref="CV49:DU49" si="171">CV47-CV48</f>
+        <f t="shared" ref="CV49:DU49" si="169">CV47-CV48</f>
         <v>-201.26300000000001</v>
       </c>
       <c r="CW49" s="155">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-202.291</v>
       </c>
       <c r="CX49" s="155">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-303.21800000000002</v>
       </c>
       <c r="CY49" s="155">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-308.92099999999999</v>
       </c>
       <c r="CZ49" s="155">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-328.35799999999995</v>
       </c>
       <c r="DA49" s="155">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-721.80100000000039</v>
       </c>
       <c r="DB49" s="75">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-958.13769300000001</v>
       </c>
       <c r="DC49" s="83">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-510.03170624625841</v>
       </c>
       <c r="DD49" s="83">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-1061.099093109437</v>
       </c>
       <c r="DE49" s="83">
@@ -40389,11 +40453,11 @@
         <v>1715.0709999999999</v>
       </c>
       <c r="DH49" s="83">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>2787.1715200000008</v>
       </c>
       <c r="DI49" s="83">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>2578.8790000000008</v>
       </c>
       <c r="DJ49" s="83">
@@ -40405,43 +40469,43 @@
         <v>14049.694799999997</v>
       </c>
       <c r="DL49" s="93">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>16410.747398850002</v>
       </c>
       <c r="DM49" s="93">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>17527.270986238662</v>
       </c>
       <c r="DN49" s="142">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-1694.2093077462905</v>
       </c>
       <c r="DO49" s="142">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-1700.6049478830323</v>
       </c>
       <c r="DP49" s="142">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-1707.024731561291</v>
       </c>
       <c r="DQ49" s="139">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>4977.7036500770646</v>
       </c>
       <c r="DR49" s="142">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>6279.4508813561069</v>
       </c>
       <c r="DS49" s="142">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>5382.2974084332254</v>
       </c>
       <c r="DT49" s="155">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>4467.804781150061</v>
       </c>
       <c r="DU49" s="155">
-        <f t="shared" si="171"/>
+        <f t="shared" si="169"/>
         <v>-907.26745580109764</v>
       </c>
       <c r="DV49" s="155">
@@ -40453,231 +40517,231 @@
         <v>-934.17730392440944</v>
       </c>
       <c r="DX49" s="155">
-        <f t="shared" ref="DX49:GB49" si="172">+DW49*(1+$EA$54)</f>
+        <f t="shared" ref="DX49:GB49" si="170">+DW49*(1+$EA$54)</f>
         <v>-887.46843872818897</v>
       </c>
       <c r="DY49" s="155">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-843.09501679177947</v>
       </c>
       <c r="DZ49" s="155">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-800.94026595219043</v>
       </c>
       <c r="EA49" s="155">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-760.89325265458092</v>
       </c>
       <c r="EB49" s="155">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-722.84859002185181</v>
       </c>
       <c r="EC49" s="155">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-686.70616052075923</v>
       </c>
       <c r="ED49" s="155">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-652.37085249472125</v>
       </c>
       <c r="EE49" s="155">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-619.7523098699852</v>
       </c>
       <c r="EF49" s="155">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-588.76469437648586</v>
       </c>
       <c r="EG49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-559.32645965766153</v>
       </c>
       <c r="EH49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-531.36013667477846</v>
       </c>
       <c r="EI49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-504.79212984103953</v>
       </c>
       <c r="EJ49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-479.55252334898751</v>
       </c>
       <c r="EK49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-455.57489718153812</v>
       </c>
       <c r="EL49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-432.79615232246118</v>
       </c>
       <c r="EM49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-411.15634470633813</v>
       </c>
       <c r="EN49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-390.59852747102121</v>
       </c>
       <c r="EO49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-371.06860109747015</v>
       </c>
       <c r="EP49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-352.51517104259665</v>
       </c>
       <c r="EQ49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-334.88941249046678</v>
       </c>
       <c r="ER49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-318.14494186594345</v>
       </c>
       <c r="ES49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-302.23769477264625</v>
       </c>
       <c r="ET49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-287.12581003401391</v>
       </c>
       <c r="EU49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-272.76951953231321</v>
       </c>
       <c r="EV49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-259.13104355569754</v>
       </c>
       <c r="EW49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-246.17449137791266</v>
       </c>
       <c r="EX49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-233.865766809017</v>
       </c>
       <c r="EY49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-222.17247846856614</v>
       </c>
       <c r="EZ49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-211.06385454513781</v>
       </c>
       <c r="FA49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-200.5106618178809</v>
       </c>
       <c r="FB49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-190.48512872698686</v>
       </c>
       <c r="FC49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-180.9608722906375</v>
       </c>
       <c r="FD49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-171.91282867610562</v>
       </c>
       <c r="FE49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-163.31718724230032</v>
       </c>
       <c r="FF49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-155.15132788018531</v>
       </c>
       <c r="FG49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-147.39376148617603</v>
       </c>
       <c r="FH49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-140.02407341186722</v>
       </c>
       <c r="FI49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-133.02286974127387</v>
       </c>
       <c r="FJ49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-126.37172625421016</v>
       </c>
       <c r="FK49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-120.05313994149965</v>
       </c>
       <c r="FL49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-114.05048294442466</v>
       </c>
       <c r="FM49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-108.34795879720342</v>
       </c>
       <c r="FN49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-102.93056085734324</v>
       </c>
       <c r="FO49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-97.784032814476078</v>
       </c>
       <c r="FP49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-92.894831173752266</v>
       </c>
       <c r="FQ49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-88.250089615064653</v>
       </c>
       <c r="FR49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-83.837585134311411</v>
       </c>
       <c r="FS49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-79.64570587759583</v>
       </c>
       <c r="FT49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-75.663420583716032</v>
       </c>
       <c r="FU49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-71.880249554530224</v>
       </c>
       <c r="FV49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-68.286237076803715</v>
       </c>
       <c r="FW49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-64.871925222963526</v>
       </c>
       <c r="FX49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-61.628328961815349</v>
       </c>
       <c r="FY49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-58.546912513724578</v>
       </c>
       <c r="FZ49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-55.619566888038349</v>
       </c>
       <c r="GA49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-52.838588543636426</v>
       </c>
       <c r="GB49" s="75">
-        <f t="shared" si="172"/>
+        <f t="shared" si="170"/>
         <v>-50.196659116454605</v>
       </c>
     </row>
@@ -40690,119 +40754,119 @@
         <v>-0.1811764705882353</v>
       </c>
       <c r="D50" s="131">
-        <f t="shared" ref="D50:V50" si="173">D49/D51</f>
+        <f t="shared" ref="D50:V50" si="171">D49/D51</f>
         <v>-0.17427138600188971</v>
       </c>
       <c r="E50" s="131">
+        <f t="shared" si="171"/>
+        <v>-0.18618306169965074</v>
+      </c>
+      <c r="F50" s="131">
+        <f t="shared" si="171"/>
+        <v>-0.21697076068507945</v>
+      </c>
+      <c r="G50" s="131">
+        <f t="shared" si="171"/>
+        <v>-0.23493404864668629</v>
+      </c>
+      <c r="H50" s="131">
+        <f t="shared" si="171"/>
+        <v>-0.23094555873925504</v>
+      </c>
+      <c r="I50" s="131">
+        <f t="shared" si="171"/>
+        <v>-0.21706535522122075</v>
+      </c>
+      <c r="J50" s="131">
+        <f t="shared" si="171"/>
+        <v>-5.9655347848206919E-2</v>
+      </c>
+      <c r="K50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V50" s="131" t="e">
+        <f t="shared" si="171"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W50" s="131" t="e">
+        <f t="shared" ref="W50:AD50" si="172">W49/W51</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X50" s="131" t="e">
+        <f t="shared" si="172"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y50" s="131" t="e">
+        <f t="shared" si="172"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z50" s="131" t="e">
+        <f t="shared" si="172"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA50" s="131" t="e">
+        <f t="shared" si="172"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AB50" s="131" t="e">
+        <f t="shared" si="172"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AC50" s="131" t="e">
+        <f t="shared" si="172"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AD50" s="131" t="e">
+        <f t="shared" si="172"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE50" s="132">
+        <f t="shared" ref="AE50:AO50" si="173">AE49/AE51</f>
+        <v>0.6571636357468319</v>
+      </c>
+      <c r="AF50" s="132">
         <f t="shared" si="173"/>
-        <v>-0.18618306169965074</v>
-      </c>
-      <c r="F50" s="131">
-        <f t="shared" si="173"/>
-        <v>-0.21697076068507945</v>
-      </c>
-      <c r="G50" s="131">
-        <f t="shared" si="173"/>
-        <v>-0.23493404864668629</v>
-      </c>
-      <c r="H50" s="131">
-        <f t="shared" si="173"/>
-        <v>-0.23094555873925504</v>
-      </c>
-      <c r="I50" s="131">
-        <f t="shared" si="173"/>
-        <v>-0.21706535522122075</v>
-      </c>
-      <c r="J50" s="131">
-        <f t="shared" si="173"/>
-        <v>-5.9655347848206919E-2</v>
-      </c>
-      <c r="K50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V50" s="131" t="e">
-        <f t="shared" si="173"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W50" s="131" t="e">
-        <f t="shared" ref="W50:AD50" si="174">W49/W51</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X50" s="131" t="e">
-        <f t="shared" si="174"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y50" s="131" t="e">
-        <f t="shared" si="174"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z50" s="131" t="e">
-        <f t="shared" si="174"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA50" s="131" t="e">
-        <f t="shared" si="174"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB50" s="131" t="e">
-        <f t="shared" si="174"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC50" s="131" t="e">
-        <f t="shared" si="174"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD50" s="131" t="e">
-        <f t="shared" si="174"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE50" s="132">
-        <f t="shared" ref="AE50:AO50" si="175">AE49/AE51</f>
-        <v>0.6571636357468319</v>
-      </c>
-      <c r="AF50" s="132">
-        <f t="shared" si="175"/>
         <v>0.69121011529085952</v>
       </c>
       <c r="AG50" s="132">
@@ -40810,23 +40874,23 @@
         <v>0.78074888677254184</v>
       </c>
       <c r="AH50" s="132">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.93236102189859771</v>
       </c>
       <c r="AI50" s="132">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>-0.94187556930572991</v>
       </c>
       <c r="AJ50" s="132">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.84589870631864328</v>
       </c>
       <c r="AK50" s="132">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.89680109722530432</v>
       </c>
       <c r="AL50" s="132">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>-1.3204098840357177</v>
       </c>
       <c r="AM50" s="132">
@@ -40834,51 +40898,51 @@
         <v>0.76820178923135507</v>
       </c>
       <c r="AN50" s="132">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>1.5060768090932271</v>
       </c>
       <c r="AO50" s="131">
-        <f t="shared" si="175"/>
+        <f t="shared" si="173"/>
         <v>0.92032418952618489</v>
       </c>
       <c r="AP50" s="131">
-        <f t="shared" ref="AP50:AY50" si="176">AP49/AP51</f>
+        <f t="shared" ref="AP50:AY50" si="174">AP49/AP51</f>
         <v>0.8635476285549486</v>
       </c>
       <c r="AQ50" s="131">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0.56282191132355985</v>
       </c>
       <c r="AR50" s="131">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0.90463622316804693</v>
       </c>
       <c r="AS50" s="131">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0.85258309941638599</v>
       </c>
       <c r="AT50" s="131">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0.46414008096819726</v>
       </c>
       <c r="AU50" s="131">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0.4310415240291644</v>
       </c>
       <c r="AV50" s="131">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0.50826076360059202</v>
       </c>
       <c r="AW50" s="131">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0.5247757252505767</v>
       </c>
       <c r="AX50" s="131">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>0.56062160566706032</v>
       </c>
       <c r="AY50" s="131">
-        <f t="shared" si="176"/>
+        <f t="shared" si="174"/>
         <v>1.4939540000392901</v>
       </c>
       <c r="AZ50" s="131">
@@ -40886,123 +40950,123 @@
         <v>2.3686724765157732</v>
       </c>
       <c r="BA50" s="131">
-        <f t="shared" ref="BA50:BE50" si="177">BA49/BA51</f>
+        <f t="shared" ref="BA50:BE50" si="175">BA49/BA51</f>
         <v>1.8199799291617476</v>
       </c>
       <c r="BB50" s="131">
+        <f t="shared" si="175"/>
+        <v>2.4583594239198496</v>
+      </c>
+      <c r="BC50" s="131">
+        <f t="shared" si="175"/>
+        <v>2.9509241555130656</v>
+      </c>
+      <c r="BD50" s="131">
+        <f t="shared" si="175"/>
+        <v>3.1616883116883119</v>
+      </c>
+      <c r="BE50" s="131">
+        <f t="shared" si="175"/>
+        <v>3.0605455755156354</v>
+      </c>
+      <c r="BF50" s="143">
+        <f t="shared" ref="BF50:BG50" si="176">BF49/BF51</f>
+        <v>3.3417119565217392</v>
+      </c>
+      <c r="BG50" s="143">
+        <f t="shared" si="176"/>
+        <v>3.0587818696883851</v>
+      </c>
+      <c r="BH50" s="143">
+        <f t="shared" ref="BH50:BM50" si="177">BH49/BH51</f>
+        <v>2.5808118081180811</v>
+      </c>
+      <c r="BI50" s="143">
         <f t="shared" si="177"/>
-        <v>2.4583594239198496</v>
-      </c>
-      <c r="BC50" s="131">
+        <v>2.4831964152352501</v>
+      </c>
+      <c r="BJ50" s="143">
         <f t="shared" si="177"/>
-        <v>2.9509241555130656</v>
-      </c>
-      <c r="BD50" s="131">
+        <v>2.7189148455162018</v>
+      </c>
+      <c r="BK50" s="143">
         <f t="shared" si="177"/>
-        <v>3.1616883116883119</v>
-      </c>
-      <c r="BE50" s="131">
+        <v>2.2734848484848484</v>
+      </c>
+      <c r="BL50" s="143">
         <f t="shared" si="177"/>
-        <v>3.0605455755156354</v>
-      </c>
-      <c r="BF50" s="143">
-        <f t="shared" ref="BF50:BG50" si="178">BF49/BF51</f>
-        <v>3.3417119565217392</v>
-      </c>
-      <c r="BG50" s="143">
+        <v>2.3302961275626424</v>
+      </c>
+      <c r="BM50" s="143">
+        <f t="shared" si="177"/>
+        <v>2.0561031084154662</v>
+      </c>
+      <c r="BN50" s="143">
+        <f t="shared" ref="BN50:BO50" si="178">BN49/BN51</f>
+        <v>2.3335883703136955</v>
+      </c>
+      <c r="BO50" s="143">
         <f t="shared" si="178"/>
-        <v>3.0587818696883851</v>
-      </c>
-      <c r="BH50" s="143">
-        <f t="shared" ref="BH50:BM50" si="179">BH49/BH51</f>
-        <v>2.5808118081180811</v>
-      </c>
-      <c r="BI50" s="143">
+        <v>1.5477272727272726</v>
+      </c>
+      <c r="BP50" s="143">
+        <f t="shared" ref="BP50:BQ50" si="179">BP49/BP51</f>
+        <v>1.9977064220183487</v>
+      </c>
+      <c r="BQ50" s="143">
         <f t="shared" si="179"/>
-        <v>2.4831964152352501</v>
-      </c>
-      <c r="BJ50" s="143">
-        <f t="shared" si="179"/>
-        <v>2.7189148455162018</v>
-      </c>
-      <c r="BK50" s="143">
-        <f t="shared" si="179"/>
-        <v>2.2734848484848484</v>
-      </c>
-      <c r="BL50" s="143">
-        <f t="shared" si="179"/>
-        <v>2.3302961275626424</v>
-      </c>
-      <c r="BM50" s="143">
-        <f t="shared" si="179"/>
-        <v>2.0561031084154662</v>
-      </c>
-      <c r="BN50" s="143">
-        <f t="shared" ref="BN50:BO50" si="180">BN49/BN51</f>
-        <v>2.3335883703136955</v>
-      </c>
-      <c r="BO50" s="143">
+        <v>1.6044376434583014</v>
+      </c>
+      <c r="BR50" s="143">
+        <f t="shared" ref="BR50:BT50" si="180">BR49/BR51</f>
+        <v>1.4418783679753657</v>
+      </c>
+      <c r="BS50" s="143">
         <f t="shared" si="180"/>
-        <v>1.5477272727272726</v>
-      </c>
-      <c r="BP50" s="143">
-        <f t="shared" ref="BP50:BQ50" si="181">BP49/BP51</f>
-        <v>1.9977064220183487</v>
-      </c>
-      <c r="BQ50" s="143">
-        <f t="shared" si="181"/>
-        <v>1.6044376434583014</v>
-      </c>
-      <c r="BR50" s="143">
-        <f t="shared" ref="BR50:BT50" si="182">BR49/BR51</f>
-        <v>1.4418783679753657</v>
-      </c>
-      <c r="BS50" s="143">
+        <v>1.6687451286048325</v>
+      </c>
+      <c r="BT50" s="143">
+        <f t="shared" si="180"/>
+        <v>1.9052466718872356</v>
+      </c>
+      <c r="BU50" s="143">
+        <f t="shared" ref="BU50" si="181">BU49/BU51</f>
+        <v>-0.91949486977111283</v>
+      </c>
+      <c r="BV50" s="143">
+        <f t="shared" ref="BV50:BW50" si="182">BV49/BV51</f>
+        <v>1.1272584446190101</v>
+      </c>
+      <c r="BW50" s="143">
         <f t="shared" si="182"/>
-        <v>1.6687451286048325</v>
-      </c>
-      <c r="BT50" s="143">
-        <f t="shared" si="182"/>
-        <v>1.9052466718872356</v>
-      </c>
-      <c r="BU50" s="143">
-        <f t="shared" ref="BU50" si="183">BU49/BU51</f>
-        <v>-0.91949486977111283</v>
-      </c>
-      <c r="BV50" s="143">
-        <f t="shared" ref="BV50:BW50" si="184">BV49/BV51</f>
-        <v>1.1272584446190101</v>
-      </c>
-      <c r="BW50" s="143">
-        <f t="shared" si="184"/>
         <v>1.684251968503937</v>
       </c>
       <c r="BX50" s="143">
-        <f t="shared" ref="BX50:CA50" si="185">BX49/BX51</f>
+        <f t="shared" ref="BX50:CA50" si="183">BX49/BX51</f>
         <v>1.300398406374502</v>
       </c>
       <c r="BY50" s="143">
+        <f t="shared" si="183"/>
+        <v>2.1736716891356065</v>
+      </c>
+      <c r="BZ50" s="143">
+        <f t="shared" si="183"/>
+        <v>2.193010325655282</v>
+      </c>
+      <c r="CA50" s="143">
+        <f t="shared" si="183"/>
+        <v>2.0427892234548337</v>
+      </c>
+      <c r="CB50" s="143">
+        <f t="shared" ref="CB50" si="184">CB49/CB51</f>
+        <v>1.9753968253968255</v>
+      </c>
+      <c r="CC50" s="143">
+        <f t="shared" ref="CC50:CD50" si="185">CC49/CC51</f>
+        <v>2.7369255150554674</v>
+      </c>
+      <c r="CD50" s="143">
         <f t="shared" si="185"/>
-        <v>2.1736716891356065</v>
-      </c>
-      <c r="BZ50" s="143">
-        <f t="shared" si="185"/>
-        <v>2.193010325655282</v>
-      </c>
-      <c r="CA50" s="143">
-        <f t="shared" si="185"/>
-        <v>2.0427892234548337</v>
-      </c>
-      <c r="CB50" s="143">
-        <f t="shared" ref="CB50" si="186">CB49/CB51</f>
-        <v>1.9753968253968255</v>
-      </c>
-      <c r="CC50" s="143">
-        <f t="shared" ref="CC50:CD50" si="187">CC49/CC51</f>
-        <v>2.7369255150554674</v>
-      </c>
-      <c r="CD50" s="143">
-        <f t="shared" si="187"/>
         <v>1.2828843106180665</v>
       </c>
       <c r="CE50" s="143">
@@ -41014,31 +41078,37 @@
         <v>1.9126984126984128</v>
       </c>
       <c r="CG50" s="143">
-        <f t="shared" ref="CG50" si="188">CG49/CG51</f>
+        <f t="shared" ref="CG50" si="186">CG49/CG51</f>
         <v>2.1300555114988104</v>
       </c>
       <c r="CH50" s="143">
-        <f t="shared" ref="CH50" si="189">CH49/CH51</f>
+        <f t="shared" ref="CH50" si="187">CH49/CH51</f>
         <v>1.764240506329114</v>
       </c>
       <c r="CI50" s="143">
-        <f t="shared" ref="CI50" si="190">CI49/CI51</f>
+        <f t="shared" ref="CI50" si="188">CI49/CI51</f>
         <v>1.6098334655035687</v>
       </c>
       <c r="CJ50" s="143">
-        <f t="shared" ref="CJ50" si="191">CJ49/CJ51</f>
-        <v>2.0340999206978587</v>
+        <f t="shared" ref="CJ50" si="189">CJ49/CJ51</f>
+        <v>-1.8826328310864393</v>
       </c>
       <c r="CK50" s="143">
-        <f t="shared" ref="CK50" si="192">CK49/CK51</f>
-        <v>2.2595400475812846</v>
+        <f t="shared" ref="CK50" si="190">CK49/CK51</f>
+        <v>-1.8913560666137985</v>
       </c>
       <c r="CL50" s="143">
-        <f t="shared" ref="CL50" si="193">CL49/CL51</f>
-        <v>1.5520063441712921</v>
-      </c>
-      <c r="CM50" s="143"/>
-      <c r="CN50" s="143"/>
+        <f t="shared" ref="CL50:CN50" si="191">CL49/CL51</f>
+        <v>-2.8263283108643935</v>
+      </c>
+      <c r="CM50" s="143">
+        <f t="shared" si="191"/>
+        <v>1.9935846030473134</v>
+      </c>
+      <c r="CN50" s="143">
+        <f t="shared" si="191"/>
+        <v>2.1302957633892885</v>
+      </c>
       <c r="CO50" s="143"/>
       <c r="CP50" s="143"/>
       <c r="CQ50" s="143"/>
@@ -41047,36 +41117,36 @@
       <c r="CT50" s="143"/>
       <c r="CU50" s="13"/>
       <c r="CV50" s="156">
-        <f t="shared" ref="CV50:DH50" si="194">CV49/CV51</f>
+        <f t="shared" ref="CV50:DH50" si="192">CV49/CV51</f>
         <v>-0.58744053004874341</v>
       </c>
       <c r="CW50" s="156">
-        <f t="shared" si="194"/>
+        <f t="shared" si="192"/>
         <v>-0.55544236926067692</v>
       </c>
       <c r="CX50" s="156">
-        <f t="shared" si="194"/>
+        <f t="shared" si="192"/>
         <v>-0.7493488070936779</v>
       </c>
       <c r="CY50" s="156">
-        <f t="shared" si="194"/>
+        <f t="shared" si="192"/>
         <v>-0.74807605689737833</v>
       </c>
       <c r="CZ50" s="156">
-        <f t="shared" si="194"/>
+        <f t="shared" si="192"/>
         <v>-0.81638447577136308</v>
       </c>
       <c r="DA50" s="156">
-        <f t="shared" si="194"/>
+        <f t="shared" si="192"/>
         <v>-1.5622941753866506</v>
       </c>
       <c r="DB50" s="133">
-        <f t="shared" si="194"/>
+        <f t="shared" si="192"/>
         <v>-2.0220124848713792</v>
       </c>
       <c r="DC50" s="131"/>
       <c r="DD50" s="131">
-        <f t="shared" si="194"/>
+        <f t="shared" si="192"/>
         <v>-1.0998806083911572</v>
       </c>
       <c r="DE50" s="131">
@@ -41092,63 +41162,63 @@
         <v>1.9625837174660143</v>
       </c>
       <c r="DH50" s="131">
+        <f t="shared" si="192"/>
+        <v>3.3911692913050526</v>
+      </c>
+      <c r="DI50" s="131">
+        <f t="shared" ref="DI50:DN50" si="193">DI49/DI51</f>
+        <v>2.5871987844912288</v>
+      </c>
+      <c r="DJ50" s="131">
+        <f t="shared" si="193"/>
+        <v>2.025966509698637</v>
+      </c>
+      <c r="DK50" s="131">
+        <f t="shared" si="193"/>
+        <v>8.469684532060862</v>
+      </c>
+      <c r="DL50" s="131">
+        <f t="shared" si="193"/>
+        <v>9.8930158542374826</v>
+      </c>
+      <c r="DM50" s="131">
+        <f t="shared" si="193"/>
+        <v>10.566098272923677</v>
+      </c>
+      <c r="DN50" s="143">
+        <f t="shared" si="193"/>
+        <v>-1.0213331016907428</v>
+      </c>
+      <c r="DO50" s="143">
+        <f t="shared" ref="DO50:DQ50" si="194">DO49/DO51</f>
+        <v>-1.025188634149625</v>
+      </c>
+      <c r="DP50" s="143">
         <f t="shared" si="194"/>
-        <v>3.3911692913050526</v>
-      </c>
-      <c r="DI50" s="131">
-        <f t="shared" ref="DI50:DN50" si="195">DI49/DI51</f>
-        <v>2.5871987844912288</v>
-      </c>
-      <c r="DJ50" s="131">
+        <v>-1.02905872124354</v>
+      </c>
+      <c r="DQ50" s="143">
+        <f t="shared" si="194"/>
+        <v>3.000747006279497</v>
+      </c>
+      <c r="DR50" s="143">
+        <f t="shared" ref="DR50:DV50" si="195">DR49/DR51</f>
+        <v>3.7854892050507587</v>
+      </c>
+      <c r="DS50" s="143">
         <f t="shared" si="195"/>
-        <v>2.025966509698637</v>
-      </c>
-      <c r="DK50" s="131">
+        <v>3.2446513433984459</v>
+      </c>
+      <c r="DT50" s="156">
         <f t="shared" si="195"/>
-        <v>8.469684532060862</v>
-      </c>
-      <c r="DL50" s="131">
+        <v>2.6933607872517089</v>
+      </c>
+      <c r="DU50" s="156">
         <f t="shared" si="195"/>
-        <v>9.8930158542374826</v>
-      </c>
-      <c r="DM50" s="131">
+        <v>-0.54693495098845635</v>
+      </c>
+      <c r="DV50" s="156">
         <f t="shared" si="195"/>
-        <v>10.566098272923677</v>
-      </c>
-      <c r="DN50" s="143">
-        <f t="shared" si="195"/>
-        <v>-1.0213331016907428</v>
-      </c>
-      <c r="DO50" s="143">
-        <f t="shared" ref="DO50:DQ50" si="196">DO49/DO51</f>
-        <v>-1.025188634149625</v>
-      </c>
-      <c r="DP50" s="143">
-        <f t="shared" si="196"/>
-        <v>-1.02905872124354</v>
-      </c>
-      <c r="DQ50" s="143">
-        <f t="shared" si="196"/>
-        <v>3.000747006279497</v>
-      </c>
-      <c r="DR50" s="143">
-        <f t="shared" ref="DR50:DV50" si="197">DR49/DR51</f>
-        <v>3.7854892050507587</v>
-      </c>
-      <c r="DS50" s="143">
-        <f t="shared" si="197"/>
-        <v>3.2446513433984459</v>
-      </c>
-      <c r="DT50" s="156">
-        <f t="shared" si="197"/>
-        <v>2.6933607872517089</v>
-      </c>
-      <c r="DU50" s="156">
-        <f t="shared" si="197"/>
-        <v>-0.54693495098845635</v>
-      </c>
-      <c r="DV50" s="156">
-        <f t="shared" si="197"/>
         <v>-0.59279707337211796</v>
       </c>
       <c r="DW50" s="13"/>
@@ -41424,19 +41494,23 @@
         <v>1261</v>
       </c>
       <c r="CJ51" s="140">
-        <f t="shared" ref="CJ51:CL51" si="198">+CI51</f>
+        <f t="shared" ref="CJ51:CL51" si="196">+CI51</f>
         <v>1261</v>
       </c>
       <c r="CK51" s="140">
-        <f t="shared" si="198"/>
+        <f t="shared" si="196"/>
         <v>1261</v>
       </c>
       <c r="CL51" s="140">
-        <f t="shared" si="198"/>
+        <f t="shared" si="196"/>
         <v>1261</v>
       </c>
-      <c r="CM51" s="140"/>
-      <c r="CN51" s="140"/>
+      <c r="CM51" s="140">
+        <v>1247</v>
+      </c>
+      <c r="CN51" s="140">
+        <v>1251</v>
+      </c>
       <c r="CO51" s="140"/>
       <c r="CP51" s="140"/>
       <c r="CQ51" s="140"/>
@@ -41502,15 +41576,15 @@
         <v>1658.8215</v>
       </c>
       <c r="DL51" s="82">
-        <f t="shared" ref="DL51:DN51" si="199">DK51</f>
+        <f t="shared" ref="DL51:DN51" si="197">DK51</f>
         <v>1658.8215</v>
       </c>
       <c r="DM51" s="82">
-        <f t="shared" si="199"/>
+        <f t="shared" si="197"/>
         <v>1658.8215</v>
       </c>
       <c r="DN51" s="140">
-        <f t="shared" si="199"/>
+        <f t="shared" si="197"/>
         <v>1658.8215</v>
       </c>
       <c r="DO51" s="140">
@@ -41526,23 +41600,23 @@
         <v>1658.8215</v>
       </c>
       <c r="DR51" s="140">
-        <f t="shared" ref="DR51:DV51" si="200">DQ51</f>
+        <f t="shared" ref="DR51:DV51" si="198">DQ51</f>
         <v>1658.8215</v>
       </c>
       <c r="DS51" s="140">
-        <f t="shared" si="200"/>
+        <f t="shared" si="198"/>
         <v>1658.8215</v>
       </c>
       <c r="DT51" s="79">
-        <f t="shared" si="200"/>
+        <f t="shared" si="198"/>
         <v>1658.8215</v>
       </c>
       <c r="DU51" s="79">
-        <f t="shared" si="200"/>
+        <f t="shared" si="198"/>
         <v>1658.8215</v>
       </c>
       <c r="DV51" s="79">
-        <f t="shared" si="200"/>
+        <f t="shared" si="198"/>
         <v>1658.8215</v>
       </c>
       <c r="DW51" s="79"/>
@@ -41696,199 +41770,199 @@
         <v>589</v>
       </c>
       <c r="C53" s="78">
-        <f t="shared" ref="C53:R53" si="201">(C39-C40)/C39</f>
+        <f t="shared" ref="C53:R53" si="199">(C39-C40)/C39</f>
         <v>-1.2395387762692951</v>
       </c>
       <c r="D53" s="78">
+        <f t="shared" si="199"/>
+        <v>-1.6299539854534659</v>
+      </c>
+      <c r="E53" s="78">
+        <f t="shared" si="199"/>
+        <v>-3.6581469648562304</v>
+      </c>
+      <c r="F53" s="78">
+        <f t="shared" si="199"/>
+        <v>-4.0005115089514067</v>
+      </c>
+      <c r="G53" s="78">
+        <f t="shared" si="199"/>
+        <v>-1.8943661971830985</v>
+      </c>
+      <c r="H53" s="78">
+        <f t="shared" si="199"/>
+        <v>-3.5637526652452025</v>
+      </c>
+      <c r="I53" s="78">
+        <f t="shared" si="199"/>
+        <v>-4.3202051282051279</v>
+      </c>
+      <c r="J53" s="78">
+        <f t="shared" si="199"/>
+        <v>-4.6163713080168778</v>
+      </c>
+      <c r="K53" s="78" t="e">
+        <f t="shared" si="199"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L53" s="78" t="e">
+        <f t="shared" si="199"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M53" s="78" t="e">
+        <f t="shared" si="199"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N53" s="78" t="e">
+        <f t="shared" si="199"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O53" s="78" t="e">
+        <f t="shared" si="199"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P53" s="78" t="e">
+        <f t="shared" si="199"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q53" s="78" t="e">
+        <f t="shared" si="199"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R53" s="78" t="e">
+        <f t="shared" si="199"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S53" s="86" t="e">
+        <f t="shared" ref="S53:AQ53" si="200">S41/S39</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T53" s="86" t="e">
+        <f t="shared" si="200"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U53" s="86" t="e">
+        <f t="shared" si="200"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V53" s="86" t="e">
+        <f t="shared" si="200"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W53" s="86" t="e">
+        <f t="shared" si="200"/>
+        <v>#REF!</v>
+      </c>
+      <c r="X53" s="86" t="e">
+        <f t="shared" si="200"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y53" s="86" t="e">
+        <f t="shared" si="200"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z53" s="86" t="e">
+        <f t="shared" si="200"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA53" s="86" t="e">
+        <f t="shared" si="200"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AB53" s="86" t="e">
+        <f t="shared" si="200"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AC53" s="86" t="e">
+        <f t="shared" si="200"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AD53" s="86" t="e">
+        <f t="shared" si="200"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE53" s="106">
+        <f t="shared" si="200"/>
+        <v>0.78688760242018752</v>
+      </c>
+      <c r="AF53" s="106">
+        <f t="shared" si="200"/>
+        <v>0.76906484210654125</v>
+      </c>
+      <c r="AG53" s="106">
+        <f t="shared" si="200"/>
+        <v>0.77256439336534199</v>
+      </c>
+      <c r="AH53" s="106">
+        <f t="shared" si="200"/>
+        <v>0.77777444204052615</v>
+      </c>
+      <c r="AI53" s="106">
+        <f t="shared" si="200"/>
+        <v>-0.40238087242687792</v>
+      </c>
+      <c r="AJ53" s="106">
+        <f t="shared" si="200"/>
+        <v>0.77400914475950899</v>
+      </c>
+      <c r="AK53" s="106">
+        <f t="shared" si="200"/>
+        <v>0.76264479377258387</v>
+      </c>
+      <c r="AL53" s="106">
+        <f t="shared" si="200"/>
+        <v>-6.0084880714108309</v>
+      </c>
+      <c r="AM53" s="106">
+        <f t="shared" si="200"/>
+        <v>0.75075374084142454</v>
+      </c>
+      <c r="AN53" s="106">
+        <f t="shared" si="200"/>
+        <v>0.7502106676186675</v>
+      </c>
+      <c r="AO53" s="86">
+        <f t="shared" si="200"/>
+        <v>0.74931674677221749</v>
+      </c>
+      <c r="AP53" s="86">
+        <f t="shared" si="200"/>
+        <v>0.73438790971369461</v>
+      </c>
+      <c r="AQ53" s="86">
+        <f t="shared" si="200"/>
+        <v>0.74547908847032285</v>
+      </c>
+      <c r="AR53" s="86">
+        <f t="shared" ref="AR53:AS53" si="201">AR41/AR39</f>
+        <v>0.74332754306735527</v>
+      </c>
+      <c r="AS53" s="86">
         <f t="shared" si="201"/>
-        <v>-1.6299539854534659</v>
-      </c>
-      <c r="E53" s="78">
-        <f t="shared" si="201"/>
-        <v>-3.6581469648562304</v>
-      </c>
-      <c r="F53" s="78">
-        <f t="shared" si="201"/>
-        <v>-4.0005115089514067</v>
-      </c>
-      <c r="G53" s="78">
-        <f t="shared" si="201"/>
-        <v>-1.8943661971830985</v>
-      </c>
-      <c r="H53" s="78">
-        <f t="shared" si="201"/>
-        <v>-3.5637526652452025</v>
-      </c>
-      <c r="I53" s="78">
-        <f t="shared" si="201"/>
-        <v>-4.3202051282051279</v>
-      </c>
-      <c r="J53" s="78">
-        <f t="shared" si="201"/>
-        <v>-4.6163713080168778</v>
-      </c>
-      <c r="K53" s="78" t="e">
-        <f t="shared" si="201"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L53" s="78" t="e">
-        <f t="shared" si="201"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M53" s="78" t="e">
-        <f t="shared" si="201"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N53" s="78" t="e">
-        <f t="shared" si="201"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O53" s="78" t="e">
-        <f t="shared" si="201"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P53" s="78" t="e">
-        <f t="shared" si="201"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q53" s="78" t="e">
-        <f t="shared" si="201"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R53" s="78" t="e">
-        <f t="shared" si="201"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S53" s="86" t="e">
-        <f t="shared" ref="S53:AQ53" si="202">S41/S39</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T53" s="86" t="e">
+        <v>0.75386559861402613</v>
+      </c>
+      <c r="AT53" s="86">
+        <f t="shared" ref="AT53:AU53" si="202">AT41/AT39</f>
+        <v>0.73889351443137052</v>
+      </c>
+      <c r="AU53" s="86">
         <f t="shared" si="202"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U53" s="86" t="e">
-        <f t="shared" si="202"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V53" s="86" t="e">
-        <f t="shared" si="202"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W53" s="86" t="e">
-        <f t="shared" si="202"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X53" s="86" t="e">
-        <f t="shared" si="202"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y53" s="86" t="e">
-        <f t="shared" si="202"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z53" s="86" t="e">
-        <f t="shared" si="202"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA53" s="86" t="e">
-        <f t="shared" si="202"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB53" s="86" t="e">
-        <f t="shared" si="202"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC53" s="86" t="e">
-        <f t="shared" si="202"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD53" s="86" t="e">
-        <f t="shared" si="202"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE53" s="106">
-        <f t="shared" si="202"/>
-        <v>0.78688760242018752</v>
-      </c>
-      <c r="AF53" s="106">
-        <f t="shared" si="202"/>
-        <v>0.76906484210654125</v>
-      </c>
-      <c r="AG53" s="106">
-        <f t="shared" si="202"/>
-        <v>0.77256439336534199</v>
-      </c>
-      <c r="AH53" s="106">
-        <f t="shared" si="202"/>
-        <v>0.77777444204052615</v>
-      </c>
-      <c r="AI53" s="106">
-        <f t="shared" si="202"/>
-        <v>-0.40238087242687792</v>
-      </c>
-      <c r="AJ53" s="106">
-        <f t="shared" si="202"/>
-        <v>0.77400914475950899</v>
-      </c>
-      <c r="AK53" s="106">
-        <f t="shared" si="202"/>
-        <v>0.76264479377258387</v>
-      </c>
-      <c r="AL53" s="106">
-        <f t="shared" si="202"/>
-        <v>-6.0084880714108309</v>
-      </c>
-      <c r="AM53" s="106">
-        <f t="shared" si="202"/>
-        <v>0.75075374084142454</v>
-      </c>
-      <c r="AN53" s="106">
-        <f t="shared" si="202"/>
-        <v>0.7502106676186675</v>
-      </c>
-      <c r="AO53" s="86">
-        <f t="shared" si="202"/>
-        <v>0.74931674677221749</v>
-      </c>
-      <c r="AP53" s="86">
-        <f t="shared" si="202"/>
-        <v>0.73438790971369461</v>
-      </c>
-      <c r="AQ53" s="86">
-        <f t="shared" si="202"/>
-        <v>0.74547908847032285</v>
-      </c>
-      <c r="AR53" s="86">
-        <f t="shared" ref="AR53:AS53" si="203">AR41/AR39</f>
-        <v>0.74332754306735527</v>
-      </c>
-      <c r="AS53" s="86">
+        <v>0.74939199371157383</v>
+      </c>
+      <c r="AV53" s="86">
+        <f t="shared" ref="AV53:BE53" si="203">AV41/AV39</f>
+        <v>0.76123132448794784</v>
+      </c>
+      <c r="AW53" s="86">
         <f t="shared" si="203"/>
-        <v>0.75386559861402613</v>
-      </c>
-      <c r="AT53" s="86">
-        <f t="shared" ref="AT53:AU53" si="204">AT41/AT39</f>
-        <v>0.73889351443137052</v>
-      </c>
-      <c r="AU53" s="86">
-        <f t="shared" si="204"/>
-        <v>0.74939199371157383</v>
-      </c>
-      <c r="AV53" s="86">
-        <f t="shared" ref="AV53:BE53" si="205">AV41/AV39</f>
-        <v>0.76123132448794784</v>
-      </c>
-      <c r="AW53" s="86">
-        <f t="shared" si="205"/>
         <v>0.76326966080968572</v>
       </c>
       <c r="AX53" s="86">
-        <f t="shared" si="205"/>
+        <f t="shared" si="203"/>
         <v>0.75079251214651077</v>
       </c>
       <c r="AY53" s="86">
-        <f t="shared" si="205"/>
+        <f t="shared" si="203"/>
         <v>0.87770786540229617</v>
       </c>
       <c r="AZ53" s="86">
@@ -41896,159 +41970,165 @@
         <v>0.88936972109895418</v>
       </c>
       <c r="BA53" s="86">
-        <f t="shared" si="205"/>
+        <f t="shared" si="203"/>
         <v>0.88</v>
       </c>
       <c r="BB53" s="86">
-        <f t="shared" si="205"/>
+        <f t="shared" si="203"/>
         <v>0.88419469510527759</v>
       </c>
       <c r="BC53" s="86">
-        <f t="shared" si="205"/>
+        <f t="shared" si="203"/>
         <v>0.91124572030550433</v>
       </c>
       <c r="BD53" s="86">
-        <f t="shared" si="205"/>
+        <f t="shared" si="203"/>
         <v>0.90441533236293059</v>
       </c>
       <c r="BE53" s="86">
-        <f t="shared" si="205"/>
+        <f t="shared" si="203"/>
         <v>0.87172995780590712</v>
       </c>
       <c r="BF53" s="144">
-        <f t="shared" ref="BF53" si="206">BF41/BF39</f>
+        <f t="shared" ref="BF53" si="204">BF41/BF39</f>
         <v>0.89924758993651543</v>
       </c>
       <c r="BG53" s="144">
-        <f t="shared" ref="BG53:BH53" si="207">BG41/BG39</f>
+        <f t="shared" ref="BG53" si="205">BG41/BG39</f>
         <v>0.87387734154477803</v>
       </c>
       <c r="BH53" s="144">
-        <f t="shared" ref="BH53:BI53" si="208">BH41/BH39</f>
+        <f t="shared" ref="BH53:BI53" si="206">BH41/BH39</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="BI53" s="144">
+        <f t="shared" si="206"/>
+        <v>0.8494666666666667</v>
+      </c>
+      <c r="BJ53" s="144">
+        <f t="shared" ref="BJ53" si="207">BJ41/BJ39</f>
+        <v>0.88251366120218577</v>
+      </c>
+      <c r="BK53" s="144">
+        <f t="shared" ref="BK53:BM53" si="208">BK41/BK39</f>
+        <v>0.88578016910069179</v>
+      </c>
+      <c r="BL53" s="144">
         <f t="shared" si="208"/>
-        <v>0.8494666666666667</v>
-      </c>
-      <c r="BJ53" s="144">
-        <f t="shared" ref="BH52:BJ53" si="209">BJ41/BJ39</f>
-        <v>0.88251366120218577</v>
-      </c>
-      <c r="BK53" s="144">
-        <f t="shared" ref="BK53:BM53" si="210">BK41/BK39</f>
-        <v>0.88578016910069179</v>
-      </c>
-      <c r="BL53" s="144">
+        <v>0.84231900294076456</v>
+      </c>
+      <c r="BM53" s="144">
+        <f t="shared" si="208"/>
+        <v>0.84152334152334152</v>
+      </c>
+      <c r="BN53" s="144">
+        <f t="shared" ref="BN53:BO53" si="209">BN41/BN39</f>
+        <v>0.83761976802824001</v>
+      </c>
+      <c r="BO53" s="144">
+        <f t="shared" si="209"/>
+        <v>0.86497641509433965</v>
+      </c>
+      <c r="BP53" s="144">
+        <f t="shared" ref="BP53:BQ53" si="210">BP41/BP39</f>
+        <v>0.84507790368271951</v>
+      </c>
+      <c r="BQ53" s="144">
         <f t="shared" si="210"/>
-        <v>0.84231900294076456</v>
-      </c>
-      <c r="BM53" s="144">
-        <f t="shared" si="210"/>
-        <v>0.84152334152334152</v>
-      </c>
-      <c r="BN53" s="144">
-        <f t="shared" ref="BN53:BO53" si="211">BN41/BN39</f>
-        <v>0.83761976802824001</v>
-      </c>
-      <c r="BO53" s="144">
+        <v>0.80593280914939247</v>
+      </c>
+      <c r="BR53" s="144">
+        <f t="shared" ref="BR53:BT53" si="211">BR41/BR39</f>
+        <v>0.78308886971527181</v>
+      </c>
+      <c r="BS53" s="144">
         <f t="shared" si="211"/>
-        <v>0.86497641509433965</v>
-      </c>
-      <c r="BP53" s="144">
-        <f t="shared" ref="BP53:BQ53" si="212">BP41/BP39</f>
-        <v>0.84507790368271951</v>
-      </c>
-      <c r="BQ53" s="144">
-        <f t="shared" si="212"/>
-        <v>0.80593280914939247</v>
-      </c>
-      <c r="BR53" s="144">
-        <f t="shared" ref="BR53:BT53" si="213">BR41/BR39</f>
-        <v>0.78308886971527181</v>
-      </c>
-      <c r="BS53" s="144">
+        <v>0.87237265669380804</v>
+      </c>
+      <c r="BT53" s="144">
+        <f t="shared" si="211"/>
+        <v>0.87440633245382582</v>
+      </c>
+      <c r="BU53" s="144">
+        <f t="shared" ref="BU53" si="212">BU41/BU39</f>
+        <v>0.81531049250535337</v>
+      </c>
+      <c r="BV53" s="144">
+        <f t="shared" ref="BV53:BW53" si="213">BV41/BV39</f>
+        <v>0.75897261439020236</v>
+      </c>
+      <c r="BW53" s="144">
         <f t="shared" si="213"/>
-        <v>0.87237265669380804</v>
-      </c>
-      <c r="BT53" s="144">
-        <f t="shared" si="213"/>
-        <v>0.87440633245382582</v>
-      </c>
-      <c r="BU53" s="144">
-        <f t="shared" ref="BU53" si="214">BU41/BU39</f>
-        <v>0.81531049250535337</v>
-      </c>
-      <c r="BV53" s="144">
-        <f t="shared" ref="BV53:BW53" si="215">BV41/BV39</f>
-        <v>0.75897261439020236</v>
-      </c>
-      <c r="BW53" s="144">
+        <v>0.87328767123287676</v>
+      </c>
+      <c r="BX53" s="144">
+        <f t="shared" ref="BX53:BZ53" si="214">BX41/BX39</f>
+        <v>0.84483764339879452</v>
+      </c>
+      <c r="BY53" s="144">
+        <f t="shared" si="214"/>
+        <v>0.86696062034362176</v>
+      </c>
+      <c r="BZ53" s="144">
+        <f t="shared" si="214"/>
+        <v>0.87629699501414904</v>
+      </c>
+      <c r="CA53" s="144">
+        <f t="shared" ref="CA53:CE53" si="215">CA41/CA39</f>
+        <v>0.86688463334890242</v>
+      </c>
+      <c r="CB53" s="144">
+        <f t="shared" ref="CB53" si="216">CB41/CB39</f>
+        <v>0.86552999839150713</v>
+      </c>
+      <c r="CC53" s="144">
+        <f t="shared" ref="CC53" si="217">CC41/CC39</f>
+        <v>0.90082199164533083</v>
+      </c>
+      <c r="CD53" s="144">
         <f t="shared" si="215"/>
-        <v>0.87328767123287676</v>
-      </c>
-      <c r="BX53" s="144">
-        <f t="shared" ref="BX53:BZ53" si="216">BX41/BX39</f>
-        <v>0.84483764339879452</v>
-      </c>
-      <c r="BY53" s="144">
-        <f t="shared" si="216"/>
-        <v>0.86696062034362176</v>
-      </c>
-      <c r="BZ53" s="144">
-        <f t="shared" si="216"/>
-        <v>0.87629699501414904</v>
-      </c>
-      <c r="CA53" s="144">
-        <f t="shared" ref="CA53:CE53" si="217">CA41/CA39</f>
-        <v>0.86688463334890242</v>
-      </c>
-      <c r="CB53" s="144">
-        <f t="shared" ref="CB53" si="218">CB41/CB39</f>
-        <v>0.86552999839150713</v>
-      </c>
-      <c r="CC53" s="144">
-        <f t="shared" ref="CC53" si="219">CC41/CC39</f>
-        <v>0.90082199164533083</v>
-      </c>
-      <c r="CD53" s="144">
-        <f t="shared" si="217"/>
         <v>0.70854618252105483</v>
       </c>
       <c r="CE53" s="144">
-        <f t="shared" si="217"/>
+        <f t="shared" si="215"/>
         <v>0.87479131886477457</v>
       </c>
       <c r="CF53" s="144">
-        <f t="shared" ref="CF53:CL53" si="220">CF41/CF39</f>
+        <f t="shared" ref="CF53:CN53" si="218">CF41/CF39</f>
         <v>0.85848905925570995</v>
       </c>
       <c r="CG53" s="144">
-        <f t="shared" si="220"/>
+        <f t="shared" si="218"/>
         <v>0.8689292814541324</v>
       </c>
       <c r="CH53" s="144">
-        <f t="shared" si="220"/>
+        <f t="shared" si="218"/>
         <v>0.86899445121125996</v>
       </c>
       <c r="CI53" s="144">
-        <f t="shared" si="220"/>
+        <f t="shared" si="218"/>
         <v>0.86287783375314864</v>
       </c>
       <c r="CJ53" s="144">
-        <f t="shared" si="220"/>
-        <v>0.85</v>
+        <f t="shared" si="218"/>
+        <v>0</v>
       </c>
       <c r="CK53" s="144">
-        <f t="shared" si="220"/>
-        <v>0.84999999999999987</v>
+        <f t="shared" si="218"/>
+        <v>0</v>
       </c>
       <c r="CL53" s="144">
-        <f t="shared" si="220"/>
-        <v>0.85</v>
-      </c>
-      <c r="CM53" s="144"/>
-      <c r="CN53" s="144"/>
+        <f t="shared" si="218"/>
+        <v>0</v>
+      </c>
+      <c r="CM53" s="144">
+        <f t="shared" si="218"/>
+        <v>0.85434425003738601</v>
+      </c>
+      <c r="CN53" s="144">
+        <f t="shared" si="218"/>
+        <v>0.861230946218004</v>
+      </c>
       <c r="CO53" s="144"/>
       <c r="CP53" s="144"/>
       <c r="CQ53" s="144"/>
@@ -42057,35 +42137,35 @@
       <c r="CT53" s="144"/>
       <c r="CU53" s="157"/>
       <c r="CV53" s="157">
-        <f t="shared" ref="CV53:DC53" si="221">(CV39-CV40)/CV39</f>
+        <f t="shared" ref="CV53:DC53" si="219">(CV39-CV40)/CV39</f>
         <v>1</v>
       </c>
       <c r="CW53" s="157">
-        <f t="shared" si="221"/>
+        <f t="shared" si="219"/>
         <v>1</v>
       </c>
       <c r="CX53" s="157">
-        <f t="shared" si="221"/>
+        <f t="shared" si="219"/>
         <v>1</v>
       </c>
       <c r="CY53" s="157">
-        <f t="shared" si="221"/>
+        <f t="shared" si="219"/>
         <v>1</v>
       </c>
       <c r="CZ53" s="157">
-        <f t="shared" si="221"/>
+        <f t="shared" si="219"/>
         <v>1</v>
       </c>
       <c r="DA53" s="157">
-        <f t="shared" si="221"/>
+        <f t="shared" si="219"/>
         <v>1</v>
       </c>
       <c r="DB53" s="24">
-        <f t="shared" si="221"/>
+        <f t="shared" si="219"/>
         <v>1</v>
       </c>
       <c r="DC53" s="78">
-        <f t="shared" si="221"/>
+        <f t="shared" si="219"/>
         <v>1</v>
       </c>
       <c r="DD53" s="78">
@@ -42093,19 +42173,19 @@
         <v>0</v>
       </c>
       <c r="DE53" s="78">
-        <f t="shared" ref="DE53:DH53" si="222">(DE39-DE40)/DE39</f>
+        <f t="shared" ref="DE53:DH53" si="220">(DE39-DE40)/DE39</f>
         <v>1</v>
       </c>
       <c r="DF53" s="136">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>0.77637888696299129</v>
       </c>
       <c r="DG53" s="136">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>0.45674803683715687</v>
       </c>
       <c r="DH53" s="78">
-        <f t="shared" si="222"/>
+        <f t="shared" si="220"/>
         <v>0.74594373840739259</v>
       </c>
       <c r="DI53" s="78">
@@ -42117,51 +42197,51 @@
         <v>0.75615460812691804</v>
       </c>
       <c r="DK53" s="78">
-        <f t="shared" ref="DK53:DQ53" si="223">DK41/DK39</f>
+        <f t="shared" ref="DK53:DQ53" si="221">DK41/DK39</f>
         <v>0.87999999999999989</v>
       </c>
       <c r="DL53" s="78">
-        <f t="shared" si="223"/>
+        <f t="shared" si="221"/>
         <v>0.88</v>
       </c>
       <c r="DM53" s="78">
-        <f t="shared" si="223"/>
+        <f t="shared" si="221"/>
         <v>0.88</v>
       </c>
       <c r="DN53" s="169" t="e">
-        <f t="shared" si="223"/>
+        <f t="shared" si="221"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DO53" s="169" t="e">
-        <f t="shared" si="223"/>
+        <f t="shared" si="221"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DP53" s="169" t="e">
-        <f t="shared" si="223"/>
+        <f t="shared" si="221"/>
         <v>#DIV/0!</v>
       </c>
       <c r="DQ53" s="169">
-        <f t="shared" si="223"/>
+        <f t="shared" si="221"/>
         <v>0.88</v>
       </c>
       <c r="DR53" s="169">
-        <f t="shared" ref="DR53:DV53" si="224">DR41/DR39</f>
+        <f t="shared" ref="DR53:DV53" si="222">DR41/DR39</f>
         <v>0.88</v>
       </c>
       <c r="DS53" s="169">
-        <f t="shared" si="224"/>
+        <f t="shared" si="222"/>
         <v>0.88</v>
       </c>
       <c r="DT53" s="157">
-        <f t="shared" si="224"/>
+        <f t="shared" si="222"/>
         <v>0.88</v>
       </c>
       <c r="DU53" s="157">
-        <f t="shared" si="224"/>
+        <f t="shared" si="222"/>
         <v>0.88</v>
       </c>
       <c r="DV53" s="157">
-        <f t="shared" si="224"/>
+        <f t="shared" si="222"/>
         <v>0.88</v>
       </c>
       <c r="DW53" s="157"/>
@@ -42180,199 +42260,199 @@
         <v>471</v>
       </c>
       <c r="C54" s="78">
-        <f t="shared" ref="C54:AP54" si="225">C48/C47</f>
+        <f t="shared" ref="C54:AP54" si="223">C48/C47</f>
         <v>1.354160813620273E-2</v>
       </c>
       <c r="D54" s="78">
+        <f t="shared" si="223"/>
+        <v>-8.9486086175942538E-3</v>
+      </c>
+      <c r="E54" s="78">
+        <f t="shared" si="223"/>
+        <v>-7.2162378471994446E-3</v>
+      </c>
+      <c r="F54" s="78">
+        <f t="shared" si="223"/>
+        <v>-1.210076473234368E-2</v>
+      </c>
+      <c r="G54" s="78">
+        <f t="shared" si="223"/>
+        <v>-2.9383174266525272E-2</v>
+      </c>
+      <c r="H54" s="78">
+        <f t="shared" si="223"/>
+        <v>-5.2167291355558414E-2</v>
+      </c>
+      <c r="I54" s="78">
+        <f t="shared" si="223"/>
+        <v>-3.9544545314663795E-2</v>
+      </c>
+      <c r="J54" s="78">
+        <f t="shared" si="223"/>
+        <v>0.79639056679380826</v>
+      </c>
+      <c r="K54" s="78" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L54" s="78" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="M54" s="78" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N54" s="78" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="O54" s="78" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P54" s="78" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Q54" s="78" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="R54" s="78" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="S54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="X54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Y54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="Z54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AA54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AB54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AC54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AD54" s="86" t="e">
+        <f t="shared" si="223"/>
+        <v>#REF!</v>
+      </c>
+      <c r="AE54" s="106">
+        <f t="shared" si="223"/>
+        <v>-0.25929395570255515</v>
+      </c>
+      <c r="AF54" s="106">
+        <f t="shared" si="223"/>
+        <v>-0.23279568615340762</v>
+      </c>
+      <c r="AG54" s="106">
+        <f t="shared" si="223"/>
+        <v>-0.23044665424227964</v>
+      </c>
+      <c r="AH54" s="106">
+        <f t="shared" si="223"/>
+        <v>-0.24217749153256243</v>
+      </c>
+      <c r="AI54" s="106">
+        <f t="shared" si="223"/>
+        <v>0.59808503049867867</v>
+      </c>
+      <c r="AJ54" s="106">
+        <f t="shared" si="223"/>
+        <v>-0.28362672837982245</v>
+      </c>
+      <c r="AK54" s="106">
+        <f t="shared" si="223"/>
+        <v>-0.2664619929619278</v>
+      </c>
+      <c r="AL54" s="106">
+        <f t="shared" si="223"/>
+        <v>0.18964453160541223</v>
+      </c>
+      <c r="AM54" s="106">
+        <f t="shared" si="223"/>
+        <v>-0.2668484841360339</v>
+      </c>
+      <c r="AN54" s="106">
+        <f t="shared" si="223"/>
+        <v>0.24438498700881037</v>
+      </c>
+      <c r="AO54" s="86">
+        <f t="shared" si="223"/>
+        <v>-0.24336237826755505</v>
+      </c>
+      <c r="AP54" s="86">
+        <f t="shared" si="223"/>
+        <v>0.19183653032388392</v>
+      </c>
+      <c r="AQ54" s="86">
+        <f t="shared" ref="AQ54:AV54" si="224">AQ48/AQ47</f>
+        <v>0.34582727176222416</v>
+      </c>
+      <c r="AR54" s="86">
+        <f t="shared" si="224"/>
+        <v>0.27178761529250761</v>
+      </c>
+      <c r="AS54" s="86">
+        <f t="shared" si="224"/>
+        <v>0.28975477532549593</v>
+      </c>
+      <c r="AT54" s="86">
+        <f t="shared" si="224"/>
+        <v>0.25490271072315052</v>
+      </c>
+      <c r="AU54" s="86">
+        <f t="shared" si="224"/>
+        <v>0.23659891846815595</v>
+      </c>
+      <c r="AV54" s="86">
+        <f t="shared" si="224"/>
+        <v>0.26024129913654853</v>
+      </c>
+      <c r="AW54" s="86">
+        <f t="shared" ref="AW54:BE54" si="225">AW48/AW47</f>
+        <v>0.24690020781203609</v>
+      </c>
+      <c r="AX54" s="86">
         <f t="shared" si="225"/>
-        <v>-8.9486086175942538E-3</v>
-      </c>
-      <c r="E54" s="78">
+        <v>0.25557130248155174</v>
+      </c>
+      <c r="AY54" s="86">
         <f t="shared" si="225"/>
-        <v>-7.2162378471994446E-3</v>
-      </c>
-      <c r="F54" s="78">
-        <f t="shared" si="225"/>
-        <v>-1.210076473234368E-2</v>
-      </c>
-      <c r="G54" s="78">
-        <f t="shared" si="225"/>
-        <v>-2.9383174266525272E-2</v>
-      </c>
-      <c r="H54" s="78">
-        <f t="shared" si="225"/>
-        <v>-5.2167291355558414E-2</v>
-      </c>
-      <c r="I54" s="78">
-        <f t="shared" si="225"/>
-        <v>-3.9544545314663795E-2</v>
-      </c>
-      <c r="J54" s="78">
-        <f t="shared" si="225"/>
-        <v>0.79639056679380826</v>
-      </c>
-      <c r="K54" s="78" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L54" s="78" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M54" s="78" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N54" s="78" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O54" s="78" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P54" s="78" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q54" s="78" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R54" s="78" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="X54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Y54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Z54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AA54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AB54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AC54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AD54" s="86" t="e">
-        <f t="shared" si="225"/>
-        <v>#REF!</v>
-      </c>
-      <c r="AE54" s="106">
-        <f t="shared" si="225"/>
-        <v>-0.25929395570255515</v>
-      </c>
-      <c r="AF54" s="106">
-        <f t="shared" si="225"/>
-        <v>-0.23279568615340762</v>
-      </c>
-      <c r="AG54" s="106">
-        <f t="shared" si="225"/>
-        <v>-0.23044665424227964</v>
-      </c>
-      <c r="AH54" s="106">
-        <f t="shared" si="225"/>
-        <v>-0.24217749153256243</v>
-      </c>
-      <c r="AI54" s="106">
-        <f t="shared" si="225"/>
-        <v>0.59808503049867867</v>
-      </c>
-      <c r="AJ54" s="106">
-        <f t="shared" si="225"/>
-        <v>-0.28362672837982245</v>
-      </c>
-      <c r="AK54" s="106">
-        <f t="shared" si="225"/>
-        <v>-0.2664619929619278</v>
-      </c>
-      <c r="AL54" s="106">
-        <f t="shared" si="225"/>
-        <v>0.18964453160541223</v>
-      </c>
-      <c r="AM54" s="106">
-        <f t="shared" si="225"/>
-        <v>-0.2668484841360339</v>
-      </c>
-      <c r="AN54" s="106">
-        <f t="shared" si="225"/>
-        <v>0.24438498700881037</v>
-      </c>
-      <c r="AO54" s="86">
-        <f t="shared" si="225"/>
-        <v>-0.24336237826755505</v>
-      </c>
-      <c r="AP54" s="86">
-        <f t="shared" si="225"/>
-        <v>0.19183653032388392</v>
-      </c>
-      <c r="AQ54" s="86">
-        <f t="shared" ref="AQ54:AV54" si="226">AQ48/AQ47</f>
-        <v>0.34582727176222416</v>
-      </c>
-      <c r="AR54" s="86">
-        <f t="shared" si="226"/>
-        <v>0.27178761529250761</v>
-      </c>
-      <c r="AS54" s="86">
-        <f t="shared" si="226"/>
-        <v>0.28975477532549593</v>
-      </c>
-      <c r="AT54" s="86">
-        <f t="shared" si="226"/>
-        <v>0.25490271072315052</v>
-      </c>
-      <c r="AU54" s="86">
-        <f t="shared" si="226"/>
-        <v>0.23659891846815595</v>
-      </c>
-      <c r="AV54" s="86">
-        <f t="shared" si="226"/>
-        <v>0.26024129913654853</v>
-      </c>
-      <c r="AW54" s="86">
-        <f t="shared" ref="AW54:BE54" si="227">AW48/AW47</f>
-        <v>0.24690020781203609</v>
-      </c>
-      <c r="AX54" s="86">
-        <f t="shared" si="227"/>
-        <v>0.25557130248155174</v>
-      </c>
-      <c r="AY54" s="86">
-        <f t="shared" si="227"/>
         <v>0.2243470316473456</v>
       </c>
       <c r="AZ54" s="86">
@@ -42380,119 +42460,119 @@
         <v>0.14181925991196714</v>
       </c>
       <c r="BA54" s="86">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>0.25</v>
       </c>
       <c r="BB54" s="86">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>0.15913471835510817</v>
       </c>
       <c r="BC54" s="86">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>0.16380711576666065</v>
       </c>
       <c r="BD54" s="86">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>0.17306385869565216</v>
       </c>
       <c r="BE54" s="86">
-        <f t="shared" si="227"/>
+        <f t="shared" si="225"/>
         <v>0.15935672514619884</v>
       </c>
       <c r="BF54" s="144">
-        <f t="shared" ref="BF54" si="228">BF48/BF47</f>
+        <f t="shared" ref="BF54" si="226">BF48/BF47</f>
         <v>0.13291027674951525</v>
       </c>
       <c r="BG54" s="144">
-        <f t="shared" ref="BG54:BH54" si="229">BG48/BG47</f>
+        <f t="shared" ref="BG54" si="227">BG48/BG47</f>
         <v>0.17811607992388201</v>
       </c>
       <c r="BH54" s="144">
-        <f t="shared" ref="BH54:BI54" si="230">BH48/BH47</f>
+        <f t="shared" ref="BH54:BI54" si="228">BH48/BH47</f>
         <v>0.20504660150034099</v>
       </c>
       <c r="BI54" s="144">
+        <f t="shared" si="228"/>
+        <v>0.22240411599625817</v>
+      </c>
+      <c r="BJ54" s="144">
+        <f t="shared" ref="BJ54" si="229">BJ48/BJ47</f>
+        <v>0.18702118071203244</v>
+      </c>
+      <c r="BK54" s="144">
+        <f t="shared" ref="BK54:BM54" si="230">BK48/BK47</f>
+        <v>0.23365679264555669</v>
+      </c>
+      <c r="BL54" s="144">
         <f t="shared" si="230"/>
-        <v>0.22240411599625817</v>
-      </c>
-      <c r="BJ54" s="144">
-        <f t="shared" ref="BH53:BJ54" si="231">BJ48/BJ47</f>
-        <v>0.18702118071203244</v>
-      </c>
-      <c r="BK54" s="144">
-        <f t="shared" ref="BK54:BM54" si="232">BK48/BK47</f>
-        <v>0.23365679264555669</v>
-      </c>
-      <c r="BL54" s="144">
+        <v>0.25419198055893072</v>
+      </c>
+      <c r="BM54" s="144">
+        <f t="shared" si="230"/>
+        <v>0.26123672023971672</v>
+      </c>
+      <c r="BN54" s="144">
+        <f t="shared" ref="BN54:BO54" si="231">BN48/BN47</f>
+        <v>0</v>
+      </c>
+      <c r="BO54" s="144">
+        <f t="shared" si="231"/>
+        <v>0.19503546099290781</v>
+      </c>
+      <c r="BP54" s="144">
+        <f t="shared" ref="BP54:BQ54" si="232">BP48/BP47</f>
+        <v>9.3337959750173491E-2</v>
+      </c>
+      <c r="BQ54" s="144">
         <f t="shared" si="232"/>
-        <v>0.25419198055893072</v>
-      </c>
-      <c r="BM54" s="144">
-        <f t="shared" si="232"/>
-        <v>0.26123672023971672</v>
-      </c>
-      <c r="BN54" s="144">
-        <f t="shared" ref="BN54:BO54" si="233">BN48/BN47</f>
-        <v>0</v>
-      </c>
-      <c r="BO54" s="144">
+        <v>0.21283783783783783</v>
+      </c>
+      <c r="BR54" s="144">
+        <f t="shared" ref="BR54:BT54" si="233">BR48/BR47</f>
+        <v>0.24262029923170239</v>
+      </c>
+      <c r="BS54" s="144">
         <f t="shared" si="233"/>
-        <v>0.19503546099290781</v>
-      </c>
-      <c r="BP54" s="144">
-        <f t="shared" ref="BP54:BQ54" si="234">BP48/BP47</f>
-        <v>9.3337959750173491E-2</v>
-      </c>
-      <c r="BQ54" s="144">
-        <f t="shared" si="234"/>
-        <v>0.21283783783783783</v>
-      </c>
-      <c r="BR54" s="144">
-        <f t="shared" ref="BR54:BT54" si="235">BR48/BR47</f>
-        <v>0.24262029923170239</v>
-      </c>
-      <c r="BS54" s="144">
+        <v>0.16399843811011325</v>
+      </c>
+      <c r="BT54" s="144">
+        <f t="shared" si="233"/>
+        <v>0.17887276409044886</v>
+      </c>
+      <c r="BU54" s="144">
+        <f t="shared" ref="BU54" si="234">BU48/BU47</f>
+        <v>0.22385076615589608</v>
+      </c>
+      <c r="BV54" s="144">
+        <f t="shared" ref="BV54:BW54" si="235">BV48/BV47</f>
+        <v>0.2944936086529007</v>
+      </c>
+      <c r="BW54" s="144">
         <f t="shared" si="235"/>
-        <v>0.16399843811011325</v>
-      </c>
-      <c r="BT54" s="144">
-        <f t="shared" si="235"/>
-        <v>0.17887276409044886</v>
-      </c>
-      <c r="BU54" s="144">
-        <f t="shared" ref="BU54" si="236">BU48/BU47</f>
-        <v>0.22385076615589608</v>
-      </c>
-      <c r="BV54" s="144">
-        <f t="shared" ref="BV54:BW54" si="237">BV48/BV47</f>
-        <v>0.2944936086529007</v>
-      </c>
-      <c r="BW54" s="144">
-        <f t="shared" si="237"/>
         <v>0.19252548131370328</v>
       </c>
       <c r="BX54" s="144">
-        <f t="shared" ref="BX54:BZ54" si="238">BX48/BX47</f>
+        <f t="shared" ref="BX54:BZ54" si="236">BX48/BX47</f>
         <v>0.18603491271820449</v>
       </c>
       <c r="BY54" s="144">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>0.15894446149125499</v>
       </c>
       <c r="BZ54" s="144">
-        <f t="shared" si="238"/>
+        <f t="shared" si="236"/>
         <v>0.155915622133904</v>
       </c>
       <c r="CA54" s="144">
-        <f t="shared" ref="CA54" si="239">CA48/CA47</f>
+        <f t="shared" ref="CA54" si="237">CA48/CA47</f>
         <v>9.8601398601398604E-2</v>
       </c>
       <c r="CB54" s="144">
-        <f t="shared" ref="CB54" si="240">CB48/CB47</f>
+        <f t="shared" ref="CB54" si="238">CB48/CB47</f>
         <v>0.10756543564001435</v>
       </c>
       <c r="CC54" s="144">
-        <f t="shared" ref="CC54" si="241">CC48/CC47</f>
+        <f t="shared" ref="CC54" si="239">CC48/CC47</f>
         <v>0.1764425369575584</v>
       </c>
       <c r="CD54" s="144">
@@ -42500,39 +42580,45 @@
         <v>0.18806419257773319</v>
       </c>
       <c r="CE54" s="144">
-        <f t="shared" ref="CE54:CF54" si="242">CE48/CE47</f>
+        <f t="shared" ref="CE54:CF54" si="240">CE48/CE47</f>
         <v>0.15689981096408318</v>
       </c>
       <c r="CF54" s="144">
-        <f t="shared" si="242"/>
+        <f t="shared" si="240"/>
         <v>0.13246940244780417</v>
       </c>
       <c r="CG54" s="144">
-        <f t="shared" ref="CG54:CL54" si="243">CG48/CG47</f>
+        <f t="shared" ref="CG54:CN54" si="241">CG48/CG47</f>
         <v>0.19315109642535297</v>
       </c>
       <c r="CH54" s="144">
-        <f t="shared" si="243"/>
+        <f t="shared" si="241"/>
         <v>0.14917970240366271</v>
       </c>
       <c r="CI54" s="144">
-        <f t="shared" si="243"/>
+        <f t="shared" si="241"/>
         <v>0.125</v>
       </c>
       <c r="CJ54" s="144">
-        <f t="shared" si="243"/>
-        <v>0.2</v>
+        <f t="shared" si="241"/>
+        <v>0</v>
       </c>
       <c r="CK54" s="144">
-        <f t="shared" si="243"/>
-        <v>0.2</v>
+        <f t="shared" si="241"/>
+        <v>0</v>
       </c>
       <c r="CL54" s="144">
-        <f t="shared" si="243"/>
-        <v>0.2</v>
-      </c>
-      <c r="CM54" s="144"/>
-      <c r="CN54" s="144"/>
+        <f t="shared" si="241"/>
+        <v>0</v>
+      </c>
+      <c r="CM54" s="144">
+        <f t="shared" si="241"/>
+        <v>0.13228621291448517</v>
+      </c>
+      <c r="CN54" s="144">
+        <f t="shared" si="241"/>
+        <v>0.1411537222043184</v>
+      </c>
       <c r="CO54" s="144"/>
       <c r="CP54" s="144"/>
       <c r="CQ54" s="144"/>
@@ -42541,31 +42627,31 @@
       <c r="CT54" s="144"/>
       <c r="CU54" s="157"/>
       <c r="CV54" s="157">
-        <f t="shared" ref="CV54:DB54" si="244">CV48/CV47</f>
+        <f t="shared" ref="CV54:DB54" si="242">CV48/CV47</f>
         <v>-4.4316905801621963E-3</v>
       </c>
       <c r="CW54" s="157">
-        <f t="shared" si="244"/>
+        <f t="shared" si="242"/>
         <v>-5.9624450500268544E-3</v>
       </c>
       <c r="CX54" s="157">
-        <f t="shared" si="244"/>
+        <f t="shared" si="242"/>
         <v>-1.3825593564328295E-2</v>
       </c>
       <c r="CY54" s="157">
-        <f t="shared" si="244"/>
+        <f t="shared" si="242"/>
         <v>-4.2259793707191649E-3</v>
       </c>
       <c r="CZ54" s="157">
-        <f t="shared" si="244"/>
+        <f t="shared" si="242"/>
         <v>0.2253661344506096</v>
       </c>
       <c r="DA54" s="157">
-        <f t="shared" si="244"/>
+        <f t="shared" si="242"/>
         <v>-0.40223603691112159</v>
       </c>
       <c r="DB54" s="24">
-        <f t="shared" si="244"/>
+        <f t="shared" si="242"/>
         <v>-0.57021660467005109</v>
       </c>
       <c r="DC54" s="78">
@@ -42596,51 +42682,51 @@
         <v>0.25060927421627854</v>
       </c>
       <c r="DK54" s="78">
-        <f t="shared" ref="DK54:DQ54" si="245">DK48/DK47</f>
+        <f t="shared" ref="DK54:DQ54" si="243">DK48/DK47</f>
         <v>0.18305144623444769</v>
       </c>
       <c r="DL54" s="78">
-        <f t="shared" si="245"/>
+        <f t="shared" si="243"/>
         <v>0.245</v>
       </c>
       <c r="DM54" s="78">
-        <f t="shared" si="245"/>
+        <f t="shared" si="243"/>
         <v>0.245</v>
       </c>
       <c r="DN54" s="169">
-        <f t="shared" si="245"/>
+        <f t="shared" si="243"/>
         <v>0.245</v>
       </c>
       <c r="DO54" s="169">
-        <f t="shared" si="245"/>
+        <f t="shared" si="243"/>
         <v>0.24499999999999997</v>
       </c>
       <c r="DP54" s="169">
-        <f t="shared" si="245"/>
+        <f t="shared" si="243"/>
         <v>0.245</v>
       </c>
       <c r="DQ54" s="169">
-        <f t="shared" si="245"/>
+        <f t="shared" si="243"/>
         <v>0.245</v>
       </c>
       <c r="DR54" s="169">
-        <f t="shared" ref="DR54:DV54" si="246">DR48/DR47</f>
+        <f t="shared" ref="DR54:DV54" si="244">DR48/DR47</f>
         <v>0.245</v>
       </c>
       <c r="DS54" s="169">
-        <f t="shared" si="246"/>
+        <f t="shared" si="244"/>
         <v>0.245</v>
       </c>
       <c r="DT54" s="157">
-        <f t="shared" si="246"/>
+        <f t="shared" si="244"/>
         <v>0.24500000000000002</v>
       </c>
       <c r="DU54" s="157">
-        <f t="shared" si="246"/>
+        <f t="shared" si="244"/>
         <v>0.245</v>
       </c>
       <c r="DV54" s="157">
-        <f t="shared" si="246"/>
+        <f t="shared" si="244"/>
         <v>0.245</v>
       </c>
       <c r="DW54" s="157"/>
@@ -42835,223 +42921,223 @@
       <c r="AH56" s="149"/>
       <c r="AI56" s="149"/>
       <c r="AJ56" s="151">
-        <f t="shared" ref="AJ56" si="247">AJ39/AF39-1</f>
+        <f t="shared" ref="AJ56" si="245">AJ39/AF39-1</f>
         <v>0.17003196420494726</v>
       </c>
       <c r="AK56" s="151">
-        <f t="shared" ref="AK56" si="248">AK39/AG39-1</f>
+        <f t="shared" ref="AK56" si="246">AK39/AG39-1</f>
         <v>7.5557250543885512E-2</v>
       </c>
       <c r="AL56" s="151">
-        <f t="shared" ref="AL56" si="249">AL39/AH39-1</f>
+        <f t="shared" ref="AL56" si="247">AL39/AH39-1</f>
         <v>-0.96631228012843351</v>
       </c>
       <c r="AM56" s="151">
-        <f t="shared" ref="AM56" si="250">AM39/AI39-1</f>
+        <f t="shared" ref="AM56" si="248">AM39/AI39-1</f>
         <v>5.3876523724772492</v>
       </c>
       <c r="AN56" s="151">
-        <f t="shared" ref="AN56" si="251">AN39/AJ39-1</f>
+        <f t="shared" ref="AN56" si="249">AN39/AJ39-1</f>
         <v>0.10898006666583648</v>
       </c>
       <c r="AO56" s="151">
-        <f t="shared" ref="AO56" si="252">AO39/AK39-1</f>
+        <f t="shared" ref="AO56" si="250">AO39/AK39-1</f>
         <v>9.5330728254030994E-2</v>
       </c>
       <c r="AP56" s="151">
-        <f t="shared" ref="AP56" si="253">AP39/AL39-1</f>
+        <f t="shared" ref="AP56" si="251">AP39/AL39-1</f>
         <v>31.146240266475765</v>
       </c>
       <c r="AQ56" s="151">
-        <f t="shared" ref="AQ56" si="254">AQ39/AM39-1</f>
+        <f t="shared" ref="AQ56" si="252">AQ39/AM39-1</f>
         <v>0.19991283680452754</v>
       </c>
       <c r="AR56" s="151">
-        <f t="shared" ref="AR56" si="255">AR39/AN39-1</f>
+        <f t="shared" ref="AR56" si="253">AR39/AN39-1</f>
         <v>0.12536325835078932</v>
       </c>
       <c r="AS56" s="151">
-        <f t="shared" ref="AS56" si="256">AS39/AO39-1</f>
+        <f t="shared" ref="AS56" si="254">AS39/AO39-1</f>
         <v>0.14343464329469424</v>
       </c>
       <c r="AT56" s="151">
-        <f t="shared" ref="AT56" si="257">AT39/AP39-1</f>
+        <f t="shared" ref="AT56" si="255">AT39/AP39-1</f>
         <v>0.17629107362462282</v>
       </c>
       <c r="AU56" s="151">
-        <f t="shared" ref="AU56" si="258">AU39/AQ39-1</f>
+        <f t="shared" ref="AU56" si="256">AU39/AQ39-1</f>
         <v>0.10917483807962447</v>
       </c>
       <c r="AV56" s="151">
-        <f t="shared" ref="AV56" si="259">AV39/AR39-1</f>
+        <f t="shared" ref="AV56" si="257">AV39/AR39-1</f>
         <v>0.15059459018969878</v>
       </c>
       <c r="AW56" s="151">
-        <f t="shared" ref="AW56" si="260">AW39/AS39-1</f>
+        <f t="shared" ref="AW56" si="258">AW39/AS39-1</f>
         <v>0.14680476403786868</v>
       </c>
       <c r="AX56" s="151">
-        <f t="shared" ref="AX56" si="261">AX39/AT39-1</f>
+        <f t="shared" ref="AX56" si="259">AX39/AT39-1</f>
         <v>0.20536416971083171</v>
       </c>
       <c r="AY56" s="151">
-        <f t="shared" ref="AY56" si="262">AY39/AU39-1</f>
+        <f t="shared" ref="AY56" si="260">AY39/AU39-1</f>
         <v>0.97459586393773256</v>
       </c>
       <c r="AZ56" s="151">
-        <f t="shared" ref="AZ56" si="263">AZ39/AV39-1</f>
+        <f t="shared" ref="AZ56" si="261">AZ39/AV39-1</f>
         <v>1.3612481634346243</v>
       </c>
       <c r="BA56" s="151">
-        <f t="shared" ref="BA56" si="264">BA39/AW39-1</f>
+        <f t="shared" ref="BA56" si="262">BA39/AW39-1</f>
         <v>1.1711687334453775</v>
       </c>
       <c r="BB56" s="151">
-        <f t="shared" ref="BB56" si="265">BB39/AX39-1</f>
+        <f t="shared" ref="BB56" si="263">BB39/AX39-1</f>
         <v>1.3443615124689647</v>
       </c>
       <c r="BC56" s="151">
-        <f t="shared" ref="BC56" si="266">BC39/AY39-1</f>
+        <f t="shared" ref="BC56" si="264">BC39/AY39-1</f>
         <v>0.51911719166962</v>
       </c>
       <c r="BD56" s="151">
-        <f t="shared" ref="BD56" si="267">BD39/AZ39-1</f>
+        <f t="shared" ref="BD56" si="265">BD39/AZ39-1</f>
         <v>0.26161067465870391</v>
       </c>
       <c r="BE56" s="151">
-        <f t="shared" ref="BE56" si="268">BE39/BA39-1</f>
+        <f t="shared" ref="BE56" si="266">BE39/BA39-1</f>
         <v>0.37288977159880843</v>
       </c>
       <c r="BF56" s="151">
-        <f t="shared" ref="BF56" si="269">BF39/BB39-1</f>
+        <f t="shared" ref="BF56" si="267">BF39/BB39-1</f>
         <v>0.16297511621547711</v>
       </c>
       <c r="BG56" s="151">
-        <f t="shared" ref="BG56" si="270">BG39/BC39-1</f>
+        <f t="shared" ref="BG56" si="268">BG39/BC39-1</f>
         <v>2.6336581511719803E-2</v>
       </c>
       <c r="BH56" s="151">
-        <f t="shared" ref="BH56" si="271">BH39/BD39-1</f>
+        <f t="shared" ref="BH56" si="269">BH39/BD39-1</f>
         <v>-5.6768558951965087E-2</v>
       </c>
       <c r="BI56" s="151">
-        <f t="shared" ref="BI56" si="272">BI39/BE39-1</f>
+        <f t="shared" ref="BI56" si="270">BI39/BE39-1</f>
         <v>-9.5840867992766698E-2</v>
       </c>
       <c r="BJ56" s="151">
-        <f t="shared" ref="BJ56" si="273">BJ39/BF39-1</f>
+        <f t="shared" ref="BJ56" si="271">BJ39/BF39-1</f>
         <v>-0.13943098988948976</v>
       </c>
       <c r="BK56" s="151">
-        <f t="shared" ref="BK56" si="274">BK39/BG39-1</f>
+        <f t="shared" ref="BK56" si="272">BK39/BG39-1</f>
         <v>-0.16538362843212728</v>
       </c>
       <c r="BL56" s="151">
-        <f t="shared" ref="BL56" si="275">BL39/BH39-1</f>
+        <f t="shared" ref="BL56" si="273">BL39/BH39-1</f>
         <v>-8.1661522633744821E-2</v>
       </c>
       <c r="BM56" s="151">
-        <f t="shared" ref="BM56" si="276">BM39/BI39-1</f>
+        <f t="shared" ref="BM56" si="274">BM39/BI39-1</f>
         <v>-0.13173333333333337</v>
       </c>
       <c r="BN56" s="151">
-        <f t="shared" ref="BN56" si="277">BN39/BJ39-1</f>
+        <f t="shared" ref="BN56" si="275">BN39/BJ39-1</f>
         <v>-0.18729508196721312</v>
       </c>
       <c r="BO56" s="151">
-        <f t="shared" ref="BO56" si="278">BO39/BK39-1</f>
+        <f t="shared" ref="BO56" si="276">BO39/BK39-1</f>
         <v>-0.21783243658724061</v>
       </c>
       <c r="BP56" s="151">
-        <f t="shared" ref="BP56" si="279">BP39/BL39-1</f>
+        <f t="shared" ref="BP56" si="277">BP39/BL39-1</f>
         <v>-0.20907435933342666</v>
       </c>
       <c r="BQ56" s="151">
-        <f t="shared" ref="BQ56" si="280">BQ39/BM39-1</f>
+        <f t="shared" ref="BQ56" si="278">BQ39/BM39-1</f>
         <v>-0.14066339066339062</v>
       </c>
       <c r="BR56" s="151">
-        <f t="shared" ref="BR56" si="281">BR39/BN39-1</f>
+        <f t="shared" ref="BR56" si="279">BR39/BN39-1</f>
         <v>-2.5886703647671871E-2</v>
       </c>
       <c r="BS56" s="151">
-        <f t="shared" ref="BS56:BT56" si="282">BS39/BO39-1</f>
+        <f t="shared" ref="BS56:BT56" si="280">BS39/BO39-1</f>
         <v>3.7932389937106903E-2</v>
       </c>
       <c r="BT56" s="151">
-        <f t="shared" si="282"/>
+        <f t="shared" si="280"/>
         <v>6.5509915014163589E-3</v>
       </c>
       <c r="BU56" s="151">
-        <f t="shared" ref="BU56" si="283">BU39/BQ39-1</f>
+        <f t="shared" ref="BU56" si="281">BU39/BQ39-1</f>
         <v>1.4295925661187425E-3</v>
       </c>
       <c r="BV56" s="151">
-        <f t="shared" ref="BV56" si="284">BV39/BR39-1</f>
+        <f t="shared" ref="BV56" si="282">BV39/BR39-1</f>
         <v>1.4495254529766965E-2</v>
       </c>
       <c r="BW56" s="151">
-        <f t="shared" ref="BW56" si="285">BW39/BS39-1</f>
+        <f t="shared" ref="BW56" si="283">BW39/BS39-1</f>
         <v>5.0558606324559774E-2</v>
       </c>
       <c r="BX56" s="151">
-        <f t="shared" ref="BX56" si="286">BX39/BT39-1</f>
+        <f t="shared" ref="BX56" si="284">BX39/BT39-1</f>
         <v>-9.5338610378188249E-2</v>
       </c>
       <c r="BY56" s="151">
-        <f t="shared" ref="BY56:CE56" si="287">BY39/BU39-1</f>
+        <f t="shared" ref="BY56:CE56" si="285">BY39/BU39-1</f>
         <v>0.17362598144182728</v>
       </c>
       <c r="BZ56" s="151">
-        <f t="shared" si="287"/>
+        <f t="shared" si="285"/>
         <v>0.26228950501786019</v>
       </c>
       <c r="CA56" s="151">
-        <f t="shared" si="287"/>
+        <f t="shared" si="285"/>
         <v>0.15771449170872387</v>
       </c>
       <c r="CB56" s="151">
-        <f t="shared" si="287"/>
+        <f t="shared" si="285"/>
         <v>0.20882753256853981</v>
       </c>
       <c r="CC56" s="151">
-        <f t="shared" si="287"/>
+        <f t="shared" si="285"/>
         <v>0.12832598449140953</v>
       </c>
       <c r="CD56" s="151">
-        <f t="shared" si="287"/>
+        <f t="shared" si="285"/>
         <v>-2.39859857162108E-2</v>
       </c>
       <c r="CE56" s="151">
-        <f t="shared" si="287"/>
+        <f t="shared" si="285"/>
         <v>2.584462089366335E-2</v>
       </c>
       <c r="CF56" s="151">
-        <f t="shared" ref="CF56" si="288">CF39/CB39-1</f>
+        <f t="shared" ref="CF56" si="286">CF39/CB39-1</f>
         <v>7.0773685057101687E-3</v>
       </c>
       <c r="CG56" s="151">
-        <f t="shared" ref="CG56" si="289">CG39/CC39-1</f>
+        <f t="shared" ref="CG56" si="287">CG39/CC39-1</f>
         <v>-5.1071284193504929E-2</v>
       </c>
       <c r="CH56" s="151">
-        <f t="shared" ref="CH56" si="290">CH39/CD39-1</f>
+        <f t="shared" ref="CH56" si="288">CH39/CD39-1</f>
         <v>2.015739334529898E-2</v>
       </c>
       <c r="CI56" s="151">
-        <f t="shared" ref="CI56" si="291">CI39/CE39-1</f>
+        <f t="shared" ref="CI56" si="289">CI39/CE39-1</f>
         <v>-3.5969039307937489E-2</v>
       </c>
       <c r="CJ56" s="151">
-        <f t="shared" ref="CJ56" si="292">CJ39/CF39-1</f>
+        <f t="shared" ref="CJ56" si="290">CJ39/CF39-1</f>
         <v>4.8554544002555433E-2</v>
       </c>
       <c r="CK56" s="151">
-        <f t="shared" ref="CK56" si="293">CK39/CG39-1</f>
+        <f t="shared" ref="CK56" si="291">CK39/CG39-1</f>
         <v>-6.5322351604657491E-3</v>
       </c>
       <c r="CL56" s="151">
-        <f t="shared" ref="CL56" si="294">CL39/CH39-1</f>
+        <f t="shared" ref="CL56" si="292">CL39/CH39-1</f>
         <v>-4.3036946812829879E-2</v>
       </c>
       <c r="CM56" s="151"/>
@@ -43320,55 +43406,55 @@
       <c r="BP58" s="146"/>
       <c r="BQ58" s="146"/>
       <c r="BR58" s="146">
-        <f t="shared" ref="BR58:BT58" si="295">BR3/BN3-1</f>
+        <f t="shared" ref="BR58:BT58" si="293">BR3/BN3-1</f>
         <v>0.12764205325281353</v>
       </c>
       <c r="BS58" s="146">
-        <f t="shared" si="295"/>
+        <f t="shared" si="293"/>
         <v>0.13119802894979982</v>
       </c>
       <c r="BT58" s="146">
-        <f t="shared" si="295"/>
+        <f t="shared" si="293"/>
         <v>0.10005364806866957</v>
       </c>
       <c r="BU58" s="146">
-        <f t="shared" ref="BU58" si="296">BU3/BQ3-1</f>
+        <f t="shared" ref="BU58" si="294">BU3/BQ3-1</f>
         <v>0.12450436161776368</v>
       </c>
       <c r="BV58" s="146">
-        <f t="shared" ref="BV58" si="297">BV3/BR3-1</f>
+        <f t="shared" ref="BV58" si="295">BV3/BR3-1</f>
         <v>0.12122687439143132</v>
       </c>
       <c r="BW58" s="146">
-        <f t="shared" ref="BW58" si="298">BW3/BS3-1</f>
+        <f t="shared" ref="BW58" si="296">BW3/BS3-1</f>
         <v>0.13422270623468546</v>
       </c>
       <c r="BX58" s="146">
-        <f t="shared" ref="BX58" si="299">BX3/BT3-1</f>
+        <f t="shared" ref="BX58" si="297">BX3/BT3-1</f>
         <v>-1.560594976834917E-2</v>
       </c>
       <c r="BY58" s="146">
-        <f t="shared" ref="BY58:CD58" si="300">BY3/BU3-1</f>
+        <f t="shared" ref="BY58:CD58" si="298">BY3/BU3-1</f>
         <v>7.3342736248237062E-2</v>
       </c>
       <c r="BZ58" s="146">
-        <f t="shared" si="300"/>
+        <f t="shared" si="298"/>
         <v>-6.7303517151541481E-2</v>
       </c>
       <c r="CA58" s="146">
-        <f t="shared" si="300"/>
+        <f t="shared" si="298"/>
         <v>-0.12794047047527601</v>
       </c>
       <c r="CB58" s="146">
-        <f t="shared" si="300"/>
+        <f t="shared" si="298"/>
         <v>-2.0312112955164774E-2</v>
       </c>
       <c r="CC58" s="146">
-        <f t="shared" si="300"/>
+        <f t="shared" si="298"/>
         <v>-7.8405606657906302E-2</v>
       </c>
       <c r="CD58" s="146">
-        <f t="shared" si="300"/>
+        <f t="shared" si="298"/>
         <v>5.2607076350093207E-2</v>
       </c>
       <c r="CE58" s="146">
@@ -43376,31 +43462,31 @@
         <v>2.2570878062207589E-2</v>
       </c>
       <c r="CF58" s="146">
-        <f t="shared" ref="CF58" si="301">CF3/CB3-1</f>
+        <f t="shared" ref="CF58" si="299">CF3/CB3-1</f>
         <v>7.0290771175727018E-2</v>
       </c>
       <c r="CG58" s="146">
-        <f t="shared" ref="CG58" si="302">CG3/CC3-1</f>
+        <f t="shared" ref="CG58" si="300">CG3/CC3-1</f>
         <v>6.8678707224334667E-2</v>
       </c>
       <c r="CH58" s="146">
-        <f t="shared" ref="CH58" si="303">CH3/CD3-1</f>
+        <f t="shared" ref="CH58" si="301">CH3/CD3-1</f>
         <v>5.7717823971694004E-2</v>
       </c>
       <c r="CI58" s="146">
-        <f t="shared" ref="CI58" si="304">CI3/CE3-1</f>
+        <f t="shared" ref="CI58" si="302">CI3/CE3-1</f>
         <v>0.13055181695827733</v>
       </c>
       <c r="CJ58" s="146">
-        <f t="shared" ref="CJ58" si="305">CJ3/CF3-1</f>
+        <f t="shared" ref="CJ58" si="303">CJ3/CF3-1</f>
         <v>9.284195605953216E-2</v>
       </c>
       <c r="CK58" s="146">
-        <f t="shared" ref="CK58" si="306">CK3/CG3-1</f>
+        <f t="shared" ref="CK58" si="304">CK3/CG3-1</f>
         <v>3.780297976428737E-2</v>
       </c>
       <c r="CL58" s="146">
-        <f t="shared" ref="CL58" si="307">CL3/CH3-1</f>
+        <f t="shared" ref="CL58" si="305">CL3/CH3-1</f>
         <v>-1.8816642274723017E-2</v>
       </c>
       <c r="CM58" s="146"/>
@@ -43527,55 +43613,55 @@
       <c r="BQ59" s="84"/>
       <c r="BR59" s="146"/>
       <c r="BS59" s="146">
-        <f t="shared" ref="BS59:BT59" si="308">+BS9/BO9-1</f>
+        <f t="shared" ref="BS59:BT59" si="306">+BS9/BO9-1</f>
         <v>21.657142857142858</v>
       </c>
       <c r="BT59" s="146">
-        <f t="shared" si="308"/>
+        <f t="shared" si="306"/>
         <v>5.0324324324324321</v>
       </c>
       <c r="BU59" s="146">
-        <f t="shared" ref="BU59" si="309">+BU9/BQ9-1</f>
+        <f t="shared" ref="BU59" si="307">+BU9/BQ9-1</f>
         <v>2.2616580310880829</v>
       </c>
       <c r="BV59" s="146">
-        <f t="shared" ref="BV59" si="310">+BV9/BR9-1</f>
+        <f t="shared" ref="BV59" si="308">+BV9/BR9-1</f>
         <v>1.7162629757785468</v>
       </c>
       <c r="BW59" s="146">
-        <f t="shared" ref="BW59" si="311">+BW9/BS9-1</f>
+        <f t="shared" ref="BW59" si="309">+BW9/BS9-1</f>
         <v>1.1349306431273645</v>
       </c>
       <c r="BX59" s="146">
-        <f t="shared" ref="BX59" si="312">+BX9/BT9-1</f>
+        <f t="shared" ref="BX59" si="310">+BX9/BT9-1</f>
         <v>0.43727598566308234</v>
       </c>
       <c r="BY59" s="146">
-        <f t="shared" ref="BY59:CE59" si="313">+BY9/BU9-1</f>
+        <f t="shared" ref="BY59:CE59" si="311">+BY9/BU9-1</f>
         <v>0.50198570293884037</v>
       </c>
       <c r="BZ59" s="146">
-        <f t="shared" si="313"/>
+        <f t="shared" si="311"/>
         <v>0.31910828025477711</v>
       </c>
       <c r="CA59" s="146">
-        <f t="shared" si="313"/>
+        <f t="shared" si="311"/>
         <v>7.7377436503248687E-2</v>
       </c>
       <c r="CB59" s="146">
-        <f t="shared" si="313"/>
+        <f t="shared" si="311"/>
         <v>0.24314214463840389</v>
       </c>
       <c r="CC59" s="146">
-        <f t="shared" si="313"/>
+        <f t="shared" si="311"/>
         <v>0.20359598096245368</v>
       </c>
       <c r="CD59" s="146">
-        <f t="shared" si="313"/>
+        <f t="shared" si="311"/>
         <v>0.2216320618058909</v>
       </c>
       <c r="CE59" s="146">
-        <f t="shared" si="313"/>
+        <f t="shared" si="311"/>
         <v>0.17927631578947367</v>
       </c>
       <c r="CF59" s="146">
@@ -43587,23 +43673,23 @@
         <v>0.21528998242530761</v>
       </c>
       <c r="CH59" s="146">
-        <f t="shared" ref="CH59:CL59" si="314">+CH9/CD9-1</f>
+        <f t="shared" ref="CH59:CL59" si="312">+CH9/CD9-1</f>
         <v>0.15335968379446641</v>
       </c>
       <c r="CI59" s="146">
-        <f t="shared" si="314"/>
+        <f t="shared" si="312"/>
         <v>0.24453742445374238</v>
       </c>
       <c r="CJ59" s="146">
-        <f t="shared" si="314"/>
+        <f t="shared" si="312"/>
         <v>0.16549295774647876</v>
       </c>
       <c r="CK59" s="146">
-        <f t="shared" si="314"/>
+        <f t="shared" si="312"/>
         <v>0.11532899493853943</v>
       </c>
       <c r="CL59" s="146">
-        <f t="shared" si="314"/>
+        <f t="shared" si="312"/>
         <v>6.5455791638108218E-2</v>
       </c>
       <c r="CM59" s="146"/>
@@ -43937,47 +44023,47 @@
         <v>7085.8140000000021</v>
       </c>
       <c r="DL61" s="83">
-        <f t="shared" ref="DL61:DV61" si="315">+DK61+DL49</f>
+        <f t="shared" ref="DL61:DV61" si="313">+DK61+DL49</f>
         <v>23496.561398850004</v>
       </c>
       <c r="DM61" s="83">
-        <f t="shared" si="315"/>
+        <f t="shared" si="313"/>
         <v>41023.832385088666</v>
       </c>
       <c r="DN61" s="142">
-        <f t="shared" si="315"/>
+        <f t="shared" si="313"/>
         <v>39329.623077342374</v>
       </c>
       <c r="DO61" s="142">
-        <f t="shared" si="315"/>
+        <f t="shared" si="313"/>
         <v>37629.018129459342</v>
       </c>
       <c r="DP61" s="142">
-        <f t="shared" si="315"/>
+        <f t="shared" si="313"/>
         <v>35921.993397898048</v>
       </c>
       <c r="DQ61" s="142">
-        <f t="shared" si="315"/>
+        <f t="shared" si="313"/>
         <v>40899.697047975111</v>
       </c>
       <c r="DR61" s="142">
-        <f t="shared" si="315"/>
+        <f t="shared" si="313"/>
         <v>47179.147929331215</v>
       </c>
       <c r="DS61" s="142">
-        <f t="shared" si="315"/>
+        <f t="shared" si="313"/>
         <v>52561.445337764439</v>
       </c>
       <c r="DT61" s="142">
-        <f t="shared" si="315"/>
+        <f t="shared" si="313"/>
         <v>57029.250118914497</v>
       </c>
       <c r="DU61" s="142">
-        <f t="shared" si="315"/>
+        <f t="shared" si="313"/>
         <v>56121.982663113398</v>
       </c>
       <c r="DV61" s="142">
-        <f t="shared" si="315"/>
+        <f t="shared" si="313"/>
         <v>55138.638132666652</v>
       </c>
       <c r="DW61" s="158"/>
@@ -45862,11 +45948,11 @@
         <v>0</v>
       </c>
       <c r="AN74" s="83">
-        <f t="shared" ref="AN74:AO74" si="316">SUM(AN62:AN73)</f>
+        <f t="shared" ref="AN74:AO74" si="314">SUM(AN62:AN73)</f>
         <v>0</v>
       </c>
       <c r="AO74" s="83">
-        <f t="shared" si="316"/>
+        <f t="shared" si="314"/>
         <v>12640</v>
       </c>
       <c r="AP74" s="83"/>
@@ -45931,23 +46017,23 @@
         <v>61876</v>
       </c>
       <c r="CJ74" s="142">
-        <f t="shared" ref="CJ74:CN74" si="317">SUM(CJ62:CJ73)</f>
+        <f t="shared" ref="CJ74:CN74" si="315">SUM(CJ62:CJ73)</f>
         <v>0</v>
       </c>
       <c r="CK74" s="142">
-        <f t="shared" si="317"/>
+        <f t="shared" si="315"/>
         <v>0</v>
       </c>
       <c r="CL74" s="142">
-        <f t="shared" si="317"/>
+        <f t="shared" si="315"/>
         <v>0</v>
       </c>
       <c r="CM74" s="142">
-        <f t="shared" si="317"/>
+        <f t="shared" si="315"/>
         <v>0</v>
       </c>
       <c r="CN74" s="142">
-        <f t="shared" si="317"/>
+        <f t="shared" si="315"/>
         <v>53579</v>
       </c>
       <c r="CO74" s="142"/>
@@ -47521,27 +47607,27 @@
         <v>0</v>
       </c>
       <c r="AJ85" s="83">
-        <f t="shared" ref="AJ85:AO85" si="318">SUM(AJ76:AJ84)</f>
+        <f t="shared" ref="AJ85:AO85" si="316">SUM(AJ76:AJ84)</f>
         <v>0</v>
       </c>
       <c r="AK85" s="83">
-        <f t="shared" si="318"/>
+        <f t="shared" si="316"/>
         <v>0</v>
       </c>
       <c r="AL85" s="83">
-        <f t="shared" si="318"/>
+        <f t="shared" si="316"/>
         <v>0</v>
       </c>
       <c r="AM85" s="83">
-        <f t="shared" si="318"/>
+        <f t="shared" si="316"/>
         <v>0</v>
       </c>
       <c r="AN85" s="83">
-        <f t="shared" si="318"/>
+        <f t="shared" si="316"/>
         <v>0</v>
       </c>
       <c r="AO85" s="83">
-        <f t="shared" si="318"/>
+        <f t="shared" si="316"/>
         <v>6405.2</v>
       </c>
       <c r="AP85" s="83"/>
@@ -48243,27 +48329,27 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="82">
-        <f t="shared" ref="AJ90:AO90" si="319">SUM(AJ86:AJ89)</f>
+        <f t="shared" ref="AJ90:AO90" si="317">SUM(AJ86:AJ89)</f>
         <v>0</v>
       </c>
       <c r="AK90" s="82">
-        <f t="shared" si="319"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AL90" s="82">
-        <f t="shared" si="319"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AM90" s="82">
-        <f t="shared" si="319"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AN90" s="82">
-        <f t="shared" si="319"/>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="AO90" s="82">
-        <f t="shared" si="319"/>
+        <f t="shared" si="317"/>
         <v>6117.4000000000005</v>
       </c>
       <c r="AP90" s="82"/>
@@ -48412,27 +48498,27 @@
         <v>0</v>
       </c>
       <c r="AJ91" s="82">
-        <f t="shared" ref="AJ91:AO91" si="320">AJ90+AJ85</f>
+        <f t="shared" ref="AJ91:AO91" si="318">AJ90+AJ85</f>
         <v>0</v>
       </c>
       <c r="AK91" s="82">
-        <f t="shared" si="320"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AL91" s="82">
-        <f t="shared" si="320"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AM91" s="82">
-        <f t="shared" si="320"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AN91" s="82">
-        <f t="shared" si="320"/>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="AO91" s="82">
-        <f t="shared" si="320"/>
+        <f t="shared" si="318"/>
         <v>12522.6</v>
       </c>
       <c r="AP91" s="82"/>
@@ -49677,16 +49763,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" scale="90" showRuler="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" scale="90" showRuler="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" scale="90" showRuler="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" scale="90" showRuler="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
       <headerFooter alignWithMargins="0"/>
@@ -49751,11 +49837,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
+    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{4186580B-64C2-4B0C-BB3D-D214EFB8989E}" showRuler="0">
+    <customSheetView guid="{242E8787-30C2-4AAB-B25A-4ABD2B9A9CA6}" showRuler="0">
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
@@ -50182,21 +50268,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -50310,10 +50381,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9771E67-9052-4CCB-BDDB-16EF0A4B87FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970FACA6-4FE8-43C1-9C92-1CB4DFD9972C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -50334,17 +50428,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970FACA6-4FE8-43C1-9C92-1CB4DFD9972C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9771E67-9052-4CCB-BDDB-16EF0A4B87FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>